--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5B0C41-A441-46A0-B083-9A1D206C7499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD959166-CDE3-483D-A630-22A42A86E8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="433">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1590,6 +1590,17 @@
   </si>
   <si>
     <t>2024.12.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3083. 字符串及其反转中是否存在同一子字符串</t>
+  </si>
+  <si>
+    <t>2024.12.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean[][] vis = new boolean[26][26];</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2049,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4933,6 +4944,23 @@
       </c>
       <c r="G156" s="14" t="s">
         <v>356</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="F157" s="6">
+        <v>1</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -5177,10 +5205,11 @@
     <hyperlink ref="A41" r:id="rId237" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
     <hyperlink ref="A96" r:id="rId238" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
     <hyperlink ref="E96" r:id="rId239" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
+    <hyperlink ref="A157" r:id="rId240" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId240"/>
+    <tablePart r:id="rId241"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD959166-CDE3-483D-A630-22A42A86E8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFAC1D4-3ED4-4F95-B1FF-3B68D5F63E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="435">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1601,6 +1601,13 @@
   </si>
   <si>
     <t>boolean[][] vis = new boolean[26][26];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3159. 查询数组中元素的出现位置</t>
+  </si>
+  <si>
+    <t>2024.12.27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2060,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G157"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4961,6 +4968,20 @@
       </c>
       <c r="G157" s="14" t="s">
         <v>432</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="F158" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5206,10 +5227,11 @@
     <hyperlink ref="A96" r:id="rId238" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
     <hyperlink ref="E96" r:id="rId239" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
     <hyperlink ref="A157" r:id="rId240" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
+    <hyperlink ref="A158" r:id="rId241" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId241"/>
+    <tablePart r:id="rId242"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFAC1D4-3ED4-4F95-B1FF-3B68D5F63E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F0C2E8-7345-48D6-BF0F-F82DF49315B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="438">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1608,6 +1608,17 @@
   </si>
   <si>
     <t>2024.12.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1366. 通过投票对团队排名</t>
+  </si>
+  <si>
+    <t>2024.12.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java链式编程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2067,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4982,6 +4993,23 @@
       </c>
       <c r="F158" s="6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F159" s="6">
+        <v>1</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -5228,10 +5256,11 @@
     <hyperlink ref="E96" r:id="rId239" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
     <hyperlink ref="A157" r:id="rId240" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
     <hyperlink ref="A158" r:id="rId241" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
+    <hyperlink ref="A159" r:id="rId242" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId242"/>
+    <tablePart r:id="rId243"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F0C2E8-7345-48D6-BF0F-F82DF49315B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7941AB72-F71E-4F91-B56F-51EF0CB900E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="440">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1619,6 +1619,14 @@
   </si>
   <si>
     <t>Java链式编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团、归并排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2080,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2633,16 +2641,16 @@
         <v>200</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>201</v>
+        <v>439</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="F30" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>386</v>
@@ -2868,14 +2876,17 @@
       <c r="A43" s="10" t="s">
         <v>197</v>
       </c>
+      <c r="B43" s="6" t="s">
+        <v>438</v>
+      </c>
       <c r="C43" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="F43" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>340</v>

--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7941AB72-F71E-4F91-B56F-51EF0CB900E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773517B6-F25F-4243-8E89-461987DAD304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="442">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1627,6 +1627,13 @@
   </si>
   <si>
     <t>美团、归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1367. 二叉树中的链表</t>
+  </si>
+  <si>
+    <t>2024.12.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2086,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4985,9 +4992,6 @@
       <c r="D157" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="F157" s="6">
-        <v>1</v>
-      </c>
       <c r="G157" s="14" t="s">
         <v>432</v>
       </c>
@@ -5002,9 +5006,6 @@
       <c r="D158" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="F158" s="6">
-        <v>1</v>
-      </c>
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
@@ -5016,11 +5017,19 @@
       <c r="D159" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F159" s="6">
-        <v>1</v>
-      </c>
       <c r="G159" s="14" t="s">
         <v>437</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -5268,10 +5277,11 @@
     <hyperlink ref="A157" r:id="rId240" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
     <hyperlink ref="A158" r:id="rId241" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
     <hyperlink ref="A159" r:id="rId242" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
+    <hyperlink ref="A160" r:id="rId243" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId243"/>
+    <tablePart r:id="rId244"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773517B6-F25F-4243-8E89-461987DAD304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB3A0E2-6D45-42EC-9DC4-B4450AAD2169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="445">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1634,6 +1634,17 @@
   </si>
   <si>
     <t>2024.12.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3280. 将日期转换为二进制表示</t>
+  </si>
+  <si>
+    <t>2025.01.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date.split("-")、Integer.parseInt、Integer.toBinaryString、String.join("-", strArr)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2093,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A147" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+      <selection activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5021,15 +5032,35 @@
         <v>437</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
         <v>440</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>389</v>
       </c>
+      <c r="C160" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D160" s="8" t="s">
         <v>441</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -5278,10 +5309,11 @@
     <hyperlink ref="A158" r:id="rId241" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
     <hyperlink ref="A159" r:id="rId242" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
     <hyperlink ref="A160" r:id="rId243" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
+    <hyperlink ref="A161" r:id="rId244" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId244"/>
+    <tablePart r:id="rId245"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB3A0E2-6D45-42EC-9DC4-B4450AAD2169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9E5EC6-2B0A-401D-BAA5-4C619941D156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="449">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1645,6 +1645,21 @@
   </si>
   <si>
     <t>date.split("-")、Integer.parseInt、Integer.toBinaryString、String.join("-", strArr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>729. 我的日程安排表 I</t>
+  </si>
+  <si>
+    <t>线段树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lfool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木子喵neko</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1712,7 +1727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1756,6 +1771,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1825,8 +1843,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048575" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048575" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G157">
-    <sortCondition ref="A1:A1048575"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G161">
+    <sortCondition descending="1" ref="C1:C1048575"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
@@ -2104,10 +2122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G161" sqref="G161"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2147,272 +2165,305 @@
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>373</v>
+        <v>443</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>80</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>208</v>
+        <v>234</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>388</v>
+        <v>399</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>347</v>
+        <v>192</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F5" s="6">
         <v>3</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
+      <c r="A6" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>216</v>
+        <v>341</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>367</v>
+        <v>198</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>364</v>
+        <v>383</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>211</v>
+        <v>241</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>391</v>
+        <v>405</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>92</v>
+        <v>396</v>
       </c>
       <c r="F10" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>303</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>215</v>
+        <v>246</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>391</v>
+        <v>410</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F11" s="6">
         <v>3</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>288</v>
+        <v>154</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F12" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
+      <c r="A13" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
       <c r="G13" s="14" t="s">
-        <v>22</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>359</v>
+        <v>377</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="F14" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
+      <c r="A15" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>5</v>
+        <v>417</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>11</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>321</v>
+        <v>106</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F16" s="6">
         <v>3</v>
@@ -2420,67 +2471,76 @@
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>344</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>14</v>
+        <v>127</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>345</v>
+        <v>222</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>14</v>
+        <v>395</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="F19" s="6">
         <v>3</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="F20" s="6">
         <v>3</v>
@@ -2488,59 +2548,56 @@
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>127</v>
+        <v>373</v>
       </c>
       <c r="F21" s="6">
         <v>3</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>262</v>
+        <v>439</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="F22" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="F23" s="6">
         <v>3</v>
@@ -2548,36 +2605,36 @@
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>14</v>
+        <v>414</v>
       </c>
       <c r="F24" s="6">
         <v>3</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>337</v>
+        <v>58</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="F25" s="6">
         <v>3</v>
@@ -2585,173 +2642,176 @@
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>338</v>
-      </c>
       <c r="F26" s="6">
         <v>3</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>368</v>
+        <v>223</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>370</v>
+        <v>396</v>
+      </c>
+      <c r="F27" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>299</v>
+        <v>394</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F28" s="6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>203</v>
+        <v>277</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>387</v>
+        <v>417</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="F29" s="6">
         <v>3</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>439</v>
+        <v>302</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>436</v>
+        <v>374</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="F30" s="6">
-        <v>4</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>386</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="F31" s="6">
         <v>3</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>419</v>
+        <v>106</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>417</v>
+        <v>376</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="F32" s="6">
         <v>3</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>420</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="F33" s="6">
         <v>3</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>357</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="F34" s="6">
         <v>3</v>
@@ -2759,251 +2819,287 @@
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>103</v>
+        <v>256</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>105</v>
+        <v>254</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>104</v>
+        <v>412</v>
+      </c>
+      <c r="F35" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>25</v>
+        <v>408</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>26</v>
+        <v>97</v>
+      </c>
+      <c r="F36" s="6">
+        <v>2</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>190</v>
+        <v>283</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>334</v>
+        <v>417</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>307</v>
       </c>
       <c r="F37" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>333</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>371</v>
+        <v>95</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="6">
+        <v>3</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="F39" s="6">
         <v>3</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>426</v>
+        <v>373</v>
       </c>
       <c r="F41" s="6">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="4" t="s">
-        <v>176</v>
+      <c r="A42" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>312</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="F42" s="6">
-        <v>3</v>
+        <v>310</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>438</v>
+        <v>229</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>436</v>
+        <v>399</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F43" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>276</v>
+        <v>128</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>414</v>
+        <v>379</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="F44" s="6">
-        <v>3</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>416</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>214</v>
+        <v>248</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>391</v>
+        <v>410</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="F45" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>348</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F46" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="10" t="s">
-        <v>244</v>
+      <c r="A47" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>410</v>
+        <v>309</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F47" s="6">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>221</v>
+        <v>367</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="F48" s="6">
-        <v>3</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>220</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="F49" s="6">
         <v>3</v>
@@ -3011,158 +3107,176 @@
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F50" s="6">
         <v>3</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>224</v>
+        <v>342</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>344</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="F51" s="6">
-        <v>3</v>
+        <v>343</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>67</v>
+        <v>354</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>69</v>
+        <v>395</v>
+      </c>
+      <c r="F52" s="6">
+        <v>3</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="11" t="s">
-        <v>195</v>
+      <c r="A53" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>383</v>
       </c>
+      <c r="E53" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="F53" s="6">
         <v>3</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="F54" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>412</v>
+        <v>381</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>338</v>
       </c>
       <c r="F55" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>133</v>
+        <v>96</v>
+      </c>
+      <c r="F56" s="6">
+        <v>3</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>74</v>
+        <v>408</v>
+      </c>
+      <c r="F57" s="6">
+        <v>3</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>76</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>400</v>
+        <v>102</v>
       </c>
       <c r="F58" s="6">
         <v>3</v>
@@ -3170,104 +3284,101 @@
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>207</v>
+        <v>264</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="F59" s="6">
         <v>3</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>202</v>
+        <v>425</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>201</v>
+        <v>427</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="F60" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>213</v>
+        <v>197</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>438</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="F61" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="F62" s="6">
         <v>3</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>352</v>
+        <v>221</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>92</v>
+        <v>395</v>
       </c>
       <c r="F63" s="6">
         <v>3</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>353</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>322</v>
+        <v>224</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="F64" s="6">
         <v>3</v>
@@ -3275,275 +3386,266 @@
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>120</v>
+        <v>331</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F65" s="6">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>39</v>
+        <v>412</v>
+      </c>
+      <c r="F66" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>341</v>
+        <v>233</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>383</v>
+        <v>399</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>400</v>
       </c>
       <c r="F67" s="6">
         <v>3</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>92</v>
+        <v>388</v>
       </c>
       <c r="F68" s="6">
         <v>3</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>188</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>35</v>
+        <v>201</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" s="14" t="s">
-        <v>36</v>
+        <v>387</v>
+      </c>
+      <c r="F69" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F70" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>64</v>
+        <v>364</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>65</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>292</v>
+        <v>271</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>290</v>
+        <v>414</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F73" s="6">
+        <v>3</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>54</v>
+        <v>284</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>26</v>
+        <v>417</v>
+      </c>
+      <c r="F74" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>114</v>
+        <v>278</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>113</v>
+        <v>417</v>
+      </c>
+      <c r="F75" s="6">
+        <v>3</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>122</v>
+        <v>335</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>123</v>
+        <v>336</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>124</v>
+        <v>332</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>151</v>
+        <v>318</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>144</v>
+        <v>379</v>
+      </c>
+      <c r="F78" s="6">
+        <v>3</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>143</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>324</v>
+        <v>413</v>
       </c>
       <c r="F79" s="6">
         <v>3</v>
@@ -3551,282 +3653,294 @@
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>366</v>
+        <v>225</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>364</v>
+        <v>396</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80" s="6">
+        <v>3</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>365</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>175</v>
+        <v>388</v>
+      </c>
+      <c r="F82" s="6">
+        <v>3</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>139</v>
+        <v>14</v>
+      </c>
+      <c r="F83" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>302</v>
+        <v>129</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>86</v>
+        <v>417</v>
       </c>
       <c r="F84" s="6">
         <v>3</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>163</v>
+        <v>291</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>164</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>159</v>
+        <v>423</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>161</v>
+        <v>417</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" s="6">
+        <v>1</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>165</v>
+        <v>266</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>166</v>
+        <v>414</v>
+      </c>
+      <c r="F87" s="6">
+        <v>3</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>156</v>
+        <v>413</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>157</v>
+        <v>21</v>
+      </c>
+      <c r="F88" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>273</v>
+        <v>46</v>
       </c>
       <c r="F89" s="6">
-        <v>3</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>272</v>
+        <v>4</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="F90" s="6">
         <v>3</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>108</v>
+        <v>388</v>
       </c>
       <c r="F91" s="6">
         <v>3</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="F92" s="6">
         <v>3</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>270</v>
+        <v>435</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="F93" s="6">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>294</v>
+        <v>388</v>
+      </c>
+      <c r="F94" s="6">
+        <v>3</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>129</v>
+        <v>347</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="F95" s="6">
         <v>3</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>428</v>
+        <v>90</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>147</v>
@@ -3835,957 +3949,870 @@
         <v>41</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="F96" s="6">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F97" s="6">
         <v>3</v>
-      </c>
-      <c r="G97" s="14" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>237</v>
+        <v>345</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="F98" s="6">
-        <v>3</v>
-      </c>
-      <c r="G98" s="14" t="s">
-        <v>407</v>
+        <v>346</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>335</v>
+        <v>193</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>14</v>
+        <v>381</v>
+      </c>
+      <c r="F99" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>237</v>
+        <v>368</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F100" s="6">
-        <v>3</v>
+        <v>369</v>
+      </c>
+      <c r="G100" s="14" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>412</v>
+        <v>299</v>
       </c>
       <c r="F101" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>237</v>
+        <v>371</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="F102" s="6">
-        <v>3</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>169</v>
+      <c r="A103" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>168</v>
+        <v>383</v>
+      </c>
+      <c r="F103" s="6">
+        <v>3</v>
+      </c>
+      <c r="G103" s="14" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>318</v>
+        <v>38</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>320</v>
+        <v>40</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>49</v>
+        <v>380</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="F105" s="6">
+        <v>3</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="F106" s="6">
-        <v>3</v>
+        <v>63</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>398</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>246</v>
+        <v>57</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>247</v>
+        <v>58</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>410</v>
+        <v>59</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F107" s="6">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F108" s="6">
-        <v>2</v>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>409</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="F109" s="6">
-        <v>3</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>323</v>
+        <v>55</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="F110" s="6">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>421</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>95</v>
+        <v>268</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>97</v>
+        <v>269</v>
       </c>
       <c r="F111" s="6">
         <v>3</v>
-      </c>
-      <c r="G111" s="14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>217</v>
+        <v>428</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>351</v>
+        <v>147</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>394</v>
+        <v>429</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F112" s="6">
-        <v>3</v>
-      </c>
-      <c r="G112" s="14" t="s">
-        <v>350</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>109</v>
+        <v>403</v>
       </c>
       <c r="F113" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>308</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" s="14" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>413</v>
+        <v>379</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F115" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>127</v>
+        <v>380</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="F116" s="6">
         <v>3</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>226</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>31</v>
+        <v>413</v>
+      </c>
+      <c r="F117" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>14</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>92</v>
+        <v>414</v>
       </c>
       <c r="F119" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="F120" s="6">
-        <v>4</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>305</v>
+        <v>84</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>311</v>
+        <v>180</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>14</v>
+        <v>182</v>
+      </c>
+      <c r="F121" s="6">
+        <v>3</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>21</v>
+        <v>405</v>
       </c>
       <c r="F122" s="6">
         <v>3</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="6">
-        <v>3</v>
-      </c>
-      <c r="G123" s="14" t="s">
-        <v>402</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>173</v>
+        <v>433</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>172</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>317</v>
+        <v>440</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>316</v>
+        <v>441</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="10" t="s">
-        <v>126</v>
+      <c r="A126" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F126" s="6">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>327</v>
+        <v>186</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="F127" s="6">
-        <v>3</v>
-      </c>
-      <c r="G127" s="14" t="s">
-        <v>326</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="10" t="s">
-        <v>209</v>
+      <c r="A128" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="F128" s="6">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>390</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>147</v>
+        <v>419</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F129" s="6">
         <v>3</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>130</v>
+        <v>381</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="F130" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>117</v>
+        <v>383</v>
       </c>
       <c r="F131" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>285</v>
+        <v>71</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>417</v>
+        <v>73</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" s="6">
-        <v>3</v>
+        <v>74</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>363</v>
+        <v>177</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>364</v>
+        <v>379</v>
+      </c>
+      <c r="F133" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>286</v>
+        <v>33</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F134" s="6">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>422</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="F136" s="6">
-        <v>3</v>
+        <v>153</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>291</v>
+        <v>140</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>290</v>
+        <v>142</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>84</v>
+        <v>380</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="F138" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>423</v>
+        <v>170</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>417</v>
+        <v>171</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F139" s="6">
-        <v>1</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>424</v>
+        <v>172</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>289</v>
+        <v>148</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>417</v>
+        <v>146</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="6">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>362</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>325</v>
+        <v>111</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>380</v>
+        <v>112</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F141" s="6">
-        <v>3</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>181</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>251</v>
+        <v>430</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F143" s="6">
-        <v>2</v>
+        <v>431</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10" t="s">
-        <v>239</v>
+        <v>442</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="F144" s="6">
-        <v>3</v>
+        <v>443</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>414</v>
@@ -4793,527 +4820,541 @@
       <c r="F145" s="6">
         <v>3</v>
       </c>
-      <c r="G145" s="14" t="s">
-        <v>415</v>
-      </c>
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>378</v>
+        <v>100</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F146" s="6">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>413</v>
+        <v>25</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F147" s="6">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="10" t="s">
-        <v>227</v>
+      <c r="A148" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E148" s="9" t="s">
-        <v>46</v>
+        <v>379</v>
       </c>
       <c r="F148" s="6">
-        <v>4</v>
-      </c>
-      <c r="G148" s="14" t="s">
-        <v>397</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F149" s="6">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>102</v>
+        <v>133</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="10" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F152" s="6">
-        <v>3</v>
-      </c>
-      <c r="G152" s="14" t="s">
-        <v>358</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
-        <v>205</v>
+        <v>136</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="F153" s="6">
-        <v>3</v>
+        <v>137</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="10" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
-        <v>212</v>
+        <v>159</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F155" s="6">
-        <v>3</v>
+        <v>160</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>355</v>
+        <v>165</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="F156" s="6">
-        <v>3</v>
-      </c>
-      <c r="G156" s="14" t="s">
-        <v>356</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
-        <v>430</v>
+        <v>295</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="G157" s="14" t="s">
-        <v>432</v>
+        <v>294</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10" t="s">
-        <v>433</v>
+        <v>47</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>434</v>
+        <v>49</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
-        <v>435</v>
+        <v>51</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>436</v>
+        <v>52</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>437</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
-        <v>440</v>
+        <v>28</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>389</v>
+        <v>32</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>441</v>
+        <v>29</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10" t="s">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D161" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D162" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G161" s="14" t="s">
-        <v>444</v>
+      <c r="E162" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="G162" s="16" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
-    <hyperlink ref="A13" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
-    <hyperlink ref="A36" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A117" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A69" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A66" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A81" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A105" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A114" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A74" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A72" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A71" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="A52" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A57" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
-    <hyperlink ref="A2" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A120" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
-    <hyperlink ref="A20" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A151" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A84" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A138" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
-    <hyperlink ref="A10" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
-    <hyperlink ref="A31" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A111" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A150" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
-    <hyperlink ref="A35" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A91" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A113" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A142" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A75" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A131" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A65" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A146" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A76" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A126" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A130" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
-    <hyperlink ref="A56" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A83" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A78" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A135" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E135" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E78" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E83" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E56" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E130" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E126" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="E76" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E146" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E65" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E131" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E75" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E142" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E113" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E91" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
-    <hyperlink ref="E35" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E150" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E111" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
-    <hyperlink ref="E31" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
-    <hyperlink ref="E10" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E138" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E84" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E151" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E57" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E52" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E71" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E72" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E74" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E114" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E105" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E81" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E66" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E69" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E117" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E36" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="E13" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="E6" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="E15" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A77" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E77" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A88" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E88" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A86" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A85" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A87" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A103" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A124" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E124" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A82" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A42" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A64" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A109" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A141" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E141" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A127" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E127" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A119" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E119" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A68" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E68" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A37" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A49" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A62" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A25" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A26" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A53" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A46" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A43" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A70" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A23" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E23" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A30" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A60" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A29" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A153" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
-    <hyperlink ref="A5" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
-    <hyperlink ref="A59" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A3" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A128" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A4" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
-    <hyperlink ref="A9" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A155" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
-    <hyperlink ref="A61" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A45" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
-    <hyperlink ref="A11" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
-    <hyperlink ref="A7" r:id="rId125" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A112" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A63" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
-    <hyperlink ref="E63" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
-    <hyperlink ref="A19" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A48" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A156" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A50" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A51" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E116" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A116" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A148" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E148" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
-    <hyperlink ref="A40" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="E40" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A106" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E149" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A149" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A58" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A21" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A123" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E123" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E100" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A100" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A102" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A144" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E98" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A98" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A33" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E108" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A47" r:id="rId155" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A108" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E34" r:id="rId157" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A34" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A107" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E107" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A143" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E143" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A152" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E152" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A55" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E90" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A90" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A101" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A16" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A129" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A115" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A147" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E147" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
-    <hyperlink ref="A22" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A39" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A145" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A93" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E93" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A89" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E89" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A136" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
-    <hyperlink ref="A14" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A44" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
-    <hyperlink ref="A79" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
-    <hyperlink ref="A24" r:id="rId185" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E24" r:id="rId186" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A92" r:id="rId187" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A32" r:id="rId188" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A110" r:id="rId189" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A95" r:id="rId190" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A132" r:id="rId191" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E132" r:id="rId192" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A134" r:id="rId193" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A122" r:id="rId194" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E122" r:id="rId195" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A12" r:id="rId196" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E12" r:id="rId197" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A140" r:id="rId198" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E140" r:id="rId199" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A137" r:id="rId200" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
-    <hyperlink ref="A73" r:id="rId201" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A154" r:id="rId202" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
-    <hyperlink ref="A94" r:id="rId203" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A28" r:id="rId204" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="E110" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
-    <hyperlink ref="E121" r:id="rId206" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
-    <hyperlink ref="A121" r:id="rId207" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
-    <hyperlink ref="A118" r:id="rId208" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E118" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
-    <hyperlink ref="A97" r:id="rId210" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
-    <hyperlink ref="A125" r:id="rId211" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
-    <hyperlink ref="A104" r:id="rId212" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
-    <hyperlink ref="E104" r:id="rId213" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
-    <hyperlink ref="E79" r:id="rId214" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
-    <hyperlink ref="A54" r:id="rId215" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
-    <hyperlink ref="E54" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
-    <hyperlink ref="E37" r:id="rId217" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
-    <hyperlink ref="A99" r:id="rId218" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
-    <hyperlink ref="E99" r:id="rId219" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
-    <hyperlink ref="E26" r:id="rId220" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
-    <hyperlink ref="E16" r:id="rId221" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
-    <hyperlink ref="A67" r:id="rId222" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
-    <hyperlink ref="A17" r:id="rId223" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{44B4BF0B-837D-4651-B2FB-1620DC83FFE7}"/>
-    <hyperlink ref="E17" r:id="rId224" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
-    <hyperlink ref="A18" r:id="rId225" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
-    <hyperlink ref="E18" r:id="rId226" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
-    <hyperlink ref="A133" r:id="rId227" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
-    <hyperlink ref="A80" r:id="rId228" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
-    <hyperlink ref="A8" r:id="rId229" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
-    <hyperlink ref="A27" r:id="rId230" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
-    <hyperlink ref="E27" r:id="rId231" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
-    <hyperlink ref="A38" r:id="rId232" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
-    <hyperlink ref="E58" r:id="rId233" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
-    <hyperlink ref="E21" r:id="rId234" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
-    <hyperlink ref="A139" r:id="rId235" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
-    <hyperlink ref="E139" r:id="rId236" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
-    <hyperlink ref="A41" r:id="rId237" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
-    <hyperlink ref="A96" r:id="rId238" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
-    <hyperlink ref="E96" r:id="rId239" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
-    <hyperlink ref="A157" r:id="rId240" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
-    <hyperlink ref="A158" r:id="rId241" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
-    <hyperlink ref="A159" r:id="rId242" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
-    <hyperlink ref="A160" r:id="rId243" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
-    <hyperlink ref="A161" r:id="rId244" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
+    <hyperlink ref="A128" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
+    <hyperlink ref="A47" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
+    <hyperlink ref="A126" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
+    <hyperlink ref="A147" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="A160" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A134" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A104" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A110" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A158" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A159" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A109" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A107" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A106" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A149" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A132" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A19" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
+    <hyperlink ref="A41" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A21" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A161" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A30" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A120" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A96" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
+    <hyperlink ref="A56" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A38" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A142" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A146" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="A32" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A12" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A141" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A135" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A14" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A6" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A16" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A151" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A115" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A44" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A150" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A153" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A137" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A140" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E140" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="E137" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E153" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E150" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E44" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E115" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E151" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E16" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E6" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E14" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E135" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E141" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E12" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E32" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E146" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="E142" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E38" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E56" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
+    <hyperlink ref="E96" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="E120" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E30" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E161" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E132" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E149" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E106" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E107" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E109" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E159" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E158" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E110" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E104" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E134" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E160" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E147" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E126" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E47" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E128" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A136" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E136" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A72" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E72" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A155" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A154" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A156" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A114" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A139" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E139" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A152" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A148" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A133" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A78" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A121" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E121" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A116" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E116" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A138" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E138" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A105" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E105" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A130" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A26" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A5" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A99" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A55" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A103" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A131" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A61" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A8" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A53" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E53" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A22" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A69" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A4" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A91" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A95" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
+    <hyperlink ref="A68" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A94" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A82" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A46" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
+    <hyperlink ref="A49" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A92" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A70" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A62" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
+    <hyperlink ref="A50" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A20" r:id="rId125" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
+    <hyperlink ref="A39" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A28" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E28" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A52" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A63" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A18" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A27" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A64" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="E80" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A80" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A89" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E89" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A23" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="E23" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
+    <hyperlink ref="A10" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E90" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A90" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A67" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A3" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A43" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E43" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E34" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A34" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A113" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A122" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E9" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A9" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A57" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E36" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A25" r:id="rId155" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A36" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E58" r:id="rId157" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A58" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A11" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E11" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A45" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E45" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A17" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E17" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A66" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E31" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A31" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A35" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A97" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
+    <hyperlink ref="A117" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A79" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A88" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E88" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A145" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A59" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A87" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A111" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E111" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A73" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E73" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A119" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A127" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A24" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
+    <hyperlink ref="A29" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="A54" r:id="rId185" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E54" r:id="rId186" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A33" r:id="rId187" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A129" r:id="rId188" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A37" r:id="rId189" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A74" r:id="rId190" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A83" r:id="rId191" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E83" r:id="rId192" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A84" r:id="rId193" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A13" r:id="rId194" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E13" r:id="rId195" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A2" r:id="rId196" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E2" r:id="rId197" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A15" r:id="rId198" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E15" r:id="rId199" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A85" r:id="rId200" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A108" r:id="rId201" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
+    <hyperlink ref="A123" r:id="rId202" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A157" r:id="rId203" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A101" r:id="rId204" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="E37" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
+    <hyperlink ref="E42" r:id="rId206" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
+    <hyperlink ref="A42" r:id="rId207" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
+    <hyperlink ref="A40" r:id="rId208" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E40" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="A75" r:id="rId210" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
+    <hyperlink ref="A81" r:id="rId211" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
+    <hyperlink ref="A77" r:id="rId212" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
+    <hyperlink ref="E77" r:id="rId213" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
+    <hyperlink ref="E29" r:id="rId214" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
+    <hyperlink ref="A65" r:id="rId215" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
+    <hyperlink ref="E65" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
+    <hyperlink ref="E130" r:id="rId217" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
+    <hyperlink ref="A76" r:id="rId218" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
+    <hyperlink ref="E76" r:id="rId219" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
+    <hyperlink ref="E55" r:id="rId220" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
+    <hyperlink ref="E97" r:id="rId221" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
+    <hyperlink ref="A7" r:id="rId222" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
+    <hyperlink ref="A51" r:id="rId223" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{44B4BF0B-837D-4651-B2FB-1620DC83FFE7}"/>
+    <hyperlink ref="E51" r:id="rId224" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
+    <hyperlink ref="A98" r:id="rId225" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
+    <hyperlink ref="E98" r:id="rId226" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
+    <hyperlink ref="A118" r:id="rId227" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
+    <hyperlink ref="A71" r:id="rId228" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
+    <hyperlink ref="A48" r:id="rId229" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
+    <hyperlink ref="A100" r:id="rId230" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
+    <hyperlink ref="E100" r:id="rId231" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
+    <hyperlink ref="A102" r:id="rId232" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
+    <hyperlink ref="E67" r:id="rId233" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
+    <hyperlink ref="E3" r:id="rId234" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
+    <hyperlink ref="A86" r:id="rId235" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
+    <hyperlink ref="E86" r:id="rId236" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
+    <hyperlink ref="A60" r:id="rId237" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
+    <hyperlink ref="A112" r:id="rId238" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
+    <hyperlink ref="E112" r:id="rId239" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
+    <hyperlink ref="A143" r:id="rId240" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
+    <hyperlink ref="A124" r:id="rId241" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
+    <hyperlink ref="A93" r:id="rId242" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
+    <hyperlink ref="A125" r:id="rId243" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
+    <hyperlink ref="A144" r:id="rId244" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
+    <hyperlink ref="A162" r:id="rId245" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
+    <hyperlink ref="E162" r:id="rId246" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
+    <hyperlink ref="G162" r:id="rId247" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId245"/>
+    <tablePart r:id="rId248"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9E5EC6-2B0A-401D-BAA5-4C619941D156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC3EF8-F7BF-4CA2-86DF-D07488797882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="453">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1660,6 +1660,20 @@
   </si>
   <si>
     <t>木子喵neko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.01.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>731. 我的日程安排表 II</t>
+  </si>
+  <si>
+    <t>732. 我的日程安排表 III</t>
+  </si>
+  <si>
+    <t>自默；居然在2022.06做过…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1843,8 +1857,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048575" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048575" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G161">
-    <sortCondition descending="1" ref="C1:C1048575"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G162">
+    <sortCondition ref="A1:A1048575"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
@@ -2122,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I162" sqref="I162"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2165,305 +2179,272 @@
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
+        <v>449</v>
       </c>
       <c r="F2" s="6">
         <v>4</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>361</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>127</v>
+        <v>388</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>192</v>
+        <v>206</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F5" s="6">
         <v>3</v>
       </c>
+      <c r="G5" s="14" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10" t="s">
-        <v>150</v>
+      <c r="A6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>341</v>
+        <v>216</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="F8" s="6">
-        <v>4</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>240</v>
+        <v>391</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>396</v>
+        <v>375</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F10" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>398</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>92</v>
+        <v>391</v>
       </c>
       <c r="F11" s="6">
         <v>3</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>154</v>
+        <v>288</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="F12" s="6">
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10" t="s">
-        <v>287</v>
+      <c r="A13" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="6">
-        <v>3</v>
-      </c>
       <c r="G13" s="14" t="s">
-        <v>360</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>116</v>
+        <v>275</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>117</v>
+        <v>359</v>
       </c>
       <c r="F14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>417</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>362</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>106</v>
+        <v>321</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F16" s="6">
         <v>3</v>
@@ -2471,76 +2452,67 @@
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>250</v>
+        <v>342</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>344</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>410</v>
+        <v>343</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="6">
-        <v>3</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>358</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="F18" s="6">
-        <v>3</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>356</v>
+        <v>346</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="F19" s="6">
         <v>3</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>80</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>216</v>
+        <v>300</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="F20" s="6">
         <v>3</v>
@@ -2548,93 +2520,87 @@
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>373</v>
+        <v>399</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F21" s="6">
         <v>3</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>439</v>
+        <v>262</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="F22" s="6">
-        <v>4</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>386</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>229</v>
+        <v>435</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="6">
-        <v>3</v>
+        <v>436</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>276</v>
+        <v>440</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>129</v>
+        <v>389</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="F24" s="6">
-        <v>3</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>410</v>
+        <v>383</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="F25" s="6">
         <v>3</v>
@@ -2642,13 +2608,19 @@
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>191</v>
+        <v>279</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>381</v>
+        <v>417</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F26" s="6">
         <v>3</v>
@@ -2656,13 +2628,16 @@
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>223</v>
+        <v>193</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="F27" s="6">
         <v>3</v>
@@ -2670,436 +2645,394 @@
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>352</v>
+        <v>194</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>92</v>
+        <v>381</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>338</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="F29" s="6">
-        <v>3</v>
+        <v>364</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>86</v>
+        <v>299</v>
       </c>
       <c r="F30" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>8</v>
+        <v>387</v>
       </c>
       <c r="F31" s="6">
         <v>3</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>106</v>
+        <v>439</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>108</v>
+        <v>436</v>
       </c>
       <c r="F32" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>306</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>280</v>
+        <v>93</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>417</v>
+        <v>375</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="F33" s="6">
         <v>3</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>237</v>
+        <v>419</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>21</v>
+        <v>417</v>
       </c>
       <c r="F34" s="6">
         <v>3</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F35" s="6">
         <v>3</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F36" s="6">
-        <v>2</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>409</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>283</v>
+        <v>103</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>417</v>
+        <v>100</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="F37" s="6">
-        <v>4</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>421</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>376</v>
+        <v>25</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38" s="6">
-        <v>3</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>394</v>
+        <v>381</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="F39" s="6">
         <v>3</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="F41" s="6">
-        <v>4</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>305</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>312</v>
+        <v>229</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="F42" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>235</v>
+        <v>425</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>229</v>
+        <v>427</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>14</v>
+        <v>426</v>
       </c>
       <c r="F43" s="6">
-        <v>3</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>131</v>
+      <c r="A44" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="F44" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>251</v>
+        <v>438</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>249</v>
+        <v>436</v>
       </c>
       <c r="F45" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>411</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>210</v>
+        <v>276</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="F46" s="6">
         <v>3</v>
       </c>
+      <c r="G46" s="14" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>12</v>
+      <c r="A47" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
       <c r="F47" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>17</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>367</v>
+        <v>196</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>364</v>
+        <v>383</v>
+      </c>
+      <c r="F48" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>211</v>
+        <v>244</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="F49" s="6">
         <v>3</v>
@@ -3107,73 +3040,58 @@
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F50" s="6">
         <v>3</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>349</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>344</v>
+        <v>191</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>14</v>
+        <v>381</v>
+      </c>
+      <c r="F51" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>354</v>
+        <v>223</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F52" s="6">
         <v>3</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>86</v>
+        <v>396</v>
       </c>
       <c r="F53" s="6">
         <v>3</v>
@@ -3181,204 +3099,195 @@
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>279</v>
+        <v>66</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>417</v>
+        <v>68</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="6">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="10" t="s">
-        <v>194</v>
+      <c r="A55" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="F55" s="6">
         <v>3</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>91</v>
+        <v>331</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="6">
-        <v>3</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>304</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F57" s="6">
-        <v>3</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>357</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>410</v>
+        <v>135</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F58" s="6">
-        <v>3</v>
+        <v>133</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>264</v>
+        <v>71</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>265</v>
+        <v>72</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="F59" s="6">
-        <v>3</v>
+        <v>73</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>425</v>
+        <v>233</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>427</v>
+        <v>229</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>426</v>
+        <v>399</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>400</v>
       </c>
       <c r="F60" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>438</v>
+        <v>207</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="F61" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>214</v>
+        <v>202</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F62" s="6">
         <v>3</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F63" s="6">
         <v>3</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>220</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="F64" s="6">
         <v>3</v>
@@ -3386,627 +3295,615 @@
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>329</v>
+        <v>218</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>330</v>
+        <v>394</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>14</v>
+        <v>92</v>
+      </c>
+      <c r="F65" s="6">
+        <v>3</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="F66" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>229</v>
+        <v>120</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>400</v>
+        <v>117</v>
       </c>
       <c r="F67" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>207</v>
+        <v>38</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="F68" s="6">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>389</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>201</v>
+        <v>341</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F69" s="6">
         <v>3</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>213</v>
+        <v>187</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>391</v>
+        <v>380</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F70" s="6">
         <v>3</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>392</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>366</v>
+        <v>33</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>364</v>
+        <v>34</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>365</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>157</v>
+        <v>383</v>
+      </c>
+      <c r="F72" s="6">
+        <v>4</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>271</v>
+        <v>61</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>272</v>
+        <v>62</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>414</v>
+        <v>63</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F73" s="6">
-        <v>3</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>272</v>
+        <v>64</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>284</v>
+        <v>57</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F74" s="6">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F75" s="6">
-        <v>3</v>
-      </c>
-      <c r="G75" s="14" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>335</v>
+        <v>54</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>336</v>
+        <v>56</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>332</v>
+        <v>55</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>318</v>
+        <v>114</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>320</v>
+        <v>115</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>319</v>
+        <v>112</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="F78" s="6">
-        <v>3</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>323</v>
+        <v>124</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="F79" s="6">
-        <v>3</v>
+        <v>153</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>396</v>
+        <v>142</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F80" s="6">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>226</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>315</v>
+        <v>129</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>316</v>
+        <v>417</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="F81" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>209</v>
+        <v>366</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="F82" s="6">
-        <v>3</v>
+        <v>364</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>417</v>
+        <v>43</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="6">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F84" s="6">
-        <v>3</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>422</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>291</v>
+        <v>136</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>290</v>
+        <v>137</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>423</v>
+        <v>301</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>129</v>
+        <v>302</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F86" s="6">
-        <v>1</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>424</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>267</v>
+        <v>163</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="F87" s="6">
-        <v>3</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>415</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" s="6">
-        <v>3</v>
+        <v>160</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F89" s="6">
-        <v>4</v>
-      </c>
-      <c r="G89" s="14" t="s">
-        <v>397</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>399</v>
+        <v>156</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F90" s="6">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>205</v>
+        <v>271</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>388</v>
+        <v>414</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="F91" s="6">
         <v>3</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>212</v>
+        <v>255</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>391</v>
+        <v>412</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="F92" s="6">
         <v>3</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>435</v>
+        <v>107</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>436</v>
+        <v>376</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F93" s="6">
+        <v>3</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>437</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>208</v>
+        <v>280</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="F94" s="6">
         <v>3</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>389</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>347</v>
+        <v>430</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="F95" s="6">
-        <v>3</v>
+        <v>431</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>147</v>
+        <v>270</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>92</v>
+        <v>269</v>
       </c>
       <c r="F96" s="6">
-        <v>4</v>
-      </c>
-      <c r="G96" s="14" t="s">
-        <v>303</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="6">
-        <v>3</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>345</v>
+        <v>433</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>14</v>
+        <v>434</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="F99" s="6">
         <v>3</v>
@@ -4014,709 +3911,778 @@
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>368</v>
+        <v>428</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="G100" s="14" t="s">
-        <v>370</v>
+        <v>26</v>
+      </c>
+      <c r="F100" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>299</v>
+        <v>417</v>
       </c>
       <c r="F101" s="6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>371</v>
+        <v>442</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>372</v>
+        <v>443</v>
+      </c>
+      <c r="G102" s="14" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="11" t="s">
-        <v>195</v>
+      <c r="A103" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>383</v>
+        <v>405</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="F103" s="6">
         <v>3</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>339</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>38</v>
+        <v>335</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" s="14" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="F105" s="6">
         <v>3</v>
-      </c>
-      <c r="G105" s="14" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>65</v>
+        <v>412</v>
+      </c>
+      <c r="F106" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>60</v>
+        <v>403</v>
+      </c>
+      <c r="F107" s="6">
+        <v>3</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>292</v>
+        <v>167</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>290</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>54</v>
+        <v>318</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>56</v>
+        <v>320</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>55</v>
+        <v>319</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>269</v>
+        <v>396</v>
       </c>
       <c r="F111" s="6">
         <v>3</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>428</v>
+        <v>246</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="F112" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>237</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>403</v>
+        <v>408</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="F113" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>168</v>
+        <v>379</v>
+      </c>
+      <c r="F114" s="6">
+        <v>3</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>126</v>
+        <v>283</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>127</v>
+        <v>307</v>
       </c>
       <c r="F115" s="6">
         <v>4</v>
       </c>
+      <c r="G115" s="14" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>327</v>
+        <v>91</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>184</v>
+        <v>376</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="F116" s="6">
         <v>3</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>326</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>147</v>
+        <v>351</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="F117" s="6">
         <v>3</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>363</v>
+        <v>154</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>364</v>
+        <v>376</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F118" s="6">
+        <v>4</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>274</v>
+        <v>51</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="F119" s="6">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>87</v>
+        <v>260</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>89</v>
+        <v>413</v>
+      </c>
+      <c r="F120" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="F121" s="6">
         <v>3</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="F122" s="6">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>406</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>293</v>
+        <v>313</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>290</v>
+        <v>310</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>433</v>
+        <v>185</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>434</v>
+        <v>380</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F124" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>441</v>
+        <v>373</v>
+      </c>
+      <c r="F125" s="6">
+        <v>4</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="4" t="s">
-        <v>18</v>
+      <c r="A126" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" s="14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>359</v>
+        <v>373</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F127" s="6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="4" t="s">
-        <v>4</v>
+      <c r="A128" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>5</v>
+        <v>399</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="F128" s="6">
+        <v>3</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>11</v>
+        <v>402</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>282</v>
+        <v>170</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>419</v>
+        <v>173</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F129" s="6">
-        <v>3</v>
-      </c>
-      <c r="G129" s="14" t="s">
-        <v>420</v>
+        <v>171</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>190</v>
+        <v>317</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="F130" s="6">
-        <v>3</v>
-      </c>
-      <c r="G130" s="14" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>196</v>
+        <v>126</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F131" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>74</v>
+        <v>380</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F132" s="6">
+        <v>3</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>76</v>
+        <v>326</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>322</v>
+        <v>209</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F133" s="6">
         <v>3</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" s="14" t="s">
-        <v>36</v>
+        <v>413</v>
+      </c>
+      <c r="F134" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>112</v>
+        <v>379</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>113</v>
+        <v>130</v>
+      </c>
+      <c r="F135" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>153</v>
+        <v>377</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>46</v>
+        <v>117</v>
+      </c>
+      <c r="F136" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>142</v>
+        <v>417</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G137" s="14" t="s">
-        <v>143</v>
+        <v>14</v>
+      </c>
+      <c r="F137" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F138" s="6">
-        <v>2</v>
+        <v>364</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>170</v>
+        <v>286</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>172</v>
+        <v>417</v>
+      </c>
+      <c r="F139" s="6">
+        <v>3</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4741,620 +4707,705 @@
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>113</v>
+        <v>414</v>
+      </c>
+      <c r="F141" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>102</v>
+        <v>290</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>430</v>
+        <v>87</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="G143" s="14" t="s">
-        <v>432</v>
+        <v>84</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="G144" s="14" t="s">
-        <v>444</v>
+        <v>417</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="6">
+        <v>1</v>
+      </c>
+      <c r="G144" s="15" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>414</v>
+        <v>417</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F145" s="6">
         <v>3</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10" t="s">
-        <v>103</v>
+        <v>445</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>105</v>
+        <v>446</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>100</v>
+        <v>443</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>104</v>
+        <v>447</v>
+      </c>
+      <c r="G146" s="16" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>26</v>
+        <v>182</v>
+      </c>
+      <c r="F147" s="6">
+        <v>3</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="4" t="s">
-        <v>176</v>
+      <c r="A148" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="F148" s="6">
-        <v>3</v>
+        <v>112</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10" t="s">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>68</v>
+        <v>410</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>69</v>
+        <v>249</v>
+      </c>
+      <c r="F149" s="6">
+        <v>2</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>70</v>
+        <v>411</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>133</v>
+        <v>405</v>
+      </c>
+      <c r="F150" s="6">
+        <v>3</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>328</v>
+        <v>406</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="10" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>125</v>
+        <v>414</v>
+      </c>
+      <c r="F151" s="6">
+        <v>3</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10" t="s">
-        <v>174</v>
+        <v>118</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>175</v>
+        <v>378</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F152" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>137</v>
+        <v>413</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>139</v>
+        <v>21</v>
+      </c>
+      <c r="F153" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="10" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>164</v>
+        <v>396</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F154" s="6">
+        <v>4</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G155" s="14" t="s">
-        <v>161</v>
+        <v>399</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F155" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10" t="s">
-        <v>165</v>
+        <v>99</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>166</v>
+        <v>100</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
-        <v>295</v>
+        <v>82</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>294</v>
+        <v>84</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10" t="s">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>49</v>
+        <v>410</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>21</v>
+        <v>127</v>
+      </c>
+      <c r="F158" s="6">
+        <v>3</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>50</v>
+        <v>358</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" s="14" t="s">
-        <v>53</v>
+        <v>388</v>
+      </c>
+      <c r="F159" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G160" s="14" t="s">
-        <v>31</v>
+        <v>290</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>83</v>
+        <v>391</v>
+      </c>
+      <c r="F161" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10" t="s">
-        <v>445</v>
+        <v>222</v>
       </c>
       <c r="B162" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F162" s="6">
+        <v>3</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="E162" s="9" t="s">
+      <c r="C163" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E163" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="G162" s="16" t="s">
-        <v>448</v>
+    </row>
+    <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A128" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
-    <hyperlink ref="A47" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
-    <hyperlink ref="A126" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
-    <hyperlink ref="A147" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A160" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A134" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A104" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A110" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A158" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A159" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A109" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A107" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A106" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="A149" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A132" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
-    <hyperlink ref="A19" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A41" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
-    <hyperlink ref="A21" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A161" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A30" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A120" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
-    <hyperlink ref="A96" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
-    <hyperlink ref="A56" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A38" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A142" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
-    <hyperlink ref="A146" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A32" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A12" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A141" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A135" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A14" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A6" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A16" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A151" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A115" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A44" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
-    <hyperlink ref="A150" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A153" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A137" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
+    <hyperlink ref="A13" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
+    <hyperlink ref="A38" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="A122" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A71" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A68" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A83" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A110" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A119" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A76" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A74" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A73" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A54" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A59" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A2" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
+    <hyperlink ref="A125" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A157" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A86" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A143" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A10" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
+    <hyperlink ref="A33" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A116" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A156" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A37" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="A93" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A118" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A148" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A77" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A136" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A67" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A152" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A78" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A131" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A135" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A58" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A85" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A80" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
     <hyperlink ref="A140" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
     <hyperlink ref="E140" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E137" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E153" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E150" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E44" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E115" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="E151" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E16" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E6" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E14" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E135" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E141" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E12" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E32" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
-    <hyperlink ref="E146" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E142" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E38" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
-    <hyperlink ref="E56" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
-    <hyperlink ref="E96" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E120" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E30" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E161" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E132" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E149" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E106" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E107" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E109" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E159" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E158" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E110" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E104" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E134" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E160" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E147" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="E126" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="E47" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="E128" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A136" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E136" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A72" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E72" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A155" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A154" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A156" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A114" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A139" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E139" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A152" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A148" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A133" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A78" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A121" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E121" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A116" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E116" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A138" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E138" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A105" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E105" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A130" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A26" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A5" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A99" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A55" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A103" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A131" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A61" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A8" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A53" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E53" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A22" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A69" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A4" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A91" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
-    <hyperlink ref="A95" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
-    <hyperlink ref="A68" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A94" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A82" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A46" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
-    <hyperlink ref="A49" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A92" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
-    <hyperlink ref="A70" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A62" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
-    <hyperlink ref="A50" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
-    <hyperlink ref="A20" r:id="rId125" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A39" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A28" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
-    <hyperlink ref="E28" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
-    <hyperlink ref="A52" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A63" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A18" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A27" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A64" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E80" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A80" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A89" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E89" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
-    <hyperlink ref="A23" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="E23" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A10" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E90" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A90" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A67" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A3" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A43" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E43" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E34" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A34" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A113" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A122" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E9" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A9" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A57" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E36" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A25" r:id="rId155" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A36" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E58" r:id="rId157" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A58" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A11" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E11" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A45" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E45" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A17" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E17" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A66" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E31" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A31" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A35" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A97" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A117" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A79" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A88" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E88" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
-    <hyperlink ref="A145" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A59" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A87" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A111" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E111" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A73" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E73" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A119" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
-    <hyperlink ref="A127" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A24" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
-    <hyperlink ref="A29" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
-    <hyperlink ref="A54" r:id="rId185" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E54" r:id="rId186" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A33" r:id="rId187" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A129" r:id="rId188" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A37" r:id="rId189" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A74" r:id="rId190" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A83" r:id="rId191" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E83" r:id="rId192" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A84" r:id="rId193" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A13" r:id="rId194" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E13" r:id="rId195" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A2" r:id="rId196" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E2" r:id="rId197" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A15" r:id="rId198" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E15" r:id="rId199" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A85" r:id="rId200" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
-    <hyperlink ref="A108" r:id="rId201" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A123" r:id="rId202" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
-    <hyperlink ref="A157" r:id="rId203" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A101" r:id="rId204" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="E37" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
-    <hyperlink ref="E42" r:id="rId206" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
-    <hyperlink ref="A42" r:id="rId207" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
-    <hyperlink ref="A40" r:id="rId208" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E40" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
-    <hyperlink ref="A75" r:id="rId210" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
-    <hyperlink ref="A81" r:id="rId211" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
-    <hyperlink ref="A77" r:id="rId212" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
-    <hyperlink ref="E77" r:id="rId213" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
-    <hyperlink ref="E29" r:id="rId214" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
-    <hyperlink ref="A65" r:id="rId215" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
-    <hyperlink ref="E65" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
-    <hyperlink ref="E130" r:id="rId217" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
-    <hyperlink ref="A76" r:id="rId218" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
-    <hyperlink ref="E76" r:id="rId219" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
-    <hyperlink ref="E55" r:id="rId220" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
-    <hyperlink ref="E97" r:id="rId221" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
-    <hyperlink ref="A7" r:id="rId222" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
-    <hyperlink ref="A51" r:id="rId223" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{44B4BF0B-837D-4651-B2FB-1620DC83FFE7}"/>
-    <hyperlink ref="E51" r:id="rId224" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
-    <hyperlink ref="A98" r:id="rId225" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
-    <hyperlink ref="E98" r:id="rId226" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
-    <hyperlink ref="A118" r:id="rId227" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
-    <hyperlink ref="A71" r:id="rId228" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
-    <hyperlink ref="A48" r:id="rId229" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
-    <hyperlink ref="A100" r:id="rId230" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
-    <hyperlink ref="E100" r:id="rId231" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
-    <hyperlink ref="A102" r:id="rId232" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
-    <hyperlink ref="E67" r:id="rId233" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
-    <hyperlink ref="E3" r:id="rId234" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
-    <hyperlink ref="A86" r:id="rId235" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
-    <hyperlink ref="E86" r:id="rId236" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
-    <hyperlink ref="A60" r:id="rId237" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
-    <hyperlink ref="A112" r:id="rId238" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
-    <hyperlink ref="E112" r:id="rId239" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
-    <hyperlink ref="A143" r:id="rId240" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
-    <hyperlink ref="A124" r:id="rId241" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
-    <hyperlink ref="A93" r:id="rId242" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
-    <hyperlink ref="A125" r:id="rId243" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
-    <hyperlink ref="A144" r:id="rId244" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
-    <hyperlink ref="A162" r:id="rId245" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
-    <hyperlink ref="E162" r:id="rId246" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
-    <hyperlink ref="G162" r:id="rId247" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
+    <hyperlink ref="E80" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E85" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E58" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E135" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E131" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E78" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E152" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E67" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E136" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E77" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E148" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E118" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E93" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E37" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="E156" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E116" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E33" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
+    <hyperlink ref="E10" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="E143" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E86" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E157" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E59" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E54" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E73" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E74" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E76" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E119" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E110" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E83" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E68" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E71" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E122" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E38" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E13" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E6" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E15" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A79" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E79" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A90" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E90" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A88" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A87" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A89" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A108" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A129" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E129" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A84" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A44" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A66" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A114" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A147" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E147" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A132" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E132" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A124" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E124" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A70" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E70" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A39" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A51" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A64" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A27" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A28" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A55" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A48" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A45" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A72" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A25" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E25" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A32" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A62" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A31" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A159" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A5" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
+    <hyperlink ref="A61" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A3" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A133" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A4" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
+    <hyperlink ref="A9" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A161" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A63" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A47" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
+    <hyperlink ref="A11" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A7" r:id="rId125" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
+    <hyperlink ref="A117" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A65" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E65" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A19" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A50" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A162" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A52" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A53" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="E121" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A121" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A154" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E154" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A42" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="E42" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
+    <hyperlink ref="A111" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E155" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A155" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A60" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A21" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A128" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E128" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E105" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A105" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A107" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A150" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E103" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A103" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A35" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E113" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A49" r:id="rId155" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A113" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E36" r:id="rId157" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A36" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A112" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E112" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A149" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E149" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A158" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E158" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A57" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E92" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A92" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A106" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A16" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
+    <hyperlink ref="A134" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A120" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A153" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E153" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A22" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A41" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A151" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A96" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E96" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A91" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E91" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A141" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A14" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A46" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
+    <hyperlink ref="A81" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="A26" r:id="rId185" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E26" r:id="rId186" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A94" r:id="rId187" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A34" r:id="rId188" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A115" r:id="rId189" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A99" r:id="rId190" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A137" r:id="rId191" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E137" r:id="rId192" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A139" r:id="rId193" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A127" r:id="rId194" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E127" r:id="rId195" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A12" r:id="rId196" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E12" r:id="rId197" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A145" r:id="rId198" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E145" r:id="rId199" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A142" r:id="rId200" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A75" r:id="rId201" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
+    <hyperlink ref="A160" r:id="rId202" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A97" r:id="rId203" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A30" r:id="rId204" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="E115" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
+    <hyperlink ref="E126" r:id="rId206" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
+    <hyperlink ref="A126" r:id="rId207" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
+    <hyperlink ref="A123" r:id="rId208" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E123" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="A101" r:id="rId210" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
+    <hyperlink ref="A130" r:id="rId211" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
+    <hyperlink ref="A109" r:id="rId212" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
+    <hyperlink ref="E109" r:id="rId213" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
+    <hyperlink ref="E81" r:id="rId214" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
+    <hyperlink ref="A56" r:id="rId215" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
+    <hyperlink ref="E56" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
+    <hyperlink ref="E39" r:id="rId217" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
+    <hyperlink ref="A104" r:id="rId218" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
+    <hyperlink ref="E104" r:id="rId219" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
+    <hyperlink ref="E28" r:id="rId220" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
+    <hyperlink ref="E16" r:id="rId221" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
+    <hyperlink ref="A69" r:id="rId222" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
+    <hyperlink ref="A17" r:id="rId223" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{44B4BF0B-837D-4651-B2FB-1620DC83FFE7}"/>
+    <hyperlink ref="E17" r:id="rId224" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
+    <hyperlink ref="A18" r:id="rId225" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
+    <hyperlink ref="E18" r:id="rId226" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
+    <hyperlink ref="A138" r:id="rId227" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
+    <hyperlink ref="A82" r:id="rId228" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
+    <hyperlink ref="A8" r:id="rId229" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
+    <hyperlink ref="A29" r:id="rId230" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
+    <hyperlink ref="E29" r:id="rId231" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
+    <hyperlink ref="A40" r:id="rId232" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
+    <hyperlink ref="E60" r:id="rId233" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
+    <hyperlink ref="E21" r:id="rId234" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
+    <hyperlink ref="A144" r:id="rId235" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
+    <hyperlink ref="E144" r:id="rId236" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
+    <hyperlink ref="A43" r:id="rId237" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
+    <hyperlink ref="A100" r:id="rId238" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
+    <hyperlink ref="E100" r:id="rId239" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
+    <hyperlink ref="A95" r:id="rId240" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
+    <hyperlink ref="A98" r:id="rId241" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
+    <hyperlink ref="A23" r:id="rId242" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
+    <hyperlink ref="A24" r:id="rId243" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
+    <hyperlink ref="A102" r:id="rId244" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
+    <hyperlink ref="A146" r:id="rId245" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
+    <hyperlink ref="E146" r:id="rId246" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
+    <hyperlink ref="G146" r:id="rId247" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
+    <hyperlink ref="A163" r:id="rId248" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
+    <hyperlink ref="E163" r:id="rId249" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
+    <hyperlink ref="A164" r:id="rId250" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId248"/>
+    <tablePart r:id="rId251"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC3EF8-F7BF-4CA2-86DF-D07488797882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B29A4FE-FADE-435A-94B0-7C89222D2A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="458">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1674,6 +1674,24 @@
   </si>
   <si>
     <t>自默；居然在2022.06做过…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2274. 不含特殊楼层的最大连续楼层数</t>
+  </si>
+  <si>
+    <t>应该算简单题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2241. 设计一个 ATM 机器</t>
+  </si>
+  <si>
+    <t>ATM机明明可以凑出六百块但是不凑，ATM机坏； ATM机这么做是为了我们题目更简单，ATM机好；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.01.06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1857,8 +1875,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048575" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048575" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G162">
-    <sortCondition ref="A1:A1048575"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G166">
+    <sortCondition descending="1" ref="C1:C1048575"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
@@ -2136,10 +2154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H161" sqref="H161"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2179,272 +2197,305 @@
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F2" s="6">
         <v>4</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>80</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>208</v>
+        <v>234</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>388</v>
+        <v>457</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F3" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>347</v>
+        <v>192</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F5" s="6">
         <v>3</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
+      <c r="A6" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>216</v>
+        <v>341</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>367</v>
+        <v>198</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>364</v>
+        <v>383</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>211</v>
+        <v>241</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>391</v>
+        <v>405</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>92</v>
+        <v>396</v>
       </c>
       <c r="F10" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>303</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>215</v>
+        <v>246</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>391</v>
+        <v>410</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F11" s="6">
         <v>3</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>288</v>
+        <v>154</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F12" s="6">
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>361</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
+      <c r="A13" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
       <c r="G13" s="14" t="s">
-        <v>22</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>275</v>
+        <v>116</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>359</v>
+        <v>377</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="F14" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
+      <c r="A15" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>5</v>
+        <v>417</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>11</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>321</v>
+        <v>106</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F16" s="6">
         <v>3</v>
@@ -2452,107 +2503,107 @@
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>344</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>14</v>
+        <v>127</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>345</v>
+        <v>222</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>14</v>
+        <v>395</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>219</v>
+        <v>450</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>354</v>
+        <v>446</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="F19" s="6">
-        <v>3</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="F20" s="6">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>127</v>
+        <v>393</v>
       </c>
       <c r="F21" s="6">
         <v>3</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="F22" s="6">
         <v>3</v>
@@ -2560,67 +2611,76 @@
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>435</v>
+        <v>200</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>439</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>436</v>
       </c>
+      <c r="F23" s="6">
+        <v>4</v>
+      </c>
       <c r="G23" s="14" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>440</v>
+        <v>228</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>389</v>
+        <v>229</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>441</v>
+        <v>396</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>86</v>
+        <v>414</v>
       </c>
       <c r="F25" s="6">
         <v>3</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>14</v>
+        <v>410</v>
       </c>
       <c r="F26" s="6">
         <v>3</v>
@@ -2628,13 +2688,10 @@
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>337</v>
+        <v>191</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>381</v>
@@ -2645,127 +2702,136 @@
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>368</v>
+        <v>218</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>369</v>
+        <v>92</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>298</v>
+        <v>129</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>299</v>
+        <v>417</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="F30" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>203</v>
+        <v>301</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>387</v>
+        <v>374</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="F31" s="6">
         <v>3</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>439</v>
+        <v>254</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>436</v>
+        <v>412</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="F32" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>386</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F33" s="6">
         <v>3</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>419</v>
+        <v>129</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>417</v>
@@ -2774,44 +2840,41 @@
         <v>3</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>420</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>237</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F35" s="6">
         <v>3</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>58</v>
+        <v>254</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>102</v>
+        <v>412</v>
       </c>
       <c r="F36" s="6">
         <v>3</v>
@@ -2819,265 +2882,310 @@
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>100</v>
+        <v>408</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>25</v>
+        <v>417</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>26</v>
+        <v>307</v>
+      </c>
+      <c r="F38" s="6">
+        <v>4</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>190</v>
+        <v>95</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>334</v>
+        <v>376</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="F39" s="6">
         <v>3</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>333</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>371</v>
+        <v>217</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>372</v>
+        <v>394</v>
+      </c>
+      <c r="F40" s="6">
+        <v>3</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="F41" s="6">
-        <v>3</v>
+        <v>310</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F42" s="6">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>425</v>
+        <v>311</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>427</v>
+        <v>312</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="F43" s="6">
-        <v>1</v>
+        <v>310</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="4" t="s">
-        <v>176</v>
+      <c r="A44" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>379</v>
+        <v>399</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F44" s="6">
         <v>3</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>438</v>
+        <v>131</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>436</v>
+        <v>379</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="F45" s="6">
         <v>4</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>276</v>
+        <v>445</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>129</v>
+        <v>446</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="F46" s="6">
-        <v>3</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>416</v>
+        <v>443</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
-        <v>214</v>
+        <v>248</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>391</v>
+        <v>410</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="F47" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>348</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>196</v>
+        <v>77</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="F48" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="F49" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="10" t="s">
-        <v>221</v>
+      <c r="A50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>395</v>
+        <v>309</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F50" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>220</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>191</v>
+        <v>367</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="F51" s="6">
-        <v>3</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F52" s="6">
         <v>3</v>
@@ -3085,178 +3193,190 @@
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F53" s="6">
         <v>3</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>66</v>
+        <v>342</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>67</v>
+        <v>344</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="11" t="s">
-        <v>195</v>
+      <c r="A55" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="F55" s="6">
         <v>3</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>339</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>14</v>
+        <v>436</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>412</v>
+        <v>383</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="F57" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>132</v>
+        <v>279</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>135</v>
+        <v>417</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>328</v>
+        <v>14</v>
+      </c>
+      <c r="F58" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>74</v>
+        <v>381</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F59" s="6">
+        <v>3</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>233</v>
+        <v>93</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>400</v>
+        <v>96</v>
       </c>
       <c r="F60" s="6">
         <v>3</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>207</v>
+        <v>242</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="F61" s="6">
         <v>3</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>387</v>
+        <v>410</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="F62" s="6">
         <v>3</v>
@@ -3264,495 +3384,507 @@
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>213</v>
+        <v>264</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="F63" s="6">
         <v>3</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>192</v>
+        <v>425</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>427</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="F64" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>92</v>
+        <v>436</v>
       </c>
       <c r="F65" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>322</v>
+        <v>214</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="F66" s="6">
         <v>3</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>117</v>
+        <v>395</v>
       </c>
       <c r="F67" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>39</v>
+        <v>396</v>
+      </c>
+      <c r="F68" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>341</v>
+        <v>329</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="F69" s="6">
-        <v>3</v>
-      </c>
-      <c r="G69" s="14" t="s">
-        <v>385</v>
+        <v>330</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>92</v>
+        <v>412</v>
       </c>
       <c r="F70" s="6">
-        <v>3</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>188</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>34</v>
+        <v>399</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>36</v>
+        <v>400</v>
+      </c>
+      <c r="F71" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>296</v>
+        <v>207</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F72" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>65</v>
+        <v>387</v>
+      </c>
+      <c r="F73" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>60</v>
+        <v>391</v>
+      </c>
+      <c r="F74" s="6">
+        <v>3</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>292</v>
+        <v>366</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>290</v>
+        <v>364</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>114</v>
+        <v>271</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>112</v>
+        <v>414</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>113</v>
+        <v>273</v>
+      </c>
+      <c r="F77" s="6">
+        <v>3</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>122</v>
+        <v>284</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>125</v>
+        <v>417</v>
+      </c>
+      <c r="F78" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>151</v>
+        <v>278</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>152</v>
+        <v>315</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>46</v>
+        <v>417</v>
+      </c>
+      <c r="F79" s="6">
+        <v>3</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>140</v>
+        <v>335</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>141</v>
+        <v>336</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>142</v>
+        <v>332</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G80" s="14" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>129</v>
+        <v>320</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="F81" s="6">
-        <v>3</v>
+        <v>319</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>366</v>
+        <v>178</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>364</v>
+        <v>379</v>
+      </c>
+      <c r="F82" s="6">
+        <v>3</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>45</v>
+        <v>413</v>
+      </c>
+      <c r="F83" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>174</v>
+        <v>225</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>175</v>
+        <v>396</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84" s="6">
+        <v>3</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>136</v>
+        <v>317</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>138</v>
+        <v>315</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>139</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>86</v>
+        <v>388</v>
       </c>
       <c r="F86" s="6">
         <v>3</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>163</v>
+        <v>285</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>164</v>
+        <v>417</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>160</v>
+        <v>417</v>
+      </c>
+      <c r="F88" s="6">
+        <v>3</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>161</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>166</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>155</v>
+        <v>423</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>156</v>
+        <v>417</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>157</v>
+        <v>14</v>
+      </c>
+      <c r="F90" s="6">
+        <v>1</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>13</v>
@@ -3760,111 +3892,96 @@
       <c r="D91" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="E91" s="9" t="s">
-        <v>273</v>
-      </c>
       <c r="F91" s="6">
         <v>3</v>
       </c>
-      <c r="G91" s="6" t="s">
-        <v>272</v>
+      <c r="G91" s="14" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F92" s="6">
         <v>3</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="F93" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>306</v>
+        <v>397</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>417</v>
+        <v>399</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F94" s="6">
         <v>3</v>
-      </c>
-      <c r="G94" s="14" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>430</v>
+        <v>205</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>432</v>
+        <v>388</v>
+      </c>
+      <c r="F95" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>269</v>
+        <v>391</v>
       </c>
       <c r="F96" s="6">
         <v>3</v>
@@ -3872,723 +3989,669 @@
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>294</v>
+        <v>388</v>
+      </c>
+      <c r="F97" s="6">
+        <v>3</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>433</v>
+        <v>206</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>434</v>
+        <v>388</v>
+      </c>
+      <c r="F98" s="6">
+        <v>3</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>284</v>
+        <v>90</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>417</v>
+        <v>375</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F99" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>428</v>
+        <v>257</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F100" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F101" s="6">
-        <v>3</v>
-      </c>
-      <c r="G101" s="14" t="s">
-        <v>418</v>
+        <v>346</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>162</v>
+        <v>389</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="G102" s="14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="F103" s="6">
         <v>3</v>
-      </c>
-      <c r="G103" s="14" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>14</v>
+        <v>369</v>
+      </c>
+      <c r="G104" s="14" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>21</v>
+        <v>299</v>
       </c>
       <c r="F105" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>254</v>
+        <v>371</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="F106" s="6">
-        <v>3</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>237</v>
+      <c r="A107" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="F107" s="6">
         <v>3</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>168</v>
+        <v>37</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>318</v>
+        <v>187</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>320</v>
+        <v>189</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>14</v>
+        <v>92</v>
+      </c>
+      <c r="F109" s="6">
+        <v>3</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="F111" s="6">
-        <v>3</v>
-      </c>
-      <c r="G111" s="14" t="s">
-        <v>398</v>
+        <v>59</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F112" s="6">
-        <v>3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>237</v>
+        <v>56</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F113" s="6">
-        <v>2</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>409</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="F114" s="6">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>323</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="F115" s="6">
-        <v>4</v>
-      </c>
-      <c r="G115" s="14" t="s">
-        <v>421</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>91</v>
+        <v>433</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F116" s="6">
-        <v>3</v>
-      </c>
-      <c r="G116" s="14" t="s">
-        <v>98</v>
+        <v>434</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>217</v>
+        <v>428</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>351</v>
+        <v>147</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>394</v>
+        <v>429</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F117" s="6">
-        <v>3</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>350</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>109</v>
+        <v>403</v>
       </c>
       <c r="F118" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>308</v>
+        <v>404</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>413</v>
+        <v>379</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F120" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>127</v>
+        <v>380</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="F121" s="6">
         <v>3</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>226</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G122" s="14" t="s">
-        <v>31</v>
+        <v>413</v>
+      </c>
+      <c r="F122" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>314</v>
+        <v>363</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>14</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>185</v>
+        <v>274</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>92</v>
+        <v>414</v>
       </c>
       <c r="F124" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="F125" s="6">
-        <v>4</v>
-      </c>
-      <c r="G125" s="14" t="s">
-        <v>305</v>
+        <v>84</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>311</v>
+        <v>180</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>14</v>
+        <v>182</v>
+      </c>
+      <c r="F126" s="6">
+        <v>3</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>21</v>
+        <v>405</v>
       </c>
       <c r="F127" s="6">
         <v>3</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="6">
-        <v>3</v>
-      </c>
-      <c r="G128" s="14" t="s">
-        <v>402</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="10" t="s">
-        <v>170</v>
+      <c r="A129" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>172</v>
+        <v>21</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>315</v>
+        <v>186</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>316</v>
+        <v>359</v>
+      </c>
+      <c r="F130" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="10" t="s">
-        <v>126</v>
+      <c r="A131" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>321</v>
+        <v>9</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>379</v>
+        <v>5</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F131" s="6">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>327</v>
+        <v>419</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>184</v>
+        <v>417</v>
       </c>
       <c r="F132" s="6">
         <v>3</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>326</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>388</v>
+        <v>381</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="F133" s="6">
         <v>3</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="F134" s="6">
         <v>3</v>
@@ -4596,816 +4659,802 @@
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>379</v>
+        <v>73</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F135" s="6">
-        <v>4</v>
+        <v>74</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>119</v>
+        <v>322</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>117</v>
+        <v>379</v>
       </c>
       <c r="F136" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>417</v>
+        <v>34</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F137" s="6">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>363</v>
+        <v>114</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>364</v>
+        <v>112</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F139" s="6">
-        <v>3</v>
-      </c>
-      <c r="G139" s="14" t="s">
-        <v>422</v>
+        <v>153</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>129</v>
+        <v>430</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="F141" s="6">
-        <v>3</v>
+        <v>431</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>291</v>
+        <v>442</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>290</v>
+        <v>443</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>84</v>
+        <v>380</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="F143" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10" t="s">
-        <v>423</v>
+        <v>170</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>417</v>
+        <v>171</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F144" s="6">
-        <v>1</v>
-      </c>
-      <c r="G144" s="15" t="s">
-        <v>424</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10" t="s">
-        <v>289</v>
+        <v>148</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>417</v>
+        <v>146</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F145" s="6">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>362</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10" t="s">
-        <v>445</v>
+        <v>110</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>446</v>
+        <v>111</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>443</v>
+        <v>112</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="G146" s="16" t="s">
-        <v>448</v>
+        <v>113</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>325</v>
+        <v>101</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F147" s="6">
-        <v>3</v>
-      </c>
-      <c r="G147" s="14" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10" t="s">
-        <v>110</v>
+        <v>263</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E148" s="9" t="s">
-        <v>113</v>
+        <v>414</v>
+      </c>
+      <c r="F148" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10" t="s">
-        <v>248</v>
+        <v>103</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>410</v>
+        <v>100</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F149" s="6">
-        <v>2</v>
-      </c>
-      <c r="G149" s="14" t="s">
-        <v>411</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10" t="s">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="F150" s="6">
-        <v>3</v>
-      </c>
-      <c r="G150" s="14" t="s">
-        <v>406</v>
+        <v>25</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>267</v>
+      <c r="A151" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="F151" s="6">
         <v>3</v>
-      </c>
-      <c r="G151" s="14" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>378</v>
+        <v>68</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F152" s="6">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="G152" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
-        <v>261</v>
+        <v>132</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>413</v>
+        <v>135</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F153" s="6">
-        <v>3</v>
+        <v>133</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="10" t="s">
-        <v>227</v>
+        <v>122</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>396</v>
+        <v>124</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F154" s="6">
-        <v>4</v>
-      </c>
-      <c r="G154" s="14" t="s">
-        <v>397</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F155" s="6">
-        <v>3</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10" t="s">
-        <v>250</v>
+        <v>159</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F158" s="6">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>358</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="F159" s="6">
-        <v>3</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10" t="s">
-        <v>212</v>
+        <v>47</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F161" s="6">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>355</v>
+        <v>48</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="F162" s="6">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>356</v>
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10" t="s">
-        <v>450</v>
+        <v>28</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>446</v>
+        <v>32</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>447</v>
+        <v>30</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="10" t="s">
-        <v>451</v>
+        <v>82</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>446</v>
+        <v>85</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G164" s="14" t="s">
-        <v>452</v>
+        <v>84</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G165" s="14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G166" s="16" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
-    <hyperlink ref="A13" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
-    <hyperlink ref="A38" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A122" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A71" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A68" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A83" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A110" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A119" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A76" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A74" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A73" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="A54" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A59" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
-    <hyperlink ref="A2" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A125" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
-    <hyperlink ref="A20" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A157" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A86" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A143" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
-    <hyperlink ref="A10" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
-    <hyperlink ref="A33" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A116" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A156" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
-    <hyperlink ref="A37" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A93" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A118" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A148" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A77" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A136" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A67" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A152" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A78" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A131" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A135" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
-    <hyperlink ref="A58" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A85" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A80" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A140" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E140" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E80" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E85" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E58" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E135" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E131" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="E78" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E152" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E67" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E136" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E77" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E148" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E118" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E93" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
-    <hyperlink ref="E37" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E156" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E116" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
-    <hyperlink ref="E33" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
-    <hyperlink ref="E10" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E143" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E86" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E157" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E59" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E54" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E73" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E74" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E76" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E119" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E110" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E83" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E68" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E71" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E122" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E38" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="E13" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="E6" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="E15" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A79" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E79" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A90" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E90" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A88" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A87" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A89" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A108" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A129" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E129" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A84" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A44" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A66" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A114" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A147" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E147" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A132" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E132" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A124" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E124" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A70" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E70" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A39" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A51" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A64" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A27" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A28" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A55" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A48" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A45" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A72" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A25" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E25" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A32" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A62" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A31" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A159" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
-    <hyperlink ref="A5" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
-    <hyperlink ref="A61" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A3" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A133" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A4" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
-    <hyperlink ref="A9" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A161" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
-    <hyperlink ref="A63" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A47" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
-    <hyperlink ref="A11" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
-    <hyperlink ref="A7" r:id="rId125" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A117" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A65" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
-    <hyperlink ref="E65" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
-    <hyperlink ref="A19" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A50" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A162" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A52" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A53" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E121" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A121" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A154" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E154" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
-    <hyperlink ref="A42" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="E42" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A111" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E155" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A155" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A60" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A21" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A128" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E128" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E105" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A105" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A107" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A150" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E103" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A103" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A35" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E113" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A49" r:id="rId155" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A113" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E36" r:id="rId157" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A36" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A112" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E112" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A149" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E149" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A158" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E158" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A57" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E92" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A92" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A106" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A16" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A134" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A120" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A153" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E153" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
-    <hyperlink ref="A22" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A41" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A151" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A96" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E96" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A91" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E91" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A141" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
-    <hyperlink ref="A14" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A46" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
-    <hyperlink ref="A81" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
-    <hyperlink ref="A26" r:id="rId185" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E26" r:id="rId186" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A94" r:id="rId187" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A34" r:id="rId188" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A115" r:id="rId189" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A99" r:id="rId190" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A137" r:id="rId191" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E137" r:id="rId192" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A139" r:id="rId193" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A127" r:id="rId194" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E127" r:id="rId195" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A12" r:id="rId196" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E12" r:id="rId197" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A145" r:id="rId198" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E145" r:id="rId199" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A142" r:id="rId200" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
-    <hyperlink ref="A75" r:id="rId201" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A160" r:id="rId202" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
-    <hyperlink ref="A97" r:id="rId203" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A30" r:id="rId204" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="E115" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
-    <hyperlink ref="E126" r:id="rId206" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
-    <hyperlink ref="A126" r:id="rId207" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
-    <hyperlink ref="A123" r:id="rId208" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E123" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
-    <hyperlink ref="A101" r:id="rId210" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
-    <hyperlink ref="A130" r:id="rId211" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
-    <hyperlink ref="A109" r:id="rId212" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
-    <hyperlink ref="E109" r:id="rId213" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
-    <hyperlink ref="E81" r:id="rId214" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
-    <hyperlink ref="A56" r:id="rId215" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
-    <hyperlink ref="E56" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
-    <hyperlink ref="E39" r:id="rId217" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
-    <hyperlink ref="A104" r:id="rId218" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
-    <hyperlink ref="E104" r:id="rId219" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
-    <hyperlink ref="E28" r:id="rId220" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
-    <hyperlink ref="E16" r:id="rId221" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
-    <hyperlink ref="A69" r:id="rId222" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
-    <hyperlink ref="A17" r:id="rId223" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{44B4BF0B-837D-4651-B2FB-1620DC83FFE7}"/>
-    <hyperlink ref="E17" r:id="rId224" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
-    <hyperlink ref="A18" r:id="rId225" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
-    <hyperlink ref="E18" r:id="rId226" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
-    <hyperlink ref="A138" r:id="rId227" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
-    <hyperlink ref="A82" r:id="rId228" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
-    <hyperlink ref="A8" r:id="rId229" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
-    <hyperlink ref="A29" r:id="rId230" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
-    <hyperlink ref="E29" r:id="rId231" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
-    <hyperlink ref="A40" r:id="rId232" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
-    <hyperlink ref="E60" r:id="rId233" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
-    <hyperlink ref="E21" r:id="rId234" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
-    <hyperlink ref="A144" r:id="rId235" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
-    <hyperlink ref="E144" r:id="rId236" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
-    <hyperlink ref="A43" r:id="rId237" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
-    <hyperlink ref="A100" r:id="rId238" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
-    <hyperlink ref="E100" r:id="rId239" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
-    <hyperlink ref="A95" r:id="rId240" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
-    <hyperlink ref="A98" r:id="rId241" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
-    <hyperlink ref="A23" r:id="rId242" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
-    <hyperlink ref="A24" r:id="rId243" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
-    <hyperlink ref="A102" r:id="rId244" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
-    <hyperlink ref="A146" r:id="rId245" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
-    <hyperlink ref="E146" r:id="rId246" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
-    <hyperlink ref="G146" r:id="rId247" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
-    <hyperlink ref="A163" r:id="rId248" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
-    <hyperlink ref="E163" r:id="rId249" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
-    <hyperlink ref="A164" r:id="rId250" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
+    <hyperlink ref="A131" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
+    <hyperlink ref="A50" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
+    <hyperlink ref="A129" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
+    <hyperlink ref="A150" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="A163" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A137" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A108" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A114" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A161" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A162" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A113" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A111" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A110" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A152" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A135" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A48" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
+    <hyperlink ref="A42" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A22" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A164" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A31" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A125" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A99" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
+    <hyperlink ref="A60" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A39" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A147" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A149" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="A33" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A12" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A146" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A138" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A14" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A6" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A16" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A154" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A120" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A45" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A153" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A156" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A140" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A145" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E145" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="E140" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E156" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E153" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E45" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E120" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E154" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E16" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E6" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E14" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E138" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E146" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E12" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E33" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E149" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="E147" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E39" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E60" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
+    <hyperlink ref="E99" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="E125" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E31" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E164" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E135" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E152" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E110" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E111" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E113" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E162" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E161" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E114" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E108" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E137" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E163" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E150" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E129" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E50" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E131" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A139" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E139" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A76" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E76" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A158" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A157" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A159" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A119" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A144" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E144" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A155" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A151" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A136" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A82" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A126" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E126" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A121" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E121" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A143" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E143" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A109" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E109" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A133" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A27" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A5" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A103" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A59" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A107" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A134" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A65" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A8" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A57" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E57" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A23" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A73" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A4" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A95" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A98" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
+    <hyperlink ref="A72" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A97" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A86" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A49" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
+    <hyperlink ref="A52" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A96" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A74" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A66" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
+    <hyperlink ref="A53" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A21" r:id="rId125" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
+    <hyperlink ref="A40" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A29" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E29" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A55" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A67" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A18" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A28" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A68" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="E84" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A84" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A93" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E93" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A24" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="E24" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
+    <hyperlink ref="A10" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E94" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A94" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A71" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A3" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A44" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E44" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E35" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A35" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A118" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A127" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E9" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A9" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A61" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E37" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A26" r:id="rId155" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A37" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E62" r:id="rId157" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A62" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A11" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E11" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A47" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E47" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A17" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E17" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A70" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E32" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A32" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A36" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A100" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
+    <hyperlink ref="A122" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A83" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A92" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E92" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A148" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A63" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A91" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A115" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E115" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A77" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E77" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A124" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A130" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A25" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
+    <hyperlink ref="A30" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="A58" r:id="rId185" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E58" r:id="rId186" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A34" r:id="rId187" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A132" r:id="rId188" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A38" r:id="rId189" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A78" r:id="rId190" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A87" r:id="rId191" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E87" r:id="rId192" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A88" r:id="rId193" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A13" r:id="rId194" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E13" r:id="rId195" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A2" r:id="rId196" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E2" r:id="rId197" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A15" r:id="rId198" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E15" r:id="rId199" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A89" r:id="rId200" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A112" r:id="rId201" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
+    <hyperlink ref="A128" r:id="rId202" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A160" r:id="rId203" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A105" r:id="rId204" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="E38" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
+    <hyperlink ref="E43" r:id="rId206" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
+    <hyperlink ref="A43" r:id="rId207" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
+    <hyperlink ref="A41" r:id="rId208" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E41" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="A79" r:id="rId210" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
+    <hyperlink ref="A85" r:id="rId211" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
+    <hyperlink ref="A81" r:id="rId212" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
+    <hyperlink ref="E81" r:id="rId213" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
+    <hyperlink ref="E30" r:id="rId214" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
+    <hyperlink ref="A69" r:id="rId215" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
+    <hyperlink ref="E69" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
+    <hyperlink ref="E133" r:id="rId217" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
+    <hyperlink ref="A80" r:id="rId218" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
+    <hyperlink ref="E80" r:id="rId219" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
+    <hyperlink ref="E59" r:id="rId220" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
+    <hyperlink ref="E100" r:id="rId221" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
+    <hyperlink ref="A7" r:id="rId222" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
+    <hyperlink ref="A54" r:id="rId223" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{44B4BF0B-837D-4651-B2FB-1620DC83FFE7}"/>
+    <hyperlink ref="E54" r:id="rId224" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
+    <hyperlink ref="A101" r:id="rId225" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
+    <hyperlink ref="E101" r:id="rId226" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
+    <hyperlink ref="A123" r:id="rId227" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
+    <hyperlink ref="A75" r:id="rId228" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
+    <hyperlink ref="A51" r:id="rId229" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
+    <hyperlink ref="A104" r:id="rId230" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
+    <hyperlink ref="E104" r:id="rId231" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
+    <hyperlink ref="A106" r:id="rId232" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
+    <hyperlink ref="E71" r:id="rId233" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
+    <hyperlink ref="E3" r:id="rId234" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
+    <hyperlink ref="A90" r:id="rId235" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
+    <hyperlink ref="E90" r:id="rId236" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
+    <hyperlink ref="A64" r:id="rId237" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
+    <hyperlink ref="A117" r:id="rId238" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
+    <hyperlink ref="E117" r:id="rId239" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
+    <hyperlink ref="A141" r:id="rId240" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
+    <hyperlink ref="A116" r:id="rId241" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
+    <hyperlink ref="A56" r:id="rId242" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
+    <hyperlink ref="A102" r:id="rId243" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
+    <hyperlink ref="A142" r:id="rId244" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
+    <hyperlink ref="A46" r:id="rId245" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
+    <hyperlink ref="E46" r:id="rId246" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
+    <hyperlink ref="G46" r:id="rId247" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
+    <hyperlink ref="A19" r:id="rId248" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
+    <hyperlink ref="E19" r:id="rId249" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
+    <hyperlink ref="A20" r:id="rId250" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
+    <hyperlink ref="A165" r:id="rId251" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{3690C3B5-EFC5-437C-A0D1-CB9D85B3A34F}"/>
+    <hyperlink ref="A166" r:id="rId252" display="https://leetcode.cn/problems/design-an-atm-machine/" xr:uid="{D7B15653-6A09-44BA-BB8C-FDE24401DDF1}"/>
+    <hyperlink ref="G166" r:id="rId253" display="https://leetcode.cn/problems/design-an-atm-machine/description/comments/2455759" xr:uid="{A5086F55-1434-404A-992F-B80FF5A7FC43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId251"/>
+    <tablePart r:id="rId254"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B29A4FE-FADE-435A-94B0-7C89222D2A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5A79D4-F88C-45C5-B7FF-E71FFDD3E0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1478,10 +1478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动态规划优化的回溯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我真NB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1692,6 +1688,10 @@
   </si>
   <si>
     <t>2025.01.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划优化的回溯；Hard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2206,7 +2206,7 @@
         <v>94</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>14</v>
@@ -2229,7 +2229,7 @@
         <v>94</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>127</v>
@@ -2238,7 +2238,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2340,7 +2340,7 @@
         <v>94</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>240</v>
@@ -2349,7 +2349,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2383,7 +2383,7 @@
         <v>94</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>92</v>
@@ -2469,7 +2469,7 @@
         <v>94</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>14</v>
@@ -2512,7 +2512,7 @@
         <v>94</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>127</v>
@@ -2546,10 +2546,10 @@
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>94</v>
@@ -2558,15 +2558,15 @@
         <v>34</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>94</v>
@@ -2575,7 +2575,7 @@
         <v>34</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2614,13 +2614,13 @@
         <v>200</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F23" s="6">
         <v>4</v>
@@ -2660,13 +2660,13 @@
         <v>79</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F25" s="6">
         <v>3</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2680,7 +2680,7 @@
         <v>79</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F26" s="6">
         <v>3</v>
@@ -2748,7 +2748,7 @@
         <v>79</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>324</v>
@@ -2788,7 +2788,7 @@
         <v>79</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>8</v>
@@ -2834,7 +2834,7 @@
         <v>79</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F34" s="6">
         <v>3</v>
@@ -2854,7 +2854,7 @@
         <v>79</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>21</v>
@@ -2874,7 +2874,7 @@
         <v>79</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F36" s="6">
         <v>3</v>
@@ -2891,7 +2891,7 @@
         <v>79</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>97</v>
@@ -2900,7 +2900,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2914,7 +2914,7 @@
         <v>79</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>307</v>
@@ -2923,7 +2923,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3043,7 +3043,7 @@
         <v>3</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3068,22 +3068,22 @@
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E46" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="G46" s="16" t="s">
         <v>447</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3097,7 +3097,7 @@
         <v>79</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>249</v>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3120,7 +3120,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F48" s="6">
         <v>4</v>
@@ -3247,16 +3247,16 @@
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="G56" s="14" t="s">
         <v>436</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3290,7 +3290,7 @@
         <v>13</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>14</v>
@@ -3353,7 +3353,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F61" s="6">
         <v>3</v>
@@ -3373,7 +3373,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>102</v>
@@ -3393,7 +3393,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F63" s="6">
         <v>3</v>
@@ -3401,16 +3401,16 @@
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F64" s="6">
         <v>1</v>
@@ -3421,13 +3421,13 @@
         <v>197</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F65" s="6">
         <v>4</v>
@@ -3512,7 +3512,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F70" s="6">
         <v>4</v>
@@ -3631,7 +3631,7 @@
         <v>13</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>273</v>
@@ -3654,7 +3654,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F78" s="6">
         <v>3</v>
@@ -3671,13 +3671,13 @@
         <v>13</v>
       </c>
       <c r="D79" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="F79" s="6">
+        <v>3</v>
+      </c>
+      <c r="G79" s="14" t="s">
         <v>417</v>
-      </c>
-      <c r="F79" s="6">
-        <v>3</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3745,7 +3745,7 @@
         <v>13</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F83" s="6">
         <v>3</v>
@@ -3816,7 +3816,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E87" s="9" t="s">
         <v>14</v>
@@ -3836,13 +3836,13 @@
         <v>13</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F88" s="6">
         <v>3</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3858,7 +3858,7 @@
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>129</v>
@@ -3867,7 +3867,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>14</v>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3890,13 +3890,13 @@
         <v>13</v>
       </c>
       <c r="D91" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F91" s="6">
+        <v>3</v>
+      </c>
+      <c r="G91" s="14" t="s">
         <v>414</v>
-      </c>
-      <c r="F91" s="6">
-        <v>3</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3910,7 +3910,7 @@
         <v>13</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E92" s="9" t="s">
         <v>21</v>
@@ -4058,7 +4058,7 @@
         <v>41</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>14</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>389</v>
@@ -4092,7 +4092,7 @@
         <v>41</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4313,7 +4313,7 @@
         <v>41</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E115" s="9" t="s">
         <v>269</v>
@@ -4324,18 +4324,18 @@
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>147</v>
@@ -4344,7 +4344,7 @@
         <v>41</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>26</v>
@@ -4364,13 +4364,13 @@
         <v>41</v>
       </c>
       <c r="D118" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="F118" s="6">
+        <v>3</v>
+      </c>
+      <c r="G118" s="14" t="s">
         <v>403</v>
-      </c>
-      <c r="F118" s="6">
-        <v>3</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4441,7 +4441,7 @@
         <v>41</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F122" s="6">
         <v>3</v>
@@ -4469,7 +4469,7 @@
         <v>41</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F124" s="6">
         <v>3</v>
@@ -4526,13 +4526,13 @@
         <v>41</v>
       </c>
       <c r="D127" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="F127" s="6">
+        <v>3</v>
+      </c>
+      <c r="G127" s="14" t="s">
         <v>405</v>
-      </c>
-      <c r="F127" s="6">
-        <v>3</v>
-      </c>
-      <c r="G127" s="14" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4608,19 +4608,19 @@
         <v>282</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F132" s="6">
         <v>3</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4770,21 +4770,21 @@
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D141" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G141" s="14" t="s">
         <v>431</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>162</v>
@@ -4793,10 +4793,10 @@
         <v>6</v>
       </c>
       <c r="D142" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G142" s="14" t="s">
         <v>443</v>
-      </c>
-      <c r="G142" s="14" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4901,7 +4901,7 @@
         <v>27</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F148" s="6">
         <v>3</v>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>131</v>
@@ -5181,18 +5181,18 @@
         <v>43</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>43</v>
       </c>
       <c r="G166" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5A79D4-F88C-45C5-B7FF-E71FFDD3E0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3424DF3E-3057-4A10-BC87-25A6ABDE04C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23412" yWindow="3468" windowWidth="22104" windowHeight="11808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="462">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1692,6 +1692,21 @@
   </si>
   <si>
     <t>动态规划优化的回溯；Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3019. 按键变更的次数</t>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teck</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1875,8 +1890,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048575" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048575" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G166">
-    <sortCondition descending="1" ref="C1:C1048575"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G167">
+    <sortCondition ref="A1:A1048575"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
@@ -2154,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2197,305 +2212,272 @@
     </row>
     <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
+        <v>448</v>
       </c>
       <c r="F2" s="6">
         <v>4</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>361</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>127</v>
+        <v>388</v>
       </c>
       <c r="F3" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>457</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>192</v>
+        <v>206</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F5" s="6">
         <v>3</v>
       </c>
+      <c r="G5" s="14" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10" t="s">
-        <v>150</v>
+      <c r="A6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>341</v>
+        <v>216</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="F8" s="6">
-        <v>4</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>240</v>
+        <v>391</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>396</v>
+        <v>375</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F10" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>398</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>92</v>
+        <v>391</v>
       </c>
       <c r="F11" s="6">
         <v>3</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>154</v>
+        <v>288</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="F12" s="6">
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10" t="s">
-        <v>287</v>
+      <c r="A13" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="6">
-        <v>3</v>
-      </c>
       <c r="G13" s="14" t="s">
-        <v>360</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>116</v>
+        <v>275</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>117</v>
+        <v>359</v>
       </c>
       <c r="F14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>416</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>362</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>118</v>
+        <v>257</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>106</v>
+        <v>321</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F16" s="6">
         <v>3</v>
@@ -2503,107 +2485,110 @@
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>250</v>
+        <v>342</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>344</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="6">
-        <v>3</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>358</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="F18" s="6">
-        <v>3</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>356</v>
+        <v>346</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>449</v>
+        <v>219</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>445</v>
+        <v>354</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>446</v>
+        <v>395</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>451</v>
+        <v>373</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>216</v>
+        <v>234</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>393</v>
+        <v>456</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F21" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="F22" s="6">
         <v>3</v>
@@ -2611,76 +2596,67 @@
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="F23" s="6">
-        <v>4</v>
-      </c>
       <c r="G23" s="14" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>229</v>
+        <v>389</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="6">
-        <v>3</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>413</v>
+        <v>383</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="F25" s="6">
         <v>3</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>409</v>
+        <v>416</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F26" s="6">
         <v>3</v>
@@ -2688,10 +2664,13 @@
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>381</v>
@@ -2702,136 +2681,127 @@
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>396</v>
+        <v>381</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>338</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="6">
-        <v>3</v>
+        <v>369</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="F30" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="F31" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>254</v>
+        <v>438</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>8</v>
+        <v>435</v>
       </c>
       <c r="F32" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>258</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F33" s="6">
         <v>3</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>129</v>
+        <v>418</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>416</v>
@@ -2840,41 +2810,44 @@
         <v>3</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>281</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>237</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>21</v>
+        <v>407</v>
       </c>
       <c r="F35" s="6">
         <v>3</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="F36" s="6">
         <v>3</v>
@@ -2882,310 +2855,265 @@
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>407</v>
+        <v>100</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="6">
-        <v>2</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>408</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>416</v>
+        <v>25</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="F38" s="6">
-        <v>4</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>420</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>97</v>
+        <v>381</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="F39" s="6">
         <v>3</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>98</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="F40" s="6">
-        <v>3</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>313</v>
+        <v>264</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>314</v>
+        <v>265</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>14</v>
+        <v>413</v>
+      </c>
+      <c r="F41" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>43</v>
+        <v>396</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F42" s="6">
-        <v>5</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>305</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>311</v>
+        <v>424</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>312</v>
+        <v>426</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>14</v>
+        <v>425</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>229</v>
+      <c r="A44" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>14</v>
+        <v>379</v>
       </c>
       <c r="F44" s="6">
         <v>3</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>131</v>
+        <v>437</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>130</v>
+        <v>435</v>
       </c>
       <c r="F45" s="6">
         <v>4</v>
       </c>
+      <c r="G45" s="14" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>444</v>
+        <v>276</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>445</v>
+        <v>129</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>447</v>
+        <v>413</v>
+      </c>
+      <c r="F46" s="6">
+        <v>3</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>249</v>
+        <v>391</v>
       </c>
       <c r="F47" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>410</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="F48" s="6">
-        <v>4</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>210</v>
+        <v>244</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="F49" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>12</v>
+      <c r="A50" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>14</v>
+        <v>395</v>
       </c>
       <c r="F50" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>367</v>
+        <v>191</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>364</v>
+        <v>381</v>
+      </c>
+      <c r="F51" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F52" s="6">
         <v>3</v>
@@ -3193,292 +3121,280 @@
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F53" s="6">
         <v>3</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>342</v>
+        <v>66</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>344</v>
+        <v>67</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>14</v>
+        <v>69</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>354</v>
+      <c r="A55" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F55" s="6">
         <v>3</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>434</v>
+        <v>329</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>436</v>
+        <v>330</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>86</v>
+        <v>411</v>
       </c>
       <c r="F57" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>279</v>
+        <v>132</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>416</v>
+        <v>135</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="6">
-        <v>3</v>
+        <v>133</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>194</v>
+        <v>71</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="F59" s="6">
-        <v>3</v>
+        <v>73</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>382</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>93</v>
+        <v>233</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>96</v>
+        <v>400</v>
       </c>
       <c r="F60" s="6">
         <v>3</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>237</v>
+        <v>454</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="F61" s="6">
-        <v>3</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>357</v>
+        <v>43</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>102</v>
+        <v>388</v>
       </c>
       <c r="F62" s="6">
         <v>3</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>264</v>
+        <v>452</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>265</v>
+        <v>460</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="F63" s="6">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>424</v>
+        <v>202</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>426</v>
+        <v>201</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="F64" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>437</v>
+        <v>213</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="F65" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F66" s="6">
         <v>3</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F67" s="6">
         <v>3</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>220</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>224</v>
+        <v>177</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F68" s="6">
         <v>3</v>
@@ -3486,266 +3402,275 @@
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>329</v>
+        <v>150</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>331</v>
+        <v>120</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="F69" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="F70" s="6">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="F71" s="6">
         <v>3</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>207</v>
+        <v>187</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>388</v>
+        <v>380</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F72" s="6">
         <v>3</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>389</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F73" s="6">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>213</v>
+        <v>198</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F74" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>366</v>
+        <v>61</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>364</v>
+        <v>63</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>365</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F77" s="6">
-        <v>3</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>284</v>
+        <v>54</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="F78" s="6">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>278</v>
+        <v>114</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="F79" s="6">
-        <v>3</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>417</v>
+        <v>112</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>335</v>
+        <v>122</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>336</v>
+        <v>123</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>332</v>
+        <v>124</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>320</v>
+        <v>152</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="F82" s="6">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>323</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>412</v>
+        <v>416</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="F83" s="6">
         <v>3</v>
@@ -3753,570 +3678,558 @@
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>230</v>
+        <v>366</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F84" s="6">
-        <v>3</v>
+        <v>364</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>226</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>316</v>
+        <v>43</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="F86" s="6">
-        <v>3</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>390</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>285</v>
+        <v>136</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>416</v>
+        <v>137</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="6">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>129</v>
+        <v>302</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>416</v>
+        <v>374</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="F88" s="6">
         <v>3</v>
-      </c>
-      <c r="G88" s="14" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>291</v>
+        <v>163</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>290</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>422</v>
+        <v>159</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="6">
-        <v>1</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>423</v>
+        <v>160</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="F91" s="6">
-        <v>3</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>414</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>261</v>
+        <v>155</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>412</v>
+        <v>156</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F92" s="6">
-        <v>3</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>227</v>
+        <v>271</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>46</v>
+        <v>273</v>
       </c>
       <c r="F93" s="6">
-        <v>4</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>397</v>
+        <v>3</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="F94" s="6">
         <v>3</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>205</v>
+        <v>107</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>388</v>
+        <v>376</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="F95" s="6">
         <v>3</v>
+      </c>
+      <c r="G95" s="14" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>212</v>
+        <v>280</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="F96" s="6">
         <v>3</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>208</v>
+        <v>458</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>459</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="F97" s="6">
-        <v>3</v>
-      </c>
-      <c r="G97" s="14" t="s">
-        <v>389</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="F98" s="6">
-        <v>3</v>
+        <v>430</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>147</v>
+        <v>270</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>92</v>
+        <v>269</v>
       </c>
       <c r="F99" s="6">
-        <v>4</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>303</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="6">
-        <v>3</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>345</v>
+        <v>432</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>14</v>
+        <v>433</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>439</v>
+        <v>284</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>389</v>
+        <v>129</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>440</v>
+        <v>416</v>
+      </c>
+      <c r="F102" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>193</v>
+        <v>427</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>337</v>
+        <v>147</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>381</v>
+        <v>428</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F103" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>368</v>
+        <v>278</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>369</v>
+        <v>416</v>
+      </c>
+      <c r="F104" s="6">
+        <v>3</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>297</v>
+        <v>441</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="F105" s="6">
-        <v>2</v>
+        <v>442</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>371</v>
+        <v>241</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>372</v>
+        <v>404</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F106" s="6">
+        <v>3</v>
+      </c>
+      <c r="G106" s="14" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="11" t="s">
-        <v>195</v>
+      <c r="A107" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>336</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="F107" s="6">
-        <v>3</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>339</v>
+        <v>332</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>37</v>
+        <v>404</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G108" s="14" t="s">
-        <v>39</v>
+      <c r="F108" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>92</v>
+        <v>411</v>
       </c>
       <c r="F109" s="6">
         <v>3</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>61</v>
+        <v>238</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>64</v>
+        <v>402</v>
+      </c>
+      <c r="F110" s="6">
+        <v>3</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>65</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>292</v>
+        <v>318</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>290</v>
+        <v>319</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>46</v>
+        <v>396</v>
+      </c>
+      <c r="F114" s="6">
+        <v>3</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>45</v>
+        <v>398</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>269</v>
+        <v>92</v>
       </c>
       <c r="F115" s="6">
         <v>3</v>
@@ -4324,1137 +4237,1261 @@
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>432</v>
+        <v>243</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>433</v>
+        <v>407</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F116" s="6">
+        <v>2</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>427</v>
+        <v>178</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>26</v>
+        <v>379</v>
       </c>
       <c r="F117" s="6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>402</v>
+        <v>416</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>307</v>
       </c>
       <c r="F118" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>168</v>
+        <v>376</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F119" s="6">
+        <v>3</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>127</v>
+        <v>394</v>
       </c>
       <c r="F120" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>327</v>
+        <v>106</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>184</v>
+        <v>376</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="F121" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="F122" s="6">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>363</v>
+        <v>260</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>364</v>
+        <v>412</v>
+      </c>
+      <c r="F123" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>413</v>
+        <v>396</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F124" s="6">
         <v>3</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>89</v>
+        <v>30</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>180</v>
+        <v>313</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F126" s="6">
-        <v>3</v>
-      </c>
-      <c r="G126" s="14" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>404</v>
+        <v>380</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F127" s="6">
-        <v>3</v>
-      </c>
-      <c r="G127" s="14" t="s">
-        <v>405</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>293</v>
+        <v>81</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>290</v>
+        <v>43</v>
+      </c>
+      <c r="F128" s="6">
+        <v>5</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="4" t="s">
-        <v>18</v>
+      <c r="A129" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" s="14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>359</v>
+        <v>373</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F130" s="6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A131" s="4" t="s">
-        <v>4</v>
+      <c r="A131" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>5</v>
+        <v>399</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="F131" s="6">
+        <v>3</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>282</v>
+        <v>170</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>418</v>
+        <v>173</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="F132" s="6">
-        <v>3</v>
-      </c>
-      <c r="G132" s="14" t="s">
-        <v>419</v>
+        <v>171</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>190</v>
+        <v>317</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="F133" s="6">
-        <v>3</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>196</v>
+        <v>126</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F134" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>74</v>
+        <v>380</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F135" s="6">
+        <v>3</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>76</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>322</v>
+        <v>209</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F136" s="6">
         <v>3</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" s="14" t="s">
-        <v>36</v>
+        <v>412</v>
+      </c>
+      <c r="F137" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>112</v>
+        <v>379</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>113</v>
+        <v>130</v>
+      </c>
+      <c r="F138" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>153</v>
+        <v>377</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>46</v>
+        <v>117</v>
+      </c>
+      <c r="F139" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>140</v>
+        <v>285</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>142</v>
+        <v>416</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G140" s="14" t="s">
-        <v>143</v>
+        <v>14</v>
+      </c>
+      <c r="F140" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="G141" s="14" t="s">
-        <v>431</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>441</v>
+        <v>286</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>442</v>
+        <v>416</v>
+      </c>
+      <c r="F142" s="6">
+        <v>3</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>380</v>
+        <v>146</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F143" s="6">
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10" t="s">
-        <v>170</v>
+        <v>274</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>172</v>
+        <v>413</v>
+      </c>
+      <c r="F144" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>147</v>
+        <v>291</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G145" s="14" t="s">
-        <v>149</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10" t="s">
-        <v>99</v>
+        <v>422</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>100</v>
+        <v>416</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>102</v>
+        <v>14</v>
+      </c>
+      <c r="F147" s="6">
+        <v>1</v>
+      </c>
+      <c r="G147" s="15" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>413</v>
+        <v>416</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F148" s="6">
         <v>3</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10" t="s">
-        <v>103</v>
+        <v>444</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>105</v>
+        <v>445</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>100</v>
+        <v>442</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>104</v>
+        <v>446</v>
+      </c>
+      <c r="G149" s="16" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>26</v>
+        <v>182</v>
+      </c>
+      <c r="F150" s="6">
+        <v>3</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="4" t="s">
-        <v>176</v>
+      <c r="A151" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="F151" s="6">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10" t="s">
-        <v>66</v>
+        <v>450</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>67</v>
+        <v>445</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>70</v>
+        <v>451</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G153" s="14" t="s">
-        <v>328</v>
+        <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="10" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>123</v>
+        <v>251</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>124</v>
+        <v>409</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>125</v>
+        <v>249</v>
+      </c>
+      <c r="F154" s="6">
+        <v>2</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
-        <v>174</v>
+        <v>239</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>175</v>
+        <v>404</v>
+      </c>
+      <c r="F155" s="6">
+        <v>3</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10" t="s">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>138</v>
+        <v>267</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>139</v>
+        <v>413</v>
+      </c>
+      <c r="F156" s="6">
+        <v>3</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
-        <v>163</v>
+        <v>118</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>164</v>
+        <v>378</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F157" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G158" s="14" t="s">
-        <v>161</v>
+        <v>412</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F158" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>166</v>
+        <v>396</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F159" s="6">
+        <v>4</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
-        <v>295</v>
+        <v>232</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>294</v>
+        <v>399</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F160" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" s="14" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" s="14" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>29</v>
+        <v>409</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>30</v>
+        <v>127</v>
+      </c>
+      <c r="F163" s="6">
+        <v>3</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>31</v>
+        <v>358</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E164" s="9" t="s">
-        <v>83</v>
+        <v>388</v>
+      </c>
+      <c r="F164" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G165" s="14" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="10" t="s">
-        <v>454</v>
+        <v>212</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G166" s="16" t="s">
-        <v>455</v>
+        <v>391</v>
+      </c>
+      <c r="F166" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F167" s="6">
+        <v>3</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A131" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
-    <hyperlink ref="A50" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
-    <hyperlink ref="A129" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
-    <hyperlink ref="A150" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A163" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A137" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A108" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A114" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A161" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A162" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A113" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A111" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A110" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="A152" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A135" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
-    <hyperlink ref="A48" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A42" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
-    <hyperlink ref="A22" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A164" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A31" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A125" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
-    <hyperlink ref="A99" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
-    <hyperlink ref="A60" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A39" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A147" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
-    <hyperlink ref="A149" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A33" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A12" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A146" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A138" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A14" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A6" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A16" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A154" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A120" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A45" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
-    <hyperlink ref="A153" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A156" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A140" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A145" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E145" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E140" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E156" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E153" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E45" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E120" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="E154" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E16" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E6" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E14" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E138" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E146" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E12" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E33" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
-    <hyperlink ref="E149" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E147" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E39" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
-    <hyperlink ref="E60" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
-    <hyperlink ref="E99" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E125" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E31" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E164" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E135" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E152" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E110" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E111" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E113" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E162" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E161" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E114" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E108" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E137" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E163" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E150" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="E129" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="E50" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="E131" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A139" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E139" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A76" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E76" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A158" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A157" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A159" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A119" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A144" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E144" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A155" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A151" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A136" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A82" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A126" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E126" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A121" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E121" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A143" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E143" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A109" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E109" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A133" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A27" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A5" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A103" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A59" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A107" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A134" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A65" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A8" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A57" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E57" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A23" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A73" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A4" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A95" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
-    <hyperlink ref="A98" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
-    <hyperlink ref="A72" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A97" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A86" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A49" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
-    <hyperlink ref="A52" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A96" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
-    <hyperlink ref="A74" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A66" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
-    <hyperlink ref="A53" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
-    <hyperlink ref="A21" r:id="rId125" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A40" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A29" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
-    <hyperlink ref="E29" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
-    <hyperlink ref="A55" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A67" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A18" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A28" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A68" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E84" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A84" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A93" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E93" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
-    <hyperlink ref="A24" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="E24" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A10" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E94" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A94" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A71" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A3" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A44" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E44" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E35" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A35" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A118" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A127" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E9" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A9" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A61" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E37" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A26" r:id="rId155" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A37" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E62" r:id="rId157" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A62" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A11" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E11" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A47" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E47" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A17" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E17" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A70" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E32" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A32" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A36" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A100" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A122" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A83" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A92" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E92" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
-    <hyperlink ref="A148" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A63" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A91" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A115" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E115" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A77" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E77" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A124" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
-    <hyperlink ref="A130" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A25" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
-    <hyperlink ref="A30" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
-    <hyperlink ref="A58" r:id="rId185" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E58" r:id="rId186" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A34" r:id="rId187" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A132" r:id="rId188" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A38" r:id="rId189" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A78" r:id="rId190" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A87" r:id="rId191" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E87" r:id="rId192" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A88" r:id="rId193" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A13" r:id="rId194" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E13" r:id="rId195" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A2" r:id="rId196" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E2" r:id="rId197" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A15" r:id="rId198" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E15" r:id="rId199" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A89" r:id="rId200" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
-    <hyperlink ref="A112" r:id="rId201" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A128" r:id="rId202" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
-    <hyperlink ref="A160" r:id="rId203" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A105" r:id="rId204" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="E38" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
-    <hyperlink ref="E43" r:id="rId206" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
-    <hyperlink ref="A43" r:id="rId207" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
-    <hyperlink ref="A41" r:id="rId208" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E41" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
-    <hyperlink ref="A79" r:id="rId210" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
-    <hyperlink ref="A85" r:id="rId211" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
-    <hyperlink ref="A81" r:id="rId212" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
-    <hyperlink ref="E81" r:id="rId213" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
-    <hyperlink ref="E30" r:id="rId214" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
-    <hyperlink ref="A69" r:id="rId215" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
-    <hyperlink ref="E69" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
-    <hyperlink ref="E133" r:id="rId217" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
-    <hyperlink ref="A80" r:id="rId218" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
-    <hyperlink ref="E80" r:id="rId219" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
-    <hyperlink ref="E59" r:id="rId220" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
-    <hyperlink ref="E100" r:id="rId221" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
-    <hyperlink ref="A7" r:id="rId222" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
-    <hyperlink ref="A54" r:id="rId223" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{44B4BF0B-837D-4651-B2FB-1620DC83FFE7}"/>
-    <hyperlink ref="E54" r:id="rId224" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
-    <hyperlink ref="A101" r:id="rId225" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
-    <hyperlink ref="E101" r:id="rId226" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
-    <hyperlink ref="A123" r:id="rId227" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
-    <hyperlink ref="A75" r:id="rId228" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
-    <hyperlink ref="A51" r:id="rId229" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
-    <hyperlink ref="A104" r:id="rId230" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
-    <hyperlink ref="E104" r:id="rId231" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
-    <hyperlink ref="A106" r:id="rId232" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
-    <hyperlink ref="E71" r:id="rId233" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
-    <hyperlink ref="E3" r:id="rId234" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
-    <hyperlink ref="A90" r:id="rId235" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
-    <hyperlink ref="E90" r:id="rId236" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
-    <hyperlink ref="A64" r:id="rId237" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
-    <hyperlink ref="A117" r:id="rId238" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
-    <hyperlink ref="E117" r:id="rId239" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
-    <hyperlink ref="A141" r:id="rId240" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
-    <hyperlink ref="A116" r:id="rId241" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
-    <hyperlink ref="A56" r:id="rId242" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
-    <hyperlink ref="A102" r:id="rId243" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
-    <hyperlink ref="A142" r:id="rId244" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
-    <hyperlink ref="A46" r:id="rId245" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
-    <hyperlink ref="E46" r:id="rId246" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
-    <hyperlink ref="G46" r:id="rId247" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
-    <hyperlink ref="A19" r:id="rId248" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
-    <hyperlink ref="E19" r:id="rId249" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
-    <hyperlink ref="A20" r:id="rId250" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
-    <hyperlink ref="A165" r:id="rId251" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{3690C3B5-EFC5-437C-A0D1-CB9D85B3A34F}"/>
-    <hyperlink ref="A166" r:id="rId252" display="https://leetcode.cn/problems/design-an-atm-machine/" xr:uid="{D7B15653-6A09-44BA-BB8C-FDE24401DDF1}"/>
-    <hyperlink ref="G166" r:id="rId253" display="https://leetcode.cn/problems/design-an-atm-machine/description/comments/2455759" xr:uid="{A5086F55-1434-404A-992F-B80FF5A7FC43}"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{7EC56A7A-8F87-41C9-98CC-02AAAEBAB926}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
+    <hyperlink ref="A13" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
+    <hyperlink ref="A38" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
+    <hyperlink ref="A125" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A73" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A70" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A85" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A113" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A122" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A78" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A76" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A75" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A54" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A59" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A2" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
+    <hyperlink ref="A128" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
+    <hyperlink ref="A162" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A88" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A146" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A10" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
+    <hyperlink ref="A33" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
+    <hyperlink ref="A119" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A161" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A37" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
+    <hyperlink ref="A95" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A121" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A153" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A79" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A139" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A69" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A157" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A80" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A134" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A138" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A58" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A87" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A82" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A143" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E143" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="E82" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E87" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E58" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E138" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E134" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E80" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E157" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E69" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E139" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E79" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E153" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E121" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E95" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E37" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
+    <hyperlink ref="E161" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E119" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E33" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
+    <hyperlink ref="E10" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="E146" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E88" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E162" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E59" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E54" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E75" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E76" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E78" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E122" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E113" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E85" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E70" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E73" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E125" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E38" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E13" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E6" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E15" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A81" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E81" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A92" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E92" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A90" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A89" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A91" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A111" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A132" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E132" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A86" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A44" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A68" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A117" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A150" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E150" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A135" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E135" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A127" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E127" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A72" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E72" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A39" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A51" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A66" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A27" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A28" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A55" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A48" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A45" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A74" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A25" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E25" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A32" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A64" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A31" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A164" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A5" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
+    <hyperlink ref="A62" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A3" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A136" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A4" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
+    <hyperlink ref="A9" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A166" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A65" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A47" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
+    <hyperlink ref="A11" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A7" r:id="rId125" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
+    <hyperlink ref="A120" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A67" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E67" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A19" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A50" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A167" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A52" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A53" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="E124" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A124" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A159" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E159" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A42" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="E42" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
+    <hyperlink ref="A114" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E160" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A160" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A60" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A21" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A131" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E131" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E108" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A108" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A110" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A155" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E106" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A106" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A35" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E116" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A49" r:id="rId155" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A116" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E36" r:id="rId157" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A36" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A115" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E115" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A154" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E154" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A163" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E163" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A57" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E94" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A94" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A109" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A16" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
+    <hyperlink ref="A137" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A123" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A158" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E158" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A22" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A41" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A156" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A99" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E99" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A93" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E93" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A144" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A14" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A46" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
+    <hyperlink ref="A83" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="A26" r:id="rId185" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E26" r:id="rId186" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A96" r:id="rId187" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A34" r:id="rId188" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A118" r:id="rId189" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A102" r:id="rId190" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A140" r:id="rId191" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E140" r:id="rId192" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A142" r:id="rId193" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A130" r:id="rId194" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E130" r:id="rId195" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A12" r:id="rId196" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E12" r:id="rId197" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A148" r:id="rId198" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E148" r:id="rId199" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A145" r:id="rId200" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
+    <hyperlink ref="A77" r:id="rId201" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
+    <hyperlink ref="A165" r:id="rId202" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
+    <hyperlink ref="A100" r:id="rId203" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A30" r:id="rId204" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="E118" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
+    <hyperlink ref="E129" r:id="rId206" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
+    <hyperlink ref="A129" r:id="rId207" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
+    <hyperlink ref="A126" r:id="rId208" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E126" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="A104" r:id="rId210" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
+    <hyperlink ref="A133" r:id="rId211" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
+    <hyperlink ref="A112" r:id="rId212" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
+    <hyperlink ref="E112" r:id="rId213" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
+    <hyperlink ref="E83" r:id="rId214" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
+    <hyperlink ref="A56" r:id="rId215" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
+    <hyperlink ref="E56" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
+    <hyperlink ref="E39" r:id="rId217" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
+    <hyperlink ref="A107" r:id="rId218" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
+    <hyperlink ref="E107" r:id="rId219" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
+    <hyperlink ref="E28" r:id="rId220" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
+    <hyperlink ref="E16" r:id="rId221" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
+    <hyperlink ref="A71" r:id="rId222" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
+    <hyperlink ref="A17" r:id="rId223" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{44B4BF0B-837D-4651-B2FB-1620DC83FFE7}"/>
+    <hyperlink ref="E17" r:id="rId224" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
+    <hyperlink ref="A18" r:id="rId225" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
+    <hyperlink ref="E18" r:id="rId226" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
+    <hyperlink ref="A141" r:id="rId227" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
+    <hyperlink ref="A84" r:id="rId228" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
+    <hyperlink ref="A8" r:id="rId229" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
+    <hyperlink ref="A29" r:id="rId230" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
+    <hyperlink ref="E29" r:id="rId231" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
+    <hyperlink ref="A40" r:id="rId232" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
+    <hyperlink ref="E60" r:id="rId233" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
+    <hyperlink ref="E21" r:id="rId234" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
+    <hyperlink ref="A147" r:id="rId235" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
+    <hyperlink ref="E147" r:id="rId236" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
+    <hyperlink ref="A43" r:id="rId237" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
+    <hyperlink ref="A103" r:id="rId238" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
+    <hyperlink ref="E103" r:id="rId239" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
+    <hyperlink ref="A98" r:id="rId240" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
+    <hyperlink ref="A101" r:id="rId241" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
+    <hyperlink ref="A23" r:id="rId242" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
+    <hyperlink ref="A24" r:id="rId243" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
+    <hyperlink ref="A105" r:id="rId244" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
+    <hyperlink ref="A149" r:id="rId245" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
+    <hyperlink ref="E149" r:id="rId246" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
+    <hyperlink ref="G149" r:id="rId247" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
+    <hyperlink ref="A151" r:id="rId248" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
+    <hyperlink ref="E151" r:id="rId249" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
+    <hyperlink ref="A152" r:id="rId250" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
+    <hyperlink ref="A63" r:id="rId251" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{3690C3B5-EFC5-437C-A0D1-CB9D85B3A34F}"/>
+    <hyperlink ref="A61" r:id="rId252" display="https://leetcode.cn/problems/design-an-atm-machine/" xr:uid="{D7B15653-6A09-44BA-BB8C-FDE24401DDF1}"/>
+    <hyperlink ref="G61" r:id="rId253" display="https://leetcode.cn/problems/design-an-atm-machine/description/comments/2455759" xr:uid="{A5086F55-1434-404A-992F-B80FF5A7FC43}"/>
+    <hyperlink ref="A97" r:id="rId254" display="https://leetcode.cn/problems/number-of-changing-keys/" xr:uid="{E1DB166E-6F15-4C1A-A4DF-848D9F040960}"/>
+    <hyperlink ref="E20" r:id="rId255" xr:uid="{885648FE-B846-494B-A1CC-6EF51258DFBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId254"/>
+    <tablePart r:id="rId256"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3424DF3E-3057-4A10-BC87-25A6ABDE04C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C935A971-3A5E-42B4-BD9C-4939EEE5CAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23412" yWindow="3468" windowWidth="22104" windowHeight="11808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="463">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1060,10 +1060,6 @@
     <t>72. 编辑距离</t>
   </si>
   <si>
-    <t>2024.04.09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>704. 二分查找</t>
   </si>
   <si>
@@ -1367,10 +1363,6 @@
   </si>
   <si>
     <t>2024.11.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.11.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1707,6 +1699,17 @@
   </si>
   <si>
     <t>Teck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2264. 字符串中最大的 3 位相同数字</t>
+  </si>
+  <si>
+    <t>2025.01.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码随想录、数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1888,10 +1891,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048575" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G1048575" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G167">
-    <sortCondition ref="A1:A1048575"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048572" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G1048572" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G168">
+    <sortCondition ref="A1:A1048572"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
@@ -2169,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166:XFD166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2221,7 +2224,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F2" s="6">
         <v>4</v>
@@ -2238,13 +2241,13 @@
         <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2255,7 +2258,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
@@ -2266,19 +2269,19 @@
         <v>206</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F5" s="6">
         <v>3</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2292,7 +2295,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
@@ -2312,7 +2315,7 @@
         <v>79</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
@@ -2320,13 +2323,13 @@
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2337,7 +2340,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
@@ -2354,7 +2357,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>92</v>
@@ -2363,7 +2366,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2374,13 +2377,13 @@
         <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F11" s="6">
         <v>3</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2394,7 +2397,7 @@
         <v>94</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>14</v>
@@ -2403,7 +2406,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2437,7 +2440,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
@@ -2468,13 +2471,13 @@
         <v>257</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>14</v>
@@ -2485,16 +2488,16 @@
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>14</v>
@@ -2502,13 +2505,13 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -2519,13 +2522,13 @@
         <v>219</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F19" s="6">
         <v>3</v>
@@ -2536,7 +2539,7 @@
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>78</v>
@@ -2545,10 +2548,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F20" s="6">
         <v>3</v>
@@ -2565,7 +2568,7 @@
         <v>94</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>127</v>
@@ -2574,7 +2577,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2588,7 +2591,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F22" s="6">
         <v>3</v>
@@ -2596,30 +2599,30 @@
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2633,7 +2636,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>86</v>
@@ -2653,7 +2656,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>14</v>
@@ -2667,13 +2670,13 @@
         <v>193</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F27" s="6">
         <v>3</v>
@@ -2687,47 +2690,47 @@
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>369</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F30" s="6">
         <v>2</v>
@@ -2755,19 +2758,19 @@
         <v>200</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F32" s="6">
         <v>4</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2781,7 +2784,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>96</v>
@@ -2790,7 +2793,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2798,19 +2801,19 @@
         <v>282</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F34" s="6">
         <v>3</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2824,13 +2827,13 @@
         <v>13</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F35" s="6">
         <v>3</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2844,7 +2847,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>102</v>
@@ -2895,27 +2898,27 @@
         <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F39" s="6">
         <v>3</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2929,7 +2932,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F41" s="6">
         <v>3</v>
@@ -2946,7 +2949,7 @@
         <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>21</v>
@@ -2957,16 +2960,16 @@
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>426</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
@@ -2980,7 +2983,7 @@
         <v>27</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F44" s="6">
         <v>3</v>
@@ -2991,19 +2994,19 @@
         <v>197</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F45" s="6">
         <v>4</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3017,13 +3020,13 @@
         <v>79</v>
       </c>
       <c r="D46" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F46" s="6">
+        <v>3</v>
+      </c>
+      <c r="G46" s="14" t="s">
         <v>413</v>
-      </c>
-      <c r="F46" s="6">
-        <v>3</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3034,13 +3037,13 @@
         <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F47" s="6">
         <v>3</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3051,7 +3054,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F48" s="6">
         <v>3</v>
@@ -3068,7 +3071,7 @@
         <v>79</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F49" s="6">
         <v>3</v>
@@ -3082,7 +3085,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F50" s="6">
         <v>3</v>
@@ -3099,7 +3102,7 @@
         <v>79</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F51" s="6">
         <v>3</v>
@@ -3113,7 +3116,7 @@
         <v>79</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F52" s="6">
         <v>3</v>
@@ -3127,7 +3130,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F53" s="6">
         <v>3</v>
@@ -3161,27 +3164,27 @@
         <v>41</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F55" s="6">
         <v>3</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>14</v>
@@ -3198,7 +3201,7 @@
         <v>13</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F57" s="6">
         <v>4</v>
@@ -3221,7 +3224,7 @@
         <v>133</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3255,10 +3258,10 @@
         <v>13</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F60" s="6">
         <v>3</v>
@@ -3266,7 +3269,7 @@
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>27</v>
@@ -3275,7 +3278,7 @@
         <v>43</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3286,839 +3289,842 @@
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F62" s="6">
         <v>3</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="B63" s="6" t="s">
         <v>460</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>453</v>
+        <v>461</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>202</v>
+        <v>450</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>201</v>
+        <v>458</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F64" s="6">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>213</v>
+        <v>202</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F65" s="6">
         <v>3</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="F66" s="6">
         <v>3</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>352</v>
+        <v>192</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>92</v>
+        <v>379</v>
       </c>
       <c r="F67" s="6">
         <v>3</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>379</v>
+        <v>392</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F68" s="6">
         <v>3</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>120</v>
+        <v>321</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>117</v>
+        <v>377</v>
       </c>
       <c r="F69" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>39</v>
+        <v>117</v>
+      </c>
+      <c r="F70" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>341</v>
+        <v>38</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="F71" s="6">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>385</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>189</v>
+        <v>340</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>92</v>
+        <v>381</v>
       </c>
       <c r="F72" s="6">
         <v>3</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>188</v>
+        <v>383</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>34</v>
+        <v>378</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>21</v>
+        <v>92</v>
+      </c>
+      <c r="F73" s="6">
+        <v>3</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="F74" s="6">
-        <v>4</v>
+        <v>34</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>384</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>62</v>
+        <v>295</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>64</v>
+        <v>381</v>
+      </c>
+      <c r="F75" s="6">
+        <v>4</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>65</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>292</v>
+        <v>57</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>290</v>
+        <v>59</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>54</v>
+        <v>291</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>56</v>
+        <v>462</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>26</v>
+        <v>461</v>
+      </c>
+      <c r="F78" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>277</v>
+        <v>140</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="F83" s="6">
-        <v>3</v>
+        <v>142</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>366</v>
+        <v>277</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>365</v>
+        <v>414</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="F84" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>44</v>
+        <v>365</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>46</v>
+        <v>363</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>45</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>174</v>
+        <v>42</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>175</v>
+        <v>43</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>301</v>
+        <v>136</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>302</v>
+        <v>138</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>374</v>
+        <v>137</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F88" s="6">
-        <v>3</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>163</v>
+        <v>300</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>164</v>
+        <v>52</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F89" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>271</v>
+        <v>155</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>413</v>
+        <v>156</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F93" s="6">
-        <v>3</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>272</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>411</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>8</v>
+        <v>273</v>
       </c>
       <c r="F94" s="6">
         <v>3</v>
       </c>
-      <c r="G94" s="14" t="s">
-        <v>258</v>
+      <c r="G94" s="6" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>107</v>
+        <v>255</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="F95" s="6">
         <v>3</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>416</v>
+        <v>374</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="F96" s="6">
         <v>3</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>458</v>
+        <v>280</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>459</v>
+        <v>129</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>49</v>
+        <v>414</v>
+      </c>
+      <c r="F97" s="6">
+        <v>3</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>429</v>
+        <v>456</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="G98" s="14" t="s">
-        <v>431</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>270</v>
+        <v>427</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="F99" s="6">
-        <v>3</v>
+        <v>428</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>295</v>
+        <v>268</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>294</v>
+        <v>411</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F100" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>432</v>
+        <v>294</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>433</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>129</v>
+        <v>430</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="F102" s="6">
-        <v>3</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>427</v>
+        <v>284</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>26</v>
+        <v>414</v>
       </c>
       <c r="F103" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>278</v>
+        <v>425</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>315</v>
+        <v>147</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>416</v>
+        <v>426</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F104" s="6">
-        <v>3</v>
-      </c>
-      <c r="G104" s="14" t="s">
-        <v>417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>441</v>
+        <v>278</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>442</v>
+        <v>414</v>
+      </c>
+      <c r="F105" s="6">
+        <v>3</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>241</v>
+        <v>439</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="F106" s="6">
-        <v>3</v>
+        <v>440</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>335</v>
+        <v>241</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>14</v>
+        <v>402</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F107" s="6">
+        <v>3</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>236</v>
+        <v>334</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>237</v>
+        <v>335</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>404</v>
+        <v>331</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F108" s="6">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>411</v>
+        <v>402</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F109" s="6">
         <v>3</v>
@@ -4126,823 +4132,829 @@
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="F110" s="6">
         <v>3</v>
-      </c>
-      <c r="G110" s="14" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>168</v>
+        <v>400</v>
+      </c>
+      <c r="F111" s="6">
+        <v>3</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>318</v>
+        <v>167</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>320</v>
+        <v>169</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>47</v>
+        <v>317</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>229</v>
+        <v>48</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="F114" s="6">
-        <v>3</v>
+        <v>49</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>398</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>92</v>
+        <v>394</v>
       </c>
       <c r="F115" s="6">
         <v>3</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>407</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F116" s="6">
-        <v>2</v>
-      </c>
-      <c r="G116" s="14" t="s">
-        <v>408</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>379</v>
+        <v>405</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="F117" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>323</v>
+        <v>406</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>283</v>
+        <v>178</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
       <c r="F118" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>420</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>95</v>
+        <v>283</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="F119" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>98</v>
+        <v>418</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>351</v>
+        <v>91</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>394</v>
+        <v>374</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="F120" s="6">
         <v>3</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>350</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>106</v>
+        <v>350</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>109</v>
+        <v>392</v>
       </c>
       <c r="F121" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>52</v>
+        <v>374</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>21</v>
+        <v>109</v>
+      </c>
+      <c r="F122" s="6">
+        <v>4</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>53</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="F123" s="6">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>127</v>
+        <v>410</v>
       </c>
       <c r="F124" s="6">
         <v>3</v>
-      </c>
-      <c r="G124" s="14" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>29</v>
+        <v>394</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>30</v>
+        <v>127</v>
+      </c>
+      <c r="F125" s="6">
+        <v>3</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>313</v>
+        <v>28</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>314</v>
+        <v>32</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>185</v>
+        <v>312</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>380</v>
+        <v>309</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F127" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>43</v>
+        <v>378</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F128" s="6">
-        <v>5</v>
-      </c>
-      <c r="G128" s="14" t="s">
-        <v>305</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>311</v>
+        <v>81</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="F129" s="6">
+        <v>5</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>129</v>
+        <v>311</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F130" s="6">
-        <v>3</v>
-      </c>
-      <c r="G130" s="14" t="s">
-        <v>360</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F131" s="6">
         <v>3</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>171</v>
+        <v>397</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>172</v>
+        <v>14</v>
+      </c>
+      <c r="F132" s="6">
+        <v>3</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>317</v>
+        <v>170</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>315</v>
+        <v>173</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>316</v>
+        <v>171</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>126</v>
+        <v>316</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F134" s="6">
-        <v>4</v>
+        <v>315</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>184</v>
+        <v>377</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F135" s="6">
-        <v>3</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>326</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>209</v>
+        <v>183</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>388</v>
+        <v>378</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="F136" s="6">
         <v>3</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="F137" s="6">
         <v>3</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="F138" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>377</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="F139" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>285</v>
+        <v>116</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F140" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>363</v>
+        <v>285</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>364</v>
+        <v>414</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="F142" s="6">
-        <v>3</v>
-      </c>
-      <c r="G142" s="14" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>145</v>
+        <v>414</v>
+      </c>
+      <c r="F143" s="6">
+        <v>3</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>149</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10" t="s">
-        <v>274</v>
+        <v>148</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="F144" s="6">
-        <v>3</v>
+        <v>146</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10" t="s">
-        <v>291</v>
+        <v>274</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>290</v>
+        <v>411</v>
+      </c>
+      <c r="F145" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10" t="s">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>88</v>
+        <v>462</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E146" s="9" t="s">
-        <v>89</v>
+        <v>461</v>
+      </c>
+      <c r="F146" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10" t="s">
-        <v>422</v>
+        <v>87</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>416</v>
+        <v>84</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147" s="6">
-        <v>1</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>423</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10" t="s">
-        <v>289</v>
+        <v>420</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F148" s="6">
-        <v>3</v>
-      </c>
-      <c r="G148" s="14" t="s">
-        <v>362</v>
+        <v>1</v>
+      </c>
+      <c r="G148" s="15" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10" t="s">
-        <v>444</v>
+        <v>289</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>445</v>
+        <v>129</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="G149" s="16" t="s">
-        <v>447</v>
+        <v>14</v>
+      </c>
+      <c r="F149" s="6">
+        <v>3</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10" t="s">
-        <v>180</v>
+        <v>442</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>325</v>
+        <v>443</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F150" s="6">
-        <v>3</v>
-      </c>
-      <c r="G150" s="14" t="s">
-        <v>181</v>
+        <v>444</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="10" t="s">
-        <v>449</v>
+        <v>180</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>445</v>
+        <v>324</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>34</v>
+        <v>378</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>446</v>
+        <v>182</v>
+      </c>
+      <c r="F151" s="6">
+        <v>3</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>94</v>
@@ -4950,125 +4962,122 @@
       <c r="D152" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G152" s="14" t="s">
-        <v>451</v>
+      <c r="E152" s="9" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
-        <v>110</v>
+        <v>448</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>111</v>
+        <v>443</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>113</v>
+        <v>34</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="10" t="s">
-        <v>248</v>
+        <v>110</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>409</v>
+        <v>112</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F154" s="6">
-        <v>2</v>
-      </c>
-      <c r="G154" s="14" t="s">
-        <v>410</v>
+        <v>113</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>404</v>
+        <v>407</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="F155" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="F156" s="6">
         <v>3</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
-        <v>118</v>
+        <v>266</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>121</v>
+        <v>411</v>
       </c>
       <c r="F157" s="6">
         <v>3</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10" t="s">
-        <v>261</v>
+        <v>118</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="F158" s="6">
         <v>3</v>
@@ -5076,158 +5085,184 @@
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
-        <v>227</v>
+        <v>261</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F159" s="6">
-        <v>4</v>
-      </c>
-      <c r="G159" s="14" t="s">
-        <v>397</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="F160" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
+      </c>
+      <c r="F161" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10" t="s">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>409</v>
+        <v>84</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F163" s="6">
-        <v>3</v>
-      </c>
-      <c r="G163" s="14" t="s">
-        <v>358</v>
+        <v>83</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="10" t="s">
-        <v>205</v>
+        <v>250</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>388</v>
+        <v>407</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F164" s="6">
         <v>3</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="10" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>290</v>
+        <v>386</v>
+      </c>
+      <c r="F165" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="10" t="s">
-        <v>212</v>
+        <v>292</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>462</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>391</v>
+        <v>461</v>
       </c>
       <c r="F166" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F167" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B168" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F168" s="6">
+        <v>3</v>
+      </c>
+      <c r="G168" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="F167" s="6">
-        <v>3</v>
-      </c>
-      <c r="G167" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5237,261 +5272,263 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
     <hyperlink ref="A13" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
     <hyperlink ref="A38" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A125" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A73" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A70" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A85" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A113" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A122" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A78" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A76" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A75" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A126" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A74" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A71" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A86" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A114" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A123" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A79" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A77" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A76" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
     <hyperlink ref="A54" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
     <hyperlink ref="A59" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
     <hyperlink ref="A2" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A128" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A129" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
     <hyperlink ref="A20" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A162" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A88" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A146" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A163" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A89" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A147" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
     <hyperlink ref="A10" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
     <hyperlink ref="A33" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A119" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A161" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A120" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A162" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
     <hyperlink ref="A37" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A95" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A121" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A153" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A79" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A139" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A69" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A157" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A80" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A134" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A138" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A96" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A122" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A154" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A80" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A140" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A70" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A158" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A81" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A135" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A139" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
     <hyperlink ref="A58" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A87" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A82" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A143" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E143" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E82" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E87" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="A88" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A83" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A144" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E144" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="E83" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E88" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
     <hyperlink ref="E58" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E138" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E134" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="E80" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E157" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E69" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E139" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E79" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E153" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E121" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E95" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="E139" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E135" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E81" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E158" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E70" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E140" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E80" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E154" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E122" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E96" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
     <hyperlink ref="E37" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E161" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E119" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E162" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E120" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
     <hyperlink ref="E33" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
     <hyperlink ref="E10" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E146" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E88" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E162" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E147" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E89" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E163" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
     <hyperlink ref="E59" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
     <hyperlink ref="E54" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E75" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E76" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E78" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E122" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E113" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E85" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E70" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E73" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E125" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E76" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E77" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E79" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E123" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E114" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E86" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E71" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E74" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E126" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
     <hyperlink ref="E38" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
     <hyperlink ref="E13" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
     <hyperlink ref="E6" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
     <hyperlink ref="E15" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A81" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E81" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A92" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E92" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A90" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A89" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A91" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A111" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A132" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E132" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A86" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A82" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E82" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A93" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E93" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A91" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A90" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A92" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A112" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A133" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E133" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A87" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
     <hyperlink ref="A44" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A68" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A117" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A150" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E150" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A135" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E135" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A127" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E127" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A72" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E72" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A69" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A118" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A151" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E151" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A136" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E136" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A128" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E128" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A73" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E73" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
     <hyperlink ref="A39" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
     <hyperlink ref="A51" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A66" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A67" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
     <hyperlink ref="A27" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
     <hyperlink ref="A28" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
     <hyperlink ref="A55" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
     <hyperlink ref="A48" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
     <hyperlink ref="A45" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A74" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A75" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
     <hyperlink ref="A25" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
     <hyperlink ref="E25" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
     <hyperlink ref="A32" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A64" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A65" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
     <hyperlink ref="A31" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A164" r:id="rId114" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
-    <hyperlink ref="A5" r:id="rId115" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
-    <hyperlink ref="A62" r:id="rId116" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A3" r:id="rId117" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A136" r:id="rId118" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A4" r:id="rId119" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
-    <hyperlink ref="A9" r:id="rId120" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A166" r:id="rId121" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
-    <hyperlink ref="A65" r:id="rId122" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A47" r:id="rId123" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
-    <hyperlink ref="A11" r:id="rId124" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
-    <hyperlink ref="A7" r:id="rId125" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A120" r:id="rId126" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A67" r:id="rId127" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
-    <hyperlink ref="E67" r:id="rId128" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
-    <hyperlink ref="A19" r:id="rId129" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A50" r:id="rId130" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A167" r:id="rId131" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A52" r:id="rId132" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A53" r:id="rId133" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E124" r:id="rId134" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A124" r:id="rId135" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A159" r:id="rId136" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E159" r:id="rId137" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
-    <hyperlink ref="A42" r:id="rId138" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="E42" r:id="rId139" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A114" r:id="rId140" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E160" r:id="rId141" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A160" r:id="rId142" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A60" r:id="rId143" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A21" r:id="rId144" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A131" r:id="rId145" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E131" r:id="rId146" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E108" r:id="rId147" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A108" r:id="rId148" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A110" r:id="rId149" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A155" r:id="rId150" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E106" r:id="rId151" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A106" r:id="rId152" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A35" r:id="rId153" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E116" r:id="rId154" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A49" r:id="rId155" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A116" r:id="rId156" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E36" r:id="rId157" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A36" r:id="rId158" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A115" r:id="rId159" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E115" r:id="rId160" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A154" r:id="rId161" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E154" r:id="rId162" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A163" r:id="rId163" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E163" r:id="rId164" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A57" r:id="rId165" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E94" r:id="rId166" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A94" r:id="rId167" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A109" r:id="rId168" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A16" r:id="rId169" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A137" r:id="rId170" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A123" r:id="rId171" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A158" r:id="rId172" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E158" r:id="rId173" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
-    <hyperlink ref="A22" r:id="rId174" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A41" r:id="rId175" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A156" r:id="rId176" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A99" r:id="rId177" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E99" r:id="rId178" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A93" r:id="rId179" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E93" r:id="rId180" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A144" r:id="rId181" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
-    <hyperlink ref="A14" r:id="rId182" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A46" r:id="rId183" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
-    <hyperlink ref="A83" r:id="rId184" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
-    <hyperlink ref="A26" r:id="rId185" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E26" r:id="rId186" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A96" r:id="rId187" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A34" r:id="rId188" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A118" r:id="rId189" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A102" r:id="rId190" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A140" r:id="rId191" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E140" r:id="rId192" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A142" r:id="rId193" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A130" r:id="rId194" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E130" r:id="rId195" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A12" r:id="rId196" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E12" r:id="rId197" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A148" r:id="rId198" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E148" r:id="rId199" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A145" r:id="rId200" display="https://leetcode.cn/problems/binary-search/" xr:uid="{85DCB780-B636-4DA3-8E98-BDD6E2AB99B6}"/>
-    <hyperlink ref="A77" r:id="rId201" display="https://leetcode.cn/problems/remove-element/" xr:uid="{74E7E043-E9D5-4F13-8753-25FD9681EED1}"/>
-    <hyperlink ref="A165" r:id="rId202" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{950D9E34-B826-4CA9-A2F0-6441BEDFF66B}"/>
-    <hyperlink ref="A100" r:id="rId203" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A30" r:id="rId204" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="E118" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
-    <hyperlink ref="E129" r:id="rId206" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
-    <hyperlink ref="A129" r:id="rId207" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
-    <hyperlink ref="A126" r:id="rId208" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E126" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
-    <hyperlink ref="A104" r:id="rId210" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
-    <hyperlink ref="A133" r:id="rId211" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
-    <hyperlink ref="A112" r:id="rId212" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
-    <hyperlink ref="E112" r:id="rId213" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
-    <hyperlink ref="E83" r:id="rId214" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
-    <hyperlink ref="A56" r:id="rId215" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
-    <hyperlink ref="E56" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
-    <hyperlink ref="E39" r:id="rId217" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
-    <hyperlink ref="A107" r:id="rId218" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
-    <hyperlink ref="E107" r:id="rId219" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
-    <hyperlink ref="E28" r:id="rId220" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
-    <hyperlink ref="E16" r:id="rId221" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
-    <hyperlink ref="A71" r:id="rId222" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
-    <hyperlink ref="A17" r:id="rId223" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{44B4BF0B-837D-4651-B2FB-1620DC83FFE7}"/>
-    <hyperlink ref="E17" r:id="rId224" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
-    <hyperlink ref="A18" r:id="rId225" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
-    <hyperlink ref="E18" r:id="rId226" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
-    <hyperlink ref="A141" r:id="rId227" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
-    <hyperlink ref="A84" r:id="rId228" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
-    <hyperlink ref="A8" r:id="rId229" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
-    <hyperlink ref="A29" r:id="rId230" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
-    <hyperlink ref="E29" r:id="rId231" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
-    <hyperlink ref="A40" r:id="rId232" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
-    <hyperlink ref="E60" r:id="rId233" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
-    <hyperlink ref="E21" r:id="rId234" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
-    <hyperlink ref="A147" r:id="rId235" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
-    <hyperlink ref="E147" r:id="rId236" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
-    <hyperlink ref="A43" r:id="rId237" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
-    <hyperlink ref="A103" r:id="rId238" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
-    <hyperlink ref="E103" r:id="rId239" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
-    <hyperlink ref="A98" r:id="rId240" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
-    <hyperlink ref="A101" r:id="rId241" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
-    <hyperlink ref="A23" r:id="rId242" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
-    <hyperlink ref="A24" r:id="rId243" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
-    <hyperlink ref="A105" r:id="rId244" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
-    <hyperlink ref="A149" r:id="rId245" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
-    <hyperlink ref="E149" r:id="rId246" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
-    <hyperlink ref="G149" r:id="rId247" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
-    <hyperlink ref="A151" r:id="rId248" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
-    <hyperlink ref="E151" r:id="rId249" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
-    <hyperlink ref="A152" r:id="rId250" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
-    <hyperlink ref="A63" r:id="rId251" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{3690C3B5-EFC5-437C-A0D1-CB9D85B3A34F}"/>
-    <hyperlink ref="A61" r:id="rId252" display="https://leetcode.cn/problems/design-an-atm-machine/" xr:uid="{D7B15653-6A09-44BA-BB8C-FDE24401DDF1}"/>
-    <hyperlink ref="G61" r:id="rId253" display="https://leetcode.cn/problems/design-an-atm-machine/description/comments/2455759" xr:uid="{A5086F55-1434-404A-992F-B80FF5A7FC43}"/>
-    <hyperlink ref="A97" r:id="rId254" display="https://leetcode.cn/problems/number-of-changing-keys/" xr:uid="{E1DB166E-6F15-4C1A-A4DF-848D9F040960}"/>
-    <hyperlink ref="E20" r:id="rId255" xr:uid="{885648FE-B846-494B-A1CC-6EF51258DFBE}"/>
+    <hyperlink ref="A5" r:id="rId114" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
+    <hyperlink ref="A62" r:id="rId115" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A3" r:id="rId116" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A137" r:id="rId117" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A4" r:id="rId118" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
+    <hyperlink ref="A9" r:id="rId119" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A167" r:id="rId120" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A66" r:id="rId121" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A47" r:id="rId122" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
+    <hyperlink ref="A11" r:id="rId123" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A7" r:id="rId124" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
+    <hyperlink ref="A121" r:id="rId125" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A68" r:id="rId126" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E68" r:id="rId127" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A19" r:id="rId128" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A50" r:id="rId129" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A168" r:id="rId130" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A52" r:id="rId131" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A53" r:id="rId132" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="E125" r:id="rId133" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A125" r:id="rId134" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A160" r:id="rId135" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E160" r:id="rId136" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A42" r:id="rId137" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="E42" r:id="rId138" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
+    <hyperlink ref="A115" r:id="rId139" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E161" r:id="rId140" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A161" r:id="rId141" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A60" r:id="rId142" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A21" r:id="rId143" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A132" r:id="rId144" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E132" r:id="rId145" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E109" r:id="rId146" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A109" r:id="rId147" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A111" r:id="rId148" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A156" r:id="rId149" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E107" r:id="rId150" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A107" r:id="rId151" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A35" r:id="rId152" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E117" r:id="rId153" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A49" r:id="rId154" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A117" r:id="rId155" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E36" r:id="rId156" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A36" r:id="rId157" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A116" r:id="rId158" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E116" r:id="rId159" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A155" r:id="rId160" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E155" r:id="rId161" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A164" r:id="rId162" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E164" r:id="rId163" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A57" r:id="rId164" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E95" r:id="rId165" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A95" r:id="rId166" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A110" r:id="rId167" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A16" r:id="rId168" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
+    <hyperlink ref="A138" r:id="rId169" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A124" r:id="rId170" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A159" r:id="rId171" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E159" r:id="rId172" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A22" r:id="rId173" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A41" r:id="rId174" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A157" r:id="rId175" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A100" r:id="rId176" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E100" r:id="rId177" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A94" r:id="rId178" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E94" r:id="rId179" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A145" r:id="rId180" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A14" r:id="rId181" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A46" r:id="rId182" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
+    <hyperlink ref="A84" r:id="rId183" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="A26" r:id="rId184" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E26" r:id="rId185" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A97" r:id="rId186" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A34" r:id="rId187" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A119" r:id="rId188" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A103" r:id="rId189" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A141" r:id="rId190" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E141" r:id="rId191" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A143" r:id="rId192" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A131" r:id="rId193" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E131" r:id="rId194" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A12" r:id="rId195" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E12" r:id="rId196" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A149" r:id="rId197" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E149" r:id="rId198" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A101" r:id="rId199" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A30" r:id="rId200" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="E119" r:id="rId201" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
+    <hyperlink ref="E130" r:id="rId202" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
+    <hyperlink ref="A130" r:id="rId203" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
+    <hyperlink ref="A127" r:id="rId204" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E127" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="A105" r:id="rId206" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
+    <hyperlink ref="A134" r:id="rId207" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
+    <hyperlink ref="A113" r:id="rId208" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
+    <hyperlink ref="E113" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
+    <hyperlink ref="E84" r:id="rId210" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
+    <hyperlink ref="A56" r:id="rId211" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
+    <hyperlink ref="E56" r:id="rId212" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
+    <hyperlink ref="E39" r:id="rId213" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
+    <hyperlink ref="A108" r:id="rId214" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
+    <hyperlink ref="E108" r:id="rId215" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
+    <hyperlink ref="E28" r:id="rId216" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
+    <hyperlink ref="E16" r:id="rId217" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
+    <hyperlink ref="A72" r:id="rId218" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
+    <hyperlink ref="A17" r:id="rId219" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{44B4BF0B-837D-4651-B2FB-1620DC83FFE7}"/>
+    <hyperlink ref="E17" r:id="rId220" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
+    <hyperlink ref="A18" r:id="rId221" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
+    <hyperlink ref="E18" r:id="rId222" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
+    <hyperlink ref="A142" r:id="rId223" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
+    <hyperlink ref="A85" r:id="rId224" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
+    <hyperlink ref="A8" r:id="rId225" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
+    <hyperlink ref="A29" r:id="rId226" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
+    <hyperlink ref="E29" r:id="rId227" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
+    <hyperlink ref="A40" r:id="rId228" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
+    <hyperlink ref="E60" r:id="rId229" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
+    <hyperlink ref="E21" r:id="rId230" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
+    <hyperlink ref="A148" r:id="rId231" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
+    <hyperlink ref="E148" r:id="rId232" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
+    <hyperlink ref="A43" r:id="rId233" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
+    <hyperlink ref="A104" r:id="rId234" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
+    <hyperlink ref="E104" r:id="rId235" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
+    <hyperlink ref="A99" r:id="rId236" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
+    <hyperlink ref="A102" r:id="rId237" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
+    <hyperlink ref="A23" r:id="rId238" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
+    <hyperlink ref="A24" r:id="rId239" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
+    <hyperlink ref="A106" r:id="rId240" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
+    <hyperlink ref="A150" r:id="rId241" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
+    <hyperlink ref="E150" r:id="rId242" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
+    <hyperlink ref="G150" r:id="rId243" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
+    <hyperlink ref="A152" r:id="rId244" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
+    <hyperlink ref="E152" r:id="rId245" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
+    <hyperlink ref="A153" r:id="rId246" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
+    <hyperlink ref="A64" r:id="rId247" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{3690C3B5-EFC5-437C-A0D1-CB9D85B3A34F}"/>
+    <hyperlink ref="A61" r:id="rId248" display="https://leetcode.cn/problems/design-an-atm-machine/" xr:uid="{D7B15653-6A09-44BA-BB8C-FDE24401DDF1}"/>
+    <hyperlink ref="G61" r:id="rId249" display="https://leetcode.cn/problems/design-an-atm-machine/description/comments/2455759" xr:uid="{A5086F55-1434-404A-992F-B80FF5A7FC43}"/>
+    <hyperlink ref="A98" r:id="rId250" display="https://leetcode.cn/problems/number-of-changing-keys/" xr:uid="{E1DB166E-6F15-4C1A-A4DF-848D9F040960}"/>
+    <hyperlink ref="E20" r:id="rId251" xr:uid="{885648FE-B846-494B-A1CC-6EF51258DFBE}"/>
+    <hyperlink ref="A63" r:id="rId252" display="https://leetcode.cn/problems/largest-3-same-digit-number-in-string/" xr:uid="{53821643-24AF-4726-8FB7-99075A9086BB}"/>
+    <hyperlink ref="E63" r:id="rId253" xr:uid="{FE3E03B6-849D-4908-AF6E-80BE73643531}"/>
+    <hyperlink ref="A78" r:id="rId254" display="https://leetcode.cn/problems/remove-element/" xr:uid="{EC34739C-C1A9-4542-AB07-6AE8DFEEE438}"/>
+    <hyperlink ref="A146" r:id="rId255" display="https://leetcode.cn/problems/binary-search/" xr:uid="{FDF24C51-ADA1-4D9F-8FF2-66E3315D1E16}"/>
+    <hyperlink ref="A166" r:id="rId256" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{11DFEED4-79F2-41B1-BFA1-09B25512778E}"/>
+    <hyperlink ref="A165" r:id="rId257" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId256"/>
+    <tablePart r:id="rId258"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C935A971-3A5E-42B4-BD9C-4939EEE5CAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E00166-B8C6-493D-8C1B-C5590568F05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="472">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1710,6 +1710,38 @@
   </si>
   <si>
     <t>代码随想录、数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3297. 统计重新排列后包含另一个字符串的子字符串数目 I</t>
+  </si>
+  <si>
+    <t>2025.01.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3298. 统计重新排列后包含另一个字符串的子字符串数目 II</t>
+  </si>
+  <si>
+    <t>Rui-为什么ans+=left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59. 螺旋矩阵 II</t>
+  </si>
+  <si>
+    <t>44. 开发商购买土地</t>
+  </si>
+  <si>
+    <t>209. 长度最小的子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组、滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和、ACM模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1893,7 +1925,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048572" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048572" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G168">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G170">
     <sortCondition ref="A1:A1048572"/>
   </sortState>
   <tableColumns count="7">
@@ -2172,10 +2204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G168"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166:XFD166"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2351,19 +2383,19 @@
         <v>90</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>373</v>
+        <v>464</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>302</v>
@@ -4072,706 +4104,712 @@
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>241</v>
+        <v>463</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="F107" s="6">
-        <v>3</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>404</v>
+        <v>464</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>334</v>
+        <v>465</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>335</v>
+        <v>106</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>331</v>
+        <v>464</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>237</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="E109" s="9" t="s">
-        <v>21</v>
+      <c r="E109" s="12" t="s">
+        <v>240</v>
       </c>
       <c r="F109" s="6">
         <v>3</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="F110" s="6">
-        <v>3</v>
+        <v>331</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>237</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>400</v>
+        <v>402</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F111" s="6">
         <v>3</v>
-      </c>
-      <c r="G111" s="14" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>167</v>
+        <v>256</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>168</v>
+        <v>409</v>
+      </c>
+      <c r="F112" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>14</v>
+        <v>400</v>
+      </c>
+      <c r="F113" s="6">
+        <v>3</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" s="14" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>229</v>
+        <v>319</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="F115" s="6">
-        <v>3</v>
-      </c>
-      <c r="G115" s="14" t="s">
-        <v>396</v>
+        <v>318</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>247</v>
+        <v>48</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>407</v>
+        <v>49</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F116" s="6">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>97</v>
+        <v>394</v>
       </c>
       <c r="F117" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>377</v>
+        <v>407</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F118" s="6">
         <v>3</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>306</v>
+        <v>97</v>
       </c>
       <c r="F119" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>97</v>
+        <v>377</v>
       </c>
       <c r="F120" s="6">
         <v>3</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>98</v>
+        <v>322</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>392</v>
+        <v>414</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="F121" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>374</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F122" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>307</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>48</v>
+        <v>350</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>21</v>
+        <v>392</v>
+      </c>
+      <c r="F123" s="6">
+        <v>3</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>53</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>260</v>
+        <v>154</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>410</v>
+        <v>374</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="F124" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>394</v>
+        <v>52</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F125" s="6">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>28</v>
+        <v>260</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G126" s="14" t="s">
-        <v>31</v>
+        <v>410</v>
+      </c>
+      <c r="F126" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>312</v>
+        <v>225</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>14</v>
+        <v>127</v>
+      </c>
+      <c r="F127" s="6">
+        <v>3</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F128" s="6">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F129" s="6">
-        <v>5</v>
-      </c>
-      <c r="G129" s="14" t="s">
-        <v>304</v>
+        <v>309</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>310</v>
+        <v>185</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>14</v>
+        <v>92</v>
+      </c>
+      <c r="F130" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F131" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F132" s="6">
-        <v>3</v>
-      </c>
-      <c r="G132" s="14" t="s">
-        <v>399</v>
-      </c>
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>171</v>
+        <v>372</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>172</v>
+        <v>21</v>
+      </c>
+      <c r="F133" s="6">
+        <v>3</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>315</v>
+        <v>397</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="6">
+        <v>3</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>320</v>
+        <v>173</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>377</v>
+        <v>171</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F135" s="6">
-        <v>4</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F136" s="6">
-        <v>3</v>
-      </c>
-      <c r="G136" s="14" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>209</v>
+        <v>126</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>386</v>
+        <v>377</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F137" s="6">
-        <v>3</v>
-      </c>
-      <c r="G137" s="14" t="s">
-        <v>388</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>410</v>
+        <v>378</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="F138" s="6">
         <v>3</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>130</v>
+        <v>386</v>
       </c>
       <c r="F139" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>116</v>
+        <v>259</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="F140" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>285</v>
+        <v>128</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="F141" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>362</v>
+        <v>116</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>363</v>
+        <v>375</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F142" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>129</v>
@@ -4782,362 +4820,353 @@
       <c r="D143" s="8" t="s">
         <v>414</v>
       </c>
+      <c r="E143" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="F143" s="6">
         <v>3</v>
-      </c>
-      <c r="G143" s="14" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>147</v>
+        <v>362</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G144" s="14" t="s">
-        <v>149</v>
+        <v>363</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F145" s="6">
         <v>3</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10" t="s">
-        <v>290</v>
+        <v>148</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>462</v>
+        <v>147</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="F146" s="6">
-        <v>2</v>
+        <v>146</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10" t="s">
-        <v>87</v>
+        <v>274</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E147" s="9" t="s">
-        <v>89</v>
+        <v>411</v>
+      </c>
+      <c r="F147" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10" t="s">
-        <v>420</v>
+        <v>290</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>129</v>
+        <v>462</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E148" s="9" t="s">
-        <v>14</v>
+        <v>461</v>
       </c>
       <c r="F148" s="6">
-        <v>1</v>
-      </c>
-      <c r="G148" s="15" t="s">
-        <v>421</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10" t="s">
-        <v>289</v>
+        <v>87</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>414</v>
+        <v>84</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F149" s="6">
-        <v>3</v>
-      </c>
-      <c r="G149" s="14" t="s">
-        <v>361</v>
+        <v>89</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>443</v>
+        <v>129</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="G150" s="16" t="s">
-        <v>445</v>
+        <v>14</v>
+      </c>
+      <c r="F150" s="6">
+        <v>1</v>
+      </c>
+      <c r="G150" s="15" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="10" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>324</v>
+        <v>129</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="F151" s="6">
         <v>3</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>181</v>
+        <v>361</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>443</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>34</v>
+        <v>440</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>444</v>
       </c>
+      <c r="G152" s="16" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
-        <v>448</v>
+        <v>180</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>443</v>
+        <v>324</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>34</v>
+        <v>378</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F153" s="6">
+        <v>3</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>449</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="10" t="s">
-        <v>110</v>
+        <v>447</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>111</v>
+        <v>443</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>113</v>
+        <v>444</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
-        <v>248</v>
+        <v>448</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>251</v>
+        <v>443</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F155" s="6">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10" t="s">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="F156" s="6">
-        <v>3</v>
-      </c>
-      <c r="G156" s="14" t="s">
-        <v>403</v>
+        <v>112</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="F157" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>121</v>
+        <v>402</v>
       </c>
       <c r="F158" s="6">
         <v>3</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>21</v>
+        <v>411</v>
       </c>
       <c r="F159" s="6">
         <v>3</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
-        <v>227</v>
+        <v>118</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="F160" s="6">
-        <v>4</v>
-      </c>
-      <c r="G160" s="14" t="s">
-        <v>395</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="F161" s="6">
         <v>3</v>
@@ -5145,101 +5174,110 @@
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>100</v>
+        <v>394</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>102</v>
+        <v>46</v>
+      </c>
+      <c r="F162" s="6">
+        <v>4</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10" t="s">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>84</v>
+        <v>397</v>
       </c>
       <c r="E163" s="9" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="F163" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="10" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>407</v>
+        <v>100</v>
       </c>
       <c r="E164" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F164" s="6">
-        <v>3</v>
-      </c>
-      <c r="G164" s="14" t="s">
-        <v>357</v>
+        <v>102</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="10" t="s">
-        <v>205</v>
+        <v>82</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F165" s="6">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="10" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>462</v>
+        <v>35</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>461</v>
+        <v>407</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F166" s="6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G166" s="14" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="10" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F167" s="6">
         <v>3</v>
@@ -5247,22 +5285,95 @@
     </row>
     <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="F168" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F169" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B170" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C170" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D170" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="F168" s="6">
-        <v>3</v>
-      </c>
-      <c r="G168" s="14" t="s">
+      <c r="F170" s="6">
+        <v>3</v>
+      </c>
+      <c r="G170" s="14" t="s">
         <v>355</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -5272,75 +5383,75 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
     <hyperlink ref="A13" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
     <hyperlink ref="A38" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A126" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A128" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
     <hyperlink ref="A74" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
     <hyperlink ref="A71" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
     <hyperlink ref="A86" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A114" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A123" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A116" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A125" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
     <hyperlink ref="A79" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
     <hyperlink ref="A77" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
     <hyperlink ref="A76" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
     <hyperlink ref="A54" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
     <hyperlink ref="A59" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
     <hyperlink ref="A2" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A129" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A131" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
     <hyperlink ref="A20" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A163" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A165" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
     <hyperlink ref="A89" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A147" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A149" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
     <hyperlink ref="A10" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
     <hyperlink ref="A33" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A120" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A162" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A122" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A164" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
     <hyperlink ref="A37" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
     <hyperlink ref="A96" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A122" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A154" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A124" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A156" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
     <hyperlink ref="A80" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A140" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A142" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
     <hyperlink ref="A70" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A158" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A160" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
     <hyperlink ref="A81" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A135" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A139" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A137" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A141" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
     <hyperlink ref="A58" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
     <hyperlink ref="A88" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
     <hyperlink ref="A83" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A144" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E144" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="A146" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E146" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
     <hyperlink ref="E83" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
     <hyperlink ref="E88" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
     <hyperlink ref="E58" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E139" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E135" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E141" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E137" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
     <hyperlink ref="E81" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E158" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E160" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
     <hyperlink ref="E70" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E140" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E142" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
     <hyperlink ref="E80" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E154" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E122" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E156" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E124" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
     <hyperlink ref="E96" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
     <hyperlink ref="E37" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E162" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E120" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E164" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E122" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
     <hyperlink ref="E33" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
     <hyperlink ref="E10" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E147" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E149" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
     <hyperlink ref="E89" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E163" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E165" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
     <hyperlink ref="E59" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
     <hyperlink ref="E54" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
     <hyperlink ref="E76" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
     <hyperlink ref="E77" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
     <hyperlink ref="E79" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E123" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E114" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E125" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E116" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
     <hyperlink ref="E86" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
     <hyperlink ref="E71" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
     <hyperlink ref="E74" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E126" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E128" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
     <hyperlink ref="E38" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
     <hyperlink ref="E13" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
     <hyperlink ref="E6" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
@@ -5352,19 +5463,19 @@
     <hyperlink ref="A91" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
     <hyperlink ref="A90" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
     <hyperlink ref="A92" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A112" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A133" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E133" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A114" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A135" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E135" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
     <hyperlink ref="A87" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
     <hyperlink ref="A44" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
     <hyperlink ref="A69" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A118" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A151" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E151" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A136" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E136" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A128" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E128" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A120" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A153" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E153" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A138" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E138" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A130" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E130" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
     <hyperlink ref="A73" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
     <hyperlink ref="E73" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
     <hyperlink ref="A39" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
@@ -5384,70 +5495,70 @@
     <hyperlink ref="A5" r:id="rId114" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
     <hyperlink ref="A62" r:id="rId115" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
     <hyperlink ref="A3" r:id="rId116" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A137" r:id="rId117" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A139" r:id="rId117" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
     <hyperlink ref="A4" r:id="rId118" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
     <hyperlink ref="A9" r:id="rId119" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A167" r:id="rId120" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A169" r:id="rId120" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
     <hyperlink ref="A66" r:id="rId121" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
     <hyperlink ref="A47" r:id="rId122" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
     <hyperlink ref="A11" r:id="rId123" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
     <hyperlink ref="A7" r:id="rId124" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A121" r:id="rId125" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A123" r:id="rId125" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
     <hyperlink ref="A68" r:id="rId126" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
     <hyperlink ref="E68" r:id="rId127" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
     <hyperlink ref="A19" r:id="rId128" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
     <hyperlink ref="A50" r:id="rId129" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A168" r:id="rId130" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A170" r:id="rId130" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
     <hyperlink ref="A52" r:id="rId131" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
     <hyperlink ref="A53" r:id="rId132" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E125" r:id="rId133" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A125" r:id="rId134" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A160" r:id="rId135" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E160" r:id="rId136" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="E127" r:id="rId133" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A127" r:id="rId134" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A162" r:id="rId135" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E162" r:id="rId136" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
     <hyperlink ref="A42" r:id="rId137" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
     <hyperlink ref="E42" r:id="rId138" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A115" r:id="rId139" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E161" r:id="rId140" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A161" r:id="rId141" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A117" r:id="rId139" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E163" r:id="rId140" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A163" r:id="rId141" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
     <hyperlink ref="A60" r:id="rId142" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
     <hyperlink ref="A21" r:id="rId143" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A132" r:id="rId144" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E132" r:id="rId145" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E109" r:id="rId146" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A109" r:id="rId147" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A111" r:id="rId148" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A156" r:id="rId149" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E107" r:id="rId150" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A107" r:id="rId151" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A134" r:id="rId144" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E134" r:id="rId145" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E111" r:id="rId146" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A111" r:id="rId147" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A113" r:id="rId148" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A158" r:id="rId149" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E109" r:id="rId150" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A109" r:id="rId151" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
     <hyperlink ref="A35" r:id="rId152" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E117" r:id="rId153" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="E119" r:id="rId153" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
     <hyperlink ref="A49" r:id="rId154" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A117" r:id="rId155" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="A119" r:id="rId155" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
     <hyperlink ref="E36" r:id="rId156" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
     <hyperlink ref="A36" r:id="rId157" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A116" r:id="rId158" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E116" r:id="rId159" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A155" r:id="rId160" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E155" r:id="rId161" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A164" r:id="rId162" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E164" r:id="rId163" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A118" r:id="rId158" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E118" r:id="rId159" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A157" r:id="rId160" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E157" r:id="rId161" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A166" r:id="rId162" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E166" r:id="rId163" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
     <hyperlink ref="A57" r:id="rId164" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
     <hyperlink ref="E95" r:id="rId165" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
     <hyperlink ref="A95" r:id="rId166" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A110" r:id="rId167" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A112" r:id="rId167" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
     <hyperlink ref="A16" r:id="rId168" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A138" r:id="rId169" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A124" r:id="rId170" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A159" r:id="rId171" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E159" r:id="rId172" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A140" r:id="rId169" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A126" r:id="rId170" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A161" r:id="rId171" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E161" r:id="rId172" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
     <hyperlink ref="A22" r:id="rId173" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
     <hyperlink ref="A41" r:id="rId174" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A157" r:id="rId175" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A159" r:id="rId175" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
     <hyperlink ref="A100" r:id="rId176" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
     <hyperlink ref="E100" r:id="rId177" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
     <hyperlink ref="A94" r:id="rId178" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
     <hyperlink ref="E94" r:id="rId179" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A145" r:id="rId180" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A147" r:id="rId180" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
     <hyperlink ref="A14" r:id="rId181" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
     <hyperlink ref="A46" r:id="rId182" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
     <hyperlink ref="A84" r:id="rId183" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
@@ -5455,34 +5566,34 @@
     <hyperlink ref="E26" r:id="rId185" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
     <hyperlink ref="A97" r:id="rId186" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
     <hyperlink ref="A34" r:id="rId187" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A119" r:id="rId188" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A121" r:id="rId188" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
     <hyperlink ref="A103" r:id="rId189" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A141" r:id="rId190" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E141" r:id="rId191" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A143" r:id="rId192" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A131" r:id="rId193" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E131" r:id="rId194" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A143" r:id="rId190" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E143" r:id="rId191" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A145" r:id="rId192" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A133" r:id="rId193" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E133" r:id="rId194" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
     <hyperlink ref="A12" r:id="rId195" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
     <hyperlink ref="E12" r:id="rId196" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A149" r:id="rId197" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E149" r:id="rId198" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A151" r:id="rId197" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E151" r:id="rId198" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
     <hyperlink ref="A101" r:id="rId199" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
     <hyperlink ref="A30" r:id="rId200" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="E119" r:id="rId201" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
-    <hyperlink ref="E130" r:id="rId202" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
-    <hyperlink ref="A130" r:id="rId203" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
-    <hyperlink ref="A127" r:id="rId204" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E127" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="E121" r:id="rId201" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
+    <hyperlink ref="E132" r:id="rId202" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
+    <hyperlink ref="A132" r:id="rId203" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
+    <hyperlink ref="A129" r:id="rId204" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E129" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
     <hyperlink ref="A105" r:id="rId206" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
-    <hyperlink ref="A134" r:id="rId207" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
-    <hyperlink ref="A113" r:id="rId208" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
-    <hyperlink ref="E113" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
+    <hyperlink ref="A136" r:id="rId207" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
+    <hyperlink ref="A115" r:id="rId208" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
+    <hyperlink ref="E115" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
     <hyperlink ref="E84" r:id="rId210" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
     <hyperlink ref="A56" r:id="rId211" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
     <hyperlink ref="E56" r:id="rId212" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
     <hyperlink ref="E39" r:id="rId213" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
-    <hyperlink ref="A108" r:id="rId214" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
-    <hyperlink ref="E108" r:id="rId215" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
+    <hyperlink ref="A110" r:id="rId214" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
+    <hyperlink ref="E110" r:id="rId215" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
     <hyperlink ref="E28" r:id="rId216" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
     <hyperlink ref="E16" r:id="rId217" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
     <hyperlink ref="A72" r:id="rId218" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
@@ -5490,7 +5601,7 @@
     <hyperlink ref="E17" r:id="rId220" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
     <hyperlink ref="A18" r:id="rId221" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
     <hyperlink ref="E18" r:id="rId222" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
-    <hyperlink ref="A142" r:id="rId223" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
+    <hyperlink ref="A144" r:id="rId223" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
     <hyperlink ref="A85" r:id="rId224" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
     <hyperlink ref="A8" r:id="rId225" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
     <hyperlink ref="A29" r:id="rId226" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
@@ -5498,8 +5609,8 @@
     <hyperlink ref="A40" r:id="rId228" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
     <hyperlink ref="E60" r:id="rId229" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
     <hyperlink ref="E21" r:id="rId230" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
-    <hyperlink ref="A148" r:id="rId231" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
-    <hyperlink ref="E148" r:id="rId232" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
+    <hyperlink ref="A150" r:id="rId231" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
+    <hyperlink ref="E150" r:id="rId232" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
     <hyperlink ref="A43" r:id="rId233" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
     <hyperlink ref="A104" r:id="rId234" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
     <hyperlink ref="E104" r:id="rId235" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
@@ -5508,12 +5619,12 @@
     <hyperlink ref="A23" r:id="rId238" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
     <hyperlink ref="A24" r:id="rId239" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
     <hyperlink ref="A106" r:id="rId240" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
-    <hyperlink ref="A150" r:id="rId241" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
-    <hyperlink ref="E150" r:id="rId242" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
-    <hyperlink ref="G150" r:id="rId243" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
-    <hyperlink ref="A152" r:id="rId244" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
-    <hyperlink ref="E152" r:id="rId245" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
-    <hyperlink ref="A153" r:id="rId246" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
+    <hyperlink ref="A152" r:id="rId241" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
+    <hyperlink ref="E152" r:id="rId242" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
+    <hyperlink ref="G152" r:id="rId243" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
+    <hyperlink ref="A154" r:id="rId244" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
+    <hyperlink ref="E154" r:id="rId245" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
+    <hyperlink ref="A155" r:id="rId246" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
     <hyperlink ref="A64" r:id="rId247" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{3690C3B5-EFC5-437C-A0D1-CB9D85B3A34F}"/>
     <hyperlink ref="A61" r:id="rId248" display="https://leetcode.cn/problems/design-an-atm-machine/" xr:uid="{D7B15653-6A09-44BA-BB8C-FDE24401DDF1}"/>
     <hyperlink ref="G61" r:id="rId249" display="https://leetcode.cn/problems/design-an-atm-machine/description/comments/2455759" xr:uid="{A5086F55-1434-404A-992F-B80FF5A7FC43}"/>
@@ -5522,13 +5633,21 @@
     <hyperlink ref="A63" r:id="rId252" display="https://leetcode.cn/problems/largest-3-same-digit-number-in-string/" xr:uid="{53821643-24AF-4726-8FB7-99075A9086BB}"/>
     <hyperlink ref="E63" r:id="rId253" xr:uid="{FE3E03B6-849D-4908-AF6E-80BE73643531}"/>
     <hyperlink ref="A78" r:id="rId254" display="https://leetcode.cn/problems/remove-element/" xr:uid="{EC34739C-C1A9-4542-AB07-6AE8DFEEE438}"/>
-    <hyperlink ref="A146" r:id="rId255" display="https://leetcode.cn/problems/binary-search/" xr:uid="{FDF24C51-ADA1-4D9F-8FF2-66E3315D1E16}"/>
-    <hyperlink ref="A166" r:id="rId256" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{11DFEED4-79F2-41B1-BFA1-09B25512778E}"/>
-    <hyperlink ref="A165" r:id="rId257" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A148" r:id="rId255" display="https://leetcode.cn/problems/binary-search/" xr:uid="{FDF24C51-ADA1-4D9F-8FF2-66E3315D1E16}"/>
+    <hyperlink ref="A168" r:id="rId256" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{11DFEED4-79F2-41B1-BFA1-09B25512778E}"/>
+    <hyperlink ref="A167" r:id="rId257" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A107" r:id="rId258" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-i/" xr:uid="{0F4C7094-3E47-4E3B-B62C-D5F74248308D}"/>
+    <hyperlink ref="E107" r:id="rId259" xr:uid="{77F7040A-75D7-4B8B-9FC2-A71783B012A7}"/>
+    <hyperlink ref="A108" r:id="rId260" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-ii/" xr:uid="{B3046782-6548-4E0F-8754-DA65A6C34D37}"/>
+    <hyperlink ref="E108" r:id="rId261" xr:uid="{AE737F5F-B651-4566-BC14-DFDF853B9E11}"/>
+    <hyperlink ref="G108" r:id="rId262" xr:uid="{A97CA339-77A7-4E4F-A67A-D8006440062F}"/>
+    <hyperlink ref="A171" r:id="rId263" display="https://leetcode.cn/problems/minimum-size-subarray-sum/" xr:uid="{11E9B294-5022-48AD-AAEE-6D8853CE520B}"/>
+    <hyperlink ref="A172" r:id="rId264" display="https://leetcode.cn/problems/spiral-matrix-ii/" xr:uid="{925EE3EB-98C6-44E0-8568-8F3579CDECB3}"/>
+    <hyperlink ref="A173" r:id="rId265" xr:uid="{2E2256CC-D364-45E4-9BAD-BD70561D70AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId258"/>
+    <tablePart r:id="rId266"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E00166-B8C6-493D-8C1B-C5590568F05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A374268-3972-444D-A9DF-E611D8506D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="477">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,10 +391,6 @@
     <t>42. 接雨水</t>
   </si>
   <si>
-    <t>吴彦祖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>windliang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1363,10 +1359,6 @@
   </si>
   <si>
     <t>2024.11.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.11.19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1742,6 +1734,43 @@
   </si>
   <si>
     <t>前缀和、ACM模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.01.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Arrays.asList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.35"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、去重逻辑</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针、去重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203. 移除链表元素</t>
+  </si>
+  <si>
+    <t>707. 设计链表</t>
+  </si>
+  <si>
+    <t>链表、设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1749,7 +1778,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1787,6 +1816,17 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.35"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1809,7 +1849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1857,12 +1897,18 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1923,19 +1969,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048572" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G1048572" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G170">
-    <sortCondition ref="A1:A1048572"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H1048570" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H175">
+    <sortCondition ref="A1:A1048570"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{B13E99BD-051C-4F98-8CEB-6613EFCAB111}" name="备注2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2204,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F173" sqref="F173"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2218,11 +2265,12 @@
     <col min="4" max="4" width="12.640625" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="32.640625" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="20.640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="20.640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2244,8 +2292,11 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>77</v>
       </c>
@@ -2256,7 +2307,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F2" s="6">
         <v>4</v>
@@ -2265,58 +2316,58 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F5" s="6">
         <v>3</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -2327,7 +2378,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
@@ -2339,46 +2390,46 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>90</v>
       </c>
@@ -2389,7 +2440,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>92</v>
@@ -2398,38 +2449,38 @@
         <v>5</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F11" s="6">
         <v>3</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>14</v>
@@ -2438,10 +2489,10 @@
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -2461,24 +2512,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -2498,18 +2549,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>14</v>
@@ -2520,16 +2571,16 @@
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>14</v>
@@ -2537,13 +2588,13 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -2551,27 +2602,27 @@
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F19" s="6">
         <v>3</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>78</v>
@@ -2580,10 +2631,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F20" s="6">
         <v>3</v>
@@ -2591,39 +2642,39 @@
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="6">
         <v>4</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F22" s="6">
         <v>3</v>
@@ -2631,35 +2682,35 @@
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>48</v>
@@ -2668,7 +2719,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>86</v>
@@ -2679,16 +2730,16 @@
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>14</v>
@@ -2699,16 +2750,16 @@
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F27" s="6">
         <v>3</v>
@@ -2716,53 +2767,53 @@
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F30" s="6">
         <v>2</v>
@@ -2770,7 +2821,7 @@
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>94</v>
@@ -2782,95 +2833,98 @@
         <v>4</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F32" s="6">
         <v>4</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>91</v>
+        <v>473</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>373</v>
+        <v>470</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="F33" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>302</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F34" s="6">
         <v>3</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F35" s="6">
         <v>3</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>58</v>
@@ -2879,33 +2933,33 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E36" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="10" t="s">
-        <v>103</v>
-      </c>
       <c r="B37" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
         <v>23</v>
       </c>
@@ -2922,66 +2976,66 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F39" s="6">
         <v>3</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F41" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>21</v>
@@ -2990,103 +3044,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F44" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F45" s="6">
         <v>4</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D46" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F46" s="6">
+        <v>3</v>
+      </c>
+      <c r="G46" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="F46" s="6">
-        <v>3</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="47" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F47" s="6">
         <v>3</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F48" s="6">
         <v>3</v>
@@ -3094,7 +3148,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>58</v>
@@ -3103,7 +3157,7 @@
         <v>79</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F49" s="6">
         <v>3</v>
@@ -3111,58 +3165,67 @@
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F50" s="6">
         <v>3</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>191</v>
+        <v>474</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="F51" s="6">
-        <v>3</v>
+        <v>470</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>223</v>
+        <v>190</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>394</v>
+        <v>470</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F52" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F53" s="6">
         <v>3</v>
@@ -3170,240 +3233,237 @@
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F54" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B55" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E55" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G55" s="14" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="F55" s="6">
-        <v>3</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>328</v>
+        <v>467</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>330</v>
+        <v>468</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>14</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>253</v>
+      <c r="A57" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="F57" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>132</v>
+        <v>327</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>134</v>
+        <v>329</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>135</v>
+        <v>328</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>327</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>72</v>
+        <v>252</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>76</v>
+        <v>407</v>
+      </c>
+      <c r="F59" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>397</v>
+        <v>134</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="F60" s="6">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>452</v>
+        <v>71</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>453</v>
+        <v>73</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>207</v>
+        <v>232</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>386</v>
+        <v>395</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>396</v>
       </c>
       <c r="F62" s="6">
         <v>3</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>458</v>
+        <v>206</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>43</v>
+        <v>384</v>
+      </c>
+      <c r="F64" s="6">
+        <v>3</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>201</v>
+        <v>458</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="F65" s="6">
-        <v>3</v>
+        <v>459</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>213</v>
+        <v>448</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>456</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F66" s="6">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>192</v>
+        <v>201</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F67" s="6">
         <v>3</v>
@@ -3411,36 +3471,27 @@
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>351</v>
+        <v>212</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="F68" s="6">
         <v>3</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>377</v>
@@ -3451,1163 +3502,1160 @@
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F70" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>39</v>
+        <v>375</v>
+      </c>
+      <c r="F71" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>340</v>
+        <v>149</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>381</v>
+        <v>374</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="F72" s="6">
-        <v>3</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>383</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>378</v>
+        <v>37</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F73" s="6">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>35</v>
+        <v>339</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>21</v>
+        <v>379</v>
+      </c>
+      <c r="F74" s="6">
+        <v>3</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>36</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>295</v>
+        <v>188</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F75" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>382</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>58</v>
+        <v>294</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>60</v>
+        <v>379</v>
+      </c>
+      <c r="F77" s="6">
+        <v>4</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>291</v>
+        <v>61</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>462</v>
+        <v>62</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="F78" s="6">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>114</v>
+        <v>290</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>115</v>
+        <v>460</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>113</v>
+        <v>459</v>
+      </c>
+      <c r="F80" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>277</v>
+        <v>150</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="F84" s="6">
-        <v>3</v>
+        <v>152</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>365</v>
+        <v>139</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>363</v>
+        <v>141</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>364</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>45</v>
+        <v>412</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F86" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>175</v>
+        <v>362</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>139</v>
+        <v>46</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>301</v>
+        <v>173</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F89" s="6">
-        <v>4</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>163</v>
+        <v>135</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>164</v>
+        <v>136</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>161</v>
+        <v>52</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F91" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>272</v>
+        <v>164</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F94" s="6">
-        <v>3</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>272</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>409</v>
+        <v>155</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" s="6">
-        <v>3</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>258</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>108</v>
+        <v>272</v>
       </c>
       <c r="F96" s="6">
         <v>3</v>
       </c>
-      <c r="G96" s="14" t="s">
-        <v>305</v>
+      <c r="G96" s="6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>414</v>
+        <v>407</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="F97" s="6">
         <v>3</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>456</v>
+        <v>106</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>457</v>
+        <v>105</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>49</v>
+        <v>372</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F98" s="6">
+        <v>3</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>427</v>
+        <v>279</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>428</v>
+        <v>412</v>
+      </c>
+      <c r="F99" s="6">
+        <v>3</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>429</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>268</v>
+        <v>454</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>270</v>
+        <v>455</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="F100" s="6">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>294</v>
+        <v>425</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>293</v>
+        <v>426</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>430</v>
+        <v>267</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>431</v>
+        <v>409</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F102" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="F103" s="6">
-        <v>3</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>147</v>
+        <v>428</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F104" s="6">
-        <v>1</v>
+        <v>429</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>314</v>
+        <v>128</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F105" s="6">
         <v>3</v>
-      </c>
-      <c r="G105" s="14" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="G106" s="14" t="s">
-        <v>441</v>
+        <v>424</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F106" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>463</v>
+        <v>277</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>106</v>
+        <v>313</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>46</v>
+        <v>412</v>
+      </c>
+      <c r="F107" s="6">
+        <v>3</v>
+      </c>
+      <c r="G107" s="14" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G108" s="16" t="s">
-        <v>466</v>
+        <v>438</v>
+      </c>
+      <c r="G108" s="14" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>241</v>
+        <v>461</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>237</v>
+        <v>105</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="F109" s="6">
-        <v>3</v>
-      </c>
-      <c r="G109" s="14" t="s">
-        <v>404</v>
+        <v>462</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>334</v>
+        <v>463</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>335</v>
+        <v>105</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>331</v>
+        <v>462</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="C111" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D111" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F111" s="6">
+        <v>3</v>
+      </c>
+      <c r="G111" s="14" t="s">
         <v>402</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F111" s="6">
-        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>256</v>
+        <v>333</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="F112" s="6">
-        <v>3</v>
+        <v>330</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>400</v>
       </c>
+      <c r="E113" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="F113" s="6">
         <v>3</v>
-      </c>
-      <c r="G113" s="14" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>168</v>
+        <v>407</v>
+      </c>
+      <c r="F114" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>14</v>
+        <v>398</v>
+      </c>
+      <c r="F115" s="6">
+        <v>3</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" s="14" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="F117" s="6">
-        <v>3</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>396</v>
+        <v>317</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>247</v>
+        <v>48</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>407</v>
+        <v>49</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F118" s="6">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>97</v>
+        <v>392</v>
       </c>
       <c r="F119" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>377</v>
+        <v>405</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F120" s="6">
         <v>3</v>
-      </c>
-      <c r="G120" s="14" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>306</v>
+        <v>96</v>
       </c>
       <c r="F121" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>97</v>
+        <v>375</v>
       </c>
       <c r="F122" s="6">
         <v>3</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>98</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>392</v>
+        <v>412</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>305</v>
       </c>
       <c r="F123" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>349</v>
+        <v>416</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F124" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>307</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>48</v>
+        <v>349</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>21</v>
+        <v>390</v>
+      </c>
+      <c r="F125" s="6">
+        <v>3</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>53</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>410</v>
+        <v>372</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="F126" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="10" t="s">
-        <v>225</v>
+      <c r="A127" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>230</v>
+        <v>469</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F127" s="6">
-        <v>3</v>
-      </c>
-      <c r="G127" s="14" t="s">
-        <v>226</v>
+        <v>462</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>313</v>
+        <v>146</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>14</v>
+        <v>408</v>
+      </c>
+      <c r="F129" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="F130" s="6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F131" s="6">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>304</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>14</v>
@@ -4615,213 +4663,210 @@
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>287</v>
+        <v>184</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="F133" s="6">
-        <v>3</v>
-      </c>
-      <c r="G133" s="14" t="s">
-        <v>359</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
-        <v>235</v>
+        <v>81</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F134" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>399</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>170</v>
+        <v>309</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>173</v>
+        <v>310</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>171</v>
+        <v>308</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>314</v>
+        <v>128</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>315</v>
+        <v>371</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" s="6">
+        <v>3</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>320</v>
+        <v>228</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="F137" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>326</v>
+        <v>172</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F138" s="6">
-        <v>3</v>
-      </c>
-      <c r="G138" s="14" t="s">
-        <v>325</v>
+        <v>170</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>209</v>
+        <v>315</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="F139" s="6">
-        <v>3</v>
-      </c>
-      <c r="G139" s="14" t="s">
-        <v>388</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>410</v>
+        <v>375</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="F140" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>131</v>
+        <v>325</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>130</v>
+        <v>376</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="F141" s="6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>117</v>
+        <v>384</v>
       </c>
       <c r="F142" s="6">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>14</v>
+        <v>408</v>
       </c>
       <c r="F143" s="6">
         <v>3</v>
@@ -4829,67 +4874,73 @@
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10" t="s">
-        <v>362</v>
+        <v>127</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>363</v>
+        <v>375</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F144" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10" t="s">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>414</v>
+        <v>373</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="F145" s="6">
-        <v>3</v>
-      </c>
-      <c r="G145" s="14" t="s">
-        <v>419</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="10" t="s">
-        <v>148</v>
+      <c r="A146" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>147</v>
+        <v>24</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E146" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G146" s="14" t="s">
-        <v>149</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F147" s="6">
         <v>3</v>
@@ -4897,483 +4948,526 @@
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>462</v>
+        <v>361</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="F148" s="6">
-        <v>2</v>
+        <v>362</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10" t="s">
-        <v>87</v>
+        <v>285</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E149" s="9" t="s">
-        <v>89</v>
+        <v>412</v>
+      </c>
+      <c r="F149" s="6">
+        <v>3</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10" t="s">
-        <v>420</v>
+        <v>147</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>414</v>
+        <v>145</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F150" s="6">
-        <v>1</v>
-      </c>
-      <c r="G150" s="15" t="s">
-        <v>421</v>
+        <v>144</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="10" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>14</v>
+        <v>409</v>
       </c>
       <c r="F151" s="6">
         <v>3</v>
-      </c>
-      <c r="G151" s="14" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10" t="s">
-        <v>442</v>
+        <v>289</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="G152" s="16" t="s">
-        <v>445</v>
+        <v>459</v>
+      </c>
+      <c r="F152" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
-        <v>180</v>
+        <v>475</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>378</v>
+        <v>470</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F153" s="6">
-        <v>3</v>
-      </c>
-      <c r="G153" s="14" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="10" t="s">
-        <v>447</v>
+        <v>87</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>443</v>
+        <v>88</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>444</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>443</v>
+        <v>128</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G155" s="14" t="s">
-        <v>449</v>
+        <v>412</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="6">
+        <v>1</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10" t="s">
-        <v>110</v>
+        <v>288</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>112</v>
+        <v>412</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>113</v>
+        <v>14</v>
+      </c>
+      <c r="F156" s="6">
+        <v>3</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
-        <v>248</v>
+        <v>440</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>251</v>
+        <v>441</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F157" s="6">
-        <v>2</v>
-      </c>
-      <c r="G157" s="14" t="s">
-        <v>408</v>
+        <v>442</v>
+      </c>
+      <c r="G157" s="16" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>237</v>
+        <v>323</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>402</v>
+        <v>376</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="F158" s="6">
         <v>3</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>403</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
-        <v>266</v>
+        <v>445</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>267</v>
+        <v>441</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="F159" s="6">
-        <v>3</v>
-      </c>
-      <c r="G159" s="14" t="s">
-        <v>412</v>
+        <v>34</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
-        <v>118</v>
+        <v>446</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>106</v>
+        <v>441</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F160" s="6">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>410</v>
+        <v>111</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F161" s="6">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10" t="s">
-        <v>227</v>
+        <v>247</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="F162" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>92</v>
+        <v>400</v>
       </c>
       <c r="F163" s="6">
         <v>3</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="10" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E164" s="9" t="s">
-        <v>102</v>
+        <v>409</v>
+      </c>
+      <c r="F164" s="6">
+        <v>3</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="10" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>84</v>
+        <v>374</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>83</v>
+        <v>120</v>
+      </c>
+      <c r="F165" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="10" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="F166" s="6">
         <v>3</v>
-      </c>
-      <c r="G166" s="14" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="10" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>386</v>
+        <v>392</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="F167" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="10" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>462</v>
+        <v>228</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>461</v>
+        <v>395</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F168" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="10" t="s">
-        <v>212</v>
+        <v>98</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F169" s="6">
-        <v>3</v>
+        <v>99</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="10" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>354</v>
+        <v>85</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="F170" s="6">
-        <v>3</v>
-      </c>
-      <c r="G170" s="14" t="s">
-        <v>355</v>
+        <v>84</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="10" t="s">
-        <v>469</v>
+        <v>249</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>470</v>
+        <v>35</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>464</v>
+        <v>405</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F171" s="6">
+        <v>3</v>
+      </c>
+      <c r="G171" s="14" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A172" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>24</v>
+      <c r="A172" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>464</v>
+        <v>384</v>
+      </c>
+      <c r="F172" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="4" t="s">
-        <v>468</v>
+      <c r="A173" s="10" t="s">
+        <v>291</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
+      </c>
+      <c r="F173" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F174" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="F175" s="6">
+        <v>3</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5383,271 +5477,276 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{F961E7A6-1882-4065-8755-4DFD95604133}"/>
     <hyperlink ref="A13" r:id="rId3" xr:uid="{8C3CDFDC-25C9-4FAF-8F7E-2274E4D633B4}"/>
     <hyperlink ref="A38" r:id="rId4" display="https://leetcode.cn/problems/maximum-profit-of-operating-a-centennial-wheel/" xr:uid="{8AD5B24F-C946-4CD2-A7ED-CBF4D294FFAC}"/>
-    <hyperlink ref="A128" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
-    <hyperlink ref="A74" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
-    <hyperlink ref="A71" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
-    <hyperlink ref="A86" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
-    <hyperlink ref="A116" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
-    <hyperlink ref="A125" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
-    <hyperlink ref="A79" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
-    <hyperlink ref="A77" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
-    <hyperlink ref="A76" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
-    <hyperlink ref="A54" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
-    <hyperlink ref="A59" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
+    <hyperlink ref="A131" r:id="rId5" display="https://leetcode.cn/problems/count-the-repetitions/" xr:uid="{2DEBCDEE-8626-4B8A-9670-020E98C7275E}"/>
+    <hyperlink ref="A76" r:id="rId6" display="https://leetcode.cn/problems/remove-nodes-from-linked-list/" xr:uid="{7D6CA718-D46A-4E15-A1D5-734F68A5EE6A}"/>
+    <hyperlink ref="A73" r:id="rId7" display="https://leetcode.cn/problems/maximum-rows-covered-by-columns/" xr:uid="{EED2AFE8-A6A7-4831-A7F5-3B09768F94A3}"/>
+    <hyperlink ref="A88" r:id="rId8" display="https://leetcode.cn/problems/insert-greatest-common-divisors-in-linked-list/" xr:uid="{410009FF-742C-4E80-BAA2-A97802718358}"/>
+    <hyperlink ref="A118" r:id="rId9" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{C28C0659-D2BF-4FB5-BF7C-6C914E7BE129}"/>
+    <hyperlink ref="A128" r:id="rId10" display="https://leetcode.cn/problems/number-of-boomerangs/" xr:uid="{C9A2CFEA-3781-4A9D-A66D-C91B26C162F6}"/>
+    <hyperlink ref="A81" r:id="rId11" display="https://leetcode.cn/problems/extra-characters-in-a-string/" xr:uid="{0769EC96-3D92-4ADC-9FC1-59F0F89565CF}"/>
+    <hyperlink ref="A79" r:id="rId12" display="https://leetcode.cn/problems/minimum-string-length-after-removing-substrings/" xr:uid="{3ACDCC8B-C58D-4497-B33A-691E866EAA92}"/>
+    <hyperlink ref="A78" r:id="rId13" display="https://leetcode.cn/problems/minimum-additions-to-make-valid-string/" xr:uid="{ACAA46A8-EF23-4C78-847F-71BCFE4ACB27}"/>
+    <hyperlink ref="A55" r:id="rId14" display="https://leetcode.cn/problems/count-common-words-with-one-occurrence/" xr:uid="{BA928EDA-4915-4B02-BDA8-BDA4292CC77D}"/>
+    <hyperlink ref="A61" r:id="rId15" display="https://leetcode.cn/problems/construct-string-with-repeat-limit/" xr:uid="{DC040670-E1CD-48C5-9F39-7E50C4D4D598}"/>
     <hyperlink ref="A2" r:id="rId16" display="https://leetcode.cn/problems/two-sum/" xr:uid="{DCC2FC31-A6D8-4A22-B418-13AC2E7FF237}"/>
-    <hyperlink ref="A131" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
+    <hyperlink ref="A134" r:id="rId17" display="https://leetcode.cn/problems/group-anagrams/" xr:uid="{8499950A-1DCD-4E4A-9D9A-5A7F78C5486B}"/>
     <hyperlink ref="A20" r:id="rId18" display="https://leetcode.cn/problems/longest-consecutive-sequence/" xr:uid="{AC05C0D0-F6E1-4797-A42E-1235E7280CF6}"/>
-    <hyperlink ref="A165" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
-    <hyperlink ref="A89" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
-    <hyperlink ref="A149" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
+    <hyperlink ref="A170" r:id="rId19" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list/" xr:uid="{BC1100E9-A72F-40CD-9106-5C6D7E369605}"/>
+    <hyperlink ref="A91" r:id="rId20" display="https://leetcode.cn/problems/move-zeroes/" xr:uid="{3D57A5B2-C773-46BB-AAC1-384F5B1330AC}"/>
+    <hyperlink ref="A154" r:id="rId21" display="https://leetcode.cn/problems/insert-into-a-sorted-circular-linked-list/" xr:uid="{ABF9182A-9A32-45E2-840F-96A729F2801D}"/>
     <hyperlink ref="A10" r:id="rId22" display="https://leetcode.cn/problems/container-with-most-water/" xr:uid="{4ED7D754-A6D7-4998-BB92-60F7FE4E11B9}"/>
     <hyperlink ref="A33" r:id="rId23" display="https://leetcode.cn/problems/3sum/" xr:uid="{0DBAA8D9-3DE9-4828-BFF8-655B84431AA9}"/>
-    <hyperlink ref="A122" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
-    <hyperlink ref="A164" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
+    <hyperlink ref="A124" r:id="rId24" display="https://leetcode.cn/problems/trapping-rain-water/" xr:uid="{9CEE3039-70C6-486C-95F2-1E34859BC2B5}"/>
+    <hyperlink ref="A169" r:id="rId25" display="https://leetcode.cn/problems/remove-duplicates-from-sorted-list-ii/" xr:uid="{95C218B7-1B8A-4890-A292-F56103A4F9BD}"/>
     <hyperlink ref="A37" r:id="rId26" display="https://leetcode.cn/problems/binary-tree-upside-down/" xr:uid="{7BE5D44B-F504-4178-853A-BECE3A0D6D9A}"/>
-    <hyperlink ref="A96" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
-    <hyperlink ref="A124" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
-    <hyperlink ref="A156" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
-    <hyperlink ref="A80" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
-    <hyperlink ref="A142" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
-    <hyperlink ref="A70" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
-    <hyperlink ref="A160" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
-    <hyperlink ref="A81" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
-    <hyperlink ref="A137" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
-    <hyperlink ref="A141" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
-    <hyperlink ref="A58" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
-    <hyperlink ref="A88" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
-    <hyperlink ref="A83" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
-    <hyperlink ref="A146" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
-    <hyperlink ref="E146" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
-    <hyperlink ref="E83" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
-    <hyperlink ref="E88" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
-    <hyperlink ref="E58" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
-    <hyperlink ref="E141" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
-    <hyperlink ref="E137" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
-    <hyperlink ref="E81" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
-    <hyperlink ref="E160" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E70" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
-    <hyperlink ref="E142" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
-    <hyperlink ref="E80" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
-    <hyperlink ref="E156" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
-    <hyperlink ref="E124" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
-    <hyperlink ref="E96" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
+    <hyperlink ref="A98" r:id="rId27" display="https://leetcode.cn/problems/longest-substring-without-repeating-characters/" xr:uid="{3FB010E6-0492-4655-9911-820A190155C4}"/>
+    <hyperlink ref="A126" r:id="rId28" display="https://leetcode.cn/problems/find-all-anagrams-in-a-string/" xr:uid="{36A9C6AE-A4CD-4F4E-90F8-8E5D5CB43CAB}"/>
+    <hyperlink ref="A161" r:id="rId29" display="https://leetcode.cn/problems/sentence-similarity/" xr:uid="{771EA040-6E9F-427A-9C87-C5F54FA18B80}"/>
+    <hyperlink ref="A82" r:id="rId30" display="https://leetcode.cn/problems/count-of-integers/" xr:uid="{0F898565-2E05-4648-B060-6053E5749B06}"/>
+    <hyperlink ref="A145" r:id="rId31" display="https://leetcode.cn/problems/subarray-sum-equals-k/" xr:uid="{2C0B7B2D-05D9-44D3-94B3-5D2FA3D976DF}"/>
+    <hyperlink ref="A72" r:id="rId32" display="https://leetcode.cn/problems/sliding-window-maximum/" xr:uid="{0260B44B-AA2D-4584-91E2-1E8B8C0ED199}"/>
+    <hyperlink ref="A165" r:id="rId33" display="https://leetcode.cn/problems/minimum-window-substring/" xr:uid="{185B34CF-C6F2-486E-90A5-D7E59F55DC96}"/>
+    <hyperlink ref="A83" r:id="rId34" display="https://leetcode.cn/problems/find-maximum-number-of-string-pairs/" xr:uid="{70FF04F5-EBD7-4063-8275-F8933C1B9F4E}"/>
+    <hyperlink ref="A140" r:id="rId35" display="https://leetcode.cn/problems/maximum-subarray/" xr:uid="{8CC0531C-8284-4F55-81E2-94DB6B274D9B}"/>
+    <hyperlink ref="A144" r:id="rId36" display="https://leetcode.cn/problems/merge-intervals/" xr:uid="{A402C0BD-BF9F-430B-842D-C42671ADDBF0}"/>
+    <hyperlink ref="A60" r:id="rId37" display="https://leetcode.cn/problems/removing-minimum-number-of-magic-beans/" xr:uid="{E1638EC4-5083-49D4-8A0A-0D939842E19A}"/>
+    <hyperlink ref="A90" r:id="rId38" display="https://leetcode.cn/problems/minimum-time-to-make-array-sum-at-most-x/" xr:uid="{BE73385E-7540-4A08-A19F-5C1A292B516F}"/>
+    <hyperlink ref="A85" r:id="rId39" display="https://leetcode.cn/problems/split-strings-by-separator/" xr:uid="{8B634E5D-9C33-4C10-BAD7-AE6EBB649868}"/>
+    <hyperlink ref="A150" r:id="rId40" display="https://leetcode.cn/problems/maximum-swap/" xr:uid="{F5DE5192-A9D2-425F-9BB1-C2457DA674E4}"/>
+    <hyperlink ref="E150" r:id="rId41" xr:uid="{FA1BFA2A-460D-459E-8F61-B097678D8B32}"/>
+    <hyperlink ref="E85" r:id="rId42" xr:uid="{29C300A3-266F-408E-8AE8-11EC2B639857}"/>
+    <hyperlink ref="E90" r:id="rId43" xr:uid="{A2D78C4F-0CF7-4025-9816-818BF49AB72E}"/>
+    <hyperlink ref="E60" r:id="rId44" xr:uid="{28B1021B-6E63-4976-9056-8BE378A05916}"/>
+    <hyperlink ref="E144" r:id="rId45" xr:uid="{6B77CBE0-0575-4283-A5EA-AACEB5B33C59}"/>
+    <hyperlink ref="E140" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
+    <hyperlink ref="E83" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
+    <hyperlink ref="E165" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
+    <hyperlink ref="E72" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E145" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
+    <hyperlink ref="E82" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
+    <hyperlink ref="E161" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
+    <hyperlink ref="E126" r:id="rId53" xr:uid="{4FDD3B32-5D43-4481-A2CA-C7F81DDF97FA}"/>
+    <hyperlink ref="E98" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
     <hyperlink ref="E37" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
-    <hyperlink ref="E164" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E122" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
-    <hyperlink ref="E33" r:id="rId58" xr:uid="{06E19791-8255-436E-9548-022FA2F67FC7}"/>
-    <hyperlink ref="E10" r:id="rId59" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E149" r:id="rId60" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E89" r:id="rId61" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E165" r:id="rId62" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E59" r:id="rId63" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E54" r:id="rId64" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E76" r:id="rId65" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E77" r:id="rId66" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E79" r:id="rId67" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E125" r:id="rId68" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E116" r:id="rId69" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E86" r:id="rId70" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E71" r:id="rId71" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E74" r:id="rId72" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E128" r:id="rId73" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E38" r:id="rId74" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="E13" r:id="rId75" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="E6" r:id="rId76" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="E15" r:id="rId77" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A82" r:id="rId78" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E82" r:id="rId79" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A93" r:id="rId80" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E93" r:id="rId81" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A91" r:id="rId82" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A90" r:id="rId83" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A92" r:id="rId84" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A114" r:id="rId85" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A135" r:id="rId86" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E135" r:id="rId87" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A87" r:id="rId88" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A44" r:id="rId89" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A69" r:id="rId90" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A120" r:id="rId91" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A153" r:id="rId92" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E153" r:id="rId93" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A138" r:id="rId94" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E138" r:id="rId95" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A130" r:id="rId96" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E130" r:id="rId97" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A73" r:id="rId98" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E73" r:id="rId99" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A39" r:id="rId100" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A51" r:id="rId101" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A67" r:id="rId102" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A27" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A28" r:id="rId104" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A55" r:id="rId105" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A48" r:id="rId106" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A45" r:id="rId107" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A75" r:id="rId108" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A25" r:id="rId109" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E25" r:id="rId110" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A32" r:id="rId111" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A65" r:id="rId112" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A31" r:id="rId113" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A5" r:id="rId114" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
-    <hyperlink ref="A62" r:id="rId115" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A3" r:id="rId116" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A139" r:id="rId117" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A4" r:id="rId118" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
-    <hyperlink ref="A9" r:id="rId119" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A169" r:id="rId120" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
-    <hyperlink ref="A66" r:id="rId121" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A47" r:id="rId122" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
-    <hyperlink ref="A11" r:id="rId123" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
-    <hyperlink ref="A7" r:id="rId124" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A123" r:id="rId125" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A68" r:id="rId126" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
-    <hyperlink ref="E68" r:id="rId127" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
-    <hyperlink ref="A19" r:id="rId128" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A50" r:id="rId129" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A170" r:id="rId130" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A52" r:id="rId131" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A53" r:id="rId132" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E127" r:id="rId133" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A127" r:id="rId134" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A162" r:id="rId135" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E162" r:id="rId136" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
-    <hyperlink ref="A42" r:id="rId137" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="E42" r:id="rId138" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A117" r:id="rId139" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E163" r:id="rId140" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A163" r:id="rId141" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A60" r:id="rId142" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A21" r:id="rId143" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A134" r:id="rId144" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E134" r:id="rId145" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E111" r:id="rId146" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A111" r:id="rId147" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A113" r:id="rId148" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A158" r:id="rId149" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E109" r:id="rId150" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A109" r:id="rId151" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A35" r:id="rId152" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E119" r:id="rId153" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A49" r:id="rId154" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A119" r:id="rId155" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E36" r:id="rId156" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A36" r:id="rId157" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A118" r:id="rId158" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E118" r:id="rId159" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A157" r:id="rId160" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E157" r:id="rId161" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A166" r:id="rId162" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E166" r:id="rId163" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A57" r:id="rId164" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E95" r:id="rId165" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A95" r:id="rId166" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A112" r:id="rId167" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A16" r:id="rId168" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A140" r:id="rId169" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A126" r:id="rId170" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A161" r:id="rId171" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E161" r:id="rId172" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
-    <hyperlink ref="A22" r:id="rId173" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A41" r:id="rId174" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A159" r:id="rId175" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A100" r:id="rId176" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E100" r:id="rId177" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A94" r:id="rId178" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E94" r:id="rId179" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A147" r:id="rId180" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
-    <hyperlink ref="A14" r:id="rId181" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A46" r:id="rId182" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
-    <hyperlink ref="A84" r:id="rId183" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
-    <hyperlink ref="A26" r:id="rId184" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E26" r:id="rId185" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A97" r:id="rId186" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A34" r:id="rId187" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A121" r:id="rId188" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A103" r:id="rId189" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A143" r:id="rId190" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E143" r:id="rId191" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A145" r:id="rId192" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A133" r:id="rId193" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E133" r:id="rId194" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A12" r:id="rId195" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E12" r:id="rId196" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A151" r:id="rId197" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E151" r:id="rId198" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A101" r:id="rId199" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A30" r:id="rId200" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="E121" r:id="rId201" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
-    <hyperlink ref="E132" r:id="rId202" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
-    <hyperlink ref="A132" r:id="rId203" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
-    <hyperlink ref="A129" r:id="rId204" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E129" r:id="rId205" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
-    <hyperlink ref="A105" r:id="rId206" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
-    <hyperlink ref="A136" r:id="rId207" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
-    <hyperlink ref="A115" r:id="rId208" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
-    <hyperlink ref="E115" r:id="rId209" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
-    <hyperlink ref="E84" r:id="rId210" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
-    <hyperlink ref="A56" r:id="rId211" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
-    <hyperlink ref="E56" r:id="rId212" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
-    <hyperlink ref="E39" r:id="rId213" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
-    <hyperlink ref="A110" r:id="rId214" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
-    <hyperlink ref="E110" r:id="rId215" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
-    <hyperlink ref="E28" r:id="rId216" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
-    <hyperlink ref="E16" r:id="rId217" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
-    <hyperlink ref="A72" r:id="rId218" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
-    <hyperlink ref="A17" r:id="rId219" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{44B4BF0B-837D-4651-B2FB-1620DC83FFE7}"/>
-    <hyperlink ref="E17" r:id="rId220" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
-    <hyperlink ref="A18" r:id="rId221" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
-    <hyperlink ref="E18" r:id="rId222" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
-    <hyperlink ref="A144" r:id="rId223" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
-    <hyperlink ref="A85" r:id="rId224" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
-    <hyperlink ref="A8" r:id="rId225" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
-    <hyperlink ref="A29" r:id="rId226" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
-    <hyperlink ref="E29" r:id="rId227" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
-    <hyperlink ref="A40" r:id="rId228" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
-    <hyperlink ref="E60" r:id="rId229" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
-    <hyperlink ref="E21" r:id="rId230" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
-    <hyperlink ref="A150" r:id="rId231" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
-    <hyperlink ref="E150" r:id="rId232" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
-    <hyperlink ref="A43" r:id="rId233" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
-    <hyperlink ref="A104" r:id="rId234" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
-    <hyperlink ref="E104" r:id="rId235" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
-    <hyperlink ref="A99" r:id="rId236" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
-    <hyperlink ref="A102" r:id="rId237" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
-    <hyperlink ref="A23" r:id="rId238" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
-    <hyperlink ref="A24" r:id="rId239" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
-    <hyperlink ref="A106" r:id="rId240" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
-    <hyperlink ref="A152" r:id="rId241" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
-    <hyperlink ref="E152" r:id="rId242" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
-    <hyperlink ref="G152" r:id="rId243" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
-    <hyperlink ref="A154" r:id="rId244" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
-    <hyperlink ref="E154" r:id="rId245" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
-    <hyperlink ref="A155" r:id="rId246" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
-    <hyperlink ref="A64" r:id="rId247" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{3690C3B5-EFC5-437C-A0D1-CB9D85B3A34F}"/>
-    <hyperlink ref="A61" r:id="rId248" display="https://leetcode.cn/problems/design-an-atm-machine/" xr:uid="{D7B15653-6A09-44BA-BB8C-FDE24401DDF1}"/>
-    <hyperlink ref="G61" r:id="rId249" display="https://leetcode.cn/problems/design-an-atm-machine/description/comments/2455759" xr:uid="{A5086F55-1434-404A-992F-B80FF5A7FC43}"/>
-    <hyperlink ref="A98" r:id="rId250" display="https://leetcode.cn/problems/number-of-changing-keys/" xr:uid="{E1DB166E-6F15-4C1A-A4DF-848D9F040960}"/>
-    <hyperlink ref="E20" r:id="rId251" xr:uid="{885648FE-B846-494B-A1CC-6EF51258DFBE}"/>
-    <hyperlink ref="A63" r:id="rId252" display="https://leetcode.cn/problems/largest-3-same-digit-number-in-string/" xr:uid="{53821643-24AF-4726-8FB7-99075A9086BB}"/>
-    <hyperlink ref="E63" r:id="rId253" xr:uid="{FE3E03B6-849D-4908-AF6E-80BE73643531}"/>
-    <hyperlink ref="A78" r:id="rId254" display="https://leetcode.cn/problems/remove-element/" xr:uid="{EC34739C-C1A9-4542-AB07-6AE8DFEEE438}"/>
-    <hyperlink ref="A148" r:id="rId255" display="https://leetcode.cn/problems/binary-search/" xr:uid="{FDF24C51-ADA1-4D9F-8FF2-66E3315D1E16}"/>
-    <hyperlink ref="A168" r:id="rId256" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{11DFEED4-79F2-41B1-BFA1-09B25512778E}"/>
-    <hyperlink ref="A167" r:id="rId257" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
-    <hyperlink ref="A107" r:id="rId258" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-i/" xr:uid="{0F4C7094-3E47-4E3B-B62C-D5F74248308D}"/>
-    <hyperlink ref="E107" r:id="rId259" xr:uid="{77F7040A-75D7-4B8B-9FC2-A71783B012A7}"/>
-    <hyperlink ref="A108" r:id="rId260" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-ii/" xr:uid="{B3046782-6548-4E0F-8754-DA65A6C34D37}"/>
-    <hyperlink ref="E108" r:id="rId261" xr:uid="{AE737F5F-B651-4566-BC14-DFDF853B9E11}"/>
-    <hyperlink ref="G108" r:id="rId262" xr:uid="{A97CA339-77A7-4E4F-A67A-D8006440062F}"/>
-    <hyperlink ref="A171" r:id="rId263" display="https://leetcode.cn/problems/minimum-size-subarray-sum/" xr:uid="{11E9B294-5022-48AD-AAEE-6D8853CE520B}"/>
-    <hyperlink ref="A172" r:id="rId264" display="https://leetcode.cn/problems/spiral-matrix-ii/" xr:uid="{925EE3EB-98C6-44E0-8568-8F3579CDECB3}"/>
-    <hyperlink ref="A173" r:id="rId265" xr:uid="{2E2256CC-D364-45E4-9BAD-BD70561D70AC}"/>
+    <hyperlink ref="E169" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
+    <hyperlink ref="E124" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
+    <hyperlink ref="E10" r:id="rId58" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="E154" r:id="rId59" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E91" r:id="rId60" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E170" r:id="rId61" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E61" r:id="rId62" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E55" r:id="rId63" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E78" r:id="rId64" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E79" r:id="rId65" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E81" r:id="rId66" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E128" r:id="rId67" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E118" r:id="rId68" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E88" r:id="rId69" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E73" r:id="rId70" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E76" r:id="rId71" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E131" r:id="rId72" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E38" r:id="rId73" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E13" r:id="rId74" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E6" r:id="rId75" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E15" r:id="rId76" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A84" r:id="rId77" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E84" r:id="rId78" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A95" r:id="rId79" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E95" r:id="rId80" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A93" r:id="rId81" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A92" r:id="rId82" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A94" r:id="rId83" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A116" r:id="rId84" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A138" r:id="rId85" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E138" r:id="rId86" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A89" r:id="rId87" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A44" r:id="rId88" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A71" r:id="rId89" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A122" r:id="rId90" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A158" r:id="rId91" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E158" r:id="rId92" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A141" r:id="rId93" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E141" r:id="rId94" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A133" r:id="rId95" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E133" r:id="rId96" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A75" r:id="rId97" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E75" r:id="rId98" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A39" r:id="rId99" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A52" r:id="rId100" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A69" r:id="rId101" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A27" r:id="rId102" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A28" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A57" r:id="rId104" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A48" r:id="rId105" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A45" r:id="rId106" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A77" r:id="rId107" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A25" r:id="rId108" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E25" r:id="rId109" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A32" r:id="rId110" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A67" r:id="rId111" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A31" r:id="rId112" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A5" r:id="rId113" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
+    <hyperlink ref="A64" r:id="rId114" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A3" r:id="rId115" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A142" r:id="rId116" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A4" r:id="rId117" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
+    <hyperlink ref="A9" r:id="rId118" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A174" r:id="rId119" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A68" r:id="rId120" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A47" r:id="rId121" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
+    <hyperlink ref="A11" r:id="rId122" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A7" r:id="rId123" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
+    <hyperlink ref="A125" r:id="rId124" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A70" r:id="rId125" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E70" r:id="rId126" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A19" r:id="rId127" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A50" r:id="rId128" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A175" r:id="rId129" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A53" r:id="rId130" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A54" r:id="rId131" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="E130" r:id="rId132" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A130" r:id="rId133" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A167" r:id="rId134" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E167" r:id="rId135" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A42" r:id="rId136" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="E42" r:id="rId137" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
+    <hyperlink ref="A119" r:id="rId138" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E168" r:id="rId139" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A168" r:id="rId140" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A62" r:id="rId141" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A21" r:id="rId142" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A137" r:id="rId143" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E137" r:id="rId144" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E113" r:id="rId145" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A113" r:id="rId146" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A115" r:id="rId147" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A163" r:id="rId148" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E111" r:id="rId149" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A111" r:id="rId150" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A35" r:id="rId151" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E121" r:id="rId152" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A49" r:id="rId153" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A121" r:id="rId154" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E36" r:id="rId155" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A36" r:id="rId156" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A120" r:id="rId157" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E120" r:id="rId158" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A162" r:id="rId159" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E162" r:id="rId160" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A171" r:id="rId161" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E171" r:id="rId162" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A59" r:id="rId163" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E97" r:id="rId164" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A97" r:id="rId165" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A114" r:id="rId166" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A16" r:id="rId167" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
+    <hyperlink ref="A143" r:id="rId168" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A129" r:id="rId169" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A166" r:id="rId170" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E166" r:id="rId171" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A22" r:id="rId172" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A41" r:id="rId173" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A164" r:id="rId174" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A102" r:id="rId175" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E102" r:id="rId176" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A96" r:id="rId177" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E96" r:id="rId178" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A151" r:id="rId179" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A14" r:id="rId180" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A46" r:id="rId181" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
+    <hyperlink ref="A86" r:id="rId182" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="A26" r:id="rId183" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E26" r:id="rId184" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A99" r:id="rId185" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A34" r:id="rId186" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A123" r:id="rId187" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A105" r:id="rId188" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A147" r:id="rId189" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E147" r:id="rId190" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A149" r:id="rId191" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A136" r:id="rId192" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E136" r:id="rId193" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A12" r:id="rId194" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E12" r:id="rId195" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A156" r:id="rId196" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E156" r:id="rId197" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A103" r:id="rId198" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A30" r:id="rId199" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="E123" r:id="rId200" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
+    <hyperlink ref="E135" r:id="rId201" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
+    <hyperlink ref="A135" r:id="rId202" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
+    <hyperlink ref="A132" r:id="rId203" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E132" r:id="rId204" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="A107" r:id="rId205" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
+    <hyperlink ref="A139" r:id="rId206" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
+    <hyperlink ref="A117" r:id="rId207" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
+    <hyperlink ref="E117" r:id="rId208" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
+    <hyperlink ref="E86" r:id="rId209" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
+    <hyperlink ref="A58" r:id="rId210" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
+    <hyperlink ref="E58" r:id="rId211" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
+    <hyperlink ref="E39" r:id="rId212" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
+    <hyperlink ref="A112" r:id="rId213" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
+    <hyperlink ref="E112" r:id="rId214" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
+    <hyperlink ref="E28" r:id="rId215" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
+    <hyperlink ref="E16" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
+    <hyperlink ref="A74" r:id="rId217" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
+    <hyperlink ref="A17" r:id="rId218" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{44B4BF0B-837D-4651-B2FB-1620DC83FFE7}"/>
+    <hyperlink ref="E17" r:id="rId219" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
+    <hyperlink ref="A18" r:id="rId220" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
+    <hyperlink ref="E18" r:id="rId221" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
+    <hyperlink ref="A148" r:id="rId222" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
+    <hyperlink ref="A87" r:id="rId223" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
+    <hyperlink ref="A8" r:id="rId224" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
+    <hyperlink ref="A29" r:id="rId225" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
+    <hyperlink ref="E29" r:id="rId226" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
+    <hyperlink ref="A40" r:id="rId227" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
+    <hyperlink ref="E62" r:id="rId228" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
+    <hyperlink ref="E21" r:id="rId229" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
+    <hyperlink ref="A155" r:id="rId230" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
+    <hyperlink ref="E155" r:id="rId231" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
+    <hyperlink ref="A43" r:id="rId232" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
+    <hyperlink ref="A106" r:id="rId233" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
+    <hyperlink ref="E106" r:id="rId234" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
+    <hyperlink ref="A101" r:id="rId235" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
+    <hyperlink ref="A104" r:id="rId236" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
+    <hyperlink ref="A23" r:id="rId237" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
+    <hyperlink ref="A24" r:id="rId238" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
+    <hyperlink ref="A108" r:id="rId239" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
+    <hyperlink ref="A157" r:id="rId240" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
+    <hyperlink ref="E157" r:id="rId241" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
+    <hyperlink ref="G157" r:id="rId242" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
+    <hyperlink ref="A159" r:id="rId243" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
+    <hyperlink ref="E159" r:id="rId244" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
+    <hyperlink ref="A160" r:id="rId245" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
+    <hyperlink ref="A66" r:id="rId246" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{3690C3B5-EFC5-437C-A0D1-CB9D85B3A34F}"/>
+    <hyperlink ref="A63" r:id="rId247" display="https://leetcode.cn/problems/design-an-atm-machine/" xr:uid="{D7B15653-6A09-44BA-BB8C-FDE24401DDF1}"/>
+    <hyperlink ref="G63" r:id="rId248" display="https://leetcode.cn/problems/design-an-atm-machine/description/comments/2455759" xr:uid="{A5086F55-1434-404A-992F-B80FF5A7FC43}"/>
+    <hyperlink ref="A100" r:id="rId249" display="https://leetcode.cn/problems/number-of-changing-keys/" xr:uid="{E1DB166E-6F15-4C1A-A4DF-848D9F040960}"/>
+    <hyperlink ref="E20" r:id="rId250" xr:uid="{885648FE-B846-494B-A1CC-6EF51258DFBE}"/>
+    <hyperlink ref="A65" r:id="rId251" display="https://leetcode.cn/problems/largest-3-same-digit-number-in-string/" xr:uid="{53821643-24AF-4726-8FB7-99075A9086BB}"/>
+    <hyperlink ref="E65" r:id="rId252" xr:uid="{FE3E03B6-849D-4908-AF6E-80BE73643531}"/>
+    <hyperlink ref="A80" r:id="rId253" display="https://leetcode.cn/problems/remove-element/" xr:uid="{EC34739C-C1A9-4542-AB07-6AE8DFEEE438}"/>
+    <hyperlink ref="A152" r:id="rId254" display="https://leetcode.cn/problems/binary-search/" xr:uid="{FDF24C51-ADA1-4D9F-8FF2-66E3315D1E16}"/>
+    <hyperlink ref="A173" r:id="rId255" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{11DFEED4-79F2-41B1-BFA1-09B25512778E}"/>
+    <hyperlink ref="A172" r:id="rId256" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A109" r:id="rId257" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-i/" xr:uid="{0F4C7094-3E47-4E3B-B62C-D5F74248308D}"/>
+    <hyperlink ref="E109" r:id="rId258" xr:uid="{77F7040A-75D7-4B8B-9FC2-A71783B012A7}"/>
+    <hyperlink ref="A110" r:id="rId259" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-ii/" xr:uid="{B3046782-6548-4E0F-8754-DA65A6C34D37}"/>
+    <hyperlink ref="E110" r:id="rId260" xr:uid="{AE737F5F-B651-4566-BC14-DFDF853B9E11}"/>
+    <hyperlink ref="G110" r:id="rId261" xr:uid="{A97CA339-77A7-4E4F-A67A-D8006440062F}"/>
+    <hyperlink ref="A56" r:id="rId262" display="https://leetcode.cn/problems/minimum-size-subarray-sum/" xr:uid="{11E9B294-5022-48AD-AAEE-6D8853CE520B}"/>
+    <hyperlink ref="A146" r:id="rId263" display="https://leetcode.cn/problems/spiral-matrix-ii/" xr:uid="{925EE3EB-98C6-44E0-8568-8F3579CDECB3}"/>
+    <hyperlink ref="A127" r:id="rId264" xr:uid="{2E2256CC-D364-45E4-9BAD-BD70561D70AC}"/>
+    <hyperlink ref="E33" r:id="rId265" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{15F1F021-226C-4D23-9608-D795A01F3FAD}"/>
+    <hyperlink ref="A51" r:id="rId266" display="https://leetcode.cn/problems/remove-linked-list-elements/" xr:uid="{138DFA18-4180-41D3-8F87-FD941ECA0952}"/>
+    <hyperlink ref="A153" r:id="rId267" display="https://leetcode.cn/problems/design-linked-list/" xr:uid="{F2EFDF00-E8C3-491B-A861-BDD4BCF1EAA2}"/>
+    <hyperlink ref="E51" r:id="rId268" xr:uid="{40FFA837-C359-41BB-A137-D4E00AB5A0CF}"/>
+    <hyperlink ref="E153" r:id="rId269" xr:uid="{650217E3-7B49-48ED-8611-44ABA6443456}"/>
+    <hyperlink ref="E52" r:id="rId270" xr:uid="{980F8A60-CD1B-4477-9F19-657BB875F514}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId266"/>
+    <tablePart r:id="rId271"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A374268-3972-444D-A9DF-E611D8506D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632333CE-55F8-4155-9E24-67E27909D89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="483">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,10 +392,6 @@
   </si>
   <si>
     <t>windliang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一题五解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1599,10 +1595,6 @@
   </si>
   <si>
     <t>Java链式编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1771,6 +1763,35 @@
   </si>
   <si>
     <t>链表、设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3270. 求出数字答案</t>
+  </si>
+  <si>
+    <t>2025.01.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I3lissful MaxvvellNIC</t>
+  </si>
+  <si>
+    <t>代码随想录、美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题 02.07. 链表相交</t>
+  </si>
+  <si>
+    <t>代码随想录、链表、tricky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断时不要判断pA.next因为会漏掉不相交的null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码随想录、Hot100、链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2251,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H175"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F175" sqref="F175"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2293,7 +2314,7 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2307,7 +2328,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F2" s="6">
         <v>4</v>
@@ -2318,30 +2339,30 @@
     </row>
     <row r="3" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="F3" s="6">
-        <v>3</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
@@ -2349,22 +2370,22 @@
     </row>
     <row r="5" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="F5" s="6">
-        <v>3</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2378,7 +2399,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
@@ -2392,13 +2413,13 @@
     </row>
     <row r="7" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
@@ -2406,24 +2427,24 @@
     </row>
     <row r="8" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
@@ -2440,7 +2461,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>92</v>
@@ -2449,38 +2470,38 @@
         <v>5</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F11" s="6">
         <v>3</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>14</v>
@@ -2489,7 +2510,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2514,16 +2535,16 @@
     </row>
     <row r="14" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
@@ -2551,16 +2572,16 @@
     </row>
     <row r="16" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>14</v>
@@ -2571,16 +2592,16 @@
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>14</v>
@@ -2588,13 +2609,13 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -2602,27 +2623,27 @@
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F19" s="6">
         <v>3</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>78</v>
@@ -2631,10 +2652,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F20" s="6">
         <v>3</v>
@@ -2642,39 +2663,39 @@
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="6">
         <v>4</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F22" s="6">
         <v>3</v>
@@ -2682,35 +2703,35 @@
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>431</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>48</v>
@@ -2719,7 +2740,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>86</v>
@@ -2730,16 +2751,16 @@
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>14</v>
@@ -2750,16 +2771,16 @@
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F27" s="6">
         <v>3</v>
@@ -2767,53 +2788,56 @@
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>482</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="F28" s="6">
+        <v>4</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>377</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="F28" s="6">
-        <v>3</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>367</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F30" s="6">
         <v>2</v>
@@ -2821,7 +2845,7 @@
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>94</v>
@@ -2833,27 +2857,27 @@
         <v>4</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F32" s="6">
         <v>4</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2861,13 +2885,13 @@
         <v>93</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>14</v>
@@ -2876,55 +2900,55 @@
         <v>4</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F34" s="6">
         <v>3</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F35" s="6">
         <v>3</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>58</v>
@@ -2933,10 +2957,10 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F36" s="6">
         <v>3</v>
@@ -2944,19 +2968,19 @@
     </row>
     <row r="37" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2978,47 +3002,47 @@
     </row>
     <row r="39" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F39" s="6">
         <v>3</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F41" s="6">
         <v>3</v>
@@ -3026,16 +3050,16 @@
     </row>
     <row r="42" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>21</v>
@@ -3046,16 +3070,16 @@
     </row>
     <row r="43" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
@@ -3063,13 +3087,13 @@
     </row>
     <row r="44" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F44" s="6">
         <v>3</v>
@@ -3077,70 +3101,70 @@
     </row>
     <row r="45" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="F45" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F46" s="6">
         <v>3</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F47" s="6">
         <v>3</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F48" s="6">
         <v>3</v>
@@ -3148,7 +3172,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>58</v>
@@ -3157,7 +3181,7 @@
         <v>79</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F49" s="6">
         <v>3</v>
@@ -3165,24 +3189,24 @@
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F50" s="6">
         <v>3</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>44</v>
@@ -3191,7 +3215,7 @@
         <v>41</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>14</v>
@@ -3199,7 +3223,7 @@
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>44</v>
@@ -3208,7 +3232,7 @@
         <v>79</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>14</v>
@@ -3219,13 +3243,13 @@
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F53" s="6">
         <v>3</v>
@@ -3233,13 +3257,13 @@
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F54" s="6">
         <v>3</v>
@@ -3267,47 +3291,47 @@
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F57" s="6">
         <v>3</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>14</v>
@@ -3315,16 +3339,16 @@
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F59" s="6">
         <v>4</v>
@@ -3332,22 +3356,22 @@
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3372,19 +3396,19 @@
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>396</v>
       </c>
       <c r="F62" s="6">
         <v>3</v>
@@ -3392,7 +3416,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>27</v>
@@ -3401,35 +3425,35 @@
         <v>43</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F64" s="6">
+        <v>3</v>
+      </c>
+      <c r="G64" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="F64" s="6">
-        <v>3</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>46</v>
@@ -3437,10 +3461,10 @@
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>27</v>
@@ -3449,21 +3473,21 @@
         <v>43</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F67" s="6">
         <v>3</v>
@@ -3471,30 +3495,30 @@
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F68" s="6">
+        <v>3</v>
+      </c>
+      <c r="G68" s="14" t="s">
         <v>387</v>
-      </c>
-      <c r="F68" s="6">
-        <v>3</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F69" s="6">
         <v>3</v>
@@ -3502,16 +3526,16 @@
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>92</v>
@@ -3520,21 +3544,21 @@
         <v>3</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F71" s="6">
         <v>3</v>
@@ -3542,19 +3566,19 @@
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F72" s="6">
         <v>4</v>
@@ -3582,33 +3606,36 @@
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>379</v>
+        <v>476</v>
       </c>
       <c r="F74" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>92</v>
@@ -3617,7 +3644,7 @@
         <v>3</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3642,22 +3669,22 @@
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F77" s="6">
         <v>4</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3699,16 +3726,16 @@
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F80" s="6">
         <v>2</v>
@@ -3733,50 +3760,50 @@
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>46</v>
@@ -3784,39 +3811,39 @@
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G85" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F86" s="6">
         <v>3</v>
@@ -3824,16 +3851,16 @@
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G87" s="14" t="s">
         <v>362</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3858,38 +3885,38 @@
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>79</v>
@@ -3906,95 +3933,95 @@
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G93" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F96" s="6">
         <v>3</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>8</v>
@@ -4003,58 +4030,58 @@
         <v>3</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F98" s="6">
         <v>3</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F99" s="6">
         <v>3</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>27</v>
@@ -4065,33 +4092,33 @@
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="G101" s="14" t="s">
         <v>426</v>
-      </c>
-      <c r="G101" s="14" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F102" s="6">
         <v>3</v>
@@ -4099,38 +4126,38 @@
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F105" s="6">
         <v>3</v>
@@ -4138,16 +4165,16 @@
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>26</v>
@@ -4158,53 +4185,53 @@
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F107" s="6">
+        <v>3</v>
+      </c>
+      <c r="G107" s="14" t="s">
         <v>412</v>
-      </c>
-      <c r="F107" s="6">
-        <v>3</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>46</v>
@@ -4212,59 +4239,59 @@
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F111" s="6">
         <v>3</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>334</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>14</v>
@@ -4272,16 +4299,16 @@
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>21</v>
@@ -4292,16 +4319,16 @@
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F114" s="6">
         <v>3</v>
@@ -4309,50 +4336,50 @@
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D115" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="F115" s="6">
+        <v>3</v>
+      </c>
+      <c r="G115" s="14" t="s">
         <v>398</v>
-      </c>
-      <c r="F115" s="6">
-        <v>3</v>
-      </c>
-      <c r="G115" s="14" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>14</v>
@@ -4380,36 +4407,36 @@
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F119" s="6">
         <v>3</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>92</v>
@@ -4420,16 +4447,16 @@
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>96</v>
@@ -4438,32 +4465,32 @@
         <v>2</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F122" s="6">
         <v>3</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>12</v>
@@ -4472,16 +4499,16 @@
         <v>79</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F123" s="6">
         <v>4</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4495,73 +4522,70 @@
         <v>79</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>96</v>
+        <v>63</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="F124" s="6">
-        <v>3</v>
-      </c>
-      <c r="G124" s="14" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F125" s="6">
         <v>3</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F126" s="6">
         <v>4</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4586,16 +4610,16 @@
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F129" s="6">
         <v>3</v>
@@ -4603,25 +4627,25 @@
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F130" s="6">
         <v>3</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4646,16 +4670,16 @@
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>14</v>
@@ -4663,16 +4687,16 @@
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>92</v>
@@ -4698,21 +4722,21 @@
         <v>5</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>14</v>
@@ -4720,16 +4744,16 @@
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>21</v>
@@ -4738,21 +4762,21 @@
         <v>3</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>14</v>
@@ -4761,55 +4785,55 @@
         <v>3</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D138" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E138" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F140" s="6">
         <v>4</v>
@@ -4817,56 +4841,56 @@
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F141" s="6">
         <v>3</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F142" s="6">
         <v>3</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F143" s="6">
         <v>3</v>
@@ -4874,19 +4898,19 @@
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F144" s="6">
         <v>4</v>
@@ -4894,19 +4918,19 @@
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F145" s="6">
         <v>5</v>
@@ -4914,7 +4938,7 @@
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>24</v>
@@ -4923,21 +4947,21 @@
         <v>41</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>14</v>
@@ -4948,67 +4972,67 @@
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F149" s="6">
         <v>3</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F151" s="6">
         <v>3</v>
@@ -5016,16 +5040,16 @@
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F152" s="6">
         <v>2</v>
@@ -5033,16 +5057,16 @@
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>14</v>
@@ -5067,16 +5091,16 @@
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>14</v>
@@ -5085,21 +5109,21 @@
         <v>1</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>14</v>
@@ -5108,58 +5132,58 @@
         <v>3</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F158" s="6">
         <v>3</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>94</v>
@@ -5168,15 +5192,15 @@
         <v>34</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>94</v>
@@ -5185,104 +5209,104 @@
         <v>34</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D161" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E161" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F162" s="6">
         <v>2</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D163" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F163" s="6">
+        <v>3</v>
+      </c>
+      <c r="G163" s="14" t="s">
         <v>400</v>
-      </c>
-      <c r="F163" s="6">
-        <v>3</v>
-      </c>
-      <c r="G163" s="14" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="F164" s="6">
+        <v>3</v>
+      </c>
+      <c r="G164" s="14" t="s">
         <v>409</v>
-      </c>
-      <c r="F164" s="6">
-        <v>3</v>
-      </c>
-      <c r="G164" s="14" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F165" s="6">
         <v>3</v>
@@ -5290,16 +5314,16 @@
     </row>
     <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>21</v>
@@ -5310,13 +5334,13 @@
     </row>
     <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>46</v>
@@ -5325,21 +5349,21 @@
         <v>4</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>92</v>
@@ -5350,19 +5374,19 @@
     </row>
     <row r="169" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5384,7 +5408,7 @@
     </row>
     <row r="171" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>35</v>
@@ -5393,27 +5417,27 @@
         <v>94</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F171" s="6">
         <v>3</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F172" s="6">
         <v>3</v>
@@ -5421,16 +5445,16 @@
     </row>
     <row r="173" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F173" s="6">
         <v>2</v>
@@ -5438,13 +5462,13 @@
     </row>
     <row r="174" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F174" s="6">
         <v>3</v>
@@ -5452,22 +5476,53 @@
     </row>
     <row r="175" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F175" s="6">
         <v>3</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="G177" s="14" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -5529,224 +5584,226 @@
     <hyperlink ref="E98" r:id="rId54" xr:uid="{710F1479-585D-4444-83C8-6D53E855AFE0}"/>
     <hyperlink ref="E37" r:id="rId55" xr:uid="{7B7DB3A6-D345-447E-9F9A-467C29F36D49}"/>
     <hyperlink ref="E169" r:id="rId56" xr:uid="{48A15251-608D-4C90-AD44-6D4945946072}"/>
-    <hyperlink ref="E124" r:id="rId57" xr:uid="{BD52CDA8-8190-48A9-BD92-085140195F73}"/>
-    <hyperlink ref="E10" r:id="rId58" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
-    <hyperlink ref="E154" r:id="rId59" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
-    <hyperlink ref="E91" r:id="rId60" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
-    <hyperlink ref="E170" r:id="rId61" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
-    <hyperlink ref="E61" r:id="rId62" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
-    <hyperlink ref="E55" r:id="rId63" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
-    <hyperlink ref="E78" r:id="rId64" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
-    <hyperlink ref="E79" r:id="rId65" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
-    <hyperlink ref="E81" r:id="rId66" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
-    <hyperlink ref="E128" r:id="rId67" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
-    <hyperlink ref="E118" r:id="rId68" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
-    <hyperlink ref="E88" r:id="rId69" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
-    <hyperlink ref="E73" r:id="rId70" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
-    <hyperlink ref="E76" r:id="rId71" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
-    <hyperlink ref="E131" r:id="rId72" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
-    <hyperlink ref="E38" r:id="rId73" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
-    <hyperlink ref="E13" r:id="rId74" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
-    <hyperlink ref="E6" r:id="rId75" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
-    <hyperlink ref="E15" r:id="rId76" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
-    <hyperlink ref="A84" r:id="rId77" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
-    <hyperlink ref="E84" r:id="rId78" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
-    <hyperlink ref="A95" r:id="rId79" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
-    <hyperlink ref="E95" r:id="rId80" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
-    <hyperlink ref="A93" r:id="rId81" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
-    <hyperlink ref="A92" r:id="rId82" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
-    <hyperlink ref="A94" r:id="rId83" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
-    <hyperlink ref="A116" r:id="rId84" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
-    <hyperlink ref="A138" r:id="rId85" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
-    <hyperlink ref="E138" r:id="rId86" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
-    <hyperlink ref="A89" r:id="rId87" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
-    <hyperlink ref="A44" r:id="rId88" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
-    <hyperlink ref="A71" r:id="rId89" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
-    <hyperlink ref="A122" r:id="rId90" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
-    <hyperlink ref="A158" r:id="rId91" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
-    <hyperlink ref="E158" r:id="rId92" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
-    <hyperlink ref="A141" r:id="rId93" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
-    <hyperlink ref="E141" r:id="rId94" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
-    <hyperlink ref="A133" r:id="rId95" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
-    <hyperlink ref="E133" r:id="rId96" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
-    <hyperlink ref="A75" r:id="rId97" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
-    <hyperlink ref="E75" r:id="rId98" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
-    <hyperlink ref="A39" r:id="rId99" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
-    <hyperlink ref="A52" r:id="rId100" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
-    <hyperlink ref="A69" r:id="rId101" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
-    <hyperlink ref="A27" r:id="rId102" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
-    <hyperlink ref="A28" r:id="rId103" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
-    <hyperlink ref="A57" r:id="rId104" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
-    <hyperlink ref="A48" r:id="rId105" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
-    <hyperlink ref="A45" r:id="rId106" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
-    <hyperlink ref="A77" r:id="rId107" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
-    <hyperlink ref="A25" r:id="rId108" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
-    <hyperlink ref="E25" r:id="rId109" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
-    <hyperlink ref="A32" r:id="rId110" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
-    <hyperlink ref="A67" r:id="rId111" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
-    <hyperlink ref="A31" r:id="rId112" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
-    <hyperlink ref="A5" r:id="rId113" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
-    <hyperlink ref="A64" r:id="rId114" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
-    <hyperlink ref="A3" r:id="rId115" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
-    <hyperlink ref="A142" r:id="rId116" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
-    <hyperlink ref="A4" r:id="rId117" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
-    <hyperlink ref="A9" r:id="rId118" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
-    <hyperlink ref="A174" r:id="rId119" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
-    <hyperlink ref="A68" r:id="rId120" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
-    <hyperlink ref="A47" r:id="rId121" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
-    <hyperlink ref="A11" r:id="rId122" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
-    <hyperlink ref="A7" r:id="rId123" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
-    <hyperlink ref="A125" r:id="rId124" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
-    <hyperlink ref="A70" r:id="rId125" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
-    <hyperlink ref="E70" r:id="rId126" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
-    <hyperlink ref="A19" r:id="rId127" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
-    <hyperlink ref="A50" r:id="rId128" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
-    <hyperlink ref="A175" r:id="rId129" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
-    <hyperlink ref="A53" r:id="rId130" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
-    <hyperlink ref="A54" r:id="rId131" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
-    <hyperlink ref="E130" r:id="rId132" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
-    <hyperlink ref="A130" r:id="rId133" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
-    <hyperlink ref="A167" r:id="rId134" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
-    <hyperlink ref="E167" r:id="rId135" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
-    <hyperlink ref="A42" r:id="rId136" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
-    <hyperlink ref="E42" r:id="rId137" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
-    <hyperlink ref="A119" r:id="rId138" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
-    <hyperlink ref="E168" r:id="rId139" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
-    <hyperlink ref="A168" r:id="rId140" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
-    <hyperlink ref="A62" r:id="rId141" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
-    <hyperlink ref="A21" r:id="rId142" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
-    <hyperlink ref="A137" r:id="rId143" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
-    <hyperlink ref="E137" r:id="rId144" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
-    <hyperlink ref="E113" r:id="rId145" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
-    <hyperlink ref="A113" r:id="rId146" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
-    <hyperlink ref="A115" r:id="rId147" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
-    <hyperlink ref="A163" r:id="rId148" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
-    <hyperlink ref="E111" r:id="rId149" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
-    <hyperlink ref="A111" r:id="rId150" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
-    <hyperlink ref="A35" r:id="rId151" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
-    <hyperlink ref="E121" r:id="rId152" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
-    <hyperlink ref="A49" r:id="rId153" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
-    <hyperlink ref="A121" r:id="rId154" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
-    <hyperlink ref="E36" r:id="rId155" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
-    <hyperlink ref="A36" r:id="rId156" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
-    <hyperlink ref="A120" r:id="rId157" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
-    <hyperlink ref="E120" r:id="rId158" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
-    <hyperlink ref="A162" r:id="rId159" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
-    <hyperlink ref="E162" r:id="rId160" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
-    <hyperlink ref="A171" r:id="rId161" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
-    <hyperlink ref="E171" r:id="rId162" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
-    <hyperlink ref="A59" r:id="rId163" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
-    <hyperlink ref="E97" r:id="rId164" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
-    <hyperlink ref="A97" r:id="rId165" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
-    <hyperlink ref="A114" r:id="rId166" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
-    <hyperlink ref="A16" r:id="rId167" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
-    <hyperlink ref="A143" r:id="rId168" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
-    <hyperlink ref="A129" r:id="rId169" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
-    <hyperlink ref="A166" r:id="rId170" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
-    <hyperlink ref="E166" r:id="rId171" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
-    <hyperlink ref="A22" r:id="rId172" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
-    <hyperlink ref="A41" r:id="rId173" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
-    <hyperlink ref="A164" r:id="rId174" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
-    <hyperlink ref="A102" r:id="rId175" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
-    <hyperlink ref="E102" r:id="rId176" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
-    <hyperlink ref="A96" r:id="rId177" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
-    <hyperlink ref="E96" r:id="rId178" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
-    <hyperlink ref="A151" r:id="rId179" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
-    <hyperlink ref="A14" r:id="rId180" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
-    <hyperlink ref="A46" r:id="rId181" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
-    <hyperlink ref="A86" r:id="rId182" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
-    <hyperlink ref="A26" r:id="rId183" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
-    <hyperlink ref="E26" r:id="rId184" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
-    <hyperlink ref="A99" r:id="rId185" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
-    <hyperlink ref="A34" r:id="rId186" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
-    <hyperlink ref="A123" r:id="rId187" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
-    <hyperlink ref="A105" r:id="rId188" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
-    <hyperlink ref="A147" r:id="rId189" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
-    <hyperlink ref="E147" r:id="rId190" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
-    <hyperlink ref="A149" r:id="rId191" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
-    <hyperlink ref="A136" r:id="rId192" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
-    <hyperlink ref="E136" r:id="rId193" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
-    <hyperlink ref="A12" r:id="rId194" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
-    <hyperlink ref="E12" r:id="rId195" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
-    <hyperlink ref="A156" r:id="rId196" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
-    <hyperlink ref="E156" r:id="rId197" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
-    <hyperlink ref="A103" r:id="rId198" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
-    <hyperlink ref="A30" r:id="rId199" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
-    <hyperlink ref="E123" r:id="rId200" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
-    <hyperlink ref="E135" r:id="rId201" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
-    <hyperlink ref="A135" r:id="rId202" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
-    <hyperlink ref="A132" r:id="rId203" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
-    <hyperlink ref="E132" r:id="rId204" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
-    <hyperlink ref="A107" r:id="rId205" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
-    <hyperlink ref="A139" r:id="rId206" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
-    <hyperlink ref="A117" r:id="rId207" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
-    <hyperlink ref="E117" r:id="rId208" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
-    <hyperlink ref="E86" r:id="rId209" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
-    <hyperlink ref="A58" r:id="rId210" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
-    <hyperlink ref="E58" r:id="rId211" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
-    <hyperlink ref="E39" r:id="rId212" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
-    <hyperlink ref="A112" r:id="rId213" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
-    <hyperlink ref="E112" r:id="rId214" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
-    <hyperlink ref="E28" r:id="rId215" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
-    <hyperlink ref="E16" r:id="rId216" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
-    <hyperlink ref="A74" r:id="rId217" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
-    <hyperlink ref="A17" r:id="rId218" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{44B4BF0B-837D-4651-B2FB-1620DC83FFE7}"/>
-    <hyperlink ref="E17" r:id="rId219" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
-    <hyperlink ref="A18" r:id="rId220" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
-    <hyperlink ref="E18" r:id="rId221" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
-    <hyperlink ref="A148" r:id="rId222" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
-    <hyperlink ref="A87" r:id="rId223" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
-    <hyperlink ref="A8" r:id="rId224" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
-    <hyperlink ref="A29" r:id="rId225" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
-    <hyperlink ref="E29" r:id="rId226" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
-    <hyperlink ref="A40" r:id="rId227" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
-    <hyperlink ref="E62" r:id="rId228" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
-    <hyperlink ref="E21" r:id="rId229" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
-    <hyperlink ref="A155" r:id="rId230" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
-    <hyperlink ref="E155" r:id="rId231" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
-    <hyperlink ref="A43" r:id="rId232" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
-    <hyperlink ref="A106" r:id="rId233" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
-    <hyperlink ref="E106" r:id="rId234" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
-    <hyperlink ref="A101" r:id="rId235" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
-    <hyperlink ref="A104" r:id="rId236" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
-    <hyperlink ref="A23" r:id="rId237" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
-    <hyperlink ref="A24" r:id="rId238" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
-    <hyperlink ref="A108" r:id="rId239" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
-    <hyperlink ref="A157" r:id="rId240" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
-    <hyperlink ref="E157" r:id="rId241" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
-    <hyperlink ref="G157" r:id="rId242" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
-    <hyperlink ref="A159" r:id="rId243" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
-    <hyperlink ref="E159" r:id="rId244" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
-    <hyperlink ref="A160" r:id="rId245" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
-    <hyperlink ref="A66" r:id="rId246" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{3690C3B5-EFC5-437C-A0D1-CB9D85B3A34F}"/>
-    <hyperlink ref="A63" r:id="rId247" display="https://leetcode.cn/problems/design-an-atm-machine/" xr:uid="{D7B15653-6A09-44BA-BB8C-FDE24401DDF1}"/>
-    <hyperlink ref="G63" r:id="rId248" display="https://leetcode.cn/problems/design-an-atm-machine/description/comments/2455759" xr:uid="{A5086F55-1434-404A-992F-B80FF5A7FC43}"/>
-    <hyperlink ref="A100" r:id="rId249" display="https://leetcode.cn/problems/number-of-changing-keys/" xr:uid="{E1DB166E-6F15-4C1A-A4DF-848D9F040960}"/>
-    <hyperlink ref="E20" r:id="rId250" xr:uid="{885648FE-B846-494B-A1CC-6EF51258DFBE}"/>
-    <hyperlink ref="A65" r:id="rId251" display="https://leetcode.cn/problems/largest-3-same-digit-number-in-string/" xr:uid="{53821643-24AF-4726-8FB7-99075A9086BB}"/>
-    <hyperlink ref="E65" r:id="rId252" xr:uid="{FE3E03B6-849D-4908-AF6E-80BE73643531}"/>
-    <hyperlink ref="A80" r:id="rId253" display="https://leetcode.cn/problems/remove-element/" xr:uid="{EC34739C-C1A9-4542-AB07-6AE8DFEEE438}"/>
-    <hyperlink ref="A152" r:id="rId254" display="https://leetcode.cn/problems/binary-search/" xr:uid="{FDF24C51-ADA1-4D9F-8FF2-66E3315D1E16}"/>
-    <hyperlink ref="A173" r:id="rId255" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{11DFEED4-79F2-41B1-BFA1-09B25512778E}"/>
-    <hyperlink ref="A172" r:id="rId256" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
-    <hyperlink ref="A109" r:id="rId257" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-i/" xr:uid="{0F4C7094-3E47-4E3B-B62C-D5F74248308D}"/>
-    <hyperlink ref="E109" r:id="rId258" xr:uid="{77F7040A-75D7-4B8B-9FC2-A71783B012A7}"/>
-    <hyperlink ref="A110" r:id="rId259" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-ii/" xr:uid="{B3046782-6548-4E0F-8754-DA65A6C34D37}"/>
-    <hyperlink ref="E110" r:id="rId260" xr:uid="{AE737F5F-B651-4566-BC14-DFDF853B9E11}"/>
-    <hyperlink ref="G110" r:id="rId261" xr:uid="{A97CA339-77A7-4E4F-A67A-D8006440062F}"/>
-    <hyperlink ref="A56" r:id="rId262" display="https://leetcode.cn/problems/minimum-size-subarray-sum/" xr:uid="{11E9B294-5022-48AD-AAEE-6D8853CE520B}"/>
-    <hyperlink ref="A146" r:id="rId263" display="https://leetcode.cn/problems/spiral-matrix-ii/" xr:uid="{925EE3EB-98C6-44E0-8568-8F3579CDECB3}"/>
-    <hyperlink ref="A127" r:id="rId264" xr:uid="{2E2256CC-D364-45E4-9BAD-BD70561D70AC}"/>
-    <hyperlink ref="E33" r:id="rId265" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{15F1F021-226C-4D23-9608-D795A01F3FAD}"/>
-    <hyperlink ref="A51" r:id="rId266" display="https://leetcode.cn/problems/remove-linked-list-elements/" xr:uid="{138DFA18-4180-41D3-8F87-FD941ECA0952}"/>
-    <hyperlink ref="A153" r:id="rId267" display="https://leetcode.cn/problems/design-linked-list/" xr:uid="{F2EFDF00-E8C3-491B-A861-BDD4BCF1EAA2}"/>
-    <hyperlink ref="E51" r:id="rId268" xr:uid="{40FFA837-C359-41BB-A137-D4E00AB5A0CF}"/>
-    <hyperlink ref="E153" r:id="rId269" xr:uid="{650217E3-7B49-48ED-8611-44ABA6443456}"/>
-    <hyperlink ref="E52" r:id="rId270" xr:uid="{980F8A60-CD1B-4477-9F19-657BB875F514}"/>
+    <hyperlink ref="E10" r:id="rId57" xr:uid="{B4600BAD-5CAA-424F-AC24-FBBB647DADA7}"/>
+    <hyperlink ref="E154" r:id="rId58" xr:uid="{5A80CC00-AD3B-4F26-9D70-5D113E212D77}"/>
+    <hyperlink ref="E91" r:id="rId59" xr:uid="{F62B22C6-0054-4391-8F93-7DCA4A04B6C2}"/>
+    <hyperlink ref="E170" r:id="rId60" xr:uid="{E7AB61B6-DBA5-4869-B79F-21DEA0A21A2A}"/>
+    <hyperlink ref="E61" r:id="rId61" xr:uid="{6C0CBDDC-15AB-41BC-8AD8-3A7678612FFE}"/>
+    <hyperlink ref="E55" r:id="rId62" xr:uid="{C082DBA3-BF6F-4354-A2B9-4DFDBCA41E3F}"/>
+    <hyperlink ref="E78" r:id="rId63" xr:uid="{4AD655D4-539F-43D1-AF21-FD652B3B7D1A}"/>
+    <hyperlink ref="E79" r:id="rId64" xr:uid="{6654DC65-6E3C-44E1-BADC-DCD564B4B33E}"/>
+    <hyperlink ref="E81" r:id="rId65" xr:uid="{F9C5079A-479B-4956-BAE5-1257C7FF1A4A}"/>
+    <hyperlink ref="E128" r:id="rId66" xr:uid="{F4ADA86A-0680-4EA9-B429-CCBEA806CBA2}"/>
+    <hyperlink ref="E118" r:id="rId67" xr:uid="{FA483143-C671-4E08-BA2A-668803FBAF30}"/>
+    <hyperlink ref="E88" r:id="rId68" xr:uid="{687D1EF4-BE40-4253-9888-F0EFA784DFFE}"/>
+    <hyperlink ref="E73" r:id="rId69" xr:uid="{37A4ECD3-6A85-4A80-BADD-45ACC7A4BDAC}"/>
+    <hyperlink ref="E76" r:id="rId70" xr:uid="{1BB1D542-CE6A-4F15-BAD0-8E150E86DAEE}"/>
+    <hyperlink ref="E131" r:id="rId71" xr:uid="{C7FFAB8C-8294-407A-AF24-C9D1899CE796}"/>
+    <hyperlink ref="E38" r:id="rId72" xr:uid="{617A546E-9511-4EBF-8D70-85AF693926F3}"/>
+    <hyperlink ref="E13" r:id="rId73" xr:uid="{CD6D90A1-D877-434B-81B9-16DC26D192AD}"/>
+    <hyperlink ref="E6" r:id="rId74" xr:uid="{87493A55-61B0-4662-A5B3-056967B0FE81}"/>
+    <hyperlink ref="E15" r:id="rId75" xr:uid="{2A03A969-6173-48EC-895A-2E4A35DA8F61}"/>
+    <hyperlink ref="A84" r:id="rId76" display="https://leetcode.cn/problems/longest-alternating-subarray/" xr:uid="{CE31139F-E3AD-47E7-A3DA-C247DEA5E681}"/>
+    <hyperlink ref="E84" r:id="rId77" xr:uid="{6C7253B6-9882-48B6-9A61-350BC52E34FE}"/>
+    <hyperlink ref="A95" r:id="rId78" display="https://leetcode.cn/problems/beautiful-towers-i/" xr:uid="{422E3E39-04D0-4C02-B237-FCAE1C661020}"/>
+    <hyperlink ref="E95" r:id="rId79" xr:uid="{88E2BA58-53D9-47A6-8186-881DD7B82E77}"/>
+    <hyperlink ref="A93" r:id="rId80" display="https://leetcode.cn/problems/sum-of-values-at-indices-with-k-set-bits/" xr:uid="{72686F91-2315-43ED-89E4-333E7C31926A}"/>
+    <hyperlink ref="A92" r:id="rId81" display="https://leetcode.cn/problems/minimum-edge-weight-equilibrium-queries-in-a-tree/" xr:uid="{715DDDC7-F3F9-4482-87DF-B8F707D5596F}"/>
+    <hyperlink ref="A94" r:id="rId82" display="https://leetcode.cn/problems/maximum-number-of-alloys/" xr:uid="{0ED65D93-5F0A-4C8F-8661-5D174085FFCE}"/>
+    <hyperlink ref="A116" r:id="rId83" display="https://leetcode.cn/problems/water-and-jug-problem/" xr:uid="{E5E9E3F5-D048-46DB-B377-9A61CA8A8946}"/>
+    <hyperlink ref="A138" r:id="rId84" display="https://leetcode.cn/problems/freedom-trail/" xr:uid="{A2C0B38F-65D7-44C4-9DF1-646C455842FC}"/>
+    <hyperlink ref="E138" r:id="rId85" xr:uid="{8699ADAE-95F0-4472-B227-9AA2813AA692}"/>
+    <hyperlink ref="A89" r:id="rId86" display="https://leetcode.cn/problems/minimum-seconds-to-equalize-a-circular-array/" xr:uid="{5C9C077F-45A3-452D-AC9D-D25D1D690EA2}"/>
+    <hyperlink ref="A44" r:id="rId87" xr:uid="{66EB66A9-8D6B-4BF6-A6C3-8A5954733BBF}"/>
+    <hyperlink ref="A71" r:id="rId88" display="https://leetcode.cn/problems/product-of-array-except-self/" xr:uid="{A190E6D7-6DC0-41FF-B880-4504E51AD0A8}"/>
+    <hyperlink ref="A122" r:id="rId89" display="https://leetcode.cn/problems/first-missing-positive/" xr:uid="{D6CDA410-39D8-4983-9BDC-15727DEDFCB0}"/>
+    <hyperlink ref="A158" r:id="rId90" display="https://leetcode.cn/problems/set-matrix-zeroes/" xr:uid="{C6A1E3B1-09D2-47A0-860B-48FEEBC1056B}"/>
+    <hyperlink ref="E158" r:id="rId91" xr:uid="{078E7176-F40A-4347-A445-D7A9552A387A}"/>
+    <hyperlink ref="A141" r:id="rId92" display="https://leetcode.cn/problems/spiral-matrix/" xr:uid="{F8766E35-A34B-4EFF-BDF3-0B4AC5DB8C10}"/>
+    <hyperlink ref="E141" r:id="rId93" xr:uid="{2D32183A-312F-4B64-A30F-0AB4B3726872}"/>
+    <hyperlink ref="A133" r:id="rId94" display="https://leetcode.cn/problems/rotate-image/" xr:uid="{5CD1B5B0-1C26-42C3-A789-7C54A1599DD5}"/>
+    <hyperlink ref="E133" r:id="rId95" xr:uid="{66D6968F-8499-47FC-9ABF-2814B77BDCB5}"/>
+    <hyperlink ref="A75" r:id="rId96" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{ED4084D7-2655-4CA6-935F-AF9C27B5F84E}"/>
+    <hyperlink ref="E75" r:id="rId97" xr:uid="{371CE243-99B4-4416-810C-2B026B3F2BD8}"/>
+    <hyperlink ref="A39" r:id="rId98" display="https://leetcode.cn/problems/intersection-of-two-linked-lists/" xr:uid="{292AE10F-3B80-4BCE-B10F-041CC4AE4405}"/>
+    <hyperlink ref="A52" r:id="rId99" display="https://leetcode.cn/problems/reverse-linked-list/" xr:uid="{42B5B9DD-E787-4DDD-B00C-AC502AC14EBE}"/>
+    <hyperlink ref="A69" r:id="rId100" display="https://leetcode.cn/problems/palindrome-linked-list/" xr:uid="{3D9FB9AA-16D7-4F6F-AC03-B6BC2A3216BD}"/>
+    <hyperlink ref="A27" r:id="rId101" display="https://leetcode.cn/problems/linked-list-cycle/" xr:uid="{45893E70-1C1D-4F5A-80D5-B9498F0463D8}"/>
+    <hyperlink ref="A28" r:id="rId102" display="https://leetcode.cn/problems/linked-list-cycle-ii/" xr:uid="{AA6FE3C6-2E73-4EFD-A132-9E337F8D1562}"/>
+    <hyperlink ref="A57" r:id="rId103" display="https://leetcode.cn/problems/merge-two-sorted-lists/" xr:uid="{39409391-1893-4957-B20F-06437CA45923}"/>
+    <hyperlink ref="A48" r:id="rId104" display="https://leetcode.cn/problems/add-two-numbers/" xr:uid="{616C0CC1-D70D-4E3F-ABB5-494680939B0D}"/>
+    <hyperlink ref="A45" r:id="rId105" display="https://leetcode.cn/problems/remove-nth-node-from-end-of-list/" xr:uid="{6D487B38-6448-49A2-AF76-FF75034F6EDB}"/>
+    <hyperlink ref="A77" r:id="rId106" display="https://leetcode.cn/problems/reverse-nodes-in-k-group/" xr:uid="{FA1E34C3-C166-4D72-A30B-915F3F50CFF9}"/>
+    <hyperlink ref="A25" r:id="rId107" display="https://leetcode.cn/problems/copy-list-with-random-pointer/" xr:uid="{8D07E3E8-2095-44A3-A434-D33E7A1B9CB1}"/>
+    <hyperlink ref="E25" r:id="rId108" xr:uid="{15B76AA8-DD34-4170-8429-D661393E432B}"/>
+    <hyperlink ref="A32" r:id="rId109" display="https://leetcode.cn/problems/sort-list/" xr:uid="{C5653710-89D2-47AD-A92A-5BF876E756D0}"/>
+    <hyperlink ref="A67" r:id="rId110" display="https://leetcode.cn/problems/merge-k-sorted-lists/" xr:uid="{24641442-A295-4EC8-88E5-B0C09E4F3CAC}"/>
+    <hyperlink ref="A31" r:id="rId111" display="https://leetcode.cn/problems/lru-cache/" xr:uid="{B795428B-A2E2-46EA-A417-AF8114C9EF23}"/>
+    <hyperlink ref="A5" r:id="rId112" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{E2779ECC-F6F2-4721-B2AF-013E62B4A44D}"/>
+    <hyperlink ref="A64" r:id="rId113" display="https://leetcode.cn/problems/invert-binary-tree/" xr:uid="{82BC3859-2166-43DC-BCBF-3CB1A966F7A6}"/>
+    <hyperlink ref="A3" r:id="rId114" display="https://leetcode.cn/problems/symmetric-tree/" xr:uid="{B28785EA-ECDF-44CC-8B01-1E8171DD13CE}"/>
+    <hyperlink ref="A142" r:id="rId115" display="https://leetcode.cn/problems/diameter-of-binary-tree/" xr:uid="{2359DD9C-2BD5-4AEC-B348-6813975B7912}"/>
+    <hyperlink ref="A4" r:id="rId116" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{1D68961A-6E60-46DE-B611-D7B5D25133FB}"/>
+    <hyperlink ref="A9" r:id="rId117" display="https://leetcode.cn/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{328BE4BD-3DD5-4615-826F-93546C63D4B0}"/>
+    <hyperlink ref="A174" r:id="rId118" display="https://leetcode.cn/problems/validate-binary-search-tree/" xr:uid="{743EA17A-87FE-4F4B-B0BF-739F3BEC24BD}"/>
+    <hyperlink ref="A68" r:id="rId119" display="https://leetcode.cn/problems/kth-smallest-element-in-a-bst/" xr:uid="{E8952E47-A552-42F7-872B-3FB6F8ABE394}"/>
+    <hyperlink ref="A47" r:id="rId120" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{742E0E19-C628-4E6A-A389-82FC923F760C}"/>
+    <hyperlink ref="A11" r:id="rId121" display="https://leetcode.cn/problems/flatten-binary-tree-to-linked-list/" xr:uid="{11440A7B-C0FC-418F-8923-563E96F7E5C0}"/>
+    <hyperlink ref="A7" r:id="rId122" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{3A9D1B28-E972-4D8B-82BE-26C4566DAF4F}"/>
+    <hyperlink ref="A125" r:id="rId123" display="https://leetcode.cn/problems/path-sum-iii/" xr:uid="{05551963-434C-40D6-A149-D640646C016A}"/>
+    <hyperlink ref="A70" r:id="rId124" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{C283A30B-A9D0-4642-834C-77EE1E2A81E8}"/>
+    <hyperlink ref="E70" r:id="rId125" xr:uid="{A9C856D9-9F85-4925-88CC-FF911C4EFD32}"/>
+    <hyperlink ref="A19" r:id="rId126" display="https://leetcode.cn/problems/binary-tree-maximum-path-sum/" xr:uid="{3678B77A-8804-4A64-AE6C-41376D22B9BC}"/>
+    <hyperlink ref="A50" r:id="rId127" display="https://leetcode.cn/problems/number-of-islands/" xr:uid="{A328C414-4CF6-4425-A56A-201C9BC6AD15}"/>
+    <hyperlink ref="A175" r:id="rId128" display="https://leetcode.cn/problems/rotting-oranges/" xr:uid="{C47F4890-A65B-4EA6-BE20-E06AFE42305B}"/>
+    <hyperlink ref="A53" r:id="rId129" display="https://leetcode.cn/problems/course-schedule/" xr:uid="{E474195F-F1D8-4B40-A072-95AA82E77F7B}"/>
+    <hyperlink ref="A54" r:id="rId130" display="https://leetcode.cn/problems/implement-trie-prefix-tree/" xr:uid="{ACDFE2DE-83AA-4BAD-8166-E20BAC48A7C3}"/>
+    <hyperlink ref="E130" r:id="rId131" xr:uid="{2E898F41-BA84-45AF-A705-0973EB8DB8EE}"/>
+    <hyperlink ref="A130" r:id="rId132" display="https://leetcode.cn/problems/permutations/" xr:uid="{8E4E13D8-2A7F-4DC6-A48B-A54ED93B27C0}"/>
+    <hyperlink ref="A167" r:id="rId133" display="https://leetcode.cn/problems/subsets/" xr:uid="{5C409365-541F-4E98-97A1-A1E29CC4F14F}"/>
+    <hyperlink ref="E167" r:id="rId134" xr:uid="{93490963-1363-4F0C-8181-651E214E0B18}"/>
+    <hyperlink ref="A42" r:id="rId135" display="https://leetcode.cn/problems/letter-combinations-of-a-phone-number/" xr:uid="{A72E7149-0969-4B87-A7FC-139F18FFD8BB}"/>
+    <hyperlink ref="E42" r:id="rId136" xr:uid="{31CD6DD9-B828-43FC-B338-7CAE71F2DFDF}"/>
+    <hyperlink ref="A119" r:id="rId137" display="https://leetcode.cn/problems/combination-sum/" xr:uid="{EFF7251F-6EB1-4CC3-B4A9-227B600CFFA1}"/>
+    <hyperlink ref="E168" r:id="rId138" xr:uid="{D009558D-60D6-4366-8677-9423BF894976}"/>
+    <hyperlink ref="A168" r:id="rId139" display="https://leetcode.cn/problems/word-search/" xr:uid="{6E176417-751F-4EED-B7EB-3128CCF61581}"/>
+    <hyperlink ref="A62" r:id="rId140" display="https://leetcode.cn/problems/generate-parentheses/" xr:uid="{30406B0C-B20F-496A-A2C4-D948173189C3}"/>
+    <hyperlink ref="A21" r:id="rId141" display="https://leetcode.cn/problems/palindrome-partitioning/" xr:uid="{C1C42340-3C82-4BD1-8608-8DFFF96FC75B}"/>
+    <hyperlink ref="A137" r:id="rId142" display="https://leetcode.cn/problems/n-queens/" xr:uid="{A0187B26-61AC-4C97-9A36-85A591E506B7}"/>
+    <hyperlink ref="E137" r:id="rId143" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E8%A1%A5%E5%85%85" xr:uid="{7968323D-D06A-46E1-9DFB-D49E602D499C}"/>
+    <hyperlink ref="E113" r:id="rId144" xr:uid="{DDCFD87D-CD38-43E5-ADAF-24E527C68F8E}"/>
+    <hyperlink ref="A113" r:id="rId145" display="https://leetcode.cn/problems/find-first-and-last-position-of-element-in-sorted-array/" xr:uid="{BF08E923-B4D9-4EEF-8E92-E28C605CCE32}"/>
+    <hyperlink ref="A115" r:id="rId146" display="https://leetcode.cn/problems/search-insert-position/" xr:uid="{54241F2B-5AB4-4177-BC7C-5360532D265E}"/>
+    <hyperlink ref="A163" r:id="rId147" display="https://leetcode.cn/problems/search-a-2d-matrix/" xr:uid="{B827C295-310F-4C1E-8C97-04E52B4E0D8F}"/>
+    <hyperlink ref="E111" r:id="rId148" xr:uid="{66A0E0DB-2AE8-4C0D-B11E-7E0DDADB9B41}"/>
+    <hyperlink ref="A111" r:id="rId149" display="https://leetcode.cn/problems/search-in-rotated-sorted-array/" xr:uid="{B22B927E-2356-4B4E-BF35-F484D36559D4}"/>
+    <hyperlink ref="A35" r:id="rId150" display="https://leetcode.cn/problems/find-minimum-in-rotated-sorted-array/" xr:uid="{397D2DAE-9BE0-4951-B83D-824D7FBCE07E}"/>
+    <hyperlink ref="E121" r:id="rId151" xr:uid="{90EC8E40-2D47-4398-939E-3F09E808796E}"/>
+    <hyperlink ref="A49" r:id="rId152" display="https://leetcode.cn/problems/valid-parentheses/" xr:uid="{4BE72628-010D-4D86-BD85-8830898F69F1}"/>
+    <hyperlink ref="A121" r:id="rId153" display="https://leetcode.cn/problems/median-of-two-sorted-arrays/" xr:uid="{47FFFE22-7443-4E70-84C1-E1352C5D0139}"/>
+    <hyperlink ref="E36" r:id="rId154" xr:uid="{BC8DED09-4E1C-410D-A7D9-76EF7EA14100}"/>
+    <hyperlink ref="A36" r:id="rId155" display="https://leetcode.cn/problems/min-stack/" xr:uid="{BD6D5A5D-9717-4253-A2F5-A43EC62D1A5D}"/>
+    <hyperlink ref="A120" r:id="rId156" display="https://leetcode.cn/problems/decode-string/" xr:uid="{0B4CACA8-1935-41CF-967A-CAEFF5AECB53}"/>
+    <hyperlink ref="E120" r:id="rId157" xr:uid="{819C9DBC-04AA-4864-81C9-0C3EFC02339D}"/>
+    <hyperlink ref="A162" r:id="rId158" display="https://leetcode.cn/problems/daily-temperatures/" xr:uid="{B26C3125-EB8A-4499-B55F-A0327D4C49FD}"/>
+    <hyperlink ref="E162" r:id="rId159" xr:uid="{71B5751F-3CF1-4DC3-931E-B157AACD6558}"/>
+    <hyperlink ref="A171" r:id="rId160" display="https://leetcode.cn/problems/largest-rectangle-in-histogram/" xr:uid="{43247403-6670-4DAE-A4A7-F82A98DB1B18}"/>
+    <hyperlink ref="E171" r:id="rId161" xr:uid="{B99C6DBE-1E6B-4A91-B8BB-C628FC8F5E39}"/>
+    <hyperlink ref="A59" r:id="rId162" display="https://leetcode.cn/problems/kth-largest-element-in-an-array/" xr:uid="{6895E2EE-164A-44EC-87C0-E0780657C4D5}"/>
+    <hyperlink ref="E97" r:id="rId163" xr:uid="{9D276BED-6F9B-4561-A6CF-0DEE42145361}"/>
+    <hyperlink ref="A97" r:id="rId164" display="https://leetcode.cn/problems/find-median-from-data-stream/" xr:uid="{4DBDEEFB-711A-4C7C-B2FA-E0812141E933}"/>
+    <hyperlink ref="A114" r:id="rId165" display="https://leetcode.cn/problems/top-k-frequent-elements/" xr:uid="{8F33DAD7-780E-493E-95D1-8DAAF6F9CE55}"/>
+    <hyperlink ref="A16" r:id="rId166" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock/" xr:uid="{725CC9CC-B5C3-4BC9-9C17-C040E5E57AA9}"/>
+    <hyperlink ref="A143" r:id="rId167" display="https://leetcode.cn/problems/jump-game/" xr:uid="{073E6AFF-55B0-4CBA-9CBA-8E80417E47AD}"/>
+    <hyperlink ref="A129" r:id="rId168" display="https://leetcode.cn/problems/jump-game-ii/" xr:uid="{06A56225-774B-41E5-A4C2-DA953CBB2320}"/>
+    <hyperlink ref="A166" r:id="rId169" display="https://leetcode.cn/problems/partition-labels/" xr:uid="{12848DB0-0318-4BDF-BE64-C3F92DACAB58}"/>
+    <hyperlink ref="E166" r:id="rId170" xr:uid="{47AA8A23-9E0A-418A-8B69-FBEB825EFBA9}"/>
+    <hyperlink ref="A22" r:id="rId171" display="https://leetcode.cn/problems/single-number/" xr:uid="{9BD4A482-0471-4E20-BFC3-734B1CA35641}"/>
+    <hyperlink ref="A41" r:id="rId172" display="https://leetcode.cn/problems/majority-element/" xr:uid="{37CD3B5F-77FD-4FD4-9183-F3C2613312F5}"/>
+    <hyperlink ref="A164" r:id="rId173" display="https://leetcode.cn/problems/sort-colors/" xr:uid="{0933A8C1-E6CB-4D8B-B587-B3AE5E152C60}"/>
+    <hyperlink ref="A102" r:id="rId174" display="https://leetcode.cn/problems/next-permutation/" xr:uid="{00924165-81E0-40E5-9B50-126714BD9EC1}"/>
+    <hyperlink ref="E102" r:id="rId175" xr:uid="{FA68184D-DC6E-4B73-905E-7367F174DAB4}"/>
+    <hyperlink ref="A96" r:id="rId176" display="https://leetcode.cn/problems/find-the-duplicate-number/" xr:uid="{71AD2502-07F8-491F-B447-E038CFD2DE0A}"/>
+    <hyperlink ref="E96" r:id="rId177" xr:uid="{4623A77E-B815-4BB6-8889-1925129DCFC0}"/>
+    <hyperlink ref="A151" r:id="rId178" display="https://leetcode.cn/problems/climbing-stairs/" xr:uid="{6474300B-1FFA-41B9-826D-DD197EEBF5D1}"/>
+    <hyperlink ref="A14" r:id="rId179" display="https://leetcode.cn/problems/pascals-triangle/" xr:uid="{96D3509F-CF38-44FE-AE13-4A7146A5957A}"/>
+    <hyperlink ref="A46" r:id="rId180" display="https://leetcode.cn/problems/house-robber/" xr:uid="{079C2458-4871-4F22-AB06-1D1A62CFE367}"/>
+    <hyperlink ref="A86" r:id="rId181" display="https://leetcode.cn/problems/perfect-squares/" xr:uid="{343AEFED-CE19-4897-8C8D-4475B2A1407B}"/>
+    <hyperlink ref="A26" r:id="rId182" display="https://leetcode.cn/problems/word-break/" xr:uid="{BF6D8200-0760-4091-BC5C-21AE6E881E31}"/>
+    <hyperlink ref="E26" r:id="rId183" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{DD5556A3-46F8-41D5-98A7-E73337A29D00}"/>
+    <hyperlink ref="A99" r:id="rId184" display="https://leetcode.cn/problems/longest-increasing-subsequence/" xr:uid="{C613CD93-B015-40DE-B77D-98CD9C62426B}"/>
+    <hyperlink ref="A34" r:id="rId185" display="https://leetcode.cn/problems/maximum-product-subarray/" xr:uid="{56D5B9C8-5C69-4FE3-B1A6-87301E237F68}"/>
+    <hyperlink ref="A123" r:id="rId186" display="https://leetcode.cn/problems/partition-equal-subset-sum/" xr:uid="{2B3E4BC5-E239-44BE-99B2-1BB3C1D0824B}"/>
+    <hyperlink ref="A105" r:id="rId187" display="https://leetcode.cn/problems/longest-valid-parentheses/" xr:uid="{7BDAAF5F-4261-4559-B687-E752386ED066}"/>
+    <hyperlink ref="A147" r:id="rId188" display="https://leetcode.cn/problems/unique-paths/" xr:uid="{6A5EC3F6-9773-41E4-8A78-CBF6839C8CBC}"/>
+    <hyperlink ref="E147" r:id="rId189" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{07032E5B-FFB4-4546-BDBF-6435EE8CB009}"/>
+    <hyperlink ref="A149" r:id="rId190" display="https://leetcode.cn/problems/minimum-path-sum/" xr:uid="{7CE3AEDD-230D-451A-B612-10ACA7BFEBAF}"/>
+    <hyperlink ref="A136" r:id="rId191" display="https://leetcode.cn/problems/longest-palindromic-substring/" xr:uid="{7CB78970-BA37-46EB-A639-685EFA3C19B4}"/>
+    <hyperlink ref="E136" r:id="rId192" xr:uid="{5CB9B51C-4ADC-465D-985F-47361FC2BE8A}"/>
+    <hyperlink ref="A12" r:id="rId193" display="https://leetcode.cn/problems/longest-common-subsequence/" xr:uid="{708E0024-B68F-45A5-941B-550E630409AF}"/>
+    <hyperlink ref="E12" r:id="rId194" xr:uid="{F6D25B62-12B1-4A86-A3DB-7CC7ACA6C9BC}"/>
+    <hyperlink ref="A156" r:id="rId195" display="https://leetcode.cn/problems/edit-distance/" xr:uid="{F38D478C-0D97-4DB6-852E-47E16D7FF6B2}"/>
+    <hyperlink ref="E156" r:id="rId196" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{CD3FC349-C931-44B5-AB44-6E548F888619}"/>
+    <hyperlink ref="A103" r:id="rId197" display="https://leetcode.cn/problems/make-a-square-with-the-same-color/" xr:uid="{B400DA20-AE2E-4324-AC47-87BA46F421DE}"/>
+    <hyperlink ref="A30" r:id="rId198" display="https://leetcode.cn/problems/number-of-students-doing-homework-at-a-given-time/" xr:uid="{AA720C4C-25A2-4B25-89B7-BBECE40C40BB}"/>
+    <hyperlink ref="E123" r:id="rId199" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B37EB81F-EF1F-4396-86C4-07A4B6B4BD23}"/>
+    <hyperlink ref="E135" r:id="rId200" xr:uid="{E640F872-25EF-4BA1-9E59-499DF5F68C1F}"/>
+    <hyperlink ref="A135" r:id="rId201" display="https://leetcode.cn/problems/target-sum/" xr:uid="{20D963BF-935B-4ED4-929E-E539372B3AF7}"/>
+    <hyperlink ref="A132" r:id="rId202" display="https://leetcode.cn/problems/ones-and-zeroes/" xr:uid="{A745CEB2-6003-4380-A991-14868087F07F}"/>
+    <hyperlink ref="E132" r:id="rId203" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{F5FEC363-C626-4269-AB6D-BB8E81A1A7FB}"/>
+    <hyperlink ref="A107" r:id="rId204" display="https://leetcode.cn/problems/coin-change/" xr:uid="{64F5B128-1E04-4732-AF12-90689477DA6D}"/>
+    <hyperlink ref="A139" r:id="rId205" display="https://leetcode.cn/problems/coin-change-ii/" xr:uid="{12DF8DE7-8ED9-41CC-B542-0942C84A3816}"/>
+    <hyperlink ref="A117" r:id="rId206" display="https://leetcode.cn/problems/combination-sum-iv/" xr:uid="{298B5B43-888B-4FE3-9586-FC5002886A6C}"/>
+    <hyperlink ref="E117" r:id="rId207" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{DC60A958-2764-44A8-8EE2-77C17D2FDEA3}"/>
+    <hyperlink ref="E86" r:id="rId208" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D43FC4F4-2E6E-4131-A45D-CA8A1DFB898B}"/>
+    <hyperlink ref="A58" r:id="rId209" display="https://leetcode.cn/problems/house-robber-ii/" xr:uid="{011EF902-1A7F-4B2A-A6C4-9CC4170652F9}"/>
+    <hyperlink ref="E58" r:id="rId210" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{1C2F2F2E-B768-4CB1-A423-461180A08345}"/>
+    <hyperlink ref="E39" r:id="rId211" xr:uid="{F6F61F5C-44EF-4160-8F04-C1B4D9954358}"/>
+    <hyperlink ref="A112" r:id="rId212" display="https://leetcode.cn/problems/house-robber-iii/" xr:uid="{F03A8C84-0846-4378-B0E5-7128A3F7648D}"/>
+    <hyperlink ref="E112" r:id="rId213" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{7EFB6569-3C24-4DDB-85C3-2D694092BF07}"/>
+    <hyperlink ref="E28" r:id="rId214" xr:uid="{83508AB9-CE84-406E-A595-09E513D366DE}"/>
+    <hyperlink ref="E16" r:id="rId215" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D638CE32-5CF3-45F8-AB28-5C02249D688E}"/>
+    <hyperlink ref="A74" r:id="rId216" display="https://leetcode.cn/problems/swap-nodes-in-pairs/" xr:uid="{06FC87A8-9576-4A88-8A22-8C4507E31EAD}"/>
+    <hyperlink ref="A17" r:id="rId217" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{44B4BF0B-837D-4651-B2FB-1620DC83FFE7}"/>
+    <hyperlink ref="E17" r:id="rId218" xr:uid="{6A854C66-D16C-43C1-9F99-F65ED77BCA5D}"/>
+    <hyperlink ref="A18" r:id="rId219" display="https://leetcode.cn/problems/best-time-to-buy-and-sell-stock-iii/" xr:uid="{FEA62B0B-FF2D-40F4-9CD9-468AC519A968}"/>
+    <hyperlink ref="E18" r:id="rId220" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D16F13D5-2313-46E7-856B-7CD15473073D}"/>
+    <hyperlink ref="A148" r:id="rId221" display="https://leetcode.cn/problems/maximum-distance-in-arrays/" xr:uid="{02D73743-9253-4929-B7CF-906C335822E4}"/>
+    <hyperlink ref="A87" r:id="rId222" display="https://leetcode.cn/problems/wiggle-sort/" xr:uid="{4C7841DB-76AF-4350-8D79-81752C4DE963}"/>
+    <hyperlink ref="A8" r:id="rId223" display="https://leetcode.cn/problems/confusing-number/" xr:uid="{3787BBD4-87CE-4CFB-95F0-72BF1983D4E0}"/>
+    <hyperlink ref="A29" r:id="rId224" display="https://leetcode.cn/problems/perform-string-shifts/" xr:uid="{DD8B1630-888D-4505-8B4B-A337C652FCDC}"/>
+    <hyperlink ref="E29" r:id="rId225" xr:uid="{9F832EE2-74ED-4675-BC97-4E11BC46C2C0}"/>
+    <hyperlink ref="A40" r:id="rId226" display="https://leetcode.cn/problems/one-edit-distance/" xr:uid="{E5267046-4F48-4788-8D8B-CE1C5168CCE8}"/>
+    <hyperlink ref="E62" r:id="rId227" xr:uid="{4149FF56-A218-41F1-9B6F-4A183B8B3BEF}"/>
+    <hyperlink ref="E21" r:id="rId228" xr:uid="{0E87DF0C-2792-4918-BDDA-19A654B3DC20}"/>
+    <hyperlink ref="A155" r:id="rId229" display="https://leetcode.cn/problems/maximum-length-of-repeated-subarray/" xr:uid="{F3278CD2-BB0F-4DE2-BA98-C729C413733A}"/>
+    <hyperlink ref="E155" r:id="rId230" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6B8A95CC-5586-4C6D-AAA8-86008E5BCE55}"/>
+    <hyperlink ref="A43" r:id="rId231" display="https://leetcode.cn/problems/maximum-number-of-eaten-apples/" xr:uid="{80EFE840-9E81-452F-8A26-5FE24915396C}"/>
+    <hyperlink ref="A106" r:id="rId232" display="https://leetcode.cn/problems/minimum-cost-for-cutting-cake-i/" xr:uid="{11116011-CF93-4E57-BC2E-6531A73740B7}"/>
+    <hyperlink ref="E106" r:id="rId233" xr:uid="{4C516BA9-0633-4A4A-8C20-FE3EBB19A79F}"/>
+    <hyperlink ref="A101" r:id="rId234" display="https://leetcode.cn/problems/existence-of-a-substring-in-a-string-and-its-reverse/" xr:uid="{E431FE5D-B492-4489-9066-A5E1934CACD0}"/>
+    <hyperlink ref="A104" r:id="rId235" display="https://leetcode.cn/problems/find-occurrences-of-an-element-in-an-array/" xr:uid="{C6945341-43D2-43DD-932E-722DCF54B418}"/>
+    <hyperlink ref="A23" r:id="rId236" display="https://leetcode.cn/problems/rank-teams-by-votes/" xr:uid="{20650E80-267B-41A3-A8C4-63F070D1845E}"/>
+    <hyperlink ref="A24" r:id="rId237" display="https://leetcode.cn/problems/linked-list-in-binary-tree/" xr:uid="{6E5EA994-B5B8-4F25-B355-A1D8E79BBE07}"/>
+    <hyperlink ref="A108" r:id="rId238" display="https://leetcode.cn/problems/convert-date-to-binary/" xr:uid="{40926832-2B75-41C3-9759-102C17FEED0D}"/>
+    <hyperlink ref="A157" r:id="rId239" display="https://leetcode.cn/problems/my-calendar-i/" xr:uid="{73F213F8-F261-41F1-9145-6C57072C2769}"/>
+    <hyperlink ref="E157" r:id="rId240" xr:uid="{BD4952EE-336F-4786-AAAE-1D1C0D578A02}"/>
+    <hyperlink ref="G157" r:id="rId241" xr:uid="{01E27A2C-7195-4F97-B7EA-A74DAF2B176E}"/>
+    <hyperlink ref="A159" r:id="rId242" display="https://leetcode.cn/problems/my-calendar-ii/" xr:uid="{6F8884EF-112A-4827-80F4-182404C1CC72}"/>
+    <hyperlink ref="E159" r:id="rId243" xr:uid="{5AB383F4-F9C4-40FB-82C9-3D8D0C360138}"/>
+    <hyperlink ref="A160" r:id="rId244" display="https://leetcode.cn/problems/my-calendar-iii/" xr:uid="{FE10E093-73D1-4A4F-9B01-C869CD851D2C}"/>
+    <hyperlink ref="A66" r:id="rId245" display="https://leetcode.cn/problems/maximum-consecutive-floors-without-special-floors/" xr:uid="{3690C3B5-EFC5-437C-A0D1-CB9D85B3A34F}"/>
+    <hyperlink ref="A63" r:id="rId246" display="https://leetcode.cn/problems/design-an-atm-machine/" xr:uid="{D7B15653-6A09-44BA-BB8C-FDE24401DDF1}"/>
+    <hyperlink ref="G63" r:id="rId247" display="https://leetcode.cn/problems/design-an-atm-machine/description/comments/2455759" xr:uid="{A5086F55-1434-404A-992F-B80FF5A7FC43}"/>
+    <hyperlink ref="A100" r:id="rId248" display="https://leetcode.cn/problems/number-of-changing-keys/" xr:uid="{E1DB166E-6F15-4C1A-A4DF-848D9F040960}"/>
+    <hyperlink ref="E20" r:id="rId249" xr:uid="{885648FE-B846-494B-A1CC-6EF51258DFBE}"/>
+    <hyperlink ref="A65" r:id="rId250" display="https://leetcode.cn/problems/largest-3-same-digit-number-in-string/" xr:uid="{53821643-24AF-4726-8FB7-99075A9086BB}"/>
+    <hyperlink ref="E65" r:id="rId251" xr:uid="{FE3E03B6-849D-4908-AF6E-80BE73643531}"/>
+    <hyperlink ref="A80" r:id="rId252" display="https://leetcode.cn/problems/remove-element/" xr:uid="{EC34739C-C1A9-4542-AB07-6AE8DFEEE438}"/>
+    <hyperlink ref="A152" r:id="rId253" display="https://leetcode.cn/problems/binary-search/" xr:uid="{FDF24C51-ADA1-4D9F-8FF2-66E3315D1E16}"/>
+    <hyperlink ref="A173" r:id="rId254" display="https://leetcode.cn/problems/squares-of-a-sorted-array/" xr:uid="{11DFEED4-79F2-41B1-BFA1-09B25512778E}"/>
+    <hyperlink ref="A172" r:id="rId255" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{BA958F34-070C-4276-8418-94164694D26B}"/>
+    <hyperlink ref="A109" r:id="rId256" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-i/" xr:uid="{0F4C7094-3E47-4E3B-B62C-D5F74248308D}"/>
+    <hyperlink ref="E109" r:id="rId257" xr:uid="{77F7040A-75D7-4B8B-9FC2-A71783B012A7}"/>
+    <hyperlink ref="A110" r:id="rId258" display="https://leetcode.cn/problems/count-substrings-that-can-be-rearranged-to-contain-a-string-ii/" xr:uid="{B3046782-6548-4E0F-8754-DA65A6C34D37}"/>
+    <hyperlink ref="E110" r:id="rId259" xr:uid="{AE737F5F-B651-4566-BC14-DFDF853B9E11}"/>
+    <hyperlink ref="G110" r:id="rId260" xr:uid="{A97CA339-77A7-4E4F-A67A-D8006440062F}"/>
+    <hyperlink ref="A56" r:id="rId261" display="https://leetcode.cn/problems/minimum-size-subarray-sum/" xr:uid="{11E9B294-5022-48AD-AAEE-6D8853CE520B}"/>
+    <hyperlink ref="A146" r:id="rId262" display="https://leetcode.cn/problems/spiral-matrix-ii/" xr:uid="{925EE3EB-98C6-44E0-8568-8F3579CDECB3}"/>
+    <hyperlink ref="A127" r:id="rId263" xr:uid="{2E2256CC-D364-45E4-9BAD-BD70561D70AC}"/>
+    <hyperlink ref="E33" r:id="rId264" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{15F1F021-226C-4D23-9608-D795A01F3FAD}"/>
+    <hyperlink ref="A51" r:id="rId265" display="https://leetcode.cn/problems/remove-linked-list-elements/" xr:uid="{138DFA18-4180-41D3-8F87-FD941ECA0952}"/>
+    <hyperlink ref="A153" r:id="rId266" display="https://leetcode.cn/problems/design-linked-list/" xr:uid="{F2EFDF00-E8C3-491B-A861-BDD4BCF1EAA2}"/>
+    <hyperlink ref="E51" r:id="rId267" xr:uid="{40FFA837-C359-41BB-A137-D4E00AB5A0CF}"/>
+    <hyperlink ref="E153" r:id="rId268" xr:uid="{650217E3-7B49-48ED-8611-44ABA6443456}"/>
+    <hyperlink ref="E52" r:id="rId269" xr:uid="{980F8A60-CD1B-4477-9F19-657BB875F514}"/>
+    <hyperlink ref="A176" r:id="rId270" display="https://leetcode.cn/problems/find-the-key-of-the-numbers/" xr:uid="{FC8AD4C9-C476-4C26-AB18-D295FE229BB9}"/>
+    <hyperlink ref="E124" r:id="rId271" xr:uid="{D6944F92-75CA-4EB9-A660-B0C40022253D}"/>
+    <hyperlink ref="A177" r:id="rId272" display="https://leetcode.cn/problems/intersection-of-two-linked-lists-lcci/" xr:uid="{F501BC4F-BE8A-403A-843D-EB1287F1A867}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId271"/>
+    <tablePart r:id="rId273"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632333CE-55F8-4155-9E24-67E27909D89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF1EC4A-589A-4D69-97AD-931C19F069F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="494">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1632,10 +1632,6 @@
   </si>
   <si>
     <t>木子喵neko</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025.01.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1792,6 +1788,51 @@
   </si>
   <si>
     <t>代码随想录、Hot100、链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2275. 按位与结果大于零的最长组合</t>
+  </si>
+  <si>
+    <t>2025.01.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int m = 32 - Integer.numberOfLeadingZeros(mx); // mx 的二进制长度
+Arrays.stream(cnt).max().getAsInt();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58. 区间和（第九期模拟笔试）</t>
+  </si>
+  <si>
+    <t>public static void main(String args[]) {
+Scanner scanner = new Scanner(System.in);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码随想录、前缀和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>242. 有效的字母异位词</t>
+  </si>
+  <si>
+    <t>代码随想录、哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>349. 两个数组的交集</t>
+  </si>
+  <si>
+    <t>return res.stream().mapToInt(Integer::intValue).toArray();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202. 快乐数</t>
+  </si>
+  <si>
+    <t>代码随想录、哈希表、模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2272,10 +2313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2314,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2322,16 +2363,16 @@
         <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>78</v>
+        <v>489</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="F2" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>80</v>
@@ -2461,7 +2502,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>92</v>
@@ -2655,7 +2696,7 @@
         <v>370</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F20" s="6">
         <v>3</v>
@@ -2672,7 +2713,7 @@
         <v>94</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>125</v>
@@ -2681,7 +2722,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2791,13 +2832,13 @@
         <v>192</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>335</v>
@@ -2885,13 +2926,13 @@
         <v>93</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>14</v>
@@ -2903,7 +2944,7 @@
         <v>301</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3104,13 +3145,13 @@
         <v>195</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F45" s="6">
         <v>5</v>
@@ -3206,7 +3247,7 @@
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>44</v>
@@ -3215,7 +3256,7 @@
         <v>41</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>14</v>
@@ -3232,7 +3273,7 @@
         <v>79</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>14</v>
@@ -3291,16 +3332,16 @@
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3416,7 +3457,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>27</v>
@@ -3425,7 +3466,7 @@
         <v>43</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3447,13 +3488,13 @@
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>46</v>
@@ -3461,10 +3502,10 @@
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>27</v>
@@ -3473,7 +3514,7 @@
         <v>43</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3615,7 +3656,7 @@
         <v>94</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F74" s="6">
         <v>4</v>
@@ -3729,13 +3770,13 @@
         <v>289</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F80" s="6">
         <v>2</v>
@@ -4044,13 +4085,13 @@
         <v>79</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>371</v>
+        <v>483</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F98" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G98" s="14" t="s">
         <v>303</v>
@@ -4078,10 +4119,10 @@
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>27</v>
@@ -4222,7 +4263,7 @@
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>104</v>
@@ -4231,7 +4272,7 @@
         <v>13</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>46</v>
@@ -4239,7 +4280,7 @@
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>104</v>
@@ -4248,13 +4289,13 @@
         <v>13</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4525,7 +4566,7 @@
         <v>63</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F124" s="6">
         <v>4</v>
@@ -4576,16 +4617,16 @@
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4938,7 +4979,7 @@
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>24</v>
@@ -4947,7 +4988,7 @@
         <v>41</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5043,13 +5084,13 @@
         <v>288</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F152" s="6">
         <v>2</v>
@@ -5057,16 +5098,16 @@
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>474</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>14</v>
@@ -5180,7 +5221,7 @@
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>439</v>
@@ -5197,7 +5238,7 @@
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>439</v>
@@ -5209,7 +5250,7 @@
         <v>34</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5448,13 +5489,13 @@
         <v>290</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F173" s="6">
         <v>2</v>
@@ -5496,7 +5537,7 @@
     </row>
     <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>184</v>
@@ -5505,24 +5546,100 @@
         <v>27</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>479</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>480</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G178" s="15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G179" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G181" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -5800,10 +5917,15 @@
     <hyperlink ref="A176" r:id="rId270" display="https://leetcode.cn/problems/find-the-key-of-the-numbers/" xr:uid="{FC8AD4C9-C476-4C26-AB18-D295FE229BB9}"/>
     <hyperlink ref="E124" r:id="rId271" xr:uid="{D6944F92-75CA-4EB9-A660-B0C40022253D}"/>
     <hyperlink ref="A177" r:id="rId272" display="https://leetcode.cn/problems/intersection-of-two-linked-lists-lcci/" xr:uid="{F501BC4F-BE8A-403A-843D-EB1287F1A867}"/>
+    <hyperlink ref="A178" r:id="rId273" display="https://leetcode.cn/problems/largest-combination-with-bitwise-and-greater-than-zero/" xr:uid="{C85C80EC-3ACB-4A15-B7C5-6111F13AD561}"/>
+    <hyperlink ref="A179" r:id="rId274" xr:uid="{F0F851C2-AB91-4D3D-B35A-03A67A2935E2}"/>
+    <hyperlink ref="A180" r:id="rId275" display="https://leetcode.cn/problems/valid-anagram/" xr:uid="{4DEAC9BA-D6AA-4ABC-A23B-BAF1F72314BD}"/>
+    <hyperlink ref="A181" r:id="rId276" display="https://leetcode.cn/problems/intersection-of-two-arrays/" xr:uid="{1A101E7A-0BC8-4B79-96D6-8F7920C01499}"/>
+    <hyperlink ref="A182" r:id="rId277" display="https://leetcode.cn/problems/happy-number/" xr:uid="{C1011165-DBE2-4696-9082-4A657636A72E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId273"/>
+    <tablePart r:id="rId278"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF1EC4A-589A-4D69-97AD-931C19F069F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAE085D-9CC5-4752-B557-D82D0513D46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="498">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1099,10 +1099,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>引用还是副本？lists.add(list)时，慎用list.clear()。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Arrays.toString(charArray) 和new String(charArray) 的区别？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1115,9 +1111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>validCount很重要</t>
-  </si>
-  <si>
     <t>2024.09.09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1355,10 +1348,6 @@
   </si>
   <si>
     <t>2024.11.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.11.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1729,25 +1718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Arrays.asList</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.35"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、去重逻辑</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双指针、去重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1777,10 +1747,6 @@
   </si>
   <si>
     <t>面试题 02.07. 链表相交</t>
-  </si>
-  <si>
-    <t>代码随想录、链表、tricky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>判断时不要判断pA.next因为会漏掉不相交的null</t>
@@ -1811,10 +1777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代码随想录、前缀和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>242. 有效的字母异位词</t>
   </si>
   <si>
@@ -1832,7 +1794,52 @@
     <t>202. 快乐数</t>
   </si>
   <si>
-    <t>代码随想录、哈希表、模拟</t>
+    <t>2270. 分割数组的方案数</t>
+  </si>
+  <si>
+    <t>2025.01.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新have就要记得更新valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>454. 四数相加 II</t>
+  </si>
+  <si>
+    <t>哈希表、模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表、tricky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表（数组）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">引用还是副本？lists.add(list)时，慎用list.clear()。
+Arrays.asList
+去重逻辑
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18. 四数之和</t>
+  </si>
+  <si>
+    <t>第二级剪枝
+注意是break不是return res，否则会有遗漏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1840,7 +1847,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1878,17 +1885,6 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9.35"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.35"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1911,7 +1907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1959,18 +1955,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="fill" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2031,20 +2021,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:H1048570" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H1048570" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048570" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G1048570" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G175">
     <sortCondition ref="A1:A1048570"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{B13E99BD-051C-4F98-8CEB-6613EFCAB111}" name="备注2" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{4CA0E768-7DF4-4B05-B4D0-8766197B567D}" name="标签" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{20DF6A52-6BA9-45C5-B0B3-F73CC5DE6819}" name="价值" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{ACE06B89-2071-4292-AB33-E0D9C8686B38}" name="最近提交" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{4496483D-78A5-4CB5-8813-C2F8249AC319}" name="参考题解" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{7205C805-E819-4B8C-B94B-C6C31239A8E6}" name="做题次数" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{86FEC149-D4EF-465E-88F7-C243E9D1EB73}" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2313,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2328,11 +2317,10 @@
     <col min="5" max="5" width="15.640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="6"/>
     <col min="7" max="7" width="20.640625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="20.640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2354,22 +2342,19 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F2" s="6">
         <v>5</v>
@@ -2378,7 +2363,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>206</v>
       </c>
@@ -2386,16 +2371,16 @@
         <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>208</v>
       </c>
@@ -2403,33 +2388,33 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F5" s="6">
         <v>3</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -2440,7 +2425,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
@@ -2452,7 +2437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>214</v>
       </c>
@@ -2460,24 +2445,24 @@
         <v>79</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>209</v>
       </c>
@@ -2485,13 +2470,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>90</v>
       </c>
@@ -2502,7 +2487,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>92</v>
@@ -2514,7 +2499,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>213</v>
       </c>
@@ -2522,16 +2507,16 @@
         <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F11" s="6">
         <v>3</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
         <v>286</v>
       </c>
@@ -2542,7 +2527,7 @@
         <v>94</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>14</v>
@@ -2551,10 +2536,10 @@
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -2574,7 +2559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
         <v>273</v>
       </c>
@@ -2585,13 +2570,13 @@
         <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -2611,18 +2596,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
         <v>255</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>14</v>
@@ -2633,16 +2618,16 @@
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>14</v>
@@ -2650,13 +2635,13 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -2667,13 +2652,13 @@
         <v>217</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F19" s="6">
         <v>3</v>
@@ -2693,10 +2678,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F20" s="6">
         <v>3</v>
@@ -2713,7 +2698,7 @@
         <v>94</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>125</v>
@@ -2722,7 +2707,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2736,7 +2721,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F22" s="6">
         <v>3</v>
@@ -2744,30 +2729,30 @@
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2781,7 +2766,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>86</v>
@@ -2801,7 +2786,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>14</v>
@@ -2815,13 +2800,13 @@
         <v>191</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F27" s="6">
         <v>3</v>
@@ -2832,39 +2817,39 @@
         <v>192</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F28" s="6">
         <v>4</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2906,68 +2891,65 @@
         <v>198</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F32" s="6">
         <v>4</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="6">
-        <v>4</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
         <v>280</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="F34" s="6">
+        <v>3</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="F34" s="6">
-        <v>3</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
         <v>240</v>
       </c>
@@ -2978,16 +2960,16 @@
         <v>13</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F35" s="6">
         <v>3</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
         <v>243</v>
       </c>
@@ -2998,7 +2980,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>100</v>
@@ -3007,7 +2989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
         <v>101</v>
       </c>
@@ -3024,7 +3006,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
         <v>23</v>
       </c>
@@ -3041,7 +3023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
         <v>188</v>
       </c>
@@ -3049,30 +3031,30 @@
         <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F39" s="6">
         <v>3</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
         <v>262</v>
       </c>
@@ -3083,13 +3065,13 @@
         <v>13</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F41" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
         <v>226</v>
       </c>
@@ -3100,7 +3082,7 @@
         <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>21</v>
@@ -3109,24 +3091,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
         <v>174</v>
       </c>
@@ -3134,33 +3116,33 @@
         <v>27</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F44" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
         <v>195</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F45" s="6">
         <v>5</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
         <v>274</v>
       </c>
@@ -3171,16 +3153,16 @@
         <v>79</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F46" s="6">
         <v>3</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
         <v>212</v>
       </c>
@@ -3188,16 +3170,16 @@
         <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F47" s="6">
         <v>3</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
         <v>194</v>
       </c>
@@ -3205,7 +3187,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F48" s="6">
         <v>3</v>
@@ -3222,7 +3204,7 @@
         <v>79</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F49" s="6">
         <v>3</v>
@@ -3236,7 +3218,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F50" s="6">
         <v>3</v>
@@ -3247,7 +3229,7 @@
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>44</v>
@@ -3256,7 +3238,7 @@
         <v>41</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>14</v>
@@ -3273,7 +3255,7 @@
         <v>79</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>14</v>
@@ -3290,7 +3272,7 @@
         <v>79</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F53" s="6">
         <v>3</v>
@@ -3304,7 +3286,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F54" s="6">
         <v>3</v>
@@ -3332,16 +3314,16 @@
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3352,27 +3334,27 @@
         <v>41</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F57" s="6">
         <v>3</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>14</v>
@@ -3389,7 +3371,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F59" s="6">
         <v>4</v>
@@ -3412,7 +3394,7 @@
         <v>131</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3446,10 +3428,10 @@
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F62" s="6">
         <v>3</v>
@@ -3457,7 +3439,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>27</v>
@@ -3466,7 +3448,7 @@
         <v>43</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3477,24 +3459,24 @@
         <v>13</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F64" s="6">
         <v>3</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>46</v>
@@ -3502,10 +3484,10 @@
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>27</v>
@@ -3514,7 +3496,7 @@
         <v>43</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3528,7 +3510,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F67" s="6">
         <v>3</v>
@@ -3542,13 +3524,13 @@
         <v>13</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F68" s="6">
         <v>3</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3559,7 +3541,7 @@
         <v>94</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F69" s="6">
         <v>3</v>
@@ -3570,13 +3552,13 @@
         <v>216</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>92</v>
@@ -3585,7 +3567,7 @@
         <v>3</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3593,13 +3575,13 @@
         <v>175</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F71" s="6">
         <v>3</v>
@@ -3616,7 +3598,7 @@
         <v>94</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>115</v>
@@ -3647,7 +3629,7 @@
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>14</v>
@@ -3656,13 +3638,13 @@
         <v>94</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F74" s="6">
         <v>4</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3676,7 +3658,7 @@
         <v>41</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>92</v>
@@ -3719,13 +3701,13 @@
         <v>94</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F77" s="6">
         <v>4</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3770,13 +3752,13 @@
         <v>289</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F80" s="6">
         <v>2</v>
@@ -3881,10 +3863,10 @@
         <v>79</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F86" s="6">
         <v>3</v>
@@ -3892,16 +3874,16 @@
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4039,7 +4021,7 @@
         <v>13</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>271</v>
@@ -4062,7 +4044,7 @@
         <v>79</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>8</v>
@@ -4085,7 +4067,7 @@
         <v>79</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>106</v>
@@ -4094,7 +4076,7 @@
         <v>4</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4108,7 +4090,7 @@
         <v>79</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F99" s="6">
         <v>3</v>
@@ -4119,10 +4101,10 @@
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>27</v>
@@ -4133,16 +4115,16 @@
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4156,7 +4138,7 @@
         <v>41</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>267</v>
@@ -4178,13 +4160,13 @@
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4198,7 +4180,7 @@
         <v>13</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F105" s="6">
         <v>3</v>
@@ -4206,7 +4188,7 @@
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>145</v>
@@ -4215,7 +4197,7 @@
         <v>41</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>26</v>
@@ -4229,24 +4211,24 @@
         <v>276</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F107" s="6">
         <v>3</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>160</v>
@@ -4255,15 +4237,15 @@
         <v>6</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>104</v>
@@ -4272,7 +4254,7 @@
         <v>13</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>46</v>
@@ -4280,7 +4262,7 @@
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>104</v>
@@ -4289,13 +4271,13 @@
         <v>13</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4309,7 +4291,7 @@
         <v>94</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>238</v>
@@ -4318,21 +4300,21 @@
         <v>3</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>14</v>
@@ -4349,7 +4331,7 @@
         <v>79</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>21</v>
@@ -4369,7 +4351,7 @@
         <v>79</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F114" s="6">
         <v>3</v>
@@ -4386,13 +4368,13 @@
         <v>41</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F115" s="6">
         <v>3</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4411,16 +4393,16 @@
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>14</v>
@@ -4457,13 +4439,13 @@
         <v>94</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F119" s="6">
         <v>3</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4477,7 +4459,7 @@
         <v>94</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>92</v>
@@ -4497,7 +4479,7 @@
         <v>79</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>96</v>
@@ -4506,7 +4488,7 @@
         <v>2</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4520,13 +4502,13 @@
         <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F122" s="6">
         <v>3</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4540,16 +4522,16 @@
         <v>79</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F123" s="6">
         <v>4</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4566,7 +4548,7 @@
         <v>63</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F124" s="6">
         <v>4</v>
@@ -4577,19 +4559,19 @@
         <v>215</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F125" s="6">
         <v>3</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4603,30 +4585,30 @@
         <v>94</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>371</v>
+        <v>487</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F126" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>305</v>
+        <v>489</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4660,7 +4642,7 @@
         <v>13</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F129" s="6">
         <v>3</v>
@@ -4677,7 +4659,7 @@
         <v>13</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>125</v>
@@ -4711,16 +4693,16 @@
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>14</v>
@@ -4737,7 +4719,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>92</v>
@@ -4763,21 +4745,21 @@
         <v>5</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>14</v>
@@ -4794,7 +4776,7 @@
         <v>94</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>21</v>
@@ -4803,7 +4785,7 @@
         <v>3</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4817,7 +4799,7 @@
         <v>79</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>14</v>
@@ -4826,7 +4808,7 @@
         <v>3</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4848,16 +4830,16 @@
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4865,13 +4847,13 @@
         <v>124</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>125</v>
@@ -4885,13 +4867,13 @@
         <v>181</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E141" s="10" t="s">
         <v>182</v>
@@ -4900,7 +4882,7 @@
         <v>3</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4911,13 +4893,13 @@
         <v>13</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F142" s="6">
         <v>3</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4931,7 +4913,7 @@
         <v>41</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F143" s="6">
         <v>3</v>
@@ -4948,7 +4930,7 @@
         <v>79</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>128</v>
@@ -4968,7 +4950,7 @@
         <v>94</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>115</v>
@@ -4979,7 +4961,7 @@
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>24</v>
@@ -4988,7 +4970,7 @@
         <v>41</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5002,7 +4984,7 @@
         <v>13</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>14</v>
@@ -5013,13 +4995,13 @@
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5033,13 +5015,13 @@
         <v>13</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F149" s="6">
         <v>3</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5073,7 +5055,7 @@
         <v>41</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F151" s="6">
         <v>3</v>
@@ -5084,13 +5066,13 @@
         <v>288</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F152" s="6">
         <v>2</v>
@@ -5098,16 +5080,16 @@
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>14</v>
@@ -5132,7 +5114,7 @@
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>127</v>
@@ -5141,7 +5123,7 @@
         <v>13</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>14</v>
@@ -5150,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5164,7 +5146,7 @@
         <v>94</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>14</v>
@@ -5173,27 +5155,27 @@
         <v>3</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5201,13 +5183,13 @@
         <v>178</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>180</v>
@@ -5221,10 +5203,10 @@
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>94</v>
@@ -5233,15 +5215,15 @@
         <v>34</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>94</v>
@@ -5250,7 +5232,7 @@
         <v>34</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5281,7 +5263,7 @@
         <v>79</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>247</v>
@@ -5290,7 +5272,7 @@
         <v>2</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5304,13 +5286,13 @@
         <v>41</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F163" s="6">
         <v>3</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5324,13 +5306,13 @@
         <v>13</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F164" s="6">
         <v>3</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5344,7 +5326,7 @@
         <v>94</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>119</v>
@@ -5364,7 +5346,7 @@
         <v>13</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>21</v>
@@ -5381,7 +5363,7 @@
         <v>13</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>46</v>
@@ -5390,7 +5372,7 @@
         <v>4</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5404,7 +5386,7 @@
         <v>13</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>92</v>
@@ -5458,7 +5440,7 @@
         <v>94</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>125</v>
@@ -5467,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5478,7 +5460,7 @@
         <v>13</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F172" s="6">
         <v>3</v>
@@ -5489,13 +5471,16 @@
         <v>290</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F173" s="6">
         <v>2</v>
@@ -5509,7 +5494,7 @@
         <v>13</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F174" s="6">
         <v>3</v>
@@ -5520,24 +5505,24 @@
         <v>220</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F175" s="6">
         <v>3</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="10" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>184</v>
@@ -5546,100 +5531,183 @@
         <v>27</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="10" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>487</v>
+        <v>317</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="10" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>489</v>
+        <v>48</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="10" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>489</v>
+        <v>48</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="10" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G186" s="15" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -5922,10 +5990,22 @@
     <hyperlink ref="A180" r:id="rId275" display="https://leetcode.cn/problems/valid-anagram/" xr:uid="{4DEAC9BA-D6AA-4ABC-A23B-BAF1F72314BD}"/>
     <hyperlink ref="A181" r:id="rId276" display="https://leetcode.cn/problems/intersection-of-two-arrays/" xr:uid="{1A101E7A-0BC8-4B79-96D6-8F7920C01499}"/>
     <hyperlink ref="A182" r:id="rId277" display="https://leetcode.cn/problems/happy-number/" xr:uid="{C1011165-DBE2-4696-9082-4A657636A72E}"/>
+    <hyperlink ref="A183" r:id="rId278" display="https://leetcode.cn/problems/number-of-ways-to-split-array/" xr:uid="{0083AF73-8A8C-48E0-8E76-76A6C4FC67CD}"/>
+    <hyperlink ref="A184" r:id="rId279" display="https://leetcode.cn/problems/4sum-ii/" xr:uid="{2EE7F96A-F6A7-429F-BFB7-7BA3E80D9896}"/>
+    <hyperlink ref="E184" r:id="rId280" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D2DA8351-DC34-44A8-924F-C24DFAB45BD5}"/>
+    <hyperlink ref="A185" r:id="rId281" display="https://leetcode.cn/problems/ransom-note/" xr:uid="{6585938E-F893-444F-89F1-BFADCFA92BDD}"/>
+    <hyperlink ref="A186" r:id="rId282" display="https://leetcode.cn/problems/4sum/" xr:uid="{FC5299F8-4C72-4AB9-9C54-517DEBF830F6}"/>
+    <hyperlink ref="E186" r:id="rId283" xr:uid="{F3766F46-B32F-4AF5-A0AB-F19AED32B55B}"/>
+    <hyperlink ref="E185" r:id="rId284" location="%E6%80%9D%E8%B7%AF" xr:uid="{4EB55BD0-9AD8-432E-9A97-7FDB38A7BE0F}"/>
+    <hyperlink ref="E182" r:id="rId285" xr:uid="{0F6A52C4-8EA8-4AF1-8CDB-67CF474C7907}"/>
+    <hyperlink ref="E181" r:id="rId286" xr:uid="{8316C500-0D41-455C-8EA5-0D189B83EAFD}"/>
+    <hyperlink ref="E180" r:id="rId287" xr:uid="{999855B6-FC4E-4272-985B-61D93CE9AA6F}"/>
+    <hyperlink ref="E179" r:id="rId288" xr:uid="{E7E12994-2B96-451F-B73F-5EFE7C54103C}"/>
+    <hyperlink ref="E177" r:id="rId289" xr:uid="{FA0EFCD4-A75A-4F78-B71F-D361F76A1993}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId278"/>
+    <tablePart r:id="rId290"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAE085D-9CC5-4752-B557-D82D0513D46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06B1BF8-B0C5-4D24-8C2F-0225351712A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="504">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,10 +468,6 @@
     <t>76. 最小覆盖子串</t>
   </si>
   <si>
-    <t>前缀和、哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单调队列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1348,10 +1344,6 @@
   </si>
   <si>
     <t>2024.11.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.11.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1840,6 +1832,35 @@
   <si>
     <t>第二级剪枝
 注意是break不是return res，否则会有遗漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3065. 超过阈值的最少操作数 I</t>
+  </si>
+  <si>
+    <t>2025.01.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和（连续）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>344. 反转字符串</t>
+  </si>
+  <si>
+    <t>字符串、位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>541. 反转字符串 II</t>
+  </si>
+  <si>
+    <t>字符串、边界处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需StringBuilder，用char[]操作即可：char[] ch = s.toCharArray();  return new String(ch);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2302,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I181" sqref="I181"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2348,13 +2369,13 @@
         <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F2" s="6">
         <v>5</v>
@@ -2365,30 +2386,30 @@
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F3" s="6">
         <v>3</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
@@ -2396,22 +2417,22 @@
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F5" s="6">
         <v>3</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2425,7 +2446,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
@@ -2439,13 +2460,13 @@
     </row>
     <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
@@ -2453,24 +2474,24 @@
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
@@ -2487,7 +2508,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>92</v>
@@ -2496,38 +2517,38 @@
         <v>5</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F11" s="6">
         <v>3</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>14</v>
@@ -2536,7 +2557,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2561,16 +2582,16 @@
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
@@ -2598,16 +2619,16 @@
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>14</v>
@@ -2618,16 +2639,16 @@
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>14</v>
@@ -2635,13 +2656,13 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -2649,27 +2670,27 @@
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F19" s="6">
         <v>3</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>78</v>
@@ -2678,10 +2699,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F20" s="6">
         <v>3</v>
@@ -2689,39 +2710,39 @@
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" s="6">
         <v>4</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F22" s="6">
         <v>3</v>
@@ -2729,35 +2750,35 @@
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>48</v>
@@ -2766,7 +2787,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>86</v>
@@ -2777,16 +2798,16 @@
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>14</v>
@@ -2797,16 +2818,16 @@
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F27" s="6">
         <v>3</v>
@@ -2814,56 +2835,56 @@
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F28" s="6">
         <v>4</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>364</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>295</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F30" s="6">
         <v>2</v>
@@ -2871,7 +2892,7 @@
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>94</v>
@@ -2883,27 +2904,27 @@
         <v>4</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F32" s="6">
         <v>4</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2911,13 +2932,13 @@
         <v>93</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>14</v>
@@ -2926,52 +2947,52 @@
         <v>5</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F34" s="6">
         <v>3</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F35" s="6">
         <v>3</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>58</v>
@@ -2980,7 +3001,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>100</v>
@@ -3025,47 +3046,47 @@
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F39" s="6">
         <v>3</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F41" s="6">
         <v>3</v>
@@ -3073,16 +3094,16 @@
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>21</v>
@@ -3093,16 +3114,16 @@
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>418</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
@@ -3110,13 +3131,13 @@
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F44" s="6">
         <v>3</v>
@@ -3124,70 +3145,70 @@
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F45" s="6">
         <v>5</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D46" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F46" s="6">
+        <v>3</v>
+      </c>
+      <c r="G46" s="14" t="s">
         <v>405</v>
-      </c>
-      <c r="F46" s="6">
-        <v>3</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F47" s="6">
         <v>3</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F48" s="6">
         <v>3</v>
@@ -3195,7 +3216,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>58</v>
@@ -3204,7 +3225,7 @@
         <v>79</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F49" s="6">
         <v>3</v>
@@ -3212,24 +3233,24 @@
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F50" s="6">
         <v>3</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>44</v>
@@ -3238,7 +3259,7 @@
         <v>41</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>14</v>
@@ -3246,7 +3267,7 @@
     </row>
     <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>44</v>
@@ -3255,7 +3276,7 @@
         <v>79</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>14</v>
@@ -3266,13 +3287,13 @@
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F53" s="6">
         <v>3</v>
@@ -3280,13 +3301,13 @@
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F54" s="6">
         <v>3</v>
@@ -3314,47 +3335,47 @@
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F57" s="6">
         <v>3</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>14</v>
@@ -3362,16 +3383,16 @@
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F59" s="6">
         <v>4</v>
@@ -3379,22 +3400,22 @@
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3419,19 +3440,19 @@
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F62" s="6">
         <v>3</v>
@@ -3439,7 +3460,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>27</v>
@@ -3448,35 +3469,35 @@
         <v>43</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F64" s="6">
         <v>3</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>46</v>
@@ -3484,10 +3505,10 @@
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>27</v>
@@ -3496,21 +3517,21 @@
         <v>43</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F67" s="6">
         <v>3</v>
@@ -3518,30 +3539,30 @@
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F68" s="6">
         <v>3</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F69" s="6">
         <v>3</v>
@@ -3549,16 +3570,16 @@
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>92</v>
@@ -3567,21 +3588,21 @@
         <v>3</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F71" s="6">
         <v>3</v>
@@ -3589,16 +3610,16 @@
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>115</v>
@@ -3629,7 +3650,7 @@
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>14</v>
@@ -3638,27 +3659,27 @@
         <v>94</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F74" s="6">
         <v>4</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>92</v>
@@ -3667,7 +3688,7 @@
         <v>3</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3692,22 +3713,22 @@
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F77" s="6">
         <v>4</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3749,16 +3770,16 @@
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F80" s="6">
         <v>2</v>
@@ -3800,33 +3821,33 @@
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>46</v>
@@ -3834,39 +3855,39 @@
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G85" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F86" s="6">
         <v>3</v>
@@ -3874,16 +3895,16 @@
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G87" s="14" t="s">
         <v>359</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3908,38 +3929,38 @@
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>79</v>
@@ -3956,95 +3977,95 @@
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G93" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E95" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F96" s="6">
         <v>3</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>8</v>
@@ -4053,7 +4074,7 @@
         <v>3</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4067,7 +4088,7 @@
         <v>79</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>106</v>
@@ -4076,35 +4097,35 @@
         <v>4</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F99" s="6">
         <v>3</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>27</v>
@@ -4115,33 +4136,33 @@
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F102" s="6">
         <v>3</v>
@@ -4149,38 +4170,38 @@
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F105" s="6">
         <v>3</v>
@@ -4188,16 +4209,16 @@
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>26</v>
@@ -4208,44 +4229,44 @@
     </row>
     <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F107" s="6">
         <v>3</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>104</v>
@@ -4254,7 +4275,7 @@
         <v>13</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>46</v>
@@ -4262,7 +4283,7 @@
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>104</v>
@@ -4271,50 +4292,50 @@
         <v>13</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D111" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F111" s="6">
+        <v>3</v>
+      </c>
+      <c r="G111" s="14" t="s">
         <v>396</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="F111" s="6">
-        <v>3</v>
-      </c>
-      <c r="G111" s="14" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>14</v>
@@ -4322,16 +4343,16 @@
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>21</v>
@@ -4342,16 +4363,16 @@
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F114" s="6">
         <v>3</v>
@@ -4359,50 +4380,50 @@
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F115" s="6">
         <v>3</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>14</v>
@@ -4430,36 +4451,36 @@
     </row>
     <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D119" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F119" s="6">
+        <v>3</v>
+      </c>
+      <c r="G119" s="14" t="s">
         <v>388</v>
-      </c>
-      <c r="F119" s="6">
-        <v>3</v>
-      </c>
-      <c r="G119" s="14" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>92</v>
@@ -4470,16 +4491,16 @@
     </row>
     <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>96</v>
@@ -4488,32 +4509,32 @@
         <v>2</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F122" s="6">
         <v>3</v>
       </c>
       <c r="G122" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>12</v>
@@ -4522,16 +4543,16 @@
         <v>79</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F123" s="6">
         <v>4</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4548,7 +4569,7 @@
         <v>63</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F124" s="6">
         <v>4</v>
@@ -4556,27 +4577,27 @@
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F125" s="6">
         <v>3</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>104</v>
@@ -4585,7 +4606,7 @@
         <v>94</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>107</v>
@@ -4594,21 +4615,21 @@
         <v>5</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4633,16 +4654,16 @@
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F129" s="6">
         <v>3</v>
@@ -4650,25 +4671,25 @@
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F130" s="6">
         <v>3</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4693,16 +4714,16 @@
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>14</v>
@@ -4710,16 +4731,16 @@
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>92</v>
@@ -4745,21 +4766,21 @@
         <v>5</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>14</v>
@@ -4767,16 +4788,16 @@
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>21</v>
@@ -4785,21 +4806,21 @@
         <v>3</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>14</v>
@@ -4808,55 +4829,55 @@
         <v>3</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D138" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E138" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F140" s="6">
         <v>4</v>
@@ -4864,56 +4885,56 @@
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F141" s="6">
         <v>3</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F142" s="6">
+        <v>3</v>
+      </c>
+      <c r="G142" s="14" t="s">
         <v>380</v>
-      </c>
-      <c r="F142" s="6">
-        <v>3</v>
-      </c>
-      <c r="G142" s="14" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F143" s="6">
         <v>3</v>
@@ -4921,19 +4942,19 @@
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F144" s="6">
         <v>4</v>
@@ -4944,24 +4965,24 @@
         <v>114</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>117</v>
+        <v>498</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>369</v>
+        <v>497</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>115</v>
       </c>
       <c r="F145" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>24</v>
@@ -4970,21 +4991,21 @@
         <v>41</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>14</v>
@@ -4995,67 +5016,67 @@
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F149" s="6">
         <v>3</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F151" s="6">
         <v>3</v>
@@ -5063,16 +5084,16 @@
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F152" s="6">
         <v>2</v>
@@ -5080,16 +5101,16 @@
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>14</v>
@@ -5114,16 +5135,16 @@
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>14</v>
@@ -5132,21 +5153,21 @@
         <v>1</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>14</v>
@@ -5155,58 +5176,58 @@
         <v>3</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G157" s="16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F158" s="6">
         <v>3</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>94</v>
@@ -5215,15 +5236,15 @@
         <v>34</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>94</v>
@@ -5232,7 +5253,7 @@
         <v>34</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5254,65 +5275,65 @@
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F162" s="6">
         <v>2</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F163" s="6">
         <v>3</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F164" s="6">
         <v>3</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5326,10 +5347,10 @@
         <v>94</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E165" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F165" s="6">
         <v>3</v>
@@ -5337,16 +5358,16 @@
     </row>
     <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>21</v>
@@ -5357,13 +5378,13 @@
     </row>
     <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>46</v>
@@ -5372,21 +5393,21 @@
         <v>4</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>92</v>
@@ -5431,7 +5452,7 @@
     </row>
     <row r="171" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>35</v>
@@ -5440,27 +5461,27 @@
         <v>94</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E171" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F171" s="6">
         <v>3</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F172" s="6">
         <v>3</v>
@@ -5468,16 +5489,16 @@
     </row>
     <row r="173" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E173" s="6" t="s">
         <v>14</v>
@@ -5488,13 +5509,13 @@
     </row>
     <row r="174" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F174" s="6">
         <v>3</v>
@@ -5502,95 +5523,95 @@
     </row>
     <row r="175" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F175" s="6">
         <v>3</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>48</v>
@@ -5599,7 +5620,7 @@
         <v>41</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>14</v>
@@ -5607,7 +5628,7 @@
     </row>
     <row r="181" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>48</v>
@@ -5616,27 +5637,27 @@
         <v>13</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>14</v>
@@ -5644,21 +5665,21 @@
     </row>
     <row r="183" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>48</v>
@@ -5667,7 +5688,7 @@
         <v>6</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>14</v>
@@ -5678,13 +5699,13 @@
         <v>47</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>14</v>
@@ -5692,7 +5713,7 @@
     </row>
     <row r="186" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>48</v>
@@ -5701,13 +5722,64 @@
         <v>13</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G186" s="15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D187" s="8" t="s">
         <v>497</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G189" s="15" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -6002,10 +6074,15 @@
     <hyperlink ref="E180" r:id="rId287" xr:uid="{999855B6-FC4E-4272-985B-61D93CE9AA6F}"/>
     <hyperlink ref="E179" r:id="rId288" xr:uid="{E7E12994-2B96-451F-B73F-5EFE7C54103C}"/>
     <hyperlink ref="E177" r:id="rId289" xr:uid="{FA0EFCD4-A75A-4F78-B71F-D361F76A1993}"/>
+    <hyperlink ref="A187" r:id="rId290" display="https://leetcode.cn/problems/minimum-operations-to-exceed-threshold-value-i/" xr:uid="{E49E6490-9385-40D0-AEA8-799F5892BD00}"/>
+    <hyperlink ref="A188" r:id="rId291" display="https://leetcode.cn/problems/reverse-string/" xr:uid="{57B0A443-1236-4D51-9226-49C188B529DA}"/>
+    <hyperlink ref="E188" r:id="rId292" xr:uid="{877D2368-FB19-47B7-B0B4-362D8A687579}"/>
+    <hyperlink ref="A189" r:id="rId293" display="https://leetcode.cn/problems/reverse-string-ii/" xr:uid="{9699DAAE-7561-4E39-9012-2379726EE6DE}"/>
+    <hyperlink ref="E189" r:id="rId294" xr:uid="{FEF011B3-72B4-47D9-9C97-C2CF6931CAE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId290"/>
+    <tablePart r:id="rId295"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06B1BF8-B0C5-4D24-8C2F-0225351712A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E01777F-AB4B-4630-93B8-24393E93641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-163" yWindow="17" windowWidth="22106" windowHeight="11812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="509">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1861,6 +1861,25 @@
   </si>
   <si>
     <t>无需StringBuilder，用char[]操作即可：char[] ch = s.toCharArray();  return new String(ch);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54. 替换数字（第八期模拟笔试）</t>
+  </si>
+  <si>
+    <t>String[] args不要忘
+scanner.nextLine()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>151. 反转字符串中的单词</t>
+  </si>
+  <si>
+    <t>sb.deleteCharAt(res.length()-1);  sb.setCharAt(start, sb.charAt(end));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串、不使用Java内置方法实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2323,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I190" sqref="I190"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5500,7 +5519,7 @@
       <c r="D173" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="E173" s="6" t="s">
+      <c r="E173" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F173" s="6">
@@ -5780,6 +5799,46 @@
       </c>
       <c r="G189" s="15" t="s">
         <v>503</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G190" s="15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G191" s="14" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -6079,10 +6138,15 @@
     <hyperlink ref="E188" r:id="rId292" xr:uid="{877D2368-FB19-47B7-B0B4-362D8A687579}"/>
     <hyperlink ref="A189" r:id="rId293" display="https://leetcode.cn/problems/reverse-string-ii/" xr:uid="{9699DAAE-7561-4E39-9012-2379726EE6DE}"/>
     <hyperlink ref="E189" r:id="rId294" xr:uid="{FEF011B3-72B4-47D9-9C97-C2CF6931CAE9}"/>
+    <hyperlink ref="A190" r:id="rId295" xr:uid="{85C8A5C1-F8C0-4B5F-9625-B7B85D6CFB62}"/>
+    <hyperlink ref="E190" r:id="rId296" xr:uid="{CCFEC5D8-FDFD-4AAB-91B8-F54059304742}"/>
+    <hyperlink ref="A191" r:id="rId297" display="https://leetcode.cn/problems/reverse-words-in-a-string/" xr:uid="{4B2C101B-F768-4107-A3A8-689A2F608E3D}"/>
+    <hyperlink ref="E191" r:id="rId298" xr:uid="{A73A0A4E-FB11-41B3-80E5-2FA40B81A50D}"/>
+    <hyperlink ref="E173" r:id="rId299" xr:uid="{8D50CBDB-2242-4BBB-B694-184E0070104C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId295"/>
+    <tablePart r:id="rId300"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E01777F-AB4B-4630-93B8-24393E93641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EA486E-5567-432B-BB7E-BA5A35D103AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-163" yWindow="17" windowWidth="22106" windowHeight="11812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="522">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1344,10 +1344,6 @@
   </si>
   <si>
     <t>2024.11.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.11.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1880,6 +1876,58 @@
   </si>
   <si>
     <t>字符串、不使用Java内置方法实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3066. 超过阈值的最少操作数 II</t>
+  </si>
+  <si>
+    <t>2025.01.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小堆（升序优先队列）、模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升序单调队列ArrayDeque存放下标，淘汰一定不是候选的，去掉窗口之外的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55. 右旋字符串（第八期模拟笔试）</t>
+  </si>
+  <si>
+    <t>int k =  Integer.parseInt(sc.nextLine());   // 标准写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先整体再局部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28. 找出字符串中第一个匹配项的下标</t>
+  </si>
+  <si>
+    <t>459. 重复的子字符串</t>
+  </si>
+  <si>
+    <t>KMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMP的前缀表的值：以该位置结尾的字符串的最长相等前后缀的长度
+PR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.01.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3095. 或值至少 K 的最短子数组 I</t>
+  </si>
+  <si>
+    <t>return len==Integer.MAX_VALUE ? "" : s.substring(start, start+len); //[)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2342,10 +2390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2388,13 +2436,13 @@
         <v>77</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F2" s="6">
         <v>5</v>
@@ -2411,13 +2459,13 @@
         <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>378</v>
-      </c>
-      <c r="F3" s="6">
-        <v>3</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2428,7 +2476,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
@@ -2445,13 +2493,13 @@
         <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>378</v>
-      </c>
-      <c r="F5" s="6">
-        <v>3</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2485,7 +2533,7 @@
         <v>79</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F7" s="6">
         <v>3</v>
@@ -2510,7 +2558,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
@@ -2527,7 +2575,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>92</v>
@@ -2547,7 +2595,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F11" s="6">
         <v>3</v>
@@ -2567,7 +2615,7 @@
         <v>94</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>14</v>
@@ -2647,7 +2695,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>14</v>
@@ -2698,7 +2746,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F19" s="6">
         <v>3</v>
@@ -2721,7 +2769,7 @@
         <v>367</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F20" s="6">
         <v>3</v>
@@ -2738,7 +2786,7 @@
         <v>94</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>124</v>
@@ -2747,7 +2795,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2761,7 +2809,7 @@
         <v>27</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F22" s="6">
         <v>3</v>
@@ -2769,30 +2817,30 @@
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>425</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2806,7 +2854,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>86</v>
@@ -2826,7 +2874,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>14</v>
@@ -2846,7 +2894,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F27" s="6">
         <v>3</v>
@@ -2857,13 +2905,13 @@
         <v>191</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>332</v>
@@ -2872,7 +2920,7 @@
         <v>4</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2931,19 +2979,19 @@
         <v>197</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F32" s="6">
         <v>4</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2951,13 +2999,13 @@
         <v>93</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>14</v>
@@ -2966,7 +3014,7 @@
         <v>5</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -2974,19 +3022,19 @@
         <v>279</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F34" s="6">
         <v>3</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3000,7 +3048,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F35" s="6">
         <v>3</v>
@@ -3020,7 +3068,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>100</v>
@@ -3071,7 +3119,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>328</v>
@@ -3105,7 +3153,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F41" s="6">
         <v>3</v>
@@ -3122,7 +3170,7 @@
         <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>21</v>
@@ -3133,16 +3181,16 @@
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
@@ -3156,7 +3204,7 @@
         <v>27</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F44" s="6">
         <v>3</v>
@@ -3167,13 +3215,13 @@
         <v>194</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F45" s="6">
         <v>5</v>
@@ -3193,13 +3241,13 @@
         <v>79</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F46" s="6">
         <v>3</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3210,7 +3258,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F47" s="6">
         <v>3</v>
@@ -3227,7 +3275,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F48" s="6">
         <v>3</v>
@@ -3244,7 +3292,7 @@
         <v>79</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F49" s="6">
         <v>3</v>
@@ -3258,7 +3306,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F50" s="6">
         <v>3</v>
@@ -3269,7 +3317,7 @@
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>44</v>
@@ -3278,7 +3326,7 @@
         <v>41</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>14</v>
@@ -3295,7 +3343,7 @@
         <v>79</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>14</v>
@@ -3312,7 +3360,7 @@
         <v>79</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F53" s="6">
         <v>3</v>
@@ -3326,7 +3374,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F54" s="6">
         <v>3</v>
@@ -3354,16 +3402,16 @@
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3374,7 +3422,7 @@
         <v>41</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F57" s="6">
         <v>3</v>
@@ -3411,7 +3459,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F59" s="6">
         <v>4</v>
@@ -3468,10 +3516,10 @@
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>389</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>390</v>
       </c>
       <c r="F62" s="6">
         <v>3</v>
@@ -3479,7 +3527,7 @@
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>27</v>
@@ -3488,7 +3536,7 @@
         <v>43</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3499,24 +3547,24 @@
         <v>13</v>
       </c>
       <c r="D64" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F64" s="6">
+        <v>3</v>
+      </c>
+      <c r="G64" s="14" t="s">
         <v>378</v>
-      </c>
-      <c r="F64" s="6">
-        <v>3</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>46</v>
@@ -3524,10 +3572,10 @@
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>27</v>
@@ -3536,7 +3584,7 @@
         <v>43</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3550,7 +3598,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F67" s="6">
         <v>3</v>
@@ -3564,13 +3612,13 @@
         <v>13</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="F68" s="6">
+        <v>3</v>
+      </c>
+      <c r="G68" s="14" t="s">
         <v>381</v>
-      </c>
-      <c r="F68" s="6">
-        <v>3</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3581,7 +3629,7 @@
         <v>94</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F69" s="6">
         <v>3</v>
@@ -3598,7 +3646,7 @@
         <v>79</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>92</v>
@@ -3621,7 +3669,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F71" s="6">
         <v>3</v>
@@ -3638,13 +3686,16 @@
         <v>94</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>368</v>
+        <v>509</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>115</v>
       </c>
       <c r="F72" s="6">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3678,13 +3729,13 @@
         <v>94</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F74" s="6">
         <v>4</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3698,7 +3749,7 @@
         <v>41</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>92</v>
@@ -3741,13 +3792,13 @@
         <v>94</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F77" s="6">
         <v>4</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3792,13 +3843,13 @@
         <v>288</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F80" s="6">
         <v>2</v>
@@ -3903,7 +3954,7 @@
         <v>79</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>318</v>
@@ -4061,7 +4112,7 @@
         <v>13</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E96" s="9" t="s">
         <v>270</v>
@@ -4084,7 +4135,7 @@
         <v>79</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>8</v>
@@ -4107,7 +4158,7 @@
         <v>79</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>106</v>
@@ -4130,7 +4181,7 @@
         <v>79</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F99" s="6">
         <v>3</v>
@@ -4141,10 +4192,10 @@
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>446</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>27</v>
@@ -4155,16 +4206,16 @@
     </row>
     <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="G101" s="14" t="s">
         <v>420</v>
-      </c>
-      <c r="G101" s="14" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4178,7 +4229,7 @@
         <v>41</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>266</v>
@@ -4200,13 +4251,13 @@
     </row>
     <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4220,7 +4271,7 @@
         <v>13</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F105" s="6">
         <v>3</v>
@@ -4228,7 +4279,7 @@
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>144</v>
@@ -4237,7 +4288,7 @@
         <v>41</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>26</v>
@@ -4257,18 +4308,18 @@
         <v>13</v>
       </c>
       <c r="D107" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="F107" s="6">
+        <v>3</v>
+      </c>
+      <c r="G107" s="14" t="s">
         <v>406</v>
-      </c>
-      <c r="F107" s="6">
-        <v>3</v>
-      </c>
-      <c r="G107" s="14" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>159</v>
@@ -4277,15 +4328,15 @@
         <v>6</v>
       </c>
       <c r="D108" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G108" s="14" t="s">
         <v>431</v>
-      </c>
-      <c r="G108" s="14" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>104</v>
@@ -4294,7 +4345,7 @@
         <v>13</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>46</v>
@@ -4302,7 +4353,7 @@
     </row>
     <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>104</v>
@@ -4311,13 +4362,13 @@
         <v>13</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4331,7 +4382,7 @@
         <v>94</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>237</v>
@@ -4340,7 +4391,7 @@
         <v>3</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4371,7 +4422,7 @@
         <v>79</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>21</v>
@@ -4391,7 +4442,7 @@
         <v>79</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F114" s="6">
         <v>3</v>
@@ -4408,13 +4459,13 @@
         <v>41</v>
       </c>
       <c r="D115" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="F115" s="6">
+        <v>3</v>
+      </c>
+      <c r="G115" s="14" t="s">
         <v>392</v>
-      </c>
-      <c r="F115" s="6">
-        <v>3</v>
-      </c>
-      <c r="G115" s="14" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4479,13 +4530,13 @@
         <v>94</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F119" s="6">
         <v>3</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4499,7 +4550,7 @@
         <v>94</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E120" s="9" t="s">
         <v>92</v>
@@ -4519,7 +4570,7 @@
         <v>79</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E121" s="9" t="s">
         <v>96</v>
@@ -4528,7 +4579,7 @@
         <v>2</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4542,7 +4593,7 @@
         <v>13</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F122" s="6">
         <v>3</v>
@@ -4562,7 +4613,7 @@
         <v>79</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E123" s="9" t="s">
         <v>302</v>
@@ -4571,7 +4622,7 @@
         <v>4</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4588,7 +4639,7 @@
         <v>63</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F124" s="6">
         <v>4</v>
@@ -4605,7 +4656,7 @@
         <v>79</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F125" s="6">
         <v>3</v>
@@ -4625,7 +4676,7 @@
         <v>94</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>107</v>
@@ -4634,21 +4685,21 @@
         <v>5</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4682,7 +4733,7 @@
         <v>13</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F129" s="6">
         <v>3</v>
@@ -4699,7 +4750,7 @@
         <v>13</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>124</v>
@@ -4759,7 +4810,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>92</v>
@@ -4839,7 +4890,7 @@
         <v>79</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E137" s="9" t="s">
         <v>14</v>
@@ -4848,7 +4899,7 @@
         <v>3</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4893,7 +4944,7 @@
         <v>41</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>124</v>
@@ -4913,7 +4964,7 @@
         <v>41</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E141" s="10" t="s">
         <v>181</v>
@@ -4933,13 +4984,13 @@
         <v>13</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F142" s="6">
         <v>3</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4953,7 +5004,7 @@
         <v>41</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F143" s="6">
         <v>3</v>
@@ -4970,7 +5021,7 @@
         <v>79</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>127</v>
@@ -4984,13 +5035,13 @@
         <v>114</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>115</v>
@@ -5001,7 +5052,7 @@
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>24</v>
@@ -5010,7 +5061,7 @@
         <v>41</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5024,7 +5075,7 @@
         <v>13</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>14</v>
@@ -5055,13 +5106,13 @@
         <v>13</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F149" s="6">
         <v>3</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5095,7 +5146,7 @@
         <v>41</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F151" s="6">
         <v>3</v>
@@ -5106,13 +5157,13 @@
         <v>287</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F152" s="6">
         <v>2</v>
@@ -5120,16 +5171,16 @@
     </row>
     <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>14</v>
@@ -5154,7 +5205,7 @@
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>126</v>
@@ -5163,7 +5214,7 @@
         <v>13</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>14</v>
@@ -5172,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5186,7 +5237,7 @@
         <v>94</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>14</v>
@@ -5200,22 +5251,22 @@
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E157" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="G157" s="16" t="s">
         <v>435</v>
-      </c>
-      <c r="G157" s="16" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5229,7 +5280,7 @@
         <v>41</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>179</v>
@@ -5243,10 +5294,10 @@
     </row>
     <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>94</v>
@@ -5255,15 +5306,15 @@
         <v>34</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>94</v>
@@ -5272,7 +5323,7 @@
         <v>34</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5303,7 +5354,7 @@
         <v>79</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>246</v>
@@ -5312,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5326,13 +5377,13 @@
         <v>41</v>
       </c>
       <c r="D163" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F163" s="6">
+        <v>3</v>
+      </c>
+      <c r="G163" s="14" t="s">
         <v>394</v>
-      </c>
-      <c r="F163" s="6">
-        <v>3</v>
-      </c>
-      <c r="G163" s="14" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5346,13 +5397,13 @@
         <v>13</v>
       </c>
       <c r="D164" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="F164" s="6">
+        <v>3</v>
+      </c>
+      <c r="G164" s="14" t="s">
         <v>403</v>
-      </c>
-      <c r="F164" s="6">
-        <v>3</v>
-      </c>
-      <c r="G164" s="14" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5366,13 +5417,16 @@
         <v>94</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>368</v>
+        <v>519</v>
       </c>
       <c r="E165" s="9" t="s">
         <v>118</v>
       </c>
       <c r="F165" s="6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G165" s="14" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5386,7 +5440,7 @@
         <v>13</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E166" s="9" t="s">
         <v>21</v>
@@ -5403,7 +5457,7 @@
         <v>13</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E167" s="9" t="s">
         <v>46</v>
@@ -5412,7 +5466,7 @@
         <v>4</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5426,7 +5480,7 @@
         <v>13</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>92</v>
@@ -5480,7 +5534,7 @@
         <v>94</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E171" s="9" t="s">
         <v>124</v>
@@ -5500,7 +5554,7 @@
         <v>13</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F172" s="6">
         <v>3</v>
@@ -5511,13 +5565,13 @@
         <v>289</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>14</v>
@@ -5534,7 +5588,7 @@
         <v>13</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F174" s="6">
         <v>3</v>
@@ -5551,7 +5605,7 @@
         <v>94</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F175" s="6">
         <v>3</v>
@@ -5562,7 +5616,7 @@
     </row>
     <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>183</v>
@@ -5571,46 +5625,46 @@
         <v>27</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D178" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="G178" s="15" t="s">
         <v>475</v>
-      </c>
-      <c r="G178" s="15" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>316</v>
@@ -5619,18 +5673,18 @@
         <v>6</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>48</v>
@@ -5639,7 +5693,7 @@
         <v>41</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>14</v>
@@ -5647,7 +5701,7 @@
     </row>
     <row r="181" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>48</v>
@@ -5656,27 +5710,27 @@
         <v>13</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>14</v>
@@ -5684,21 +5738,21 @@
     </row>
     <row r="183" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>48</v>
@@ -5707,7 +5761,7 @@
         <v>6</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>14</v>
@@ -5718,13 +5772,13 @@
         <v>47</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>14</v>
@@ -5732,7 +5786,7 @@
     </row>
     <row r="186" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>48</v>
@@ -5741,18 +5795,18 @@
         <v>13</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>183</v>
@@ -5761,21 +5815,21 @@
         <v>27</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>500</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E188" s="9" t="s">
         <v>14</v>
@@ -5783,27 +5837,27 @@
     </row>
     <row r="189" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E189" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G189" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>120</v>
@@ -5812,33 +5866,121 @@
         <v>6</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G190" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G191" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G193" s="14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G195" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6143,10 +6285,19 @@
     <hyperlink ref="A191" r:id="rId297" display="https://leetcode.cn/problems/reverse-words-in-a-string/" xr:uid="{4B2C101B-F768-4107-A3A8-689A2F608E3D}"/>
     <hyperlink ref="E191" r:id="rId298" xr:uid="{A73A0A4E-FB11-41B3-80E5-2FA40B81A50D}"/>
     <hyperlink ref="E173" r:id="rId299" xr:uid="{8D50CBDB-2242-4BBB-B694-184E0070104C}"/>
+    <hyperlink ref="A192" r:id="rId300" display="https://leetcode.cn/problems/minimum-operations-to-exceed-threshold-value-ii/" xr:uid="{1E11646A-D940-446C-8E1B-6F3CD471DAEC}"/>
+    <hyperlink ref="A193" r:id="rId301" xr:uid="{EECF5DCB-F6DA-4CC6-B808-B6D1A0FD2EA7}"/>
+    <hyperlink ref="E193" r:id="rId302" location="%E6%80%9D%E8%B7%AF" xr:uid="{7DC750A1-BD6D-404C-A7A2-3CC13D80ECC3}"/>
+    <hyperlink ref="A194" r:id="rId303" display="https://leetcode.cn/problems/find-the-index-of-the-first-occurrence-in-a-string/" xr:uid="{023E2A06-6F13-495C-B896-F7241E8F25EB}"/>
+    <hyperlink ref="A195" r:id="rId304" display="https://leetcode.cn/problems/repeated-substring-pattern/" xr:uid="{1EBC7A26-002F-442F-A7E1-A7CB3DFA8EAF}"/>
+    <hyperlink ref="E194" r:id="rId305" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{B0445983-C761-4027-9892-5CFEFE2DE00C}"/>
+    <hyperlink ref="E195" r:id="rId306" xr:uid="{8F8CDCBB-6C08-48EE-8A19-679B6978F012}"/>
+    <hyperlink ref="A196" r:id="rId307" display="https://leetcode.cn/problems/shortest-subarray-with-or-at-least-k-i/" xr:uid="{207B1343-AACF-47A4-AB70-78314E7B029D}"/>
+    <hyperlink ref="E196" r:id="rId308" xr:uid="{86B685E1-568D-4D4B-B0DF-6A49B35DCE2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId300"/>
+    <tablePart r:id="rId309"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EA486E-5567-432B-BB7E-BA5A35D103AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79419B0-C171-45D2-B1D8-2E676F13924C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-163" yWindow="17" windowWidth="22106" windowHeight="11812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="528">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1929,6 +1929,26 @@
   <si>
     <t>return len==Integer.MAX_VALUE ? "" : s.substring(start, start+len); //[)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3097. 或值至少为 K 的最短子数组 II</t>
+  </si>
+  <si>
+    <t>2025.01.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>225. 用队列实现栈</t>
+  </si>
+  <si>
+    <t>栈、队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>232. 用栈实现队列</t>
+  </si>
+  <si>
+    <t>1047. 删除字符串中的所有相邻重复项</t>
   </si>
 </sst>
 </file>
@@ -2390,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G175" sqref="G175"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3292,10 +3312,13 @@
         <v>79</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>398</v>
+        <v>523</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F49" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4944,13 +4967,13 @@
         <v>41</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>368</v>
+        <v>523</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F140" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5981,6 +6004,74 @@
       </c>
       <c r="E196" s="9" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6294,10 +6385,19 @@
     <hyperlink ref="E195" r:id="rId306" xr:uid="{8F8CDCBB-6C08-48EE-8A19-679B6978F012}"/>
     <hyperlink ref="A196" r:id="rId307" display="https://leetcode.cn/problems/shortest-subarray-with-or-at-least-k-i/" xr:uid="{207B1343-AACF-47A4-AB70-78314E7B029D}"/>
     <hyperlink ref="E196" r:id="rId308" xr:uid="{86B685E1-568D-4D4B-B0DF-6A49B35DCE2D}"/>
+    <hyperlink ref="A197" r:id="rId309" display="https://leetcode.cn/problems/shortest-subarray-with-or-at-least-k-ii/" xr:uid="{9008DB9E-D93F-4EF3-8591-DBCFDD2E3EF7}"/>
+    <hyperlink ref="E197" r:id="rId310" xr:uid="{8DC848F8-A815-4218-9456-9703CE7BE7CE}"/>
+    <hyperlink ref="E198" r:id="rId311" xr:uid="{8E8A4275-1999-4D2D-8BB7-7CED3278C51A}"/>
+    <hyperlink ref="A199" r:id="rId312" display="https://leetcode.cn/problems/implement-stack-using-queues/" xr:uid="{E12BF282-5E70-47AC-9C5D-9D60391E9296}"/>
+    <hyperlink ref="A198" r:id="rId313" display="https://leetcode.cn/problems/implement-queue-using-stacks/" xr:uid="{ADE59DCF-8B21-45AD-B53B-361152381BF1}"/>
+    <hyperlink ref="E199" r:id="rId314" xr:uid="{05957446-1D31-4C7B-8F6C-B82E8DB12F66}"/>
+    <hyperlink ref="E49" r:id="rId315" xr:uid="{AA2B9A0A-0223-46C5-B3F3-013575FC1716}"/>
+    <hyperlink ref="A200" r:id="rId316" display="https://leetcode.cn/problems/remove-all-adjacent-duplicates-in-string/" xr:uid="{5D755AC6-0081-42E0-B1A2-71EC25EC6498}"/>
+    <hyperlink ref="E200" r:id="rId317" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{C62E9BEE-3128-4E01-96B6-10609355DFA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId309"/>
+    <tablePart r:id="rId318"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79419B0-C171-45D2-B1D8-2E676F13924C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0180E93F-9052-495F-84E8-26A3D3FDD072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-163" yWindow="17" windowWidth="22106" windowHeight="11812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="533">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1949,6 +1949,26 @@
   </si>
   <si>
     <t>1047. 删除字符串中的所有相邻重复项</t>
+  </si>
+  <si>
+    <t>2025.01.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (n == 0) return new int[0][];
+return res.toArray(new int[res.size()][]);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150. 逆波兰表达式求值</t>
+  </si>
+  <si>
+    <t>stack.push(Integer.valueOf(s));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (Map.Entry&lt;Integer, Integer&gt; entry : map.entrySet())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2410,25 +2430,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="20.640625" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="20.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="6"/>
+    <col min="7" max="7" width="20.625" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +2471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>77</v>
       </c>
@@ -2471,7 +2491,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>205</v>
       </c>
@@ -2488,7 +2508,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>207</v>
       </c>
@@ -2502,7 +2522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>203</v>
       </c>
@@ -2522,7 +2542,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -2545,7 +2565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>213</v>
       </c>
@@ -2559,7 +2579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>361</v>
       </c>
@@ -2570,7 +2590,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>208</v>
       </c>
@@ -2584,7 +2604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>90</v>
       </c>
@@ -2607,7 +2627,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>212</v>
       </c>
@@ -2624,7 +2644,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>285</v>
       </c>
@@ -2647,7 +2667,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -2667,7 +2687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>272</v>
       </c>
@@ -2684,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -2704,7 +2724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>254</v>
       </c>
@@ -2724,7 +2744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>336</v>
       </c>
@@ -2741,7 +2761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>339</v>
       </c>
@@ -2755,7 +2775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>216</v>
       </c>
@@ -2775,7 +2795,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>296</v>
       </c>
@@ -2795,7 +2815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>231</v>
       </c>
@@ -2818,7 +2838,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>260</v>
       </c>
@@ -2835,7 +2855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>423</v>
       </c>
@@ -2849,7 +2869,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>427</v>
       </c>
@@ -2863,7 +2883,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>196</v>
       </c>
@@ -2883,7 +2903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>276</v>
       </c>
@@ -2903,7 +2923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>190</v>
       </c>
@@ -2920,7 +2940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>191</v>
       </c>
@@ -2943,7 +2963,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>362</v>
       </c>
@@ -2960,7 +2980,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>293</v>
       </c>
@@ -2977,7 +2997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>200</v>
       </c>
@@ -2994,7 +3014,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>197</v>
       </c>
@@ -3014,7 +3034,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -3037,7 +3057,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>279</v>
       </c>
@@ -3057,7 +3077,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>239</v>
       </c>
@@ -3077,7 +3097,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>242</v>
       </c>
@@ -3097,7 +3117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>101</v>
       </c>
@@ -3114,7 +3134,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>23</v>
       </c>
@@ -3131,7 +3151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>187</v>
       </c>
@@ -3151,7 +3171,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>365</v>
       </c>
@@ -3162,7 +3182,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>261</v>
       </c>
@@ -3179,7 +3199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>225</v>
       </c>
@@ -3199,7 +3219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>413</v>
       </c>
@@ -3216,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>173</v>
       </c>
@@ -3230,7 +3250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>194</v>
       </c>
@@ -3250,7 +3270,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>273</v>
       </c>
@@ -3270,7 +3290,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>211</v>
       </c>
@@ -3287,7 +3307,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>193</v>
       </c>
@@ -3301,7 +3321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>241</v>
       </c>
@@ -3321,7 +3341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>218</v>
       </c>
@@ -3338,7 +3358,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>463</v>
       </c>
@@ -3355,7 +3375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>188</v>
       </c>
@@ -3375,7 +3395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>220</v>
       </c>
@@ -3389,7 +3409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>221</v>
       </c>
@@ -3403,7 +3423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>66</v>
       </c>
@@ -3423,7 +3443,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>458</v>
       </c>
@@ -3437,7 +3457,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>192</v>
       </c>
@@ -3454,7 +3474,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>323</v>
       </c>
@@ -3471,7 +3491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>249</v>
       </c>
@@ -3488,7 +3508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>129</v>
       </c>
@@ -3508,7 +3528,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>71</v>
       </c>
@@ -3528,7 +3548,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>230</v>
       </c>
@@ -3548,7 +3568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>441</v>
       </c>
@@ -3562,7 +3582,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>204</v>
       </c>
@@ -3579,7 +3599,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>449</v>
       </c>
@@ -3593,7 +3613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>439</v>
       </c>
@@ -3610,7 +3630,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>199</v>
       </c>
@@ -3627,7 +3647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>210</v>
       </c>
@@ -3644,7 +3664,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>189</v>
       </c>
@@ -3658,7 +3678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>215</v>
       </c>
@@ -3681,7 +3701,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>174</v>
       </c>
@@ -3698,7 +3718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>147</v>
       </c>
@@ -3709,19 +3729,19 @@
         <v>94</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F72" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>38</v>
       </c>
@@ -3741,7 +3761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>335</v>
       </c>
@@ -3761,7 +3781,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>184</v>
       </c>
@@ -3784,7 +3804,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>33</v>
       </c>
@@ -3804,7 +3824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>195</v>
       </c>
@@ -3824,7 +3844,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>61</v>
       </c>
@@ -3844,7 +3864,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>57</v>
       </c>
@@ -3861,7 +3881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>288</v>
       </c>
@@ -3878,7 +3898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>54</v>
       </c>
@@ -3895,7 +3915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>112</v>
       </c>
@@ -3912,7 +3932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>119</v>
       </c>
@@ -3929,7 +3949,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>148</v>
       </c>
@@ -3946,7 +3966,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>137</v>
       </c>
@@ -3966,7 +3986,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>274</v>
       </c>
@@ -3986,7 +4006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>360</v>
       </c>
@@ -4000,7 +4020,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>42</v>
       </c>
@@ -4020,7 +4040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>171</v>
       </c>
@@ -4031,7 +4051,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>133</v>
       </c>
@@ -4048,7 +4068,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>297</v>
       </c>
@@ -4068,7 +4088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>160</v>
       </c>
@@ -4079,7 +4099,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>156</v>
       </c>
@@ -4096,7 +4116,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>162</v>
       </c>
@@ -4107,7 +4127,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>152</v>
       </c>
@@ -4124,7 +4144,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>268</v>
       </c>
@@ -4147,7 +4167,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>252</v>
       </c>
@@ -4170,7 +4190,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>105</v>
       </c>
@@ -4193,7 +4213,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>277</v>
       </c>
@@ -4213,7 +4233,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>445</v>
       </c>
@@ -4227,7 +4247,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>418</v>
       </c>
@@ -4241,7 +4261,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>265</v>
       </c>
@@ -4261,7 +4281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>291</v>
       </c>
@@ -4272,7 +4292,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>421</v>
       </c>
@@ -4283,7 +4303,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>281</v>
       </c>
@@ -4300,7 +4320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>416</v>
       </c>
@@ -4320,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>275</v>
       </c>
@@ -4340,7 +4360,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>429</v>
       </c>
@@ -4357,7 +4377,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>452</v>
       </c>
@@ -4374,7 +4394,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>454</v>
       </c>
@@ -4394,7 +4414,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>238</v>
       </c>
@@ -4417,7 +4437,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>329</v>
       </c>
@@ -4434,7 +4454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>233</v>
       </c>
@@ -4454,7 +4474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>253</v>
       </c>
@@ -4465,13 +4485,19 @@
         <v>79</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>400</v>
+        <v>528</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F114" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>235</v>
       </c>
@@ -4491,7 +4517,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>164</v>
       </c>
@@ -4505,7 +4531,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>312</v>
       </c>
@@ -4522,7 +4548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>47</v>
       </c>
@@ -4542,7 +4568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>228</v>
       </c>
@@ -4562,7 +4588,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>243</v>
       </c>
@@ -4582,7 +4608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>240</v>
       </c>
@@ -4605,7 +4631,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>175</v>
       </c>
@@ -4625,7 +4651,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>280</v>
       </c>
@@ -4648,7 +4674,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>95</v>
       </c>
@@ -4668,7 +4694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>214</v>
       </c>
@@ -4688,7 +4714,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>151</v>
       </c>
@@ -4711,7 +4737,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>457</v>
       </c>
@@ -4725,7 +4751,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>51</v>
       </c>
@@ -4745,7 +4771,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>257</v>
       </c>
@@ -4762,7 +4788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>222</v>
       </c>
@@ -4785,7 +4811,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>28</v>
       </c>
@@ -4805,7 +4831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>307</v>
       </c>
@@ -4822,7 +4848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>182</v>
       </c>
@@ -4842,7 +4868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>81</v>
       </c>
@@ -4862,7 +4888,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>305</v>
       </c>
@@ -4879,7 +4905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>284</v>
       </c>
@@ -4902,7 +4928,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>232</v>
       </c>
@@ -4925,7 +4951,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>167</v>
       </c>
@@ -4942,7 +4968,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>311</v>
       </c>
@@ -4956,7 +4982,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>123</v>
       </c>
@@ -4976,7 +5002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>180</v>
       </c>
@@ -4999,7 +5025,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>206</v>
       </c>
@@ -5016,7 +5042,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>256</v>
       </c>
@@ -5033,7 +5059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>125</v>
       </c>
@@ -5044,16 +5070,19 @@
         <v>79</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>368</v>
+        <v>528</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F144" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="G144" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>114</v>
       </c>
@@ -5073,7 +5102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>456</v>
       </c>
@@ -5087,7 +5116,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>282</v>
       </c>
@@ -5107,7 +5136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>357</v>
       </c>
@@ -5118,7 +5147,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>283</v>
       </c>
@@ -5138,7 +5167,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>145</v>
       </c>
@@ -5158,7 +5187,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>271</v>
       </c>
@@ -5175,7 +5204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>287</v>
       </c>
@@ -5192,7 +5221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>464</v>
       </c>
@@ -5209,7 +5238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>87</v>
       </c>
@@ -5226,7 +5255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>411</v>
       </c>
@@ -5249,7 +5278,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>286</v>
       </c>
@@ -5272,7 +5301,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>432</v>
       </c>
@@ -5292,7 +5321,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>177</v>
       </c>
@@ -5315,7 +5344,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>436</v>
       </c>
@@ -5332,7 +5361,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>437</v>
       </c>
@@ -5349,7 +5378,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>108</v>
       </c>
@@ -5366,7 +5395,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>245</v>
       </c>
@@ -5389,7 +5418,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
         <v>236</v>
       </c>
@@ -5409,7 +5438,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
         <v>263</v>
       </c>
@@ -5429,7 +5458,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
         <v>116</v>
       </c>
@@ -5452,7 +5481,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>258</v>
       </c>
@@ -5472,7 +5501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>224</v>
       </c>
@@ -5492,7 +5521,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>229</v>
       </c>
@@ -5512,7 +5541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>97</v>
       </c>
@@ -5529,7 +5558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>82</v>
       </c>
@@ -5546,7 +5575,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>247</v>
       </c>
@@ -5569,7 +5598,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>202</v>
       </c>
@@ -5583,7 +5612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>289</v>
       </c>
@@ -5603,7 +5632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
         <v>209</v>
       </c>
@@ -5617,7 +5646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
         <v>219</v>
       </c>
@@ -5637,7 +5666,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>466</v>
       </c>
@@ -5651,7 +5680,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>470</v>
       </c>
@@ -5671,7 +5700,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>473</v>
       </c>
@@ -5685,7 +5714,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>476</v>
       </c>
@@ -5705,7 +5734,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>478</v>
       </c>
@@ -5722,7 +5751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>480</v>
       </c>
@@ -5742,7 +5771,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>482</v>
       </c>
@@ -5759,7 +5788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
         <v>483</v>
       </c>
@@ -5773,7 +5802,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="10" t="s">
         <v>487</v>
       </c>
@@ -5790,7 +5819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
         <v>47</v>
       </c>
@@ -5807,7 +5836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
         <v>493</v>
       </c>
@@ -5827,7 +5856,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
         <v>495</v>
       </c>
@@ -5841,7 +5870,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="s">
         <v>498</v>
       </c>
@@ -5858,7 +5887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
         <v>500</v>
       </c>
@@ -5878,7 +5907,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
         <v>503</v>
       </c>
@@ -5898,7 +5927,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>505</v>
       </c>
@@ -5918,7 +5947,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
         <v>508</v>
       </c>
@@ -5932,7 +5961,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="s">
         <v>512</v>
       </c>
@@ -5952,7 +5981,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
         <v>515</v>
       </c>
@@ -5969,7 +5998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>516</v>
       </c>
@@ -5989,7 +6018,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
         <v>520</v>
       </c>
@@ -6006,7 +6035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
         <v>522</v>
       </c>
@@ -6023,7 +6052,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>526</v>
       </c>
@@ -6040,7 +6069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>524</v>
       </c>
@@ -6057,7 +6086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
         <v>527</v>
       </c>
@@ -6072,6 +6101,26 @@
       </c>
       <c r="E200" s="9" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A201" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G201" s="14" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -6125,7 +6174,7 @@
     <hyperlink ref="E140" r:id="rId46" xr:uid="{3229D6F6-BBF7-4C3B-B191-8DEB682A8FD3}"/>
     <hyperlink ref="E83" r:id="rId47" xr:uid="{59B4691E-76E8-4849-BF65-B7D31AC7A96D}"/>
     <hyperlink ref="E165" r:id="rId48" xr:uid="{4A2B3D38-4B96-4BF0-94E8-EF4F01DADA60}"/>
-    <hyperlink ref="E72" r:id="rId49" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
+    <hyperlink ref="E72" r:id="rId49" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{AB333045-700E-4C04-88E4-D32E0F6DB718}"/>
     <hyperlink ref="E145" r:id="rId50" xr:uid="{582C87DD-55DC-4B35-9852-0734F202A602}"/>
     <hyperlink ref="E82" r:id="rId51" xr:uid="{9A949AF4-4EB7-44E4-BACF-B1D5B5248519}"/>
     <hyperlink ref="E161" r:id="rId52" xr:uid="{70C2F0B7-B280-4BFB-BECF-378146CDDA35}"/>
@@ -6394,10 +6443,13 @@
     <hyperlink ref="E49" r:id="rId315" xr:uid="{AA2B9A0A-0223-46C5-B3F3-013575FC1716}"/>
     <hyperlink ref="A200" r:id="rId316" display="https://leetcode.cn/problems/remove-all-adjacent-duplicates-in-string/" xr:uid="{5D755AC6-0081-42E0-B1A2-71EC25EC6498}"/>
     <hyperlink ref="E200" r:id="rId317" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{C62E9BEE-3128-4E01-96B6-10609355DFA8}"/>
+    <hyperlink ref="A201" r:id="rId318" display="https://leetcode.cn/problems/evaluate-reverse-polish-notation/" xr:uid="{831B1E54-614B-4F96-AD4E-03F0BF46AD51}"/>
+    <hyperlink ref="E201" r:id="rId319" xr:uid="{84654ACA-3859-457E-9F2D-5A1A22592A66}"/>
+    <hyperlink ref="E114" r:id="rId320" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{08BEADD3-1DAF-455B-AAA4-25081BF174A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId318"/>
+    <tablePart r:id="rId321"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0180E93F-9052-495F-84E8-26A3D3FDD072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C4059B-27AE-4A3E-9150-D9DCB27CBF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="536">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1968,6 +1968,17 @@
   </si>
   <si>
     <t>for (Map.Entry&lt;Integer, Integer&gt; entry : map.entrySet())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2266. 统计打字方案数</t>
+  </si>
+  <si>
+    <t>2025.01.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表、字符串、动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2430,25 +2441,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="6"/>
-    <col min="7" max="7" width="20.625" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="3"/>
+    <col min="1" max="1" width="20.640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="7" width="20.640625" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2471,7 +2482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>77</v>
       </c>
@@ -2491,7 +2502,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>205</v>
       </c>
@@ -2508,7 +2519,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>207</v>
       </c>
@@ -2522,7 +2533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>203</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -2565,7 +2576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>213</v>
       </c>
@@ -2579,7 +2590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>361</v>
       </c>
@@ -2590,7 +2601,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>208</v>
       </c>
@@ -2604,7 +2615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>90</v>
       </c>
@@ -2627,7 +2638,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>212</v>
       </c>
@@ -2644,7 +2655,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
         <v>285</v>
       </c>
@@ -2667,7 +2678,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -2687,7 +2698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
         <v>272</v>
       </c>
@@ -2704,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -2724,7 +2735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
         <v>254</v>
       </c>
@@ -2744,7 +2755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
         <v>336</v>
       </c>
@@ -2761,7 +2772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
         <v>339</v>
       </c>
@@ -2775,7 +2786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
         <v>216</v>
       </c>
@@ -2795,7 +2806,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
         <v>296</v>
       </c>
@@ -2815,7 +2826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
         <v>231</v>
       </c>
@@ -2838,7 +2849,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
         <v>260</v>
       </c>
@@ -2855,7 +2866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
         <v>423</v>
       </c>
@@ -2869,7 +2880,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
         <v>427</v>
       </c>
@@ -2883,7 +2894,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
         <v>196</v>
       </c>
@@ -2903,7 +2914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
         <v>276</v>
       </c>
@@ -2923,7 +2934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
         <v>190</v>
       </c>
@@ -2940,7 +2951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
         <v>191</v>
       </c>
@@ -2963,7 +2974,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
         <v>362</v>
       </c>
@@ -2980,7 +2991,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
         <v>293</v>
       </c>
@@ -2997,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
         <v>200</v>
       </c>
@@ -3014,7 +3025,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
         <v>197</v>
       </c>
@@ -3034,7 +3045,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -3057,7 +3068,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
         <v>279</v>
       </c>
@@ -3077,7 +3088,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
         <v>239</v>
       </c>
@@ -3097,7 +3108,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
         <v>242</v>
       </c>
@@ -3117,7 +3128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
         <v>101</v>
       </c>
@@ -3134,7 +3145,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
         <v>23</v>
       </c>
@@ -3151,7 +3162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
         <v>187</v>
       </c>
@@ -3171,7 +3182,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
         <v>365</v>
       </c>
@@ -3182,7 +3193,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
         <v>261</v>
       </c>
@@ -3199,7 +3210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
         <v>225</v>
       </c>
@@ -3219,7 +3230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
         <v>413</v>
       </c>
@@ -3236,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
         <v>173</v>
       </c>
@@ -3244,13 +3255,13 @@
         <v>27</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>368</v>
+        <v>534</v>
       </c>
       <c r="F44" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
         <v>194</v>
       </c>
@@ -3270,7 +3281,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
         <v>273</v>
       </c>
@@ -3290,7 +3301,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
         <v>211</v>
       </c>
@@ -3307,7 +3318,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
         <v>193</v>
       </c>
@@ -3321,7 +3332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
         <v>241</v>
       </c>
@@ -3341,7 +3352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
         <v>218</v>
       </c>
@@ -3358,7 +3369,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
         <v>463</v>
       </c>
@@ -3375,7 +3386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="10" t="s">
         <v>188</v>
       </c>
@@ -3395,7 +3406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
         <v>220</v>
       </c>
@@ -3409,7 +3420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
         <v>221</v>
       </c>
@@ -3423,7 +3434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
         <v>66</v>
       </c>
@@ -3443,7 +3454,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
         <v>458</v>
       </c>
@@ -3457,7 +3468,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11" t="s">
         <v>192</v>
       </c>
@@ -3474,7 +3485,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
         <v>323</v>
       </c>
@@ -3491,7 +3502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="10" t="s">
         <v>249</v>
       </c>
@@ -3508,7 +3519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
         <v>129</v>
       </c>
@@ -3528,7 +3539,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
         <v>71</v>
       </c>
@@ -3548,7 +3559,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
         <v>230</v>
       </c>
@@ -3568,7 +3579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
         <v>441</v>
       </c>
@@ -3582,7 +3593,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
         <v>204</v>
       </c>
@@ -3599,7 +3610,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
         <v>449</v>
       </c>
@@ -3613,7 +3624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
         <v>439</v>
       </c>
@@ -3630,7 +3641,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
         <v>199</v>
       </c>
@@ -3647,7 +3658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
         <v>210</v>
       </c>
@@ -3664,7 +3675,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
         <v>189</v>
       </c>
@@ -3678,7 +3689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
         <v>215</v>
       </c>
@@ -3701,7 +3712,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="10" t="s">
         <v>174</v>
       </c>
@@ -3718,7 +3729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
         <v>147</v>
       </c>
@@ -3741,7 +3752,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10" t="s">
         <v>38</v>
       </c>
@@ -3761,7 +3772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
         <v>335</v>
       </c>
@@ -3781,7 +3792,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
         <v>184</v>
       </c>
@@ -3804,7 +3815,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="10" t="s">
         <v>33</v>
       </c>
@@ -3824,7 +3835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="10" t="s">
         <v>195</v>
       </c>
@@ -3844,7 +3855,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
         <v>61</v>
       </c>
@@ -3864,7 +3875,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
         <v>57</v>
       </c>
@@ -3881,7 +3892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
         <v>288</v>
       </c>
@@ -3898,7 +3909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
         <v>54</v>
       </c>
@@ -3915,7 +3926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
         <v>112</v>
       </c>
@@ -3932,7 +3943,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
         <v>119</v>
       </c>
@@ -3949,7 +3960,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
         <v>148</v>
       </c>
@@ -3966,7 +3977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
         <v>137</v>
       </c>
@@ -3986,7 +3997,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
         <v>274</v>
       </c>
@@ -4006,7 +4017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
         <v>360</v>
       </c>
@@ -4020,7 +4031,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
         <v>42</v>
       </c>
@@ -4040,7 +4051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
         <v>171</v>
       </c>
@@ -4051,7 +4062,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
         <v>133</v>
       </c>
@@ -4068,7 +4079,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
         <v>297</v>
       </c>
@@ -4088,7 +4099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
         <v>160</v>
       </c>
@@ -4099,7 +4110,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
         <v>156</v>
       </c>
@@ -4116,7 +4127,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10" t="s">
         <v>162</v>
       </c>
@@ -4127,7 +4138,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10" t="s">
         <v>152</v>
       </c>
@@ -4144,7 +4155,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10" t="s">
         <v>268</v>
       </c>
@@ -4167,7 +4178,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
         <v>252</v>
       </c>
@@ -4190,7 +4201,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="10" t="s">
         <v>105</v>
       </c>
@@ -4213,7 +4224,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
         <v>277</v>
       </c>
@@ -4233,7 +4244,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
         <v>445</v>
       </c>
@@ -4247,7 +4258,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="10" t="s">
         <v>418</v>
       </c>
@@ -4261,7 +4272,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
         <v>265</v>
       </c>
@@ -4281,7 +4292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
         <v>291</v>
       </c>
@@ -4292,7 +4303,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="10" t="s">
         <v>421</v>
       </c>
@@ -4303,7 +4314,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="10" t="s">
         <v>281</v>
       </c>
@@ -4320,7 +4331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
         <v>416</v>
       </c>
@@ -4340,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10" t="s">
         <v>275</v>
       </c>
@@ -4360,7 +4371,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10" t="s">
         <v>429</v>
       </c>
@@ -4377,7 +4388,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10" t="s">
         <v>452</v>
       </c>
@@ -4394,7 +4405,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10" t="s">
         <v>454</v>
       </c>
@@ -4414,7 +4425,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="10" t="s">
         <v>238</v>
       </c>
@@ -4437,7 +4448,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
         <v>329</v>
       </c>
@@ -4454,7 +4465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
         <v>233</v>
       </c>
@@ -4474,7 +4485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
         <v>253</v>
       </c>
@@ -4497,7 +4508,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="10" t="s">
         <v>235</v>
       </c>
@@ -4517,7 +4528,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="10" t="s">
         <v>164</v>
       </c>
@@ -4531,7 +4542,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="10" t="s">
         <v>312</v>
       </c>
@@ -4548,7 +4559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
         <v>47</v>
       </c>
@@ -4568,7 +4579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="10" t="s">
         <v>228</v>
       </c>
@@ -4588,7 +4599,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="10" t="s">
         <v>243</v>
       </c>
@@ -4608,7 +4619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="10" t="s">
         <v>240</v>
       </c>
@@ -4631,7 +4642,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10" t="s">
         <v>175</v>
       </c>
@@ -4651,7 +4662,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
         <v>280</v>
       </c>
@@ -4674,7 +4685,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
         <v>95</v>
       </c>
@@ -4694,7 +4705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
         <v>214</v>
       </c>
@@ -4714,7 +4725,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="10" t="s">
         <v>151</v>
       </c>
@@ -4737,7 +4748,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4" t="s">
         <v>457</v>
       </c>
@@ -4751,7 +4762,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
         <v>51</v>
       </c>
@@ -4771,7 +4782,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
         <v>257</v>
       </c>
@@ -4788,7 +4799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
         <v>222</v>
       </c>
@@ -4811,7 +4822,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
         <v>28</v>
       </c>
@@ -4831,7 +4842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
         <v>307</v>
       </c>
@@ -4848,7 +4859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
         <v>182</v>
       </c>
@@ -4868,7 +4879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
         <v>81</v>
       </c>
@@ -4888,7 +4899,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
         <v>305</v>
       </c>
@@ -4905,7 +4916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
         <v>284</v>
       </c>
@@ -4928,7 +4939,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
         <v>232</v>
       </c>
@@ -4951,7 +4962,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
         <v>167</v>
       </c>
@@ -4968,7 +4979,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
         <v>311</v>
       </c>
@@ -4982,7 +4993,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
         <v>123</v>
       </c>
@@ -5002,7 +5013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
         <v>180</v>
       </c>
@@ -5025,7 +5036,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
         <v>206</v>
       </c>
@@ -5042,7 +5053,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
         <v>256</v>
       </c>
@@ -5059,7 +5070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10" t="s">
         <v>125</v>
       </c>
@@ -5082,7 +5093,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10" t="s">
         <v>114</v>
       </c>
@@ -5102,7 +5113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4" t="s">
         <v>456</v>
       </c>
@@ -5116,7 +5127,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10" t="s">
         <v>282</v>
       </c>
@@ -5136,7 +5147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10" t="s">
         <v>357</v>
       </c>
@@ -5147,7 +5158,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10" t="s">
         <v>283</v>
       </c>
@@ -5167,7 +5178,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10" t="s">
         <v>145</v>
       </c>
@@ -5187,7 +5198,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="10" t="s">
         <v>271</v>
       </c>
@@ -5204,7 +5215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10" t="s">
         <v>287</v>
       </c>
@@ -5221,7 +5232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10" t="s">
         <v>464</v>
       </c>
@@ -5238,7 +5249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="10" t="s">
         <v>87</v>
       </c>
@@ -5255,7 +5266,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
         <v>411</v>
       </c>
@@ -5278,7 +5289,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10" t="s">
         <v>286</v>
       </c>
@@ -5301,7 +5312,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
         <v>432</v>
       </c>
@@ -5321,7 +5332,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10" t="s">
         <v>177</v>
       </c>
@@ -5344,7 +5355,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10" t="s">
         <v>436</v>
       </c>
@@ -5361,7 +5372,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
         <v>437</v>
       </c>
@@ -5378,7 +5389,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10" t="s">
         <v>108</v>
       </c>
@@ -5395,7 +5406,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10" t="s">
         <v>245</v>
       </c>
@@ -5418,7 +5429,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10" t="s">
         <v>236</v>
       </c>
@@ -5438,7 +5449,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="10" t="s">
         <v>263</v>
       </c>
@@ -5458,7 +5469,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="10" t="s">
         <v>116</v>
       </c>
@@ -5481,7 +5492,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="10" t="s">
         <v>258</v>
       </c>
@@ -5501,7 +5512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="10" t="s">
         <v>224</v>
       </c>
@@ -5521,7 +5532,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="10" t="s">
         <v>229</v>
       </c>
@@ -5541,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="10" t="s">
         <v>97</v>
       </c>
@@ -5558,7 +5569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="10" t="s">
         <v>82</v>
       </c>
@@ -5575,7 +5586,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="10" t="s">
         <v>247</v>
       </c>
@@ -5598,7 +5609,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="10" t="s">
         <v>202</v>
       </c>
@@ -5612,7 +5623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="10" t="s">
         <v>289</v>
       </c>
@@ -5632,7 +5643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="10" t="s">
         <v>209</v>
       </c>
@@ -5646,7 +5657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="10" t="s">
         <v>219</v>
       </c>
@@ -5666,7 +5677,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="10" t="s">
         <v>466</v>
       </c>
@@ -5680,7 +5691,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="10" t="s">
         <v>470</v>
       </c>
@@ -5700,7 +5711,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="10" t="s">
         <v>473</v>
       </c>
@@ -5714,7 +5725,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="10" t="s">
         <v>476</v>
       </c>
@@ -5734,7 +5745,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="10" t="s">
         <v>478</v>
       </c>
@@ -5751,7 +5762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="10" t="s">
         <v>480</v>
       </c>
@@ -5771,7 +5782,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="10" t="s">
         <v>482</v>
       </c>
@@ -5788,7 +5799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="10" t="s">
         <v>483</v>
       </c>
@@ -5802,7 +5813,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="10" t="s">
         <v>487</v>
       </c>
@@ -5819,7 +5830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="10" t="s">
         <v>47</v>
       </c>
@@ -5836,7 +5847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="10" t="s">
         <v>493</v>
       </c>
@@ -5856,7 +5867,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="10" t="s">
         <v>495</v>
       </c>
@@ -5870,7 +5881,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="10" t="s">
         <v>498</v>
       </c>
@@ -5887,7 +5898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="10" t="s">
         <v>500</v>
       </c>
@@ -5907,7 +5918,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="10" t="s">
         <v>503</v>
       </c>
@@ -5927,7 +5938,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="10" t="s">
         <v>505</v>
       </c>
@@ -5947,7 +5958,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="10" t="s">
         <v>508</v>
       </c>
@@ -5961,7 +5972,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="10" t="s">
         <v>512</v>
       </c>
@@ -5981,7 +5992,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="10" t="s">
         <v>515</v>
       </c>
@@ -5998,7 +6009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="10" t="s">
         <v>516</v>
       </c>
@@ -6018,7 +6029,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="10" t="s">
         <v>520</v>
       </c>
@@ -6035,7 +6046,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="10" t="s">
         <v>522</v>
       </c>
@@ -6052,7 +6063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="10" t="s">
         <v>526</v>
       </c>
@@ -6069,7 +6080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="10" t="s">
         <v>524</v>
       </c>
@@ -6086,7 +6097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="10" t="s">
         <v>527</v>
       </c>
@@ -6103,7 +6114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="10" t="s">
         <v>530</v>
       </c>
@@ -6121,6 +6132,20 @@
       </c>
       <c r="G201" s="14" t="s">
         <v>531</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -6446,10 +6471,11 @@
     <hyperlink ref="A201" r:id="rId318" display="https://leetcode.cn/problems/evaluate-reverse-polish-notation/" xr:uid="{831B1E54-614B-4F96-AD4E-03F0BF46AD51}"/>
     <hyperlink ref="E201" r:id="rId319" xr:uid="{84654ACA-3859-457E-9F2D-5A1A22592A66}"/>
     <hyperlink ref="E114" r:id="rId320" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{08BEADD3-1DAF-455B-AAA4-25081BF174A1}"/>
+    <hyperlink ref="A202" r:id="rId321" display="https://leetcode.cn/problems/count-number-of-texts/" xr:uid="{229C0AF2-7C90-4301-B784-B482BA76B6E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId321"/>
+    <tablePart r:id="rId322"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C4059B-27AE-4A3E-9150-D9DCB27CBF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553AF9DC-451C-4DAB-AE9B-8A7670E1DCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="538">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1979,6 +1979,13 @@
   </si>
   <si>
     <t>哈希表、字符串、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2239. 找到最接近 0 的数字</t>
+  </si>
+  <si>
+    <t>2025.01.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2441,10 +2448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E203" sqref="E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -6146,6 +6153,17 @@
       </c>
       <c r="D202" s="8" t="s">
         <v>534</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -6472,10 +6490,11 @@
     <hyperlink ref="E201" r:id="rId319" xr:uid="{84654ACA-3859-457E-9F2D-5A1A22592A66}"/>
     <hyperlink ref="E114" r:id="rId320" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{08BEADD3-1DAF-455B-AAA4-25081BF174A1}"/>
     <hyperlink ref="A202" r:id="rId321" display="https://leetcode.cn/problems/count-number-of-texts/" xr:uid="{229C0AF2-7C90-4301-B784-B482BA76B6E3}"/>
+    <hyperlink ref="A203" r:id="rId322" display="https://leetcode.cn/problems/find-closest-number-to-zero/" xr:uid="{FA084141-B119-4D9D-ABF5-F7A3389E7EA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId322"/>
+    <tablePart r:id="rId323"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553AF9DC-451C-4DAB-AE9B-8A7670E1DCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735BAA62-73EB-4733-9A74-AABCF1F7A864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20505" yWindow="3435" windowWidth="15990" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="553">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1986,6 +1986,69 @@
   </si>
   <si>
     <t>2025.01.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>144. 二叉树的前序遍历</t>
+  </si>
+  <si>
+    <t>145. 二叉树的后序遍历</t>
+  </si>
+  <si>
+    <t>递归、迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107. 二叉树的层序遍历 II</t>
+  </si>
+  <si>
+    <t>二叉树、层序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (i == size-1) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.add(0, path); 或 反转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>637. 二叉树的层平均值</t>
+  </si>
+  <si>
+    <t>429. N 叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>515. 在每个树行中找最大值</t>
+  </si>
+  <si>
+    <t>116. 填充每个节点的下一个右侧节点指针</t>
+  </si>
+  <si>
+    <t>117. 填充每个节点的下一个右侧节点指针 II</t>
+  </si>
+  <si>
+    <t>111. 二叉树的最小深度</t>
+  </si>
+  <si>
+    <t>二叉树、深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>res++;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上提</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1993,7 +2056,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2031,6 +2094,19 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2053,7 +2129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2100,6 +2176,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2448,25 +2527,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E203" sqref="E203"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="20.640625" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="20.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="6"/>
+    <col min="7" max="7" width="20.625" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>77</v>
       </c>
@@ -2509,7 +2588,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>205</v>
       </c>
@@ -2526,7 +2605,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>207</v>
       </c>
@@ -2540,7 +2619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>203</v>
       </c>
@@ -2560,7 +2639,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -2583,7 +2662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>213</v>
       </c>
@@ -2597,7 +2676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>361</v>
       </c>
@@ -2608,7 +2687,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>208</v>
       </c>
@@ -2622,7 +2701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>90</v>
       </c>
@@ -2645,7 +2724,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>212</v>
       </c>
@@ -2662,7 +2741,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>285</v>
       </c>
@@ -2685,7 +2764,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -2705,7 +2784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>272</v>
       </c>
@@ -2722,7 +2801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -2742,7 +2821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>254</v>
       </c>
@@ -2762,7 +2841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>336</v>
       </c>
@@ -2779,7 +2858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>339</v>
       </c>
@@ -2793,7 +2872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>216</v>
       </c>
@@ -2813,7 +2892,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>296</v>
       </c>
@@ -2833,7 +2912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>231</v>
       </c>
@@ -2856,7 +2935,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>260</v>
       </c>
@@ -2873,7 +2952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>423</v>
       </c>
@@ -2887,7 +2966,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>427</v>
       </c>
@@ -2901,7 +2980,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>196</v>
       </c>
@@ -2921,7 +3000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>276</v>
       </c>
@@ -2941,7 +3020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>190</v>
       </c>
@@ -2958,7 +3037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>191</v>
       </c>
@@ -2981,7 +3060,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>362</v>
       </c>
@@ -2998,7 +3077,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>293</v>
       </c>
@@ -3015,7 +3094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>200</v>
       </c>
@@ -3032,7 +3111,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>197</v>
       </c>
@@ -3052,7 +3131,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -3075,7 +3154,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>279</v>
       </c>
@@ -3095,7 +3174,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>239</v>
       </c>
@@ -3115,7 +3194,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>242</v>
       </c>
@@ -3135,7 +3214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>101</v>
       </c>
@@ -3152,7 +3231,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>23</v>
       </c>
@@ -3169,7 +3248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>187</v>
       </c>
@@ -3189,7 +3268,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>365</v>
       </c>
@@ -3200,7 +3279,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>261</v>
       </c>
@@ -3217,7 +3296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>225</v>
       </c>
@@ -3237,7 +3316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>413</v>
       </c>
@@ -3254,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>173</v>
       </c>
@@ -3268,7 +3347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>194</v>
       </c>
@@ -3288,7 +3367,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>273</v>
       </c>
@@ -3308,7 +3387,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>211</v>
       </c>
@@ -3325,7 +3404,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>193</v>
       </c>
@@ -3339,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>241</v>
       </c>
@@ -3359,7 +3438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>218</v>
       </c>
@@ -3376,7 +3455,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>463</v>
       </c>
@@ -3393,7 +3472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>188</v>
       </c>
@@ -3413,7 +3492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>220</v>
       </c>
@@ -3427,7 +3506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>221</v>
       </c>
@@ -3441,7 +3520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>66</v>
       </c>
@@ -3461,7 +3540,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>458</v>
       </c>
@@ -3475,7 +3554,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>192</v>
       </c>
@@ -3492,7 +3571,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>323</v>
       </c>
@@ -3509,7 +3588,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>249</v>
       </c>
@@ -3526,7 +3605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>129</v>
       </c>
@@ -3546,7 +3625,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>71</v>
       </c>
@@ -3566,7 +3645,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>230</v>
       </c>
@@ -3586,7 +3665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>441</v>
       </c>
@@ -3600,7 +3679,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>204</v>
       </c>
@@ -3617,7 +3696,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>449</v>
       </c>
@@ -3631,7 +3710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>439</v>
       </c>
@@ -3648,7 +3727,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>199</v>
       </c>
@@ -3665,7 +3744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>210</v>
       </c>
@@ -3682,7 +3761,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>189</v>
       </c>
@@ -3696,7 +3775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>215</v>
       </c>
@@ -3719,7 +3798,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>174</v>
       </c>
@@ -3736,7 +3815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>147</v>
       </c>
@@ -3759,7 +3838,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>38</v>
       </c>
@@ -3779,7 +3858,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>335</v>
       </c>
@@ -3799,7 +3878,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>184</v>
       </c>
@@ -3822,7 +3901,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>33</v>
       </c>
@@ -3842,7 +3921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>195</v>
       </c>
@@ -3862,7 +3941,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>61</v>
       </c>
@@ -3882,7 +3961,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>57</v>
       </c>
@@ -3899,7 +3978,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>288</v>
       </c>
@@ -3916,7 +3995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>54</v>
       </c>
@@ -3933,7 +4012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>112</v>
       </c>
@@ -3950,7 +4029,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>119</v>
       </c>
@@ -3967,7 +4046,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>148</v>
       </c>
@@ -3984,7 +4063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>137</v>
       </c>
@@ -4004,7 +4083,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>274</v>
       </c>
@@ -4024,7 +4103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>360</v>
       </c>
@@ -4038,7 +4117,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>42</v>
       </c>
@@ -4058,7 +4137,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>171</v>
       </c>
@@ -4069,7 +4148,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>133</v>
       </c>
@@ -4086,7 +4165,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>297</v>
       </c>
@@ -4106,7 +4185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>160</v>
       </c>
@@ -4117,7 +4196,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>156</v>
       </c>
@@ -4134,7 +4213,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>162</v>
       </c>
@@ -4145,7 +4224,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>152</v>
       </c>
@@ -4162,7 +4241,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>268</v>
       </c>
@@ -4185,7 +4264,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>252</v>
       </c>
@@ -4208,7 +4287,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>105</v>
       </c>
@@ -4231,7 +4310,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>277</v>
       </c>
@@ -4251,7 +4330,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>445</v>
       </c>
@@ -4265,7 +4344,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>418</v>
       </c>
@@ -4279,7 +4358,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>265</v>
       </c>
@@ -4299,7 +4378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>291</v>
       </c>
@@ -4310,7 +4389,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>421</v>
       </c>
@@ -4321,7 +4400,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>281</v>
       </c>
@@ -4338,7 +4417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>416</v>
       </c>
@@ -4358,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>275</v>
       </c>
@@ -4378,7 +4457,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>429</v>
       </c>
@@ -4395,7 +4474,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>452</v>
       </c>
@@ -4412,7 +4491,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>454</v>
       </c>
@@ -4432,7 +4511,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>238</v>
       </c>
@@ -4455,7 +4534,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>329</v>
       </c>
@@ -4472,7 +4551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>233</v>
       </c>
@@ -4492,7 +4571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>253</v>
       </c>
@@ -4515,7 +4594,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>235</v>
       </c>
@@ -4535,7 +4614,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>164</v>
       </c>
@@ -4549,7 +4628,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>312</v>
       </c>
@@ -4566,7 +4645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>47</v>
       </c>
@@ -4586,7 +4665,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>228</v>
       </c>
@@ -4606,7 +4685,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>243</v>
       </c>
@@ -4626,7 +4705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>240</v>
       </c>
@@ -4649,7 +4728,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>175</v>
       </c>
@@ -4669,7 +4748,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>280</v>
       </c>
@@ -4692,7 +4771,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>95</v>
       </c>
@@ -4712,7 +4791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>214</v>
       </c>
@@ -4732,7 +4811,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>151</v>
       </c>
@@ -4755,7 +4834,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>457</v>
       </c>
@@ -4769,7 +4848,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>51</v>
       </c>
@@ -4789,7 +4868,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>257</v>
       </c>
@@ -4806,7 +4885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>222</v>
       </c>
@@ -4829,7 +4908,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>28</v>
       </c>
@@ -4849,7 +4928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>307</v>
       </c>
@@ -4866,7 +4945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>182</v>
       </c>
@@ -4886,7 +4965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>81</v>
       </c>
@@ -4906,7 +4985,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>305</v>
       </c>
@@ -4923,7 +5002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>284</v>
       </c>
@@ -4946,7 +5025,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>232</v>
       </c>
@@ -4969,7 +5048,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>167</v>
       </c>
@@ -4986,7 +5065,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>311</v>
       </c>
@@ -5000,7 +5079,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>123</v>
       </c>
@@ -5020,7 +5099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>180</v>
       </c>
@@ -5043,7 +5122,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>206</v>
       </c>
@@ -5060,7 +5139,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>256</v>
       </c>
@@ -5077,7 +5156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>125</v>
       </c>
@@ -5100,7 +5179,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>114</v>
       </c>
@@ -5120,7 +5199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>456</v>
       </c>
@@ -5134,7 +5213,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>282</v>
       </c>
@@ -5154,7 +5233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>357</v>
       </c>
@@ -5165,7 +5244,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>283</v>
       </c>
@@ -5185,7 +5264,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>145</v>
       </c>
@@ -5205,7 +5284,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>271</v>
       </c>
@@ -5222,7 +5301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>287</v>
       </c>
@@ -5239,7 +5318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>464</v>
       </c>
@@ -5256,7 +5335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>87</v>
       </c>
@@ -5273,7 +5352,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>411</v>
       </c>
@@ -5296,7 +5375,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>286</v>
       </c>
@@ -5319,7 +5398,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>432</v>
       </c>
@@ -5339,7 +5418,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>177</v>
       </c>
@@ -5362,7 +5441,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>436</v>
       </c>
@@ -5379,7 +5458,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>437</v>
       </c>
@@ -5396,7 +5475,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>108</v>
       </c>
@@ -5413,7 +5492,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>245</v>
       </c>
@@ -5436,7 +5515,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
         <v>236</v>
       </c>
@@ -5456,7 +5535,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
         <v>263</v>
       </c>
@@ -5476,7 +5555,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
         <v>116</v>
       </c>
@@ -5499,7 +5578,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>258</v>
       </c>
@@ -5519,7 +5598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>224</v>
       </c>
@@ -5539,7 +5618,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>229</v>
       </c>
@@ -5559,7 +5638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>97</v>
       </c>
@@ -5576,7 +5655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>82</v>
       </c>
@@ -5593,7 +5672,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>247</v>
       </c>
@@ -5616,7 +5695,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>202</v>
       </c>
@@ -5630,7 +5709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>289</v>
       </c>
@@ -5650,7 +5729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
         <v>209</v>
       </c>
@@ -5664,7 +5743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
         <v>219</v>
       </c>
@@ -5684,7 +5763,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>466</v>
       </c>
@@ -5698,7 +5777,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>470</v>
       </c>
@@ -5718,7 +5797,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>473</v>
       </c>
@@ -5732,7 +5811,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>476</v>
       </c>
@@ -5752,7 +5831,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>478</v>
       </c>
@@ -5769,7 +5848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>480</v>
       </c>
@@ -5789,7 +5868,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>482</v>
       </c>
@@ -5806,7 +5885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
         <v>483</v>
       </c>
@@ -5820,7 +5899,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="10" t="s">
         <v>487</v>
       </c>
@@ -5837,7 +5916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
         <v>47</v>
       </c>
@@ -5854,7 +5933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
         <v>493</v>
       </c>
@@ -5874,7 +5953,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
         <v>495</v>
       </c>
@@ -5888,7 +5967,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="s">
         <v>498</v>
       </c>
@@ -5905,7 +5984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
         <v>500</v>
       </c>
@@ -5925,7 +6004,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
         <v>503</v>
       </c>
@@ -5945,7 +6024,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>505</v>
       </c>
@@ -5965,7 +6044,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
         <v>508</v>
       </c>
@@ -5979,7 +6058,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="s">
         <v>512</v>
       </c>
@@ -5999,7 +6078,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
         <v>515</v>
       </c>
@@ -6016,7 +6095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>516</v>
       </c>
@@ -6036,7 +6115,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
         <v>520</v>
       </c>
@@ -6053,7 +6132,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
         <v>522</v>
       </c>
@@ -6070,7 +6149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>526</v>
       </c>
@@ -6087,7 +6166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>524</v>
       </c>
@@ -6104,7 +6183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
         <v>527</v>
       </c>
@@ -6121,7 +6200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
         <v>530</v>
       </c>
@@ -6141,7 +6220,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
         <v>533</v>
       </c>
@@ -6155,7 +6234,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A203" s="10" t="s">
         <v>536</v>
       </c>
@@ -6164,6 +6243,248 @@
       </c>
       <c r="D203" s="8" t="s">
         <v>537</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A204" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G204" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A205" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G205" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A206" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E206" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G206" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A207" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E207" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A208" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E208" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208" s="14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A209" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E209" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G209" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A210" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A211" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A212" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A213" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A214" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A215" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G215" s="14" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A216" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E216" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G216" s="17" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -6491,10 +6812,36 @@
     <hyperlink ref="E114" r:id="rId320" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{08BEADD3-1DAF-455B-AAA4-25081BF174A1}"/>
     <hyperlink ref="A202" r:id="rId321" display="https://leetcode.cn/problems/count-number-of-texts/" xr:uid="{229C0AF2-7C90-4301-B784-B482BA76B6E3}"/>
     <hyperlink ref="A203" r:id="rId322" display="https://leetcode.cn/problems/find-closest-number-to-zero/" xr:uid="{FA084141-B119-4D9D-ABF5-F7A3389E7EA1}"/>
+    <hyperlink ref="A204" r:id="rId323" display="https://leetcode.cn/problems/binary-tree-preorder-traversal/" xr:uid="{A363BEEA-7BE6-456D-804D-7BDCB7E85DFB}"/>
+    <hyperlink ref="A205" r:id="rId324" display="https://leetcode.cn/problems/binary-tree-postorder-traversal/" xr:uid="{B9D197B4-5C37-4A5A-A04B-CF78AB20E147}"/>
+    <hyperlink ref="A206" r:id="rId325" display="https://leetcode.cn/problems/binary-tree-inorder-traversal/" xr:uid="{69C20845-0A3D-46F4-B444-CCFBE6E145DF}"/>
+    <hyperlink ref="E204" r:id="rId326" location="%E6%80%9D%E8%B7%AF" xr:uid="{98F6803B-8B83-416E-BB2C-1DEB8182DC48}"/>
+    <hyperlink ref="E205" r:id="rId327" location="%E6%80%9D%E8%B7%AF" xr:uid="{1897748C-87BB-4965-9122-C18B341FD11F}"/>
+    <hyperlink ref="E206" r:id="rId328" location="%E6%80%9D%E8%B7%AF" xr:uid="{5AAB9E5A-B815-4599-8632-18036AFBCA56}"/>
+    <hyperlink ref="A207" r:id="rId329" display="https://leetcode.cn/problems/binary-tree-level-order-traversal/" xr:uid="{47A5225C-E21F-4CDB-B91E-B037F15E66B5}"/>
+    <hyperlink ref="E207" r:id="rId330" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{80D4DA8D-8725-4E23-8B72-625D6B2399C8}"/>
+    <hyperlink ref="A208" r:id="rId331" display="https://leetcode.cn/problems/binary-tree-level-order-traversal-ii/" xr:uid="{D38A3DEC-21B5-4E17-8300-F5CDEABAE95B}"/>
+    <hyperlink ref="E208" r:id="rId332" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{D14E61DA-9CA2-4C2F-8D77-DA86B2095FE2}"/>
+    <hyperlink ref="A209" r:id="rId333" display="https://leetcode.cn/problems/binary-tree-right-side-view/" xr:uid="{A94BE682-8FEF-4F77-A6A6-1534F6170AAF}"/>
+    <hyperlink ref="E209" r:id="rId334" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{157959E8-1676-4092-960B-BD1BAB6322C0}"/>
+    <hyperlink ref="A210" r:id="rId335" display="https://leetcode.cn/problems/average-of-levels-in-binary-tree/" xr:uid="{548700C6-87D6-4750-8347-AE75CB5503B2}"/>
+    <hyperlink ref="E210" r:id="rId336" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{A1BD98FE-922C-4415-86C7-6C62E6A2EB3A}"/>
+    <hyperlink ref="A211" r:id="rId337" display="https://leetcode.cn/problems/n-ary-tree-level-order-traversal/" xr:uid="{DB1F1A45-50E7-4BE5-BC27-E3A5F0B77994}"/>
+    <hyperlink ref="E211" r:id="rId338" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{7026BEA4-FFE1-4096-B74B-18EE89FBC364}"/>
+    <hyperlink ref="A212" r:id="rId339" display="https://leetcode.cn/problems/find-largest-value-in-each-tree-row/" xr:uid="{2D9F9242-5DD7-412B-9B91-0324111C907B}"/>
+    <hyperlink ref="E212" r:id="rId340" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{A2D8F24C-89FF-48CD-9847-5EABD20E5A80}"/>
+    <hyperlink ref="A213" r:id="rId341" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node/" xr:uid="{FF0B08ED-1029-4393-B66C-B3B18518EA93}"/>
+    <hyperlink ref="E213" r:id="rId342" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{F0B76380-5057-4A8B-8B43-B4462F3760D5}"/>
+    <hyperlink ref="A214" r:id="rId343" display="https://leetcode.cn/problems/populating-next-right-pointers-in-each-node-ii/" xr:uid="{1A1AE58D-05B7-4CD7-A7D8-091047D2C221}"/>
+    <hyperlink ref="E214" r:id="rId344" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{EAC85DDC-91B8-4291-8C7C-02883E894FC3}"/>
+    <hyperlink ref="A215" r:id="rId345" display="https://leetcode.cn/problems/maximum-depth-of-binary-tree/" xr:uid="{C713E8BB-D494-44B5-A38F-4DF7C24A82BA}"/>
+    <hyperlink ref="E215" r:id="rId346" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{5862B7B3-DE27-4C51-84AC-4E300421C5A2}"/>
+    <hyperlink ref="E216" r:id="rId347" location="_102-%E4%BA%8C%E5%8F%89%E6%A0%91%E7%9A%84%E5%B1%82%E5%BA%8F%E9%81%8D%E5%8E%86" xr:uid="{72902DFB-E152-4455-8BE8-DBD03A1711B9}"/>
+    <hyperlink ref="A216" r:id="rId348" display="https://leetcode.cn/problems/minimum-depth-of-binary-tree/" xr:uid="{D9728368-8131-4003-B021-2F18AFC78B4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId323"/>
+    <tablePart r:id="rId349"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C77C056-3ED3-4C3B-8B47-D9EB1115597B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A284D2CA-1568-4536-8191-85D263193EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13590" yWindow="2925" windowWidth="22425" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="560">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1340,10 +1340,6 @@
   </si>
   <si>
     <t>2024.11.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.11.26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2054,6 +2050,29 @@
   <si>
     <t>唯独中序遍历不行</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1561. 你可以获得的最大硬币数目</t>
+  </si>
+  <si>
+    <t>2025.01.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>222. 完全二叉树的节点个数</t>
+  </si>
+  <si>
+    <t>记得加本身的1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110. 平衡二叉树</t>
+  </si>
+  <si>
+    <t>257. 二叉树的所有路径</t>
+  </si>
+  <si>
+    <t>404. 左叶子之和</t>
   </si>
 </sst>
 </file>
@@ -2531,25 +2550,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209:XFD209"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G218" sqref="G218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="7" width="20.640625" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="20.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="6"/>
+    <col min="7" max="7" width="20.625" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2572,7 +2591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>77</v>
       </c>
@@ -2583,7 +2602,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F2" s="6">
         <v>5</v>
@@ -2592,7 +2611,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>205</v>
       </c>
@@ -2603,7 +2622,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>14</v>
@@ -2612,7 +2631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>207</v>
       </c>
@@ -2620,41 +2639,41 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>207</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>203</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
@@ -2663,9 +2682,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>58</v>
@@ -2674,13 +2693,13 @@
         <v>41</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -2703,7 +2722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>213</v>
       </c>
@@ -2711,13 +2730,13 @@
         <v>79</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F9" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>360</v>
       </c>
@@ -2728,27 +2747,27 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>540</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>208</v>
       </c>
@@ -2756,13 +2775,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F12" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>90</v>
       </c>
@@ -2773,7 +2792,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>92</v>
@@ -2785,27 +2804,27 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>548</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>549</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>212</v>
       </c>
@@ -2813,7 +2832,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F15" s="6">
         <v>3</v>
@@ -2822,7 +2841,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>285</v>
       </c>
@@ -2833,7 +2852,7 @@
         <v>94</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>14</v>
@@ -2845,7 +2864,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -2865,41 +2884,41 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>272</v>
       </c>
@@ -2916,7 +2935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -2936,7 +2955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>254</v>
       </c>
@@ -2947,7 +2966,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>14</v>
@@ -2956,7 +2975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>336</v>
       </c>
@@ -2973,7 +2992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>339</v>
       </c>
@@ -2987,7 +3006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>216</v>
       </c>
@@ -2998,7 +3017,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F25" s="6">
         <v>3</v>
@@ -3007,7 +3026,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>296</v>
       </c>
@@ -3021,13 +3040,13 @@
         <v>366</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F26" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>231</v>
       </c>
@@ -3038,7 +3057,7 @@
         <v>94</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>124</v>
@@ -3047,10 +3066,10 @@
         <v>4</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>260</v>
       </c>
@@ -3061,41 +3080,41 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>196</v>
       </c>
@@ -3106,7 +3125,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>86</v>
@@ -3115,7 +3134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>276</v>
       </c>
@@ -3126,7 +3145,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>14</v>
@@ -3135,7 +3154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>190</v>
       </c>
@@ -3146,24 +3165,24 @@
         <v>41</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F33" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>191</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>332</v>
@@ -3172,10 +3191,10 @@
         <v>4</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>361</v>
       </c>
@@ -3192,9 +3211,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>341</v>
@@ -3203,18 +3222,18 @@
         <v>6</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>341</v>
@@ -3223,16 +3242,16 @@
         <v>6</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>293</v>
       </c>
@@ -3249,7 +3268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>200</v>
       </c>
@@ -3266,38 +3285,38 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>197</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F40" s="6">
         <v>4</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>14</v>
@@ -3306,12 +3325,12 @@
         <v>5</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>58</v>
@@ -3320,56 +3339,56 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>279</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F44" s="6">
         <v>3</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>239</v>
       </c>
@@ -3380,7 +3399,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F45" s="6">
         <v>3</v>
@@ -3389,7 +3408,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>242</v>
       </c>
@@ -3400,7 +3419,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>100</v>
@@ -3409,7 +3428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>101</v>
       </c>
@@ -3426,7 +3445,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>23</v>
       </c>
@@ -3443,7 +3462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>187</v>
       </c>
@@ -3451,7 +3470,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>328</v>
@@ -3463,7 +3482,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>364</v>
       </c>
@@ -3474,7 +3493,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>261</v>
       </c>
@@ -3485,13 +3504,13 @@
         <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F51" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>225</v>
       </c>
@@ -3502,7 +3521,7 @@
         <v>79</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>21</v>
@@ -3511,26 +3530,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F53" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>48</v>
@@ -3539,16 +3558,16 @@
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>173</v>
       </c>
@@ -3556,24 +3575,24 @@
         <v>27</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F55" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>194</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F56" s="6">
         <v>5</v>
@@ -3582,7 +3601,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>273</v>
       </c>
@@ -3593,27 +3612,27 @@
         <v>79</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F57" s="6">
         <v>3</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>211</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>14</v>
@@ -3622,10 +3641,10 @@
         <v>4</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>193</v>
       </c>
@@ -3633,13 +3652,13 @@
         <v>6</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F59" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>241</v>
       </c>
@@ -3650,7 +3669,7 @@
         <v>79</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>14</v>
@@ -3659,7 +3678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>218</v>
       </c>
@@ -3667,7 +3686,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F61" s="6">
         <v>3</v>
@@ -3676,26 +3695,26 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>44</v>
@@ -3704,13 +3723,13 @@
         <v>41</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>188</v>
       </c>
@@ -3721,7 +3740,7 @@
         <v>79</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>14</v>
@@ -3730,7 +3749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>220</v>
       </c>
@@ -3738,13 +3757,13 @@
         <v>79</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F65" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>221</v>
       </c>
@@ -3752,13 +3771,13 @@
         <v>13</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F66" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>66</v>
       </c>
@@ -3778,21 +3797,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>192</v>
       </c>
@@ -3800,7 +3819,7 @@
         <v>41</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F69" s="6">
         <v>3</v>
@@ -3809,7 +3828,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>323</v>
       </c>
@@ -3826,7 +3845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>249</v>
       </c>
@@ -3837,13 +3856,13 @@
         <v>13</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F71" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>129</v>
       </c>
@@ -3863,7 +3882,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>71</v>
       </c>
@@ -3883,7 +3902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>230</v>
       </c>
@@ -3894,29 +3913,29 @@
         <v>13</v>
       </c>
       <c r="D74" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>388</v>
       </c>
       <c r="F74" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>27</v>
@@ -3925,38 +3944,38 @@
         <v>43</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>522</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>523</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>14</v>
@@ -3965,57 +3984,57 @@
         <v>3</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>27</v>
@@ -4024,24 +4043,24 @@
         <v>43</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="G83" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="G83" s="15" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>199</v>
       </c>
@@ -4052,13 +4071,13 @@
         <v>13</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F84" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>210</v>
       </c>
@@ -4066,33 +4085,33 @@
         <v>13</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F85" s="6">
         <v>3</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>189</v>
       </c>
@@ -4100,13 +4119,13 @@
         <v>94</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F87" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>215</v>
       </c>
@@ -4117,7 +4136,7 @@
         <v>79</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>92</v>
@@ -4129,7 +4148,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>174</v>
       </c>
@@ -4140,13 +4159,13 @@
         <v>6</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F89" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>147</v>
       </c>
@@ -4157,7 +4176,7 @@
         <v>94</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E90" s="9" t="s">
         <v>14</v>
@@ -4166,10 +4185,10 @@
         <v>6</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>38</v>
       </c>
@@ -4189,7 +4208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>335</v>
       </c>
@@ -4200,16 +4219,16 @@
         <v>94</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F92" s="6">
         <v>4</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>184</v>
       </c>
@@ -4220,7 +4239,7 @@
         <v>41</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>92</v>
@@ -4232,9 +4251,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>48</v>
@@ -4243,13 +4262,13 @@
         <v>41</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E94" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>33</v>
       </c>
@@ -4269,7 +4288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>195</v>
       </c>
@@ -4280,16 +4299,16 @@
         <v>94</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F96" s="6">
         <v>4</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>61</v>
       </c>
@@ -4309,7 +4328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>57</v>
       </c>
@@ -4326,24 +4345,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>288</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F99" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>54</v>
       </c>
@@ -4360,7 +4379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>112</v>
       </c>
@@ -4377,7 +4396,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>119</v>
       </c>
@@ -4394,7 +4413,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>148</v>
       </c>
@@ -4411,7 +4430,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>137</v>
       </c>
@@ -4431,7 +4450,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>274</v>
       </c>
@@ -4442,7 +4461,7 @@
         <v>79</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>318</v>
@@ -4451,24 +4470,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>359</v>
       </c>
@@ -4482,7 +4501,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>42</v>
       </c>
@@ -4502,7 +4521,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>171</v>
       </c>
@@ -4513,7 +4532,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>133</v>
       </c>
@@ -4530,7 +4549,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>297</v>
       </c>
@@ -4550,7 +4569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>160</v>
       </c>
@@ -4561,7 +4580,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>156</v>
       </c>
@@ -4578,7 +4597,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>162</v>
       </c>
@@ -4589,7 +4608,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>152</v>
       </c>
@@ -4606,7 +4625,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>268</v>
       </c>
@@ -4617,7 +4636,7 @@
         <v>13</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>270</v>
@@ -4629,7 +4648,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>252</v>
       </c>
@@ -4640,7 +4659,7 @@
         <v>79</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E117" s="9" t="s">
         <v>8</v>
@@ -4652,7 +4671,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>105</v>
       </c>
@@ -4663,7 +4682,7 @@
         <v>79</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>106</v>
@@ -4675,7 +4694,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>277</v>
       </c>
@@ -4686,7 +4705,7 @@
         <v>79</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F119" s="6">
         <v>3</v>
@@ -4695,12 +4714,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>444</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>445</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>27</v>
@@ -4709,9 +4728,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>183</v>
@@ -4720,40 +4739,40 @@
         <v>27</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G123" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="G123" s="14" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>104</v>
@@ -4762,15 +4781,15 @@
         <v>13</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E124" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>104</v>
@@ -4779,13 +4798,13 @@
         <v>13</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>265</v>
       </c>
@@ -4796,7 +4815,7 @@
         <v>41</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>266</v>
@@ -4805,7 +4824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>291</v>
       </c>
@@ -4816,18 +4835,18 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>281</v>
       </c>
@@ -4838,15 +4857,15 @@
         <v>13</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F129" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>144</v>
@@ -4855,7 +4874,7 @@
         <v>41</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>26</v>
@@ -4864,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>275</v>
       </c>
@@ -4875,18 +4894,18 @@
         <v>13</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F131" s="6">
         <v>3</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>183</v>
@@ -4895,12 +4914,12 @@
         <v>27</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>159</v>
@@ -4909,15 +4928,15 @@
         <v>6</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="G133" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="G133" s="14" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>104</v>
@@ -4926,15 +4945,15 @@
         <v>13</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E134" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>104</v>
@@ -4943,16 +4962,16 @@
         <v>13</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E135" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G135" s="16" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>238</v>
       </c>
@@ -4963,7 +4982,7 @@
         <v>94</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>237</v>
@@ -4972,10 +4991,10 @@
         <v>3</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>329</v>
       </c>
@@ -4992,7 +5011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>233</v>
       </c>
@@ -5003,7 +5022,7 @@
         <v>79</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>21</v>
@@ -5012,24 +5031,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>497</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>253</v>
       </c>
@@ -5040,7 +5059,7 @@
         <v>79</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E140" s="9" t="s">
         <v>14</v>
@@ -5049,12 +5068,12 @@
         <v>5</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>48</v>
@@ -5063,16 +5082,16 @@
         <v>13</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>235</v>
       </c>
@@ -5083,16 +5102,16 @@
         <v>41</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F142" s="6">
         <v>3</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>164</v>
       </c>
@@ -5106,7 +5125,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>312</v>
       </c>
@@ -5123,7 +5142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>47</v>
       </c>
@@ -5143,24 +5162,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>228</v>
       </c>
@@ -5171,16 +5190,16 @@
         <v>94</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F147" s="6">
         <v>3</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>243</v>
       </c>
@@ -5191,7 +5210,7 @@
         <v>94</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>92</v>
@@ -5200,7 +5219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>240</v>
       </c>
@@ -5211,7 +5230,7 @@
         <v>79</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>96</v>
@@ -5220,10 +5239,10 @@
         <v>2</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>175</v>
       </c>
@@ -5234,16 +5253,16 @@
         <v>13</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>367</v>
+        <v>554</v>
       </c>
       <c r="F150" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G150" s="14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>280</v>
       </c>
@@ -5254,7 +5273,7 @@
         <v>79</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E151" s="9" t="s">
         <v>302</v>
@@ -5263,10 +5282,10 @@
         <v>4</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>95</v>
       </c>
@@ -5280,30 +5299,30 @@
         <v>63</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F152" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E153" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>214</v>
       </c>
@@ -5314,7 +5333,7 @@
         <v>79</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F154" s="6">
         <v>3</v>
@@ -5323,7 +5342,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>151</v>
       </c>
@@ -5334,7 +5353,7 @@
         <v>94</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E155" s="9" t="s">
         <v>107</v>
@@ -5343,24 +5362,24 @@
         <v>5</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>51</v>
       </c>
@@ -5380,7 +5399,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>257</v>
       </c>
@@ -5391,15 +5410,15 @@
         <v>13</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F158" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>48</v>
@@ -5408,33 +5427,33 @@
         <v>6</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E159" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>515</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>222</v>
       </c>
@@ -5445,7 +5464,7 @@
         <v>13</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>124</v>
@@ -5457,7 +5476,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>28</v>
       </c>
@@ -5477,7 +5496,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
         <v>307</v>
       </c>
@@ -5494,7 +5513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
         <v>182</v>
       </c>
@@ -5505,7 +5524,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>92</v>
@@ -5514,7 +5533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
         <v>81</v>
       </c>
@@ -5534,7 +5553,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>305</v>
       </c>
@@ -5551,7 +5570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>284</v>
       </c>
@@ -5574,7 +5593,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>232</v>
       </c>
@@ -5585,7 +5604,7 @@
         <v>79</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>14</v>
@@ -5594,10 +5613,10 @@
         <v>3</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>167</v>
       </c>
@@ -5614,24 +5633,24 @@
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>311</v>
       </c>
@@ -5645,7 +5664,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>123</v>
       </c>
@@ -5656,7 +5675,7 @@
         <v>41</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>124</v>
@@ -5665,7 +5684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>180</v>
       </c>
@@ -5676,7 +5695,7 @@
         <v>41</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>181</v>
@@ -5688,9 +5707,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>120</v>
@@ -5699,36 +5718,36 @@
         <v>6</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B175" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>499</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="10" t="s">
         <v>206</v>
       </c>
@@ -5736,16 +5755,16 @@
         <v>13</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F176" s="6">
         <v>3</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>256</v>
       </c>
@@ -5756,33 +5775,33 @@
         <v>41</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F177" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>125</v>
       </c>
@@ -5793,7 +5812,7 @@
         <v>79</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>127</v>
@@ -5802,21 +5821,21 @@
         <v>5</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>114</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>115</v>
@@ -5825,9 +5844,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>316</v>
@@ -5836,18 +5855,18 @@
         <v>6</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>24</v>
@@ -5856,10 +5875,10 @@
         <v>41</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
         <v>282</v>
       </c>
@@ -5870,7 +5889,7 @@
         <v>13</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>14</v>
@@ -5879,7 +5898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A184" s="10" t="s">
         <v>356</v>
       </c>
@@ -5890,24 +5909,24 @@
         <v>357</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
         <v>283</v>
       </c>
@@ -5918,16 +5937,16 @@
         <v>13</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F186" s="6">
         <v>3</v>
       </c>
       <c r="G186" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
         <v>145</v>
       </c>
@@ -5947,7 +5966,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="s">
         <v>271</v>
       </c>
@@ -5958,47 +5977,47 @@
         <v>41</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F188" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
         <v>287</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F189" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B190" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>464</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>87</v>
       </c>
@@ -6015,9 +6034,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>126</v>
@@ -6026,7 +6045,7 @@
         <v>13</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>14</v>
@@ -6035,10 +6054,10 @@
         <v>1</v>
       </c>
       <c r="G192" s="15" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="s">
         <v>286</v>
       </c>
@@ -6049,7 +6068,7 @@
         <v>94</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>14</v>
@@ -6061,27 +6080,27 @@
         <v>355</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E194" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G194" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="G194" s="16" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>177</v>
       </c>
@@ -6092,7 +6111,7 @@
         <v>41</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>179</v>
@@ -6104,12 +6123,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>94</v>
@@ -6118,15 +6137,15 @@
         <v>34</v>
       </c>
       <c r="E196" s="9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>94</v>
@@ -6135,10 +6154,10 @@
         <v>34</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>108</v>
       </c>
@@ -6155,7 +6174,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>245</v>
       </c>
@@ -6166,7 +6185,7 @@
         <v>79</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>246</v>
@@ -6175,10 +6194,10 @@
         <v>2</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
         <v>236</v>
       </c>
@@ -6189,16 +6208,16 @@
         <v>41</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F200" s="6">
         <v>3</v>
       </c>
       <c r="G200" s="14" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
         <v>263</v>
       </c>
@@ -6209,16 +6228,16 @@
         <v>13</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F201" s="6">
         <v>3</v>
       </c>
       <c r="G201" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
         <v>116</v>
       </c>
@@ -6229,7 +6248,7 @@
         <v>94</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E202" s="9" t="s">
         <v>118</v>
@@ -6238,10 +6257,10 @@
         <v>4</v>
       </c>
       <c r="G202" s="14" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A203" s="10" t="s">
         <v>258</v>
       </c>
@@ -6252,7 +6271,7 @@
         <v>13</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>21</v>
@@ -6261,7 +6280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A204" s="10" t="s">
         <v>224</v>
       </c>
@@ -6269,7 +6288,7 @@
         <v>13</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E204" s="9" t="s">
         <v>46</v>
@@ -6278,10 +6297,10 @@
         <v>4</v>
       </c>
       <c r="G204" s="14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
         <v>229</v>
       </c>
@@ -6292,7 +6311,7 @@
         <v>13</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>92</v>
@@ -6301,7 +6320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
         <v>97</v>
       </c>
@@ -6318,7 +6337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="s">
         <v>82</v>
       </c>
@@ -6335,7 +6354,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
         <v>247</v>
       </c>
@@ -6346,7 +6365,7 @@
         <v>94</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>124</v>
@@ -6358,7 +6377,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>202</v>
       </c>
@@ -6369,7 +6388,7 @@
         <v>41</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E209" s="9" t="s">
         <v>14</v>
@@ -6378,18 +6397,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A210" s="10" t="s">
         <v>289</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>14</v>
@@ -6398,7 +6417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A211" s="10" t="s">
         <v>209</v>
       </c>
@@ -6406,13 +6425,13 @@
         <v>13</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F211" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A212" s="10" t="s">
         <v>219</v>
       </c>
@@ -6423,7 +6442,7 @@
         <v>94</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F212" s="6">
         <v>3</v>
@@ -6432,30 +6451,111 @@
         <v>349</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E213" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G213" s="14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="A214" s="10"/>
-      <c r="C214" s="7"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A214" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>554</v>
+      </c>
       <c r="E214" s="9"/>
+    </row>
+    <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A215" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G215" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A216" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E216" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A217" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A218" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E218" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6807,10 +6907,19 @@
     <hyperlink ref="A14" r:id="rId345" display="https://leetcode.cn/problems/minimum-depth-of-binary-tree/" xr:uid="{D9728368-8131-4003-B021-2F18AFC78B4C}"/>
     <hyperlink ref="E78" r:id="rId346" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{81CAA0A8-8752-4618-9D62-09BBBFFF2C27}"/>
     <hyperlink ref="E3" r:id="rId347" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{D6275CE0-A5A1-49EA-95B5-AEEF25043C1A}"/>
+    <hyperlink ref="A214" r:id="rId348" display="https://leetcode.cn/problems/maximum-number-of-coins-you-can-get/" xr:uid="{6253DCFD-BC5B-475C-B48A-6312D8994C29}"/>
+    <hyperlink ref="A215" r:id="rId349" display="https://leetcode.cn/problems/count-complete-tree-nodes/" xr:uid="{F930D6BF-CA2D-4A54-B2D3-48894D2C1667}"/>
+    <hyperlink ref="A216" r:id="rId350" display="https://leetcode.cn/problems/balanced-binary-tree/" xr:uid="{C1BECD37-06E7-4598-B8DB-061CBE7524E6}"/>
+    <hyperlink ref="E215" r:id="rId351" xr:uid="{383058B6-56FE-4767-9EFE-11985B0ACFF7}"/>
+    <hyperlink ref="E216" r:id="rId352" xr:uid="{8E965AA3-76D1-4573-AC6D-DBBF9F8EA2E5}"/>
+    <hyperlink ref="A217" r:id="rId353" display="https://leetcode.cn/problems/binary-tree-paths/" xr:uid="{24B65BC3-D63A-4953-B234-BC917C774B36}"/>
+    <hyperlink ref="E217" r:id="rId354" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{3B4B3FB6-A43D-4361-BFCC-48E71B3DD453}"/>
+    <hyperlink ref="A218" r:id="rId355" display="https://leetcode.cn/problems/sum-of-left-leaves/" xr:uid="{45E92AA8-EE9D-4B26-9FCD-76DEC3E2C4D9}"/>
+    <hyperlink ref="E218" r:id="rId356" xr:uid="{DE2D445A-E5A2-4AA6-BDD7-7B4DEA2D6E4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId348"/>
+    <tablePart r:id="rId357"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A284D2CA-1568-4536-8191-85D263193EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F0EDF6-D057-4D9C-881B-722A4F55BACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13590" yWindow="2925" windowWidth="22425" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="568">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2073,6 +2073,34 @@
   </si>
   <si>
     <t>404. 左叶子之和</t>
+  </si>
+  <si>
+    <t>513. 找树左下角的值</t>
+  </si>
+  <si>
+    <t>层序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.01.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112. 路径总和</t>
+  </si>
+  <si>
+    <t>113. 路径总和 II</t>
+  </si>
+  <si>
+    <t>递归、提前返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106. 从中序与后序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>二叉树构造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2550,10 +2578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G218" sqref="G218"/>
+      <selection activeCell="I223" sqref="I223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6554,6 +6582,91 @@
         <v>554</v>
       </c>
       <c r="E218" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A219" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E219" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A220" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A221" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A222" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E222" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A223" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="E223" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6916,10 +7029,20 @@
     <hyperlink ref="E217" r:id="rId354" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{3B4B3FB6-A43D-4361-BFCC-48E71B3DD453}"/>
     <hyperlink ref="A218" r:id="rId355" display="https://leetcode.cn/problems/sum-of-left-leaves/" xr:uid="{45E92AA8-EE9D-4B26-9FCD-76DEC3E2C4D9}"/>
     <hyperlink ref="E218" r:id="rId356" xr:uid="{DE2D445A-E5A2-4AA6-BDD7-7B4DEA2D6E4D}"/>
+    <hyperlink ref="A219" r:id="rId357" display="https://leetcode.cn/problems/find-bottom-left-tree-value/" xr:uid="{605FF5ED-AF07-4B3C-997C-08D492E45CCC}"/>
+    <hyperlink ref="E219" r:id="rId358" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{A2AE7B1C-E34F-4D80-9E21-2DB694BBA70E}"/>
+    <hyperlink ref="A220" r:id="rId359" display="https://leetcode.cn/problems/path-sum/" xr:uid="{03532BB2-4E89-494A-8802-8347D5114E0B}"/>
+    <hyperlink ref="E220" r:id="rId360" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{D197415D-351F-446B-9C9E-03F06E868673}"/>
+    <hyperlink ref="A221" r:id="rId361" display="https://leetcode.cn/problems/path-sum-ii/" xr:uid="{329C8E00-A066-4945-8956-A6F8ED53A18C}"/>
+    <hyperlink ref="E221" r:id="rId362" location="%E5%85%B6%E4%BB%96%E8%AF%AD%E8%A8%80%E7%89%88%E6%9C%AC" xr:uid="{7C5C3F77-D704-4BBB-B0E6-B9BC2AC892F8}"/>
+    <hyperlink ref="A222" r:id="rId363" display="https://leetcode.cn/problems/construct-binary-tree-from-inorder-and-postorder-traversal/" xr:uid="{3E7EFB2F-8AEC-45A6-BE9F-EC92BE5A99CC}"/>
+    <hyperlink ref="A223" r:id="rId364" display="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-inorder-traversal/" xr:uid="{32EEC8BE-6003-46DD-9E50-476A3C61F75C}"/>
+    <hyperlink ref="E222" r:id="rId365" location="%E6%80%9D%E8%B7%AF" xr:uid="{3E5E0DD5-5351-4BDD-A84B-DF8F6DCFC6EA}"/>
+    <hyperlink ref="E223" r:id="rId366" location="%E6%80%9D%E8%B7%AF" xr:uid="{3324E13D-AF5D-47ED-85B8-024405BDEC52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId357"/>
+    <tablePart r:id="rId367"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F0EDF6-D057-4D9C-881B-722A4F55BACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B0BAF9-1B47-4232-A4FC-5D1189622B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13590" yWindow="2925" windowWidth="22425" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="569">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2100,6 +2100,13 @@
   </si>
   <si>
     <t>二叉树构造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 9 20 # # 15 7
+preorder = [3,9,20,15,7]
+inorder = [9,3,15,20,7] 
+postorder = [9,15,7,20,3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2581,7 +2588,7 @@
   <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I223" sqref="I223"/>
+      <selection activeCell="G222" sqref="G222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6644,13 +6651,16 @@
         <v>567</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D222" s="8" t="s">
         <v>562</v>
       </c>
       <c r="E222" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="G222" s="15" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">

--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C5A65F-4260-48AE-8DA9-CDE9A38B36BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76A7182-99D4-415F-A40C-1625E8AA2C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2263" yWindow="2263" windowWidth="16457" windowHeight="8426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="586">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2158,6 +2158,16 @@
   <si>
     <t>数学、模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40. 组合总和 II</t>
+  </si>
+  <si>
+    <t>2025.01.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Krahets</t>
   </si>
 </sst>
 </file>
@@ -2635,10 +2645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G228"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226:XFD226"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5781,13 +5791,13 @@
         <v>6</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>365</v>
+        <v>584</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F173" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -6843,6 +6853,23 @@
       </c>
       <c r="G228" s="14" t="s">
         <v>466</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E229" s="9" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -7226,10 +7253,12 @@
     <hyperlink ref="A93" r:id="rId376" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{3E15CC50-0479-40F6-A46D-60B9456C12A7}"/>
     <hyperlink ref="A99" r:id="rId377" display="https://leetcode.cn/problems/minimum-money-required-before-transactions/" xr:uid="{A89F13A8-8C3C-43F7-A17A-E6D934DD82F6}"/>
     <hyperlink ref="E99" r:id="rId378" xr:uid="{D09F6F65-C6F2-4667-A584-604301FB743C}"/>
+    <hyperlink ref="A229" r:id="rId379" display="https://leetcode.cn/problems/combination-sum-ii/" xr:uid="{4F93527E-1404-46CA-BAC0-315F0EE2D7AC}"/>
+    <hyperlink ref="E229" r:id="rId380" xr:uid="{0AF6758E-BBC9-43B1-BC8A-DDD4298B58DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId379"/>
+    <tablePart r:id="rId381"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76A7182-99D4-415F-A40C-1625E8AA2C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BA9E9B-C17A-4F43-97DE-F57E7AF30104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2263" yWindow="2263" windowWidth="16457" windowHeight="8426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="591">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2168,6 +2168,23 @@
   </si>
   <si>
     <t>Krahets</t>
+  </si>
+  <si>
+    <t>235. 二叉搜索树的最近公共祖先</t>
+  </si>
+  <si>
+    <t>2025.01.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>701. 二叉搜索树中的插入操作</t>
+  </si>
+  <si>
+    <t>450. 删除二叉搜索树中的节点</t>
+  </si>
+  <si>
+    <t>root.left = deleteNode(root.left, key); // 注意不是直接return！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2645,10 +2662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E229" sqref="E229"/>
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -6870,6 +6887,60 @@
       </c>
       <c r="E229" s="9" t="s">
         <v>585</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="E230" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="E231" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="E232" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G232" s="14" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -7255,10 +7326,16 @@
     <hyperlink ref="E99" r:id="rId378" xr:uid="{D09F6F65-C6F2-4667-A584-604301FB743C}"/>
     <hyperlink ref="A229" r:id="rId379" display="https://leetcode.cn/problems/combination-sum-ii/" xr:uid="{4F93527E-1404-46CA-BAC0-315F0EE2D7AC}"/>
     <hyperlink ref="E229" r:id="rId380" xr:uid="{0AF6758E-BBC9-43B1-BC8A-DDD4298B58DC}"/>
+    <hyperlink ref="A230" r:id="rId381" display="https://leetcode.cn/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{8860768E-4F64-4B3B-98EC-BF7A17FA992E}"/>
+    <hyperlink ref="E230" r:id="rId382" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{AA67F91A-6273-43E9-AAE2-A65FC5D48A3B}"/>
+    <hyperlink ref="E232" r:id="rId383" location="%E7%AE%97%E6%B3%95%E5%85%AC%E5%BC%80%E8%AF%BE" xr:uid="{6F24E2BA-88C0-465F-8F6A-7F082BD77BE1}"/>
+    <hyperlink ref="E231" r:id="rId384" location="%E6%80%9D%E8%B7%AF" xr:uid="{793C88C0-56FA-4E22-A285-954FA597452D}"/>
+    <hyperlink ref="A231" r:id="rId385" display="https://leetcode.cn/problems/insert-into-a-binary-search-tree/" xr:uid="{B777DDFF-8FD6-4FA5-B66A-CC8DE3A98CF8}"/>
+    <hyperlink ref="A232" r:id="rId386" display="https://leetcode.cn/problems/delete-node-in-a-bst/" xr:uid="{C2CBFB69-7B0B-45C0-A9AB-8BB9AFE89B7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId381"/>
+    <tablePart r:id="rId387"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BA9E9B-C17A-4F43-97DE-F57E7AF30104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CAE691-0288-4C03-8F77-D135E8F96713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2263" yWindow="2263" windowWidth="16457" windowHeight="8426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="589">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -718,14 +718,6 @@
     <t>240. 搜索二维矩阵 II</t>
   </si>
   <si>
-    <t>注意纵横mn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索二叉树思想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>160. 相交链表</t>
   </si>
   <si>
@@ -1332,10 +1324,6 @@
   </si>
   <si>
     <t>2024.11.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.12.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2184,6 +2172,10 @@
   </si>
   <si>
     <t>root.left = deleteNode(root.left, key); // 注意不是直接return！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找，关键在于找到四个角中的一个角，横纵分别变大和变小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2662,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G232"/>
+  <dimension ref="A1:G233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2714,7 +2706,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F2" s="6">
         <v>5</v>
@@ -2725,16 +2717,16 @@
     </row>
     <row r="3" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>14</v>
@@ -2745,16 +2737,16 @@
     </row>
     <row r="4" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>14</v>
@@ -2765,16 +2757,16 @@
     </row>
     <row r="5" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>14</v>
@@ -2785,7 +2777,7 @@
     </row>
     <row r="6" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>58</v>
@@ -2794,7 +2786,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
@@ -2811,7 +2803,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>14</v>
@@ -2825,16 +2817,16 @@
     </row>
     <row r="8" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>14</v>
@@ -2845,64 +2837,64 @@
     </row>
     <row r="9" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F12" s="6">
         <v>3</v>
@@ -2919,7 +2911,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>92</v>
@@ -2928,21 +2920,21 @@
         <v>5</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>14</v>
@@ -2950,36 +2942,36 @@
     </row>
     <row r="15" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>14</v>
@@ -2987,16 +2979,16 @@
     </row>
     <row r="17" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>14</v>
@@ -3004,24 +2996,24 @@
     </row>
     <row r="18" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F18" s="6">
         <v>3</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>126</v>
@@ -3030,7 +3022,7 @@
         <v>94</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -3039,7 +3031,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3064,16 +3056,16 @@
     </row>
     <row r="21" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>14</v>
@@ -3081,16 +3073,16 @@
     </row>
     <row r="22" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>14</v>
@@ -3098,7 +3090,7 @@
     </row>
     <row r="23" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>183</v>
@@ -3107,7 +3099,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F23" s="6">
         <v>2</v>
@@ -3135,16 +3127,16 @@
     </row>
     <row r="25" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>14</v>
@@ -3155,16 +3147,16 @@
     </row>
     <row r="26" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>14</v>
@@ -3172,13 +3164,13 @@
     </row>
     <row r="27" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>14</v>
@@ -3186,27 +3178,27 @@
     </row>
     <row r="28" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F28" s="6">
         <v>3</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>78</v>
@@ -3215,10 +3207,10 @@
         <v>79</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F29" s="6">
         <v>3</v>
@@ -3226,16 +3218,16 @@
     </row>
     <row r="30" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>124</v>
@@ -3244,21 +3236,21 @@
         <v>4</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F31" s="6">
         <v>3</v>
@@ -3266,35 +3258,35 @@
     </row>
     <row r="32" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>48</v>
@@ -3303,7 +3295,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>86</v>
@@ -3314,7 +3306,7 @@
     </row>
     <row r="35" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>126</v>
@@ -3323,7 +3315,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>14</v>
@@ -3334,16 +3326,16 @@
     </row>
     <row r="36" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F36" s="6">
         <v>3</v>
@@ -3351,96 +3343,96 @@
     </row>
     <row r="37" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F37" s="6">
         <v>4</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="14" t="s">
         <v>531</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="14" t="s">
         <v>531</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F41" s="6">
         <v>2</v>
@@ -3448,7 +3440,7 @@
     </row>
     <row r="42" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>94</v>
@@ -3460,27 +3452,27 @@
         <v>4</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F43" s="6">
         <v>4</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3488,13 +3480,13 @@
         <v>93</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>14</v>
@@ -3503,12 +3495,12 @@
         <v>5</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>58</v>
@@ -3517,78 +3509,78 @@
         <v>41</v>
       </c>
       <c r="D45" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="14" t="s">
         <v>522</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F47" s="6">
         <v>3</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F48" s="6">
         <v>3</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>58</v>
@@ -3597,7 +3589,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>100</v>
@@ -3625,7 +3617,7 @@
     </row>
     <row r="51" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>144</v>
@@ -3634,7 +3626,7 @@
         <v>27</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E51" s="9"/>
     </row>
@@ -3657,47 +3649,47 @@
     </row>
     <row r="53" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F53" s="6">
         <v>3</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F55" s="6">
         <v>3</v>
@@ -3705,16 +3697,16 @@
     </row>
     <row r="56" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>21</v>
@@ -3725,16 +3717,16 @@
     </row>
     <row r="57" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F57" s="6">
         <v>1</v>
@@ -3742,7 +3734,7 @@
     </row>
     <row r="58" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>48</v>
@@ -3751,13 +3743,13 @@
         <v>13</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -3768,7 +3760,7 @@
         <v>27</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F59" s="6">
         <v>4</v>
@@ -3776,27 +3768,27 @@
     </row>
     <row r="60" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F60" s="6">
         <v>5</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>126</v>
@@ -3805,27 +3797,27 @@
         <v>79</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F61" s="6">
         <v>3</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>14</v>
@@ -3834,18 +3826,18 @@
         <v>4</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F63" s="6">
         <v>3</v>
@@ -3853,7 +3845,7 @@
     </row>
     <row r="64" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>58</v>
@@ -3862,7 +3854,7 @@
         <v>79</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>14</v>
@@ -3873,33 +3865,33 @@
     </row>
     <row r="65" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F65" s="6">
         <v>3</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>14</v>
@@ -3907,7 +3899,7 @@
     </row>
     <row r="67" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="10" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>44</v>
@@ -3916,7 +3908,7 @@
         <v>41</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>14</v>
@@ -3924,7 +3916,7 @@
     </row>
     <row r="68" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>44</v>
@@ -3933,7 +3925,7 @@
         <v>79</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>14</v>
@@ -3944,13 +3936,13 @@
     </row>
     <row r="69" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F69" s="6">
         <v>3</v>
@@ -3958,13 +3950,13 @@
     </row>
     <row r="70" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F70" s="6">
         <v>3</v>
@@ -3992,47 +3984,47 @@
     </row>
     <row r="72" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F73" s="6">
         <v>3</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>14</v>
@@ -4040,16 +4032,16 @@
     </row>
     <row r="75" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F75" s="6">
         <v>4</v>
@@ -4072,7 +4064,7 @@
         <v>130</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4097,19 +4089,19 @@
     </row>
     <row r="78" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F78" s="6">
         <v>3</v>
@@ -4117,38 +4109,38 @@
     </row>
     <row r="79" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>27</v>
@@ -4157,21 +4149,21 @@
         <v>43</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="10" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>14</v>
@@ -4179,16 +4171,16 @@
     </row>
     <row r="83" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>14</v>
@@ -4197,18 +4189,18 @@
         <v>3</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>46</v>
@@ -4216,38 +4208,38 @@
     </row>
     <row r="85" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>27</v>
@@ -4256,35 +4248,35 @@
         <v>43</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F89" s="6">
         <v>3</v>
@@ -4292,33 +4284,33 @@
     </row>
     <row r="90" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F90" s="6">
         <v>3</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>14</v>
@@ -4326,13 +4318,13 @@
     </row>
     <row r="92" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F92" s="6">
         <v>3</v>
@@ -4340,16 +4332,16 @@
     </row>
     <row r="93" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>14</v>
@@ -4358,7 +4350,7 @@
         <v>4</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4366,13 +4358,13 @@
         <v>174</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F94" s="6">
         <v>4</v>
@@ -4389,7 +4381,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E95" s="9" t="s">
         <v>14</v>
@@ -4398,7 +4390,7 @@
         <v>6</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4423,22 +4415,22 @@
     </row>
     <row r="97" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>14</v>
+        <v>333</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F97" s="6">
         <v>4</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4446,47 +4438,47 @@
         <v>184</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>365</v>
+        <v>584</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F98" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>185</v>
+        <v>588</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>48</v>
@@ -4495,7 +4487,7 @@
         <v>41</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>14</v>
@@ -4523,36 +4515,36 @@
     </row>
     <row r="102" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F102" s="6">
         <v>4</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>14</v>
@@ -4597,16 +4589,16 @@
     </row>
     <row r="106" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F106" s="6">
         <v>2</v>
@@ -4702,7 +4694,7 @@
     </row>
     <row r="112" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>126</v>
@@ -4711,10 +4703,10 @@
         <v>79</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F112" s="6">
         <v>3</v>
@@ -4722,16 +4714,16 @@
     </row>
     <row r="113" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>14</v>
@@ -4739,16 +4731,16 @@
     </row>
     <row r="114" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4801,10 +4793,10 @@
     </row>
     <row r="118" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>79</v>
@@ -4877,30 +4869,30 @@
     </row>
     <row r="123" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F123" s="6">
         <v>3</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>126</v>
@@ -4909,24 +4901,24 @@
         <v>13</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E125" s="9" t="s">
         <v>8</v>
@@ -4935,7 +4927,7 @@
         <v>3</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -4949,7 +4941,7 @@
         <v>79</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E126" s="9" t="s">
         <v>106</v>
@@ -4958,12 +4950,12 @@
         <v>4</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>126</v>
@@ -4972,21 +4964,21 @@
         <v>79</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F127" s="6">
         <v>3</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>27</v>
@@ -4997,7 +4989,7 @@
     </row>
     <row r="129" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>183</v>
@@ -5006,40 +4998,40 @@
         <v>27</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>104</v>
@@ -5048,7 +5040,7 @@
         <v>13</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E132" s="9" t="s">
         <v>46</v>
@@ -5056,7 +5048,7 @@
     </row>
     <row r="133" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>104</v>
@@ -5065,7 +5057,7 @@
         <v>13</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E133" s="9" t="s">
         <v>46</v>
@@ -5073,19 +5065,19 @@
     </row>
     <row r="134" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F134" s="6">
         <v>3</v>
@@ -5093,29 +5085,29 @@
     </row>
     <row r="135" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>126</v>
@@ -5124,7 +5116,7 @@
         <v>13</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F137" s="6">
         <v>3</v>
@@ -5132,7 +5124,7 @@
     </row>
     <row r="138" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>144</v>
@@ -5141,7 +5133,7 @@
         <v>41</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E138" s="9" t="s">
         <v>26</v>
@@ -5152,27 +5144,27 @@
     </row>
     <row r="139" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F139" s="6">
         <v>3</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>183</v>
@@ -5181,12 +5173,12 @@
         <v>27</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>159</v>
@@ -5195,15 +5187,15 @@
         <v>6</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>104</v>
@@ -5212,7 +5204,7 @@
         <v>13</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>46</v>
@@ -5220,7 +5212,7 @@
     </row>
     <row r="143" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>104</v>
@@ -5229,50 +5221,50 @@
         <v>13</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>46</v>
       </c>
       <c r="G143" s="16" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F144" s="6">
         <v>3</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>14</v>
@@ -5280,16 +5272,16 @@
     </row>
     <row r="146" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>21</v>
@@ -5300,16 +5292,16 @@
     </row>
     <row r="147" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>14</v>
@@ -5317,16 +5309,16 @@
     </row>
     <row r="148" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>14</v>
@@ -5335,12 +5327,12 @@
         <v>5</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>48</v>
@@ -5349,33 +5341,33 @@
         <v>13</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F150" s="6">
         <v>3</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5394,16 +5386,16 @@
     </row>
     <row r="152" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E152" s="9" t="s">
         <v>14</v>
@@ -5434,13 +5426,13 @@
         <v>47</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E154" s="9" t="s">
         <v>14</v>
@@ -5448,36 +5440,36 @@
     </row>
     <row r="155" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F155" s="6">
         <v>3</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>92</v>
@@ -5488,16 +5480,16 @@
     </row>
     <row r="157" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>96</v>
@@ -5506,21 +5498,21 @@
         <v>2</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E158" s="9" t="s">
         <v>14</v>
@@ -5537,18 +5529,18 @@
         <v>13</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F159" s="6">
         <v>4</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>12</v>
@@ -5557,16 +5549,16 @@
         <v>79</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F160" s="6">
         <v>4</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5583,7 +5575,7 @@
         <v>63</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F161" s="6">
         <v>4</v>
@@ -5591,16 +5583,16 @@
     </row>
     <row r="162" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E162" s="9" t="s">
         <v>14</v>
@@ -5608,22 +5600,22 @@
     </row>
     <row r="163" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F163" s="6">
         <v>3</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5637,7 +5629,7 @@
         <v>94</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>107</v>
@@ -5646,21 +5638,21 @@
         <v>5</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5685,7 +5677,7 @@
     </row>
     <row r="167" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>144</v>
@@ -5694,15 +5686,15 @@
         <v>13</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>396</v>
+        <v>584</v>
       </c>
       <c r="F167" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="10" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>48</v>
@@ -5711,7 +5703,7 @@
         <v>6</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E168" s="9" t="s">
         <v>14</v>
@@ -5719,36 +5711,36 @@
     </row>
     <row r="169" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E169" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G169" s="15" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E170" s="9" t="s">
         <v>124</v>
@@ -5757,7 +5749,7 @@
         <v>3</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5782,16 +5774,16 @@
     </row>
     <row r="172" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E172" s="9" t="s">
         <v>14</v>
@@ -5808,7 +5800,7 @@
         <v>6</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>92</v>
@@ -5834,21 +5826,21 @@
         <v>5</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>14</v>
@@ -5856,7 +5848,7 @@
     </row>
     <row r="176" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>126</v>
@@ -5865,7 +5857,7 @@
         <v>94</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>21</v>
@@ -5874,41 +5866,41 @@
         <v>3</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D177" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177" s="14" t="s">
         <v>574</v>
-      </c>
-      <c r="E177" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" s="14" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>14</v>
@@ -5917,21 +5909,21 @@
         <v>3</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E179" s="9" t="s">
         <v>14</v>
@@ -5956,16 +5948,16 @@
     </row>
     <row r="181" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="10" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>14</v>
@@ -5973,16 +5965,16 @@
     </row>
     <row r="182" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -5990,13 +5982,13 @@
         <v>123</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>124</v>
@@ -6007,22 +5999,22 @@
     </row>
     <row r="184" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="10" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G184" s="14" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -6030,13 +6022,13 @@
         <v>180</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E185" s="10" t="s">
         <v>181</v>
@@ -6045,12 +6037,12 @@
         <v>4</v>
       </c>
       <c r="G185" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>120</v>
@@ -6059,55 +6051,55 @@
         <v>6</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G186" s="15" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E187" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F188" s="6">
         <v>3</v>
       </c>
       <c r="G188" s="14" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>144</v>
@@ -6116,7 +6108,7 @@
         <v>41</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F189" s="6">
         <v>3</v>
@@ -6124,22 +6116,22 @@
     </row>
     <row r="190" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E190" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G190" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -6153,7 +6145,7 @@
         <v>79</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>127</v>
@@ -6162,7 +6154,7 @@
         <v>5</v>
       </c>
       <c r="G191" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -6170,13 +6162,13 @@
         <v>114</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>115</v>
@@ -6187,27 +6179,27 @@
     </row>
     <row r="193" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="10" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D193" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G193" s="15" t="s">
         <v>469</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" s="15" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>24</v>
@@ -6216,21 +6208,21 @@
         <v>41</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>14</v>
@@ -6238,7 +6230,7 @@
     </row>
     <row r="196" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>126</v>
@@ -6247,7 +6239,7 @@
         <v>13</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>14</v>
@@ -6258,27 +6250,27 @@
     </row>
     <row r="197" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>14</v>
@@ -6286,7 +6278,7 @@
     </row>
     <row r="199" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>126</v>
@@ -6295,27 +6287,27 @@
         <v>13</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F199" s="6">
         <v>3</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>568</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E200" s="9" t="s">
         <v>14</v>
@@ -6343,7 +6335,7 @@
     </row>
     <row r="202" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>126</v>
@@ -6352,7 +6344,7 @@
         <v>41</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F202" s="6">
         <v>3</v>
@@ -6360,16 +6352,16 @@
     </row>
     <row r="203" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E203" s="9" t="s">
         <v>14</v>
@@ -6377,16 +6369,16 @@
     </row>
     <row r="204" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F204" s="6">
         <v>2</v>
@@ -6394,16 +6386,16 @@
     </row>
     <row r="205" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="10" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>14</v>
@@ -6428,7 +6420,7 @@
     </row>
     <row r="207" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>126</v>
@@ -6437,7 +6429,7 @@
         <v>13</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>14</v>
@@ -6446,12 +6438,12 @@
         <v>1</v>
       </c>
       <c r="G207" s="15" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>126</v>
@@ -6460,7 +6452,7 @@
         <v>94</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E208" s="9" t="s">
         <v>14</v>
@@ -6469,27 +6461,27 @@
         <v>3</v>
       </c>
       <c r="G208" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E209" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G209" s="16" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -6497,13 +6489,13 @@
         <v>177</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E210" s="9" t="s">
         <v>179</v>
@@ -6517,10 +6509,10 @@
     </row>
     <row r="211" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>94</v>
@@ -6529,15 +6521,15 @@
         <v>34</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>94</v>
@@ -6546,7 +6538,7 @@
         <v>34</v>
       </c>
       <c r="G212" s="14" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -6568,65 +6560,65 @@
     </row>
     <row r="214" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E214" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F214" s="6">
         <v>2</v>
       </c>
       <c r="G214" s="14" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F215" s="6">
         <v>3</v>
       </c>
       <c r="G215" s="14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F216" s="6">
         <v>3</v>
       </c>
       <c r="G216" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -6640,7 +6632,7 @@
         <v>94</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E217" s="9" t="s">
         <v>118</v>
@@ -6649,12 +6641,12 @@
         <v>4</v>
       </c>
       <c r="G217" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>144</v>
@@ -6663,7 +6655,7 @@
         <v>13</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E218" s="9" t="s">
         <v>21</v>
@@ -6674,13 +6666,13 @@
     </row>
     <row r="219" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E219" s="9" t="s">
         <v>46</v>
@@ -6689,21 +6681,21 @@
         <v>4</v>
       </c>
       <c r="G219" s="14" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C220" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E220" s="9" t="s">
         <v>92</v>
@@ -6748,7 +6740,7 @@
     </row>
     <row r="223" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>35</v>
@@ -6757,7 +6749,7 @@
         <v>94</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E223" s="9" t="s">
         <v>124</v>
@@ -6766,21 +6758,21 @@
         <v>3</v>
       </c>
       <c r="G223" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E224" s="9" t="s">
         <v>14</v>
@@ -6791,16 +6783,16 @@
     </row>
     <row r="225" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E225" s="9" t="s">
         <v>14</v>
@@ -6811,16 +6803,16 @@
     </row>
     <row r="226" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E226" s="9" t="s">
         <v>14</v>
@@ -6829,78 +6821,78 @@
         <v>4</v>
       </c>
       <c r="G226" s="15" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F227" s="6">
         <v>3</v>
       </c>
       <c r="G227" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="10" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E228" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G228" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E230" s="9" t="s">
         <v>14</v>
@@ -6908,16 +6900,16 @@
     </row>
     <row r="231" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="10" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E231" s="9" t="s">
         <v>14</v>
@@ -6925,22 +6917,27 @@
     </row>
     <row r="232" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="10" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D232" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E232" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G232" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="E232" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G232" s="14" t="s">
-        <v>590</v>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" s="10" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -7332,10 +7329,11 @@
     <hyperlink ref="E231" r:id="rId384" location="%E6%80%9D%E8%B7%AF" xr:uid="{793C88C0-56FA-4E22-A285-954FA597452D}"/>
     <hyperlink ref="A231" r:id="rId385" display="https://leetcode.cn/problems/insert-into-a-binary-search-tree/" xr:uid="{B777DDFF-8FD6-4FA5-B66A-CC8DE3A98CF8}"/>
     <hyperlink ref="A232" r:id="rId386" display="https://leetcode.cn/problems/delete-node-in-a-bst/" xr:uid="{C2CBFB69-7B0B-45C0-A9AB-8BB9AFE89B7B}"/>
+    <hyperlink ref="A233" r:id="rId387" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{8E860F5D-477D-41C1-8173-FC0916684DD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId387"/>
+    <tablePart r:id="rId388"/>
   </tableParts>
 </worksheet>
 </file>
--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CAE691-0288-4C03-8F77-D135E8F96713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AA210F-3765-4990-B62B-023045C73DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="591">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2176,6 +2176,13 @@
   </si>
   <si>
     <t>二分查找，关键在于找到四个角中的一个角，横纵分别变大和变小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>219. 存在重复元素 II</t>
+  </si>
+  <si>
+    <t>2025.01.29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2373,10 +2380,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048563" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G1048563" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}" name="表1" displayName="表1" ref="A1:G1048562" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G1048562" xr:uid="{E5AA65A4-B8FD-4A83-87AF-D7798D621280}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G228">
-    <sortCondition ref="A1:A1048563"/>
+    <sortCondition ref="A1:A1048562"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F13739C5-C0C0-4506-88D9-2DAD4F8FA2E4}" name="题目" dataDxfId="6"/>
@@ -2656,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4450,7 +4457,7 @@
         <v>92</v>
       </c>
       <c r="F98" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G98" s="14" t="s">
         <v>588</v>
@@ -6935,9 +6942,18 @@
         <v>587</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="10" t="s">
-        <v>184</v>
+        <v>589</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -7329,7 +7345,7 @@
     <hyperlink ref="E231" r:id="rId384" location="%E6%80%9D%E8%B7%AF" xr:uid="{793C88C0-56FA-4E22-A285-954FA597452D}"/>
     <hyperlink ref="A231" r:id="rId385" display="https://leetcode.cn/problems/insert-into-a-binary-search-tree/" xr:uid="{B777DDFF-8FD6-4FA5-B66A-CC8DE3A98CF8}"/>
     <hyperlink ref="A232" r:id="rId386" display="https://leetcode.cn/problems/delete-node-in-a-bst/" xr:uid="{C2CBFB69-7B0B-45C0-A9AB-8BB9AFE89B7B}"/>
-    <hyperlink ref="A233" r:id="rId387" display="https://leetcode.cn/problems/search-a-2d-matrix-ii/" xr:uid="{8E860F5D-477D-41C1-8173-FC0916684DD5}"/>
+    <hyperlink ref="A233" r:id="rId387" display="https://leetcode.cn/problems/contains-duplicate-ii/" xr:uid="{82304D18-534F-4B45-8873-2AE0CE4E2E67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AA210F-3765-4990-B62B-023045C73DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD0CEA4-7D96-4D2B-BBFF-E18B7C7A3100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="599">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,892 +351,880 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>王尼玛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>708. 循环有序列表的插入</t>
+  </si>
+  <si>
     <t>链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王尼玛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>708. 循环有序列表的插入</t>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 盛最多水的容器</t>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Krahets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 三数之和</t>
+  </si>
+  <si>
+    <t>⭐⭐⭐⭐⭐⭐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42. 接雨水</t>
+  </si>
+  <si>
+    <t>windliang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82. 删除排序链表中的重复元素 II</t>
+  </si>
+  <si>
+    <t>2024.01.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负雪明烛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>156. 上下翻转二叉树</t>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树，栈，模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 无重复字符的最长子串</t>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>labuladong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>734. 句子相似性</t>
+  </si>
+  <si>
+    <t>哈希表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2719. 统计整数数目</t>
+  </si>
+  <si>
+    <t>数学、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>560. 和为 K 的子数组</t>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76. 最小覆盖子串</t>
+  </si>
+  <si>
+    <t>单调队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mcdull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2744. 最大字符串配对数目</t>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵茶山艾府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53. 最大子数组和</t>
+  </si>
+  <si>
+    <t>liweiwei1419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56. 合并区间</t>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣官方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2171. 拿出最少数目的魔法豆</t>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2809. 使数组和小于等于 x 的最少时间</t>
+  </si>
+  <si>
+    <t>2024.01.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2788. 按分隔符拆分字符串</t>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (var s : w.split(Pattern.quote(String.valueOf(separator))))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵茶山艾府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>670. 最大交换</t>
+  </si>
+  <si>
+    <t>char[] s = Integer.toString(num).toCharArray();  return Integer.parseInt(new String(s));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>239. 滑动窗口最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2765. 最长交替子数组</t>
+  </si>
+  <si>
+    <t>数组、枚举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>438. 找到字符串中所有字母异位词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2865. 美丽塔 I</t>
+  </si>
+  <si>
+    <t>2024.01.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ylb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划、单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2859. 计算 K 置位下标对应元素的和</t>
+  </si>
+  <si>
+    <t>2024.01.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer.bitCount(i)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2846. 边权重均等查询</t>
+  </si>
+  <si>
+    <t>2024.01.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2861. 最大合金数</t>
+  </si>
+  <si>
+    <t>2024.01.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>365. 水壶问题</t>
+  </si>
+  <si>
+    <t>2024.01.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归、数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>514. 自由之路</t>
+  </si>
+  <si>
+    <t>2024.01.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ikaruga</t>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2808. 使循环数组所有元素相等的最少秒数</t>
+  </si>
+  <si>
+    <t>2024.01.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189.轮转数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238. 除自身以外数组的乘积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41. 缺失的第一个正数</t>
+  </si>
+  <si>
+    <t>原地哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73. 矩阵置零</t>
+  </si>
+  <si>
+    <t>用matrix第一行和第一列记录该行该列是否有0,作为标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>powcai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54. 螺旋矩阵</t>
+  </si>
+  <si>
+    <t>YouLookDeliciousC</t>
+  </si>
+  <si>
+    <t>48. 旋转图像</t>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240. 搜索二维矩阵 II</t>
+  </si>
+  <si>
+    <t>160. 相交链表</t>
+  </si>
+  <si>
+    <t>206. 反转链表</t>
+  </si>
+  <si>
+    <t>234. 回文链表</t>
+  </si>
+  <si>
+    <t>141. 环形链表</t>
+  </si>
+  <si>
+    <t>142. 环形链表 II</t>
+  </si>
+  <si>
+    <t>21. 合并两个有序链表</t>
+  </si>
+  <si>
+    <t>2. 两数相加</t>
+  </si>
+  <si>
+    <t>19. 删除链表的倒数第 N 个结点</t>
+  </si>
+  <si>
+    <t>25. K 个一组翻转链表</t>
+  </si>
+  <si>
+    <t>138. 随机链表的复制</t>
+  </si>
+  <si>
+    <t>148. 排序链表</t>
+  </si>
+  <si>
+    <t>归并排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23. 合并 K 个升序链表</t>
+  </si>
+  <si>
+    <t>146. LRU 缓存</t>
+  </si>
+  <si>
+    <t>class LRUCache extends LinkedHashMap&lt;Integer, Integer&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94. 二叉树的中序遍历</t>
+  </si>
+  <si>
+    <t>104. 二叉树的最大深度</t>
+  </si>
+  <si>
+    <t>226. 翻转二叉树</t>
+  </si>
+  <si>
+    <t>101. 对称二叉树</t>
+  </si>
+  <si>
+    <t>543. 二叉树的直径</t>
+  </si>
+  <si>
+    <t>102. 二叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>108. 将有序数组转换为二叉搜索树</t>
+  </si>
+  <si>
+    <t>98. 验证二叉搜索树</t>
+  </si>
+  <si>
+    <t>230. 二叉搜索树中第 K 小的元素</t>
+  </si>
+  <si>
+    <t>199. 二叉树的右视图</t>
+  </si>
+  <si>
+    <t>114. 二叉树展开为链表</t>
+  </si>
+  <si>
+    <t>105. 从前序与中序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>437. 路径总和 III</t>
+  </si>
+  <si>
+    <t>236. 二叉树的最近公共祖先</t>
+  </si>
+  <si>
+    <t>124. 二叉树中的最大路径和</t>
+  </si>
+  <si>
+    <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200. 岛屿数量</t>
+  </si>
+  <si>
+    <t>994. 腐烂的橘子</t>
+  </si>
+  <si>
+    <t>207. 课程表</t>
+  </si>
+  <si>
+    <t>208. 实现 Trie (前缀树)</t>
+  </si>
+  <si>
+    <t>46. 全排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java值传递，拷贝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78. 子集</t>
+  </si>
+  <si>
+    <t>17. 电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>回溯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯、DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39. 组合总和</t>
+  </si>
+  <si>
+    <t>79. 单词搜索</t>
+  </si>
+  <si>
+    <t>22. 括号生成</t>
+  </si>
+  <si>
+    <t>131. 分割回文串</t>
+  </si>
+  <si>
+    <t>51. N 皇后</t>
+  </si>
+  <si>
+    <t>34. 在排序数组中查找元素的第一个和最后一个位置</t>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35. 搜索插入位置</t>
+  </si>
+  <si>
+    <t>74. 搜索二维矩阵</t>
+  </si>
+  <si>
+    <t>Peaceful Ishi2akaG5W</t>
+  </si>
+  <si>
+    <t>33. 搜索旋转排序数组</t>
+  </si>
+  <si>
+    <t>153. 寻找旋转排序数组中的最小值</t>
+  </si>
+  <si>
+    <t>4. 寻找两个正序数组的中位数</t>
+  </si>
+  <si>
+    <t>20. 有效的括号</t>
+  </si>
+  <si>
+    <t>155. 最小栈</t>
+  </si>
+  <si>
+    <t>394. 字符串解码</t>
+  </si>
+  <si>
+    <t>辅助栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>739. 每日温度</t>
+  </si>
+  <si>
+    <t>程序员吴师兄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84. 柱状图中最大的矩形</t>
+  </si>
+  <si>
+    <t>入栈递减栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215. 数组中的第K个最大元素</t>
+  </si>
+  <si>
+    <t>快速排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>295. 数据流的中位数</t>
+  </si>
+  <si>
+    <t>347. 前 K 个高频元素</t>
+  </si>
+  <si>
+    <t>121. 买卖股票的最佳时机</t>
+  </si>
+  <si>
+    <t>评论区三叶姐的回应很有意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55. 跳跃游戏</t>
+  </si>
+  <si>
+    <t>45. 跳跃游戏 II</t>
+  </si>
+  <si>
+    <t>763. 划分字母区间</t>
+  </si>
+  <si>
+    <t>异或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136. 只出现一次的数字</t>
+  </si>
+  <si>
+    <t>169. 多数元素</t>
+  </si>
+  <si>
+    <t>摩尔投票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75. 颜色分类</t>
+  </si>
+  <si>
+    <t>三数排序，循环不变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31. 下一个排列</t>
+  </si>
+  <si>
+    <t>Imageslr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>287. 寻找重复数</t>
+  </si>
+  <si>
+    <t>环形链表的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kirsche</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70. 爬楼梯</t>
+  </si>
+  <si>
+    <t>118. 杨辉三角</t>
+  </si>
+  <si>
+    <t>198. 打家劫舍</t>
+  </si>
+  <si>
+    <t>279. 完全平方数</t>
+  </si>
+  <si>
+    <t>322. 零钱兑换</t>
+  </si>
+  <si>
+    <t>139. 单词拆分</t>
+  </si>
+  <si>
+    <t>300. 最长递增子序列</t>
+  </si>
+  <si>
+    <t>不一定是dp[n]，可能在中间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152. 乘积最大子数组</t>
+  </si>
+  <si>
+    <t>416. 分割等和子集</t>
+  </si>
+  <si>
+    <t>32. 最长有效括号</t>
+  </si>
+  <si>
+    <t>62. 不同路径</t>
+  </si>
+  <si>
+    <t>64. 最小路径和</t>
+  </si>
+  <si>
+    <t>5. 最长回文子串</t>
+  </si>
+  <si>
+    <t>1143. 最长公共子序列</t>
+  </si>
+  <si>
+    <t>72. 编辑距离</t>
+  </si>
+  <si>
+    <t>704. 二分查找</t>
+  </si>
+  <si>
+    <t>27. 移除元素</t>
+  </si>
+  <si>
+    <t>977. 有序数组的平方</t>
+  </si>
+  <si>
+    <t>2024.08.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3127. 构造相同颜色的正方形</t>
   </si>
   <si>
     <t>链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11. 盛最多水的容器</t>
-  </si>
-  <si>
-    <t>双指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Krahets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15. 三数之和</t>
-  </si>
-  <si>
-    <t>⭐⭐⭐⭐⭐⭐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42. 接雨水</t>
-  </si>
-  <si>
-    <t>windliang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82. 删除排序链表中的重复元素 II</t>
-  </si>
-  <si>
-    <t>2024.01.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链表，递归/迭代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负雪明烛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>156. 上下翻转二叉树</t>
-  </si>
-  <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树，栈，模拟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 无重复字符的最长子串</t>
-  </si>
-  <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>labuladong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>734. 句子相似性</t>
-  </si>
-  <si>
-    <t>哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2719. 统计整数数目</t>
-  </si>
-  <si>
-    <t>数学、动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>560. 和为 K 的子数组</t>
-  </si>
-  <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76. 最小覆盖子串</t>
-  </si>
-  <si>
-    <t>单调队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mcdull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2744. 最大字符串配对数目</t>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵茶山艾府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53. 最大子数组和</t>
-  </si>
-  <si>
-    <t>liweiwei1419</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56. 合并区间</t>
+    <t>1450. 在既定时间做作业的学生人数</t>
+  </si>
+  <si>
+    <t>差分数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128. 最长连续序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>283. 移动零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快慢指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两边往中心收拢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrays.toString(charArray) 和new String(charArray) 的区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不管移动不移动left，最后都要add right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码随想录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>494. 目标和</t>
+  </si>
+  <si>
+    <t>01背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>474. 一和零</t>
+  </si>
+  <si>
+    <t>二维重量的01背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.09.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>518. 零钱兑换 II</t>
+  </si>
+  <si>
+    <t>377. 组合总和 Ⅳ</t>
+  </si>
+  <si>
+    <t>2024.09.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全背包（排列）</t>
+  </si>
+  <si>
+    <t>贪心、动规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前缀和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次遍历交换，第二次遍历验证。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码随想录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(++u&gt;d)   break; 先处理，再比较</t>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双重交换 n-1-i</t>
+  </si>
+  <si>
+    <t>213. 打家劫舍 II</t>
+  </si>
+  <si>
+    <t>2024.09.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>力扣官方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2171. 拿出最少数目的魔法豆</t>
-  </si>
-  <si>
-    <t>ylb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2809. 使数组和小于等于 x 的最少时间</t>
-  </si>
-  <si>
-    <t>2024.01.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序、动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ylb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2788. 按分隔符拆分字符串</t>
-  </si>
-  <si>
-    <t>字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for (var s : w.split(Pattern.quote(String.valueOf(separator))))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ylb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵茶山艾府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>670. 最大交换</t>
-  </si>
-  <si>
-    <t>char[] s = Integer.toString(num).toCharArray();  return Integer.parseInt(new String(s));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>239. 滑动窗口最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2765. 最长交替子数组</t>
-  </si>
-  <si>
-    <t>数组、枚举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.01.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>438. 找到字符串中所有字母异位词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2865. 美丽塔 I</t>
-  </si>
-  <si>
-    <t>2024.01.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ylb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划、单调栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2859. 计算 K 置位下标对应元素的和</t>
-  </si>
-  <si>
-    <t>2024.01.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Integer.bitCount(i)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2846. 边权重均等查询</t>
-  </si>
-  <si>
-    <t>2024.01.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2861. 最大合金数</t>
-  </si>
-  <si>
-    <t>2024.01.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>365. 水壶问题</t>
-  </si>
-  <si>
-    <t>2024.01.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归、数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>514. 自由之路</t>
-  </si>
-  <si>
-    <t>2024.01.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ikaruga</t>
+    <t>2024.09.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+B=B+A 、A+B-C=B+A-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是猫</t>
+  </si>
+  <si>
+    <t>337. 打家劫舍 III</t>
+  </si>
+  <si>
+    <t>树形dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快慢指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allen_0x4bb</t>
+  </si>
+  <si>
+    <t>prev.next = list1 == null ? list2 : list1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListNode dummy = new ListNode(-1);应付空节点或单节点</t>
+  </si>
+  <si>
+    <t>24. 两两交换链表中的节点</t>
+  </si>
+  <si>
+    <t>122. 买卖股票的最佳时机 II</t>
+  </si>
+  <si>
+    <t>2024.09.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2808. 使循环数组所有元素相等的最少秒数</t>
-  </si>
-  <si>
-    <t>2024.01.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>189.轮转数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>238. 除自身以外数组的乘积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41. 缺失的第一个正数</t>
-  </si>
-  <si>
-    <t>原地哈希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>73. 矩阵置零</t>
-  </si>
-  <si>
-    <t>用matrix第一行和第一列记录该行该列是否有0,作为标志位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>powcai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54. 螺旋矩阵</t>
-  </si>
-  <si>
-    <t>YouLookDeliciousC</t>
-  </si>
-  <si>
-    <t>48. 旋转图像</t>
-  </si>
-  <si>
-    <t>模拟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240. 搜索二维矩阵 II</t>
-  </si>
-  <si>
-    <t>160. 相交链表</t>
-  </si>
-  <si>
-    <t>206. 反转链表</t>
-  </si>
-  <si>
-    <t>234. 回文链表</t>
-  </si>
-  <si>
-    <t>141. 环形链表</t>
-  </si>
-  <si>
-    <t>142. 环形链表 II</t>
-  </si>
-  <si>
-    <t>21. 合并两个有序链表</t>
-  </si>
-  <si>
-    <t>2. 两数相加</t>
-  </si>
-  <si>
-    <t>19. 删除链表的倒数第 N 个结点</t>
-  </si>
-  <si>
-    <t>25. K 个一组翻转链表</t>
-  </si>
-  <si>
-    <t>138. 随机链表的复制</t>
-  </si>
-  <si>
-    <t>148. 排序链表</t>
-  </si>
-  <si>
-    <t>归并排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23. 合并 K 个升序链表</t>
-  </si>
-  <si>
-    <t>146. LRU 缓存</t>
-  </si>
-  <si>
-    <t>class LRUCache extends LinkedHashMap&lt;Integer, Integer&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>94. 二叉树的中序遍历</t>
-  </si>
-  <si>
-    <t>104. 二叉树的最大深度</t>
-  </si>
-  <si>
-    <t>226. 翻转二叉树</t>
-  </si>
-  <si>
-    <t>101. 对称二叉树</t>
-  </si>
-  <si>
-    <t>543. 二叉树的直径</t>
-  </si>
-  <si>
-    <t>102. 二叉树的层序遍历</t>
-  </si>
-  <si>
-    <t>108. 将有序数组转换为二叉搜索树</t>
-  </si>
-  <si>
-    <t>98. 验证二叉搜索树</t>
-  </si>
-  <si>
-    <t>230. 二叉搜索树中第 K 小的元素</t>
-  </si>
-  <si>
-    <t>199. 二叉树的右视图</t>
-  </si>
-  <si>
-    <t>114. 二叉树展开为链表</t>
-  </si>
-  <si>
-    <t>105. 从前序与中序遍历序列构造二叉树</t>
-  </si>
-  <si>
-    <t>437. 路径总和 III</t>
-  </si>
-  <si>
-    <t>236. 二叉树的最近公共祖先</t>
-  </si>
-  <si>
-    <t>124. 二叉树中的最大路径和</t>
-  </si>
-  <si>
-    <t>dfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200. 岛屿数量</t>
-  </si>
-  <si>
-    <t>994. 腐烂的橘子</t>
-  </si>
-  <si>
-    <t>207. 课程表</t>
-  </si>
-  <si>
-    <t>208. 实现 Trie (前缀树)</t>
-  </si>
-  <si>
-    <t>46. 全排列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java值传递，拷贝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78. 子集</t>
-  </si>
-  <si>
-    <t>17. 电话号码的字母组合</t>
-  </si>
-  <si>
-    <t>回溯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回溯、DFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39. 组合总和</t>
-  </si>
-  <si>
-    <t>79. 单词搜索</t>
-  </si>
-  <si>
-    <t>22. 括号生成</t>
-  </si>
-  <si>
-    <t>131. 分割回文串</t>
-  </si>
-  <si>
-    <t>51. N 皇后</t>
-  </si>
-  <si>
-    <t>34. 在排序数组中查找元素的第一个和最后一个位置</t>
-  </si>
-  <si>
-    <t>二分查找</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35. 搜索插入位置</t>
-  </si>
-  <si>
-    <t>74. 搜索二维矩阵</t>
-  </si>
-  <si>
-    <t>Peaceful Ishi2akaG5W</t>
-  </si>
-  <si>
-    <t>33. 搜索旋转排序数组</t>
-  </si>
-  <si>
-    <t>153. 寻找旋转排序数组中的最小值</t>
-  </si>
-  <si>
-    <t>4. 寻找两个正序数组的中位数</t>
-  </si>
-  <si>
-    <t>20. 有效的括号</t>
-  </si>
-  <si>
-    <t>155. 最小栈</t>
-  </si>
-  <si>
-    <t>394. 字符串解码</t>
-  </si>
-  <si>
-    <t>辅助栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>739. 每日温度</t>
-  </si>
-  <si>
-    <t>程序员吴师兄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84. 柱状图中最大的矩形</t>
-  </si>
-  <si>
-    <t>入栈递减栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>215. 数组中的第K个最大元素</t>
-  </si>
-  <si>
-    <t>快速排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>295. 数据流的中位数</t>
-  </si>
-  <si>
-    <t>347. 前 K 个高频元素</t>
-  </si>
-  <si>
-    <t>121. 买卖股票的最佳时机</t>
-  </si>
-  <si>
-    <t>评论区三叶姐的回应很有意思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55. 跳跃游戏</t>
-  </si>
-  <si>
-    <t>45. 跳跃游戏 II</t>
-  </si>
-  <si>
-    <t>763. 划分字母区间</t>
-  </si>
-  <si>
-    <t>异或</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>136. 只出现一次的数字</t>
-  </si>
-  <si>
-    <t>169. 多数元素</t>
-  </si>
-  <si>
-    <t>摩尔投票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75. 颜色分类</t>
-  </si>
-  <si>
-    <t>三数排序，循环不变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31. 下一个排列</t>
-  </si>
-  <si>
-    <t>Imageslr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找规律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>287. 寻找重复数</t>
-  </si>
-  <si>
-    <t>环形链表的应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kirsche</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70. 爬楼梯</t>
-  </si>
-  <si>
-    <t>118. 杨辉三角</t>
-  </si>
-  <si>
-    <t>198. 打家劫舍</t>
-  </si>
-  <si>
-    <t>279. 完全平方数</t>
-  </si>
-  <si>
-    <t>322. 零钱兑换</t>
-  </si>
-  <si>
-    <t>139. 单词拆分</t>
-  </si>
-  <si>
-    <t>300. 最长递增子序列</t>
-  </si>
-  <si>
-    <t>不一定是dp[n]，可能在中间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>152. 乘积最大子数组</t>
-  </si>
-  <si>
-    <t>416. 分割等和子集</t>
-  </si>
-  <si>
-    <t>32. 最长有效括号</t>
-  </si>
-  <si>
-    <t>62. 不同路径</t>
-  </si>
-  <si>
-    <t>64. 最小路径和</t>
-  </si>
-  <si>
-    <t>5. 最长回文子串</t>
-  </si>
-  <si>
-    <t>1143. 最长公共子序列</t>
-  </si>
-  <si>
-    <t>72. 编辑距离</t>
-  </si>
-  <si>
-    <t>704. 二分查找</t>
-  </si>
-  <si>
-    <t>27. 移除元素</t>
-  </si>
-  <si>
-    <t>977. 有序数组的平方</t>
-  </si>
-  <si>
-    <t>2024.08.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3127. 构造相同颜色的正方形</t>
-  </si>
-  <si>
-    <t>链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1450. 在既定时间做作业的学生人数</t>
-  </si>
-  <si>
-    <t>差分数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.09.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>128. 最长连续序列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>283. 移动零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快慢指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两边往中心收拢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arrays.toString(charArray) 和new String(charArray) 的区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不管移动不移动left，最后都要add right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码随想录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.09.09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.09.09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>494. 目标和</t>
-  </si>
-  <si>
-    <t>01背包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>474. 一和零</t>
-  </si>
-  <si>
-    <t>二维重量的01背包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全背包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.09.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>518. 零钱兑换 II</t>
-  </si>
-  <si>
-    <t>377. 组合总和 Ⅳ</t>
-  </si>
-  <si>
-    <t>2024.09.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全背包（排列）</t>
-  </si>
-  <si>
-    <t>贪心、动规</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前缀和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次遍历交换，第二次遍历验证。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码随想录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标志位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(++u&gt;d)   break; 先处理，再比较</t>
-  </si>
-  <si>
-    <t>模拟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双重交换 n-1-i</t>
-  </si>
-  <si>
-    <t>213. 打家劫舍 II</t>
-  </si>
-  <si>
-    <t>2024.09.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.09.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A+B=B+A 、A+B-C=B+A-C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是猫</t>
-  </si>
-  <si>
-    <t>337. 打家劫舍 III</t>
-  </si>
-  <si>
-    <t>树形dp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快慢指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Allen_0x4bb</t>
-  </si>
-  <si>
-    <t>prev.next = list1 == null ? list2 : list1;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListNode dummy = new ListNode(-1);应付空节点或单节点</t>
-  </si>
-  <si>
-    <t>24. 两两交换链表中的节点</t>
-  </si>
-  <si>
-    <t>122. 买卖股票的最佳时机 II</t>
-  </si>
-  <si>
-    <t>2024.09.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>123. 买卖股票的最佳时机 III</t>
   </si>
   <si>
     <t>2024.09.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1994,10 +1982,6 @@
   </si>
   <si>
     <t>111. 二叉树的最小深度</t>
-  </si>
-  <si>
-    <t>二叉树、深度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2092,10 +2076,6 @@
     <t>617. 合并二叉树</t>
   </si>
   <si>
-    <t>构造二叉树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>700. 二叉搜索树中的搜索</t>
   </si>
   <si>
@@ -2118,10 +2098,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二叉搜索树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>501. 二叉搜索树中的众数</t>
   </si>
   <si>
@@ -2183,6 +2159,57 @@
   </si>
   <si>
     <t>2025.01.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>680. 验证回文串 II</t>
+  </si>
+  <si>
+    <t>2025.02.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>669. 修剪二叉搜索树</t>
+  </si>
+  <si>
+    <t>538. 把二叉搜索树转换为累加树</t>
+  </si>
+  <si>
+    <t>单调栈</t>
+    <phonetic